--- a/Retail Wholesale - Restaurants/CMG.xlsx
+++ b/Retail Wholesale - Restaurants/CMG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Retail Wholesale - Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AD75B8-7E1B-451B-8FCE-751F18AD7339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B62A225-1CC0-4D01-85C6-8D48555BC9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$5:$X$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$6:$X$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$23</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$22:$X$22</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$23:$X$23</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$22:$X$22</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$23:$X$23</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$5:$X$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$6:$X$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="214">
   <si>
     <t>Price</t>
   </si>
@@ -951,6 +951,15 @@
   </si>
   <si>
     <t>Delivery Service y/y</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Income Tax payable</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1696,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1727,7 +1736,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1739,9 +1747,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1896,10 +1901,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2168,6 +2193,45 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1741.575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1892.538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1952.3150000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1960.6330000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020.539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2213.3389999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2220.1749999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2180.5990000000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2368.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2514.8009999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2471.9480000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2516.3199999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2701.848</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2280,31 +2344,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.1601791481848327</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.16950835333293179</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.13720122008999547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.11219131780399527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.17225156257810403</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.13620236213250658</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.11340232188904054</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.15395815553432701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.14070371277305393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3481,43 +3545,43 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>127.101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>187.97399999999988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>204.43400000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>453.0330000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>158.29400000000024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>259.94199999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>257.13799999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>788.58700000000067</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>291.64399999999955</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>341.87000000000035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>313.21700000000027</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1065.5439999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>359.28700000000038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3631,40 +3695,43 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.22322093507313789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.24458267152363655</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.23528631394011723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.20198476716448244</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.20734368403678427</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.25214619179438835</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.25337912551938468</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.23963232121082345</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.25630968766096129</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.27471557391618662</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.26288700247739849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.25366567050295652</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27457133043753756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4759,37 +4826,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.9059041384953283E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.716833162663049E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.4747159141839312E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.1492558780761087E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.2951821271452805E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.3623331084845108E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.3461664058013442E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.1943071605554269E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6.2628241393577588E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.2229973663920135E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.4524415562139656E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4904,40 +4971,40 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.6244204240414565E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.2803568541292169E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.2367215331542298E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.3796228054918998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.5468258717104698E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.1505792831554504E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.2166833695542019E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.3941132688770366E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.2333718937084664E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.1299096827144574E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.1774940249552172E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.3998855471482174E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5052,40 +5119,40 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.254525357793951E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.2541159015036952E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.3858854744239532E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.3966749514059988E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.1330941892237663E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.1149042238897881E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.8659902935579407E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.6529407745302996E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.529963100254161E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.4577674336856071E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.9292687386627868E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.5942646404272908E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12404,18 +12471,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -12459,7 +12526,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12479,7 +12546,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12510,18 +12577,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -12565,7 +12632,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12585,7 +12652,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -18902,7 +18969,7 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18929,7 +18996,7 @@
       <c r="E2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="57" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="25"/>
@@ -18957,7 +19024,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="20">
-        <v>45405</v>
+        <v>45419</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>155</v>
@@ -18969,19 +19036,19 @@
         <v>175</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38"/>
       <c r="L3" s="5" t="s">
         <v>135</v>
       </c>
       <c r="M3" t="s">
         <v>136</v>
       </c>
-      <c r="N3" s="38"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.75555555555555554</v>
+        <v>0.81041666666666667</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>157</v>
@@ -18995,7 +19062,7 @@
       <c r="I4" s="10">
         <v>3512</v>
       </c>
-      <c r="J4" s="39"/>
+      <c r="J4" s="38"/>
       <c r="L4" s="5" t="s">
         <v>137</v>
       </c>
@@ -19019,7 +19086,7 @@
       <c r="I5" s="10">
         <v>8563</v>
       </c>
-      <c r="J5" s="39"/>
+      <c r="J5" s="38"/>
       <c r="L5" s="5" t="s">
         <v>139</v>
       </c>
@@ -19045,7 +19112,7 @@
         <v>178</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="38"/>
       <c r="L6" s="5" t="s">
         <v>141</v>
       </c>
@@ -19073,7 +19140,7 @@
       <c r="I7" s="10">
         <v>7166</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="38"/>
       <c r="L7" s="5" t="s">
         <v>143</v>
       </c>
@@ -19102,7 +19169,7 @@
       <c r="I8" s="10">
         <v>67166</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="38"/>
       <c r="L8" s="5" t="s">
         <v>145</v>
       </c>
@@ -19131,7 +19198,7 @@
       <c r="I9" s="10">
         <v>799</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="38"/>
       <c r="L9" s="5" t="s">
         <v>147</v>
       </c>
@@ -19160,7 +19227,7 @@
       <c r="I10" s="10">
         <v>29075</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="38"/>
       <c r="L10" s="5" t="s">
         <v>149</v>
       </c>
@@ -19189,7 +19256,7 @@
       <c r="I11" s="10">
         <v>2069</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="38"/>
       <c r="L11" s="5" t="s">
         <v>151</v>
       </c>
@@ -19287,33 +19354,33 @@
       <c r="E17" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="127"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="123"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="49">
         <f>C14/(C16*100)</f>
         <v>4.0235581200155703</v>
       </c>
-      <c r="L18" s="128"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="130"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="126"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="49">
         <f>C15/(C17*100)</f>
         <v>3.1777410385576044</v>
       </c>
-      <c r="L19" s="128"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="130"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="126"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -19323,9 +19390,9 @@
         <f>Model!H6/Model!G5-1</f>
         <v>0.14064023143448479</v>
       </c>
-      <c r="L20" s="128"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="130"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="126"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -19335,9 +19402,9 @@
         <f>Model!I6/Model!H6-1</f>
         <v>0.13499111900532856</v>
       </c>
-      <c r="L21" s="128"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="130"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="126"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -19347,9 +19414,9 @@
         <f>Model!G16+Model!G13</f>
         <v>1877.2069999999983</v>
       </c>
-      <c r="L22" s="128"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="130"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="126"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -19359,9 +19426,9 @@
         <f>Model!G18</f>
         <v>1620.5059999999983</v>
       </c>
-      <c r="L23" s="128"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="130"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="126"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -19371,9 +19438,9 @@
         <f>Model!G24</f>
         <v>0.26197163209510377</v>
       </c>
-      <c r="L24" s="128"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="130"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="126"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -19383,9 +19450,9 @@
         <f>Model!G25</f>
         <v>0.12447130160320716</v>
       </c>
-      <c r="L25" s="128"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="130"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="126"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -19395,23 +19462,23 @@
         <f>C12/C23</f>
         <v>49.033092441496727</v>
       </c>
-      <c r="L26" s="128"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="130"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="126"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="121">
+      <c r="C27" s="117">
         <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="128"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="130"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="126"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -19420,16 +19487,16 @@
       <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="L28" s="131"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="133"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="129"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!G43/Model!G56</f>
+        <f>Model!G43/Model!G57</f>
         <v>1.5725535476046089</v>
       </c>
     </row>
@@ -19438,7 +19505,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="36">
-        <f>(Model!G37+Model!G42)/Model!G56</f>
+        <f>(Model!G37+Model!G42)/Model!G57</f>
         <v>1.2569528198908431</v>
       </c>
     </row>
@@ -19447,7 +19514,7 @@
         <v>86</v>
       </c>
       <c r="C31" s="6">
-        <f>(Model!G43-Model!G56)/Model!G50</f>
+        <f>(Model!G43-Model!G57)/Model!G50</f>
         <v>7.3354232442547948E-2</v>
       </c>
     </row>
@@ -19456,7 +19523,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="36">
-        <f>(Model!G50-Model!G60)/C7</f>
+        <f>(Model!G50-Model!G61)/C7</f>
         <v>110.50909418982322</v>
       </c>
     </row>
@@ -19473,7 +19540,7 @@
       <c r="B34" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="38">
         <f>Model!G20/Model!G50</f>
         <v>0.15274511515021305</v>
       </c>
@@ -19482,8 +19549,8 @@
       <c r="B35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="39">
-        <f>Model!G20/Model!G61</f>
+      <c r="C35" s="38">
+        <f>Model!G20/Model!G62</f>
         <v>0.40125863470366235</v>
       </c>
     </row>
@@ -19504,13 +19571,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:AA83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19518,15 +19585,16 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="23" max="23" width="11.42578125" style="13"/>
+    <col min="23" max="23" width="11.42578125" style="140"/>
+    <col min="24" max="24" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -19581,57 +19649,147 @@
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="13" t="s">
         <v>67</v>
       </c>
       <c r="Y2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="144">
+      <c r="C3" s="10">
         <v>5561.0360000000001</v>
       </c>
-      <c r="D3" s="144">
+      <c r="D3" s="10">
         <v>5920.5450000000001</v>
       </c>
-      <c r="E3" s="144">
+      <c r="E3" s="10">
         <v>7457.1689999999999</v>
       </c>
-      <c r="F3" s="144">
+      <c r="F3" s="10">
         <v>8558.0010000000002</v>
       </c>
       <c r="G3" s="15">
         <v>9804.1239999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L3" s="147">
+        <v>1715.99</v>
+      </c>
+      <c r="M3" s="147">
+        <v>1869.365</v>
+      </c>
+      <c r="N3" s="147">
+        <v>1932.4090000000001</v>
+      </c>
+      <c r="O3" s="147">
+        <f>E3-N3-M3-L3</f>
+        <v>1939.4050000000004</v>
+      </c>
+      <c r="P3" s="147">
+        <v>1998.9559999999999</v>
+      </c>
+      <c r="Q3" s="147">
+        <v>2192.8020000000001</v>
+      </c>
+      <c r="R3" s="147">
+        <v>2202.3359999999998</v>
+      </c>
+      <c r="S3" s="147">
+        <f>F3-R3-Q3-P3</f>
+        <v>2163.9070000000011</v>
+      </c>
+      <c r="T3" s="147">
+        <v>2351.009</v>
+      </c>
+      <c r="U3" s="147">
+        <v>2497.509</v>
+      </c>
+      <c r="V3" s="147">
+        <v>2456.0390000000002</v>
+      </c>
+      <c r="W3" s="148">
+        <f>G3-V3-U3-T3</f>
+        <v>2499.5669999999991</v>
+      </c>
+      <c r="X3" s="15">
+        <v>2684.4470000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="144">
+      <c r="C4" s="10">
         <v>25.332999999999998</v>
       </c>
-      <c r="D4" s="144">
+      <c r="D4" s="10">
         <v>64.088999999999999</v>
       </c>
-      <c r="E4" s="144">
+      <c r="E4" s="10">
         <v>89.891999999999996</v>
       </c>
-      <c r="F4" s="144">
+      <c r="F4" s="10">
         <v>76.650999999999996</v>
       </c>
       <c r="G4" s="15">
         <v>67.525000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="147">
+        <v>25.585000000000001</v>
+      </c>
+      <c r="M4" s="147">
+        <v>23.172999999999998</v>
+      </c>
+      <c r="N4" s="147">
+        <v>19.905999999999999</v>
+      </c>
+      <c r="O4" s="147">
+        <f>E4-N4-M4-L4</f>
+        <v>21.227999999999987</v>
+      </c>
+      <c r="P4" s="147">
+        <v>21.582999999999998</v>
+      </c>
+      <c r="Q4" s="147">
+        <v>20.536999999999999</v>
+      </c>
+      <c r="R4" s="147">
+        <v>17.838999999999999</v>
+      </c>
+      <c r="S4" s="147">
+        <f>F4-R4-Q4-P4</f>
+        <v>16.692</v>
+      </c>
+      <c r="T4" s="147">
+        <v>17.571000000000002</v>
+      </c>
+      <c r="U4" s="147">
+        <v>17.292000000000002</v>
+      </c>
+      <c r="V4" s="147">
+        <v>15.909000000000001</v>
+      </c>
+      <c r="W4" s="148">
+        <f>G4-V4-U4-T4</f>
+        <v>16.753000000000004</v>
+      </c>
+      <c r="X4" s="15">
+        <v>17.401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -19655,27 +19813,78 @@
         <f>SUM(G3:G4)</f>
         <v>9871.6489999999994</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="43">
         <v>11260</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="43">
         <v>12780</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="11"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L5" s="11">
+        <f>SUM(L3:L4)</f>
+        <v>1741.575</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" ref="M5:AA5" si="0">SUM(M3:M4)</f>
+        <v>1892.538</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="0"/>
+        <v>1952.3150000000001</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="0"/>
+        <v>1960.6330000000005</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="0"/>
+        <v>2020.539</v>
+      </c>
+      <c r="Q5" s="11">
+        <f t="shared" si="0"/>
+        <v>2213.3389999999999</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" si="0"/>
+        <v>2220.1749999999997</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" si="0"/>
+        <v>2180.5990000000011</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="0"/>
+        <v>2368.58</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="0"/>
+        <v>2514.8009999999999</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="0"/>
+        <v>2471.9480000000003</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="0"/>
+        <v>2516.3199999999993</v>
+      </c>
+      <c r="X5" s="14">
+        <f t="shared" si="0"/>
+        <v>2701.848</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -19684,28 +19893,52 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="43">
+      <c r="H6" s="42">
         <v>11260</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="42">
         <v>12780</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="41"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147">
+        <v>2250</v>
+      </c>
+      <c r="R6" s="147">
+        <v>2230</v>
+      </c>
+      <c r="S6" s="147">
+        <v>2230</v>
+      </c>
+      <c r="T6" s="147">
+        <v>2430</v>
+      </c>
+      <c r="U6" s="147">
+        <v>2530</v>
+      </c>
+      <c r="V6" s="147">
+        <v>2470</v>
+      </c>
+      <c r="W6" s="148">
+        <v>2490</v>
+      </c>
+      <c r="X6" s="15">
+        <v>2680</v>
+      </c>
+      <c r="Y6" s="40">
+        <v>2920</v>
+      </c>
+      <c r="Z6" s="149">
+        <v>2850</v>
+      </c>
+      <c r="AA6" s="149">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>187</v>
       </c>
@@ -19724,24 +19957,53 @@
       <c r="G7" s="15">
         <v>2912.5639999999999</v>
       </c>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="41"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="L7" s="147">
+        <v>522.67100000000005</v>
+      </c>
+      <c r="M7" s="147">
+        <v>574.47799999999995</v>
+      </c>
+      <c r="N7" s="147">
+        <v>591.33199999999999</v>
+      </c>
+      <c r="O7" s="147">
+        <f t="shared" ref="O7:O10" si="1">E7-N7-M7-L7</f>
+        <v>620.14999999999986</v>
+      </c>
+      <c r="P7" s="147">
+        <v>626.92600000000004</v>
+      </c>
+      <c r="Q7" s="147">
+        <v>673.928</v>
+      </c>
+      <c r="R7" s="147">
+        <v>662.54</v>
+      </c>
+      <c r="S7" s="147">
+        <f t="shared" ref="S7:S10" si="2">F7-R7-Q7-P7</f>
+        <v>638.851</v>
+      </c>
+      <c r="T7" s="147">
+        <v>692.55899999999997</v>
+      </c>
+      <c r="U7" s="147">
+        <v>738.66399999999999</v>
+      </c>
+      <c r="V7" s="147">
+        <v>734.18600000000004</v>
+      </c>
+      <c r="W7" s="148">
+        <f t="shared" ref="W7:W10" si="3">G7-V7-U7-T7</f>
+        <v>747.15499999999975</v>
+      </c>
+      <c r="X7" s="15">
+        <v>779.07600000000002</v>
+      </c>
+      <c r="Y7" s="40"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>188</v>
       </c>
@@ -19760,24 +20022,53 @@
       <c r="G8" s="15">
         <v>2440.982</v>
       </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="41"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="L8" s="147">
+        <v>433.66899999999998</v>
+      </c>
+      <c r="M8" s="147">
+        <v>464.50599999999997</v>
+      </c>
+      <c r="N8" s="147">
+        <v>502.75700000000001</v>
+      </c>
+      <c r="O8" s="147">
+        <f t="shared" si="1"/>
+        <v>516.82899999999995</v>
+      </c>
+      <c r="P8" s="147">
+        <v>531.94000000000005</v>
+      </c>
+      <c r="Q8" s="147">
+        <v>549.92600000000004</v>
+      </c>
+      <c r="R8" s="147">
+        <v>557.178</v>
+      </c>
+      <c r="S8" s="147">
+        <f t="shared" si="2"/>
+        <v>558.91400000000021</v>
+      </c>
+      <c r="T8" s="147">
+        <v>583.79399999999998</v>
+      </c>
+      <c r="U8" s="147">
+        <v>611.678</v>
+      </c>
+      <c r="V8" s="147">
+        <v>616.28200000000004</v>
+      </c>
+      <c r="W8" s="148">
+        <f t="shared" si="3"/>
+        <v>629.22799999999995</v>
+      </c>
+      <c r="X8" s="15">
+        <v>659.45</v>
+      </c>
+      <c r="Y8" s="40"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>189</v>
       </c>
@@ -19796,24 +20087,53 @@
       <c r="G9" s="15">
         <v>503.26400000000001</v>
       </c>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="41"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="L9" s="147">
+        <v>101.76900000000001</v>
+      </c>
+      <c r="M9" s="147">
+        <v>103.43</v>
+      </c>
+      <c r="N9" s="147">
+        <v>104.223</v>
+      </c>
+      <c r="O9" s="147">
+        <f t="shared" si="1"/>
+        <v>107.18399999999997</v>
+      </c>
+      <c r="P9" s="147">
+        <v>112.032</v>
+      </c>
+      <c r="Q9" s="147">
+        <v>113.919</v>
+      </c>
+      <c r="R9" s="147">
+        <v>115.82599999999999</v>
+      </c>
+      <c r="S9" s="147">
+        <f t="shared" si="2"/>
+        <v>118.64800000000007</v>
+      </c>
+      <c r="T9" s="147">
+        <v>121.931</v>
+      </c>
+      <c r="U9" s="147">
+        <v>123.89700000000001</v>
+      </c>
+      <c r="V9" s="147">
+        <v>126.26900000000001</v>
+      </c>
+      <c r="W9" s="148">
+        <f t="shared" si="3"/>
+        <v>131.16700000000003</v>
+      </c>
+      <c r="X9" s="15">
+        <v>135.69900000000001</v>
+      </c>
+      <c r="Y9" s="40"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>190</v>
       </c>
@@ -19832,24 +20152,53 @@
       <c r="G10" s="15">
         <v>1428.7470000000001</v>
       </c>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="41"/>
-    </row>
-    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="L10" s="147">
+        <v>294.70999999999998</v>
+      </c>
+      <c r="M10" s="147">
+        <v>287.24200000000002</v>
+      </c>
+      <c r="N10" s="147">
+        <v>294.64999999999998</v>
+      </c>
+      <c r="O10" s="147">
+        <f t="shared" si="1"/>
+        <v>320.45200000000006</v>
+      </c>
+      <c r="P10" s="147">
+        <v>330.69499999999999</v>
+      </c>
+      <c r="Q10" s="147">
+        <v>317.48099999999999</v>
+      </c>
+      <c r="R10" s="147">
+        <v>322.08499999999998</v>
+      </c>
+      <c r="S10" s="147">
+        <f t="shared" si="2"/>
+        <v>341.64399999999995</v>
+      </c>
+      <c r="T10" s="147">
+        <v>363.20600000000002</v>
+      </c>
+      <c r="U10" s="147">
+        <v>349.70699999999999</v>
+      </c>
+      <c r="V10" s="147">
+        <v>345.36799999999999</v>
+      </c>
+      <c r="W10" s="148">
+        <f t="shared" si="3"/>
+        <v>370.46600000000012</v>
+      </c>
+      <c r="X10" s="15">
+        <v>385.77300000000002</v>
+      </c>
+      <c r="Y10" s="40"/>
+    </row>
+    <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
@@ -19858,19 +20207,19 @@
         <v>4443.8789999999999</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" ref="D11:I11" si="0">SUM(D7:D10)</f>
+        <f t="shared" ref="D11:G11" si="4">SUM(D7:D10)</f>
         <v>4944.3060000000005</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5840.0519999999997</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6572.5329999999994</v>
       </c>
       <c r="G11" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7285.5570000000007</v>
       </c>
       <c r="H11" s="11">
@@ -19882,63 +20231,71 @@
         <v>9457.2000000000007</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" ref="L11" si="1">SUM(L7:L10)</f>
+        <f t="shared" ref="L11" si="5">SUM(L7:L10)</f>
+        <v>1352.819</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" ref="M11" si="6">SUM(M7:M10)</f>
+        <v>1429.6559999999999</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" ref="N11" si="7">SUM(N7:N10)</f>
+        <v>1492.962</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" ref="O11" si="8">SUM(O7:O10)</f>
+        <v>1564.6149999999998</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" ref="P11" si="9">SUM(P7:P10)</f>
+        <v>1601.5929999999998</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" ref="Q11" si="10">SUM(Q7:Q10)</f>
+        <v>1655.2540000000001</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" ref="R11" si="11">SUM(R7:R10)</f>
+        <v>1657.6289999999999</v>
+      </c>
+      <c r="S11" s="11">
+        <f t="shared" ref="S11" si="12">SUM(S7:S10)</f>
+        <v>1658.0570000000005</v>
+      </c>
+      <c r="T11" s="11">
+        <f t="shared" ref="T11" si="13">SUM(T7:T10)</f>
+        <v>1761.4900000000002</v>
+      </c>
+      <c r="U11" s="11">
+        <f t="shared" ref="U11" si="14">SUM(U7:U10)</f>
+        <v>1823.9459999999999</v>
+      </c>
+      <c r="V11" s="11">
+        <f t="shared" ref="V11" si="15">SUM(V7:V10)</f>
+        <v>1822.105</v>
+      </c>
+      <c r="W11" s="141">
+        <f t="shared" ref="W11" si="16">SUM(W7:W10)</f>
+        <v>1878.0159999999998</v>
+      </c>
+      <c r="X11" s="14">
+        <f t="shared" ref="X11" si="17">SUM(X7:X10)</f>
+        <v>1959.998</v>
+      </c>
+      <c r="Y11" s="11">
+        <f t="shared" ref="Y11:AA11" si="18">SUM(Y7:Y10)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="11">
-        <f t="shared" ref="M11" si="2">SUM(M7:M10)</f>
+      <c r="Z11" s="11">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N11" s="11">
-        <f t="shared" ref="N11" si="3">SUM(N7:N10)</f>
+      <c r="AA11" s="11">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O11" s="11">
-        <f t="shared" ref="O11" si="4">SUM(O7:O10)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
-        <f t="shared" ref="P11" si="5">SUM(P7:P10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <f t="shared" ref="Q11" si="6">SUM(Q7:Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
-        <f t="shared" ref="R11" si="7">SUM(R7:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="11">
-        <f t="shared" ref="S11" si="8">SUM(S7:S10)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="11">
-        <f t="shared" ref="T11" si="9">SUM(T7:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="11">
-        <f t="shared" ref="U11" si="10">SUM(U7:U10)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="11">
-        <f t="shared" ref="V11" si="11">SUM(V7:V10)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="14">
-        <f t="shared" ref="W11" si="12">SUM(W7:W10)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="11">
-        <f t="shared" ref="X11" si="13">SUM(X7:X10)</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="11">
-        <f t="shared" ref="Y11" si="14">SUM(Y7:Y10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>133</v>
       </c>
@@ -19957,28 +20314,58 @@
       <c r="G12" s="15">
         <v>633.58399999999995</v>
       </c>
-      <c r="H12" s="41">
-        <f>H5*H28</f>
+      <c r="H12" s="40">
+        <f t="shared" ref="H12:I14" si="19">H5*H28</f>
         <v>675.6</v>
       </c>
-      <c r="I12" s="41">
-        <f>I5*I28</f>
+      <c r="I12" s="40">
+        <f t="shared" si="19"/>
         <v>766.8</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="15"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L12" s="10">
+        <v>155.10300000000001</v>
+      </c>
+      <c r="M12" s="10">
+        <v>146.04400000000001</v>
+      </c>
+      <c r="N12" s="10">
+        <v>145.93</v>
+      </c>
+      <c r="O12" s="147">
+        <f t="shared" ref="O12:O15" si="20">E12-N12-M12-L12</f>
+        <v>159.77699999999999</v>
+      </c>
+      <c r="P12" s="10">
+        <v>147.40199999999999</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>140.82</v>
+      </c>
+      <c r="R12" s="10">
+        <v>140.89599999999999</v>
+      </c>
+      <c r="S12" s="147">
+        <f t="shared" ref="S12:S15" si="21">F12-R12-Q12-P12</f>
+        <v>135.07300000000009</v>
+      </c>
+      <c r="T12" s="10">
+        <v>148.34</v>
+      </c>
+      <c r="U12" s="10">
+        <v>156.49600000000001</v>
+      </c>
+      <c r="V12" s="10">
+        <v>159.501</v>
+      </c>
+      <c r="W12" s="148">
+        <f t="shared" ref="W12:W15" si="22">G12-V12-U12-T12</f>
+        <v>169.24699999999999</v>
+      </c>
+      <c r="X12" s="15">
+        <v>204.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -19997,28 +20384,58 @@
       <c r="G13" s="15">
         <v>319.39400000000001</v>
       </c>
-      <c r="H13" s="41">
-        <f>H6*H29</f>
+      <c r="H13" s="40">
+        <f t="shared" si="19"/>
         <v>337.8</v>
       </c>
-      <c r="I13" s="41">
-        <f>I6*I29</f>
+      <c r="I13" s="40">
+        <f t="shared" si="19"/>
         <v>383.4</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="15"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L13" s="10">
+        <v>63.122</v>
+      </c>
+      <c r="M13" s="10">
+        <v>62.082000000000001</v>
+      </c>
+      <c r="N13" s="10">
+        <v>63.191000000000003</v>
+      </c>
+      <c r="O13" s="147">
+        <f t="shared" si="20"/>
+        <v>66.262000000000015</v>
+      </c>
+      <c r="P13" s="10">
+        <v>71.665000000000006</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>69.733000000000004</v>
+      </c>
+      <c r="R13" s="10">
+        <v>71.415999999999997</v>
+      </c>
+      <c r="S13" s="147">
+        <f t="shared" si="21"/>
+        <v>74.012000000000015</v>
+      </c>
+      <c r="T13" s="10">
+        <v>76.584999999999994</v>
+      </c>
+      <c r="U13" s="10">
+        <v>78.710999999999999</v>
+      </c>
+      <c r="V13" s="10">
+        <v>78.546000000000006</v>
+      </c>
+      <c r="W13" s="148">
+        <f t="shared" si="22"/>
+        <v>85.552000000000007</v>
+      </c>
+      <c r="X13" s="15">
+        <v>83.242999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>191</v>
       </c>
@@ -20037,28 +20454,58 @@
       <c r="G14" s="15">
         <v>36.930999999999997</v>
       </c>
-      <c r="H14" s="41">
-        <f>H7*H30</f>
+      <c r="H14" s="40">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I14" s="41">
-        <f>I7*I30</f>
+      <c r="I14" s="40">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="15"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L14" s="10">
+        <v>3.4209999999999998</v>
+      </c>
+      <c r="M14" s="10">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="N14" s="10">
+        <v>5.8940000000000001</v>
+      </c>
+      <c r="O14" s="147">
+        <f t="shared" si="20"/>
+        <v>6.984</v>
+      </c>
+      <c r="P14" s="10">
+        <v>5.3479999999999999</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>5.2530000000000001</v>
+      </c>
+      <c r="R14" s="10">
+        <v>7.6180000000000003</v>
+      </c>
+      <c r="S14" s="147">
+        <f t="shared" si="21"/>
+        <v>11.341000000000001</v>
+      </c>
+      <c r="T14" s="10">
+        <v>6.1980000000000004</v>
+      </c>
+      <c r="U14" s="10">
+        <v>7.5380000000000003</v>
+      </c>
+      <c r="V14" s="10">
+        <v>9.6050000000000004</v>
+      </c>
+      <c r="W14" s="148">
+        <f t="shared" si="22"/>
+        <v>13.589999999999996</v>
+      </c>
+      <c r="X14" s="15">
+        <v>7.2110000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>192</v>
       </c>
@@ -20077,26 +20524,56 @@
       <c r="G15" s="15">
         <v>38.369999999999997</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="40">
         <v>25</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="40">
         <v>25</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="15"/>
-    </row>
-    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="10">
+        <v>5.6680000000000001</v>
+      </c>
+      <c r="M15" s="10">
+        <v>4.266</v>
+      </c>
+      <c r="N15" s="10">
+        <v>4.6580000000000004</v>
+      </c>
+      <c r="O15" s="147">
+        <f t="shared" si="20"/>
+        <v>4.698999999999999</v>
+      </c>
+      <c r="P15" s="10">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>4.681</v>
+      </c>
+      <c r="R15" s="10">
+        <v>6.3630000000000004</v>
+      </c>
+      <c r="S15" s="147">
+        <f t="shared" si="21"/>
+        <v>5.7849999999999993</v>
+      </c>
+      <c r="T15" s="10">
+        <v>8.3610000000000007</v>
+      </c>
+      <c r="U15" s="10">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="V15" s="10">
+        <v>7.2409999999999997</v>
+      </c>
+      <c r="W15" s="148">
+        <f t="shared" si="22"/>
+        <v>6.5279999999999987</v>
+      </c>
+      <c r="X15" s="15">
+        <v>5.4790000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -20105,19 +20582,19 @@
         <v>443.95799999999963</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ref="D16:I16" si="15">D5-SUM(D11:D15)</f>
+        <f t="shared" ref="D16:I16" si="23">D5-SUM(D11:D15)</f>
         <v>289.41099999999915</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>804.9429999999993</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1160.4030000000002</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1557.8129999999983</v>
       </c>
       <c r="H16" s="11">
@@ -20125,69 +20602,77 @@
         <v>1889.2000000000007</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>2147.6000000000004</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11">
-        <f t="shared" ref="L16" si="16">L5-SUM(L11:L15)</f>
+        <f t="shared" ref="L16" si="24">L5-SUM(L11:L15)</f>
+        <v>161.44200000000001</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" ref="M16" si="25">M5-SUM(M11:M15)</f>
+        <v>245.52499999999986</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" ref="N16" si="26">N5-SUM(N11:N15)</f>
+        <v>239.68000000000006</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" ref="O16" si="27">O5-SUM(O11:O15)</f>
+        <v>158.29600000000073</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" ref="P16" si="28">P5-SUM(P11:P15)</f>
+        <v>190.22100000000023</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" ref="Q16" si="29">Q5-SUM(Q11:Q15)</f>
+        <v>337.59799999999996</v>
+      </c>
+      <c r="R16" s="11">
+        <f t="shared" ref="R16" si="30">R5-SUM(R11:R15)</f>
+        <v>336.25299999999993</v>
+      </c>
+      <c r="S16" s="11">
+        <f t="shared" ref="S16" si="31">S5-SUM(S11:S15)</f>
+        <v>296.33100000000059</v>
+      </c>
+      <c r="T16" s="11">
+        <f t="shared" ref="T16" si="32">T5-SUM(T11:T15)</f>
+        <v>367.60599999999954</v>
+      </c>
+      <c r="U16" s="11">
+        <f t="shared" ref="U16" si="33">U5-SUM(U11:U15)</f>
+        <v>431.87000000000035</v>
+      </c>
+      <c r="V16" s="11">
+        <f t="shared" ref="V16" si="34">V5-SUM(V11:V15)</f>
+        <v>394.95000000000027</v>
+      </c>
+      <c r="W16" s="141">
+        <f t="shared" ref="W16" si="35">W5-SUM(W11:W15)</f>
+        <v>363.38699999999926</v>
+      </c>
+      <c r="X16" s="14">
+        <f t="shared" ref="X16" si="36">X5-SUM(X11:X15)</f>
+        <v>441.29200000000037</v>
+      </c>
+      <c r="Y16" s="11">
+        <f t="shared" ref="Y16:AA16" si="37">Y5-SUM(Y11:Y15)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="11">
-        <f t="shared" ref="M16" si="17">M5-SUM(M11:M15)</f>
+      <c r="Z16" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="N16" s="11">
-        <f t="shared" ref="N16" si="18">N5-SUM(N11:N15)</f>
+      <c r="AA16" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="O16" s="11">
-        <f t="shared" ref="O16" si="19">O5-SUM(O11:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="11">
-        <f t="shared" ref="P16" si="20">P5-SUM(P11:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="11">
-        <f t="shared" ref="Q16" si="21">Q5-SUM(Q11:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="11">
-        <f t="shared" ref="R16" si="22">R5-SUM(R11:R15)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="11">
-        <f t="shared" ref="S16" si="23">S5-SUM(S11:S15)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="11">
-        <f t="shared" ref="T16" si="24">T5-SUM(T11:T15)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="11">
-        <f t="shared" ref="U16" si="25">U5-SUM(U11:U15)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="11">
-        <f t="shared" ref="V16" si="26">V5-SUM(V11:V15)</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="14">
-        <f t="shared" ref="W16" si="27">W5-SUM(W11:W15)</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="11">
-        <f t="shared" ref="X16" si="28">X5-SUM(X11:X15)</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="11">
-        <f t="shared" ref="Y16" si="29">Y5-SUM(Y11:Y15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>193</v>
       </c>
@@ -20206,115 +20691,153 @@
       <c r="G17" s="15">
         <v>62.692999999999998</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="40">
         <v>70</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="40">
         <v>80</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="15"/>
-    </row>
-    <row r="18" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="10">
+        <v>-2.1680000000000001</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="N17" s="10">
+        <v>-0.126</v>
+      </c>
+      <c r="O17" s="147">
+        <f>E17-N17-M17-L17</f>
+        <v>9.2630000000000017</v>
+      </c>
+      <c r="P17" s="10">
+        <v>-0.21299999999999999</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>10.571999999999999</v>
+      </c>
+      <c r="R17" s="10">
+        <v>3.7120000000000002</v>
+      </c>
+      <c r="S17" s="147">
+        <f>F17-R17-Q17-P17</f>
+        <v>7.0570000000000013</v>
+      </c>
+      <c r="T17" s="10">
+        <v>8.9489999999999998</v>
+      </c>
+      <c r="U17" s="10">
+        <v>16.446000000000002</v>
+      </c>
+      <c r="V17" s="10">
+        <v>18.391999999999999</v>
+      </c>
+      <c r="W17" s="148">
+        <f>G17-V17-U17-T17</f>
+        <v>18.905999999999999</v>
+      </c>
+      <c r="X17" s="15">
+        <v>19.364000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="11">
-        <f>C16+SUM(C17:C17)</f>
+        <f t="shared" ref="C18:I18" si="38">C16+SUM(C17:C17)</f>
         <v>458.28499999999963</v>
       </c>
       <c r="D18" s="11">
-        <f>D16+SUM(D17:D17)</f>
+        <f t="shared" si="38"/>
         <v>293.02799999999917</v>
       </c>
       <c r="E18" s="11">
-        <f>E16+SUM(E17:E17)</f>
+        <f t="shared" si="38"/>
         <v>812.76299999999935</v>
       </c>
       <c r="F18" s="11">
-        <f>F16+SUM(F17:F17)</f>
+        <f t="shared" si="38"/>
         <v>1181.5310000000002</v>
       </c>
       <c r="G18" s="14">
-        <f>G16+SUM(G17:G17)</f>
+        <f t="shared" si="38"/>
         <v>1620.5059999999983</v>
       </c>
       <c r="H18" s="11">
-        <f>H16+SUM(H17:H17)</f>
+        <f t="shared" si="38"/>
         <v>1959.2000000000007</v>
       </c>
       <c r="I18" s="11">
-        <f>I16+SUM(I17:I17)</f>
+        <f t="shared" si="38"/>
         <v>2227.6000000000004</v>
       </c>
       <c r="L18" s="11">
-        <f>L16+SUM(L17:L17)</f>
+        <f t="shared" ref="L18:AA18" si="39">L16+SUM(L17:L17)</f>
+        <v>159.274</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="39"/>
+        <v>246.37599999999986</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="39"/>
+        <v>239.55400000000006</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="39"/>
+        <v>167.55900000000074</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="39"/>
+        <v>190.00800000000024</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="39"/>
+        <v>348.16999999999996</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="39"/>
+        <v>339.96499999999992</v>
+      </c>
+      <c r="S18" s="11">
+        <f t="shared" si="39"/>
+        <v>303.3880000000006</v>
+      </c>
+      <c r="T18" s="11">
+        <f t="shared" si="39"/>
+        <v>376.55499999999955</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" si="39"/>
+        <v>448.31600000000037</v>
+      </c>
+      <c r="V18" s="11">
+        <f t="shared" si="39"/>
+        <v>413.34200000000027</v>
+      </c>
+      <c r="W18" s="141">
+        <f t="shared" si="39"/>
+        <v>382.29299999999927</v>
+      </c>
+      <c r="X18" s="14">
+        <f t="shared" si="39"/>
+        <v>460.65600000000035</v>
+      </c>
+      <c r="Y18" s="11">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="M18" s="11">
-        <f>M16+SUM(M17:M17)</f>
+      <c r="Z18" s="11">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="N18" s="11">
-        <f>N16+SUM(N17:N17)</f>
+      <c r="AA18" s="11">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="O18" s="11">
-        <f>O16+SUM(O17:O17)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="11">
-        <f>P16+SUM(P17:P17)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="11">
-        <f>Q16+SUM(Q17:Q17)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="11">
-        <f>R16+SUM(R17:R17)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="11">
-        <f>S16+SUM(S17:S17)</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="11">
-        <f>T16+SUM(T17:T17)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="11">
-        <f>U16+SUM(U17:U17)</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="11">
-        <f>V16+SUM(V17:V17)</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="14">
-        <f>W16+SUM(W17:W17)</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="11">
-        <f>X16+SUM(X17:X17)</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="11">
-        <f>Y16+SUM(Y17:Y17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -20333,44 +20856,74 @@
       <c r="G19" s="15">
         <v>-391.76900000000001</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="40">
         <f>H18*0.24</f>
         <v>470.20800000000014</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="40">
         <f>I18*0.24</f>
         <v>534.62400000000002</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="15"/>
-    </row>
-    <row r="20" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="10">
+        <v>32.173000000000002</v>
+      </c>
+      <c r="M19" s="10">
+        <v>58.402000000000001</v>
+      </c>
+      <c r="N19" s="10">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="O19" s="147">
+        <f>E19-N19-M19-L19</f>
+        <v>-285.47399999999999</v>
+      </c>
+      <c r="P19" s="10">
+        <v>31.713999999999999</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>88.227999999999994</v>
+      </c>
+      <c r="R19" s="10">
+        <v>82.826999999999998</v>
+      </c>
+      <c r="S19" s="147">
+        <f>F19-R19-Q19-P19</f>
+        <v>-485.19900000000001</v>
+      </c>
+      <c r="T19" s="10">
+        <v>84.911000000000001</v>
+      </c>
+      <c r="U19" s="10">
+        <v>106.446</v>
+      </c>
+      <c r="V19" s="10">
+        <v>100.125</v>
+      </c>
+      <c r="W19" s="148">
+        <f>G19-V19-U19-T19</f>
+        <v>-683.25099999999998</v>
+      </c>
+      <c r="X19" s="15">
+        <v>101.369</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="145">
+      <c r="C20" s="11">
         <f>C18+SUM(C19:C19)</f>
         <v>350.15799999999962</v>
       </c>
-      <c r="D20" s="145">
+      <c r="D20" s="11">
         <f>D18+SUM(D19:D19)</f>
         <v>355.01299999999918</v>
       </c>
-      <c r="E20" s="145">
+      <c r="E20" s="11">
         <f>E18+SUM(E19:E19)</f>
         <v>652.98399999999936</v>
       </c>
-      <c r="F20" s="145">
+      <c r="F20" s="11">
         <f>F18+SUM(F19:F19)</f>
         <v>899.10100000000011</v>
       </c>
@@ -20378,72 +20931,80 @@
         <f>G18+SUM(G19:G19)</f>
         <v>1228.7369999999983</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="56">
         <f>H18-H19</f>
         <v>1488.9920000000006</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="56">
         <f>I18-I19</f>
         <v>1692.9760000000003</v>
       </c>
       <c r="L20" s="11">
-        <f>L18-SUM(L19:L19)</f>
+        <f t="shared" ref="L20:AA20" si="40">L18-SUM(L19:L19)</f>
+        <v>127.101</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="40"/>
+        <v>187.97399999999988</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="40"/>
+        <v>204.43400000000005</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="40"/>
+        <v>453.0330000000007</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" si="40"/>
+        <v>158.29400000000024</v>
+      </c>
+      <c r="Q20" s="11">
+        <f t="shared" si="40"/>
+        <v>259.94199999999995</v>
+      </c>
+      <c r="R20" s="11">
+        <f t="shared" si="40"/>
+        <v>257.13799999999992</v>
+      </c>
+      <c r="S20" s="11">
+        <f t="shared" si="40"/>
+        <v>788.58700000000067</v>
+      </c>
+      <c r="T20" s="11">
+        <f t="shared" si="40"/>
+        <v>291.64399999999955</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" si="40"/>
+        <v>341.87000000000035</v>
+      </c>
+      <c r="V20" s="11">
+        <f t="shared" si="40"/>
+        <v>313.21700000000027</v>
+      </c>
+      <c r="W20" s="141">
+        <f t="shared" si="40"/>
+        <v>1065.5439999999992</v>
+      </c>
+      <c r="X20" s="14">
+        <f t="shared" si="40"/>
+        <v>359.28700000000038</v>
+      </c>
+      <c r="Y20" s="11">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="M20" s="11">
-        <f>M18-SUM(M19:M19)</f>
+      <c r="Z20" s="11">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="N20" s="11">
-        <f>N18-SUM(N19:N19)</f>
+      <c r="AA20" s="11">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="O20" s="11">
-        <f>O18-SUM(O19:O19)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="11">
-        <f>P18-SUM(P19:P19)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11">
-        <f>Q18-SUM(Q19:Q19)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="11">
-        <f>R18-SUM(R19:R19)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="11">
-        <f>S18-SUM(S19:S19)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="11">
-        <f>T18-SUM(T19:T19)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="11">
-        <f>U18-SUM(U19:U19)</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="11">
-        <f>V18-SUM(V19:V19)</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="14">
-        <f>W18-SUM(W19:W19)</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="11">
-        <f>X18-SUM(X19:X19)</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="11">
-        <f>Y18-SUM(Y19:Y19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -20462,28 +21023,54 @@
       <c r="G21" s="15">
         <v>27.71</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="40">
         <v>27.5</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="40">
         <v>27.2</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="10"/>
+      <c r="L21" s="10">
+        <v>28.582000000000001</v>
+      </c>
+      <c r="M21" s="10">
+        <v>28.501000000000001</v>
+      </c>
+      <c r="N21" s="10">
+        <v>28.475000000000001</v>
+      </c>
+      <c r="O21" s="10">
+        <v>28.475000000000001</v>
+      </c>
+      <c r="P21" s="10">
+        <v>28.300999999999998</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>28.091999999999999</v>
+      </c>
+      <c r="R21" s="10">
+        <v>27.956</v>
+      </c>
+      <c r="S21" s="10">
+        <v>27.956</v>
+      </c>
+      <c r="T21" s="10">
+        <v>27.788</v>
+      </c>
+      <c r="U21" s="10">
+        <v>27.747</v>
+      </c>
+      <c r="V21" s="10">
+        <v>27.681000000000001</v>
+      </c>
+      <c r="W21" s="10">
+        <v>27.681000000000001</v>
+      </c>
+      <c r="X21" s="15">
+        <v>27.623999999999999</v>
+      </c>
       <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
@@ -20503,28 +21090,67 @@
         <f>F20/F21</f>
         <v>32.039804718124159</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="52">
         <f>G20/G21</f>
         <v>44.342728256946884</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-    </row>
-    <row r="23" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="L22" s="143">
+        <f t="shared" ref="L22:W22" si="41">L20/L21</f>
+        <v>4.4468896508291929</v>
+      </c>
+      <c r="M22" s="143">
+        <f t="shared" si="41"/>
+        <v>6.595347531665551</v>
+      </c>
+      <c r="N22" s="143">
+        <f t="shared" si="41"/>
+        <v>7.1794205443371393</v>
+      </c>
+      <c r="O22" s="143">
+        <f t="shared" si="41"/>
+        <v>15.909850746268681</v>
+      </c>
+      <c r="P22" s="143">
+        <f t="shared" si="41"/>
+        <v>5.5932299212042063</v>
+      </c>
+      <c r="Q22" s="143">
+        <f t="shared" si="41"/>
+        <v>9.2532393564003979</v>
+      </c>
+      <c r="R22" s="143">
+        <f t="shared" si="41"/>
+        <v>9.197953927600512</v>
+      </c>
+      <c r="S22" s="143">
+        <f t="shared" si="41"/>
+        <v>28.208148519101471</v>
+      </c>
+      <c r="T22" s="143">
+        <f t="shared" si="41"/>
+        <v>10.495321721606432</v>
+      </c>
+      <c r="U22" s="143">
+        <f t="shared" si="41"/>
+        <v>12.320971636573336</v>
+      </c>
+      <c r="V22" s="143">
+        <f t="shared" si="41"/>
+        <v>11.315234276218353</v>
+      </c>
+      <c r="W22" s="143">
+        <f t="shared" si="41"/>
+        <v>38.493696036992851</v>
+      </c>
+      <c r="X22" s="46">
+        <f>X20/X21</f>
+        <v>13.006335070952808</v>
+      </c>
+      <c r="Y22" s="47"/>
+    </row>
+    <row r="23" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>68</v>
       </c>
@@ -20533,28 +21159,52 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="45">
+      <c r="H23" s="44">
         <v>50.68</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="45">
         <v>58.61</v>
       </c>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-    </row>
-    <row r="24" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="R23" s="48">
+        <v>9.19</v>
+      </c>
+      <c r="S23" s="48">
+        <v>8.91</v>
+      </c>
+      <c r="T23" s="48">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="U23" s="48">
+        <v>12.31</v>
+      </c>
+      <c r="V23" s="48">
+        <v>10.55</v>
+      </c>
+      <c r="W23" s="150">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="X23" s="151">
+        <v>11.69</v>
+      </c>
+      <c r="Y23" s="152">
+        <v>15.6</v>
+      </c>
+      <c r="Z23" s="153">
+        <v>13.85</v>
+      </c>
+      <c r="AA23" s="153">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -20578,62 +21228,70 @@
         <f>1-G11/G5</f>
         <v>0.26197163209510377</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="154">
         <v>0.26</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="154">
         <v>0.26</v>
       </c>
-      <c r="L24" s="3" t="e">
-        <f>1-L11/L5</f>
+      <c r="L24" s="3">
+        <f t="shared" ref="L24:W24" si="42">1-L11/L5</f>
+        <v>0.22322093507313789</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="42"/>
+        <v>0.24458267152363655</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="42"/>
+        <v>0.23528631394011723</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="42"/>
+        <v>0.20198476716448244</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="42"/>
+        <v>0.20734368403678427</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="42"/>
+        <v>0.25214619179438835</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" si="42"/>
+        <v>0.25337912551938468</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="42"/>
+        <v>0.23963232121082345</v>
+      </c>
+      <c r="T24" s="3">
+        <f t="shared" si="42"/>
+        <v>0.25630968766096129</v>
+      </c>
+      <c r="U24" s="3">
+        <f t="shared" si="42"/>
+        <v>0.27471557391618662</v>
+      </c>
+      <c r="V24" s="3">
+        <f t="shared" si="42"/>
+        <v>0.26288700247739849</v>
+      </c>
+      <c r="W24" s="39">
+        <f t="shared" si="42"/>
+        <v>0.25366567050295652</v>
+      </c>
+      <c r="X24" s="6">
+        <f t="shared" ref="X24:Y24" si="43">1-X11/X5</f>
+        <v>0.27457133043753756</v>
+      </c>
+      <c r="Y24" s="39" t="e">
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="3" t="e">
-        <f>1-M11/M5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="3" t="e">
-        <f>1-N11/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="3" t="e">
-        <f>1-O11/O5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="3" t="e">
-        <f>1-P11/P5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="3" t="e">
-        <f>1-Q11/Q5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="3" t="e">
-        <f>1-R11/R5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="3" t="e">
-        <f>1-S11/S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="3" t="e">
-        <f>1-T11/T5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="3" t="e">
-        <f>1-U11/U5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" s="3" t="e">
-        <f>1-V11/V5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" s="6" t="e">
-        <f>1-W11/W5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -20657,80 +21315,88 @@
         <f>G20/G5</f>
         <v>0.12447130160320716</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="155">
         <f>H20/H6</f>
         <v>0.13223730017761995</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="155">
         <f>I20/I6</f>
         <v>0.13247073552425667</v>
       </c>
-      <c r="L25" s="4" t="e">
-        <f>L20/L5</f>
+      <c r="L25" s="4">
+        <f t="shared" ref="L25:W25" si="44">L20/L5</f>
+        <v>7.2980491796218933E-2</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="44"/>
+        <v>9.9323765229548819E-2</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="44"/>
+        <v>0.10471363483864031</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="44"/>
+        <v>0.23106466125990974</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="44"/>
+        <v>7.8342462085611922E-2</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="44"/>
+        <v>0.11744337401545807</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="44"/>
+        <v>0.11581879806771987</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="44"/>
+        <v>0.36163778851590794</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="44"/>
+        <v>0.12313031436556905</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="44"/>
+        <v>0.13594316210308505</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="44"/>
+        <v>0.12670857153953086</v>
+      </c>
+      <c r="W25" s="144">
+        <f t="shared" si="44"/>
+        <v>0.42345329687798033</v>
+      </c>
+      <c r="X25" s="7">
+        <f t="shared" ref="X25:Y25" si="45">X20/X5</f>
+        <v>0.13297824303957897</v>
+      </c>
+      <c r="Y25" s="144" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="4" t="e">
-        <f>M20/M5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="4" t="e">
-        <f>N20/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="4" t="e">
-        <f>O20/O5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="4" t="e">
-        <f>P20/P5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="4" t="e">
-        <f>Q20/Q5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="4" t="e">
-        <f>R20/R5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="4" t="e">
-        <f>S20/S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="4" t="e">
-        <f>T20/T5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="4" t="e">
-        <f>U20/U5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="4" t="e">
-        <f>V20/V5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="7" t="e">
-        <f>W20/W5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="146">
+      <c r="C26" s="4">
         <f>-C19/C18</f>
         <v>0.23593833531536071</v>
       </c>
-      <c r="D26" s="146">
+      <c r="D26" s="4">
         <f>-D19/D18</f>
         <v>-0.21153268629619074</v>
       </c>
-      <c r="E26" s="146">
+      <c r="E26" s="4">
         <f>-E19/E18</f>
         <v>0.1965874430799632</v>
       </c>
-      <c r="F26" s="146">
+      <c r="F26" s="4">
         <f>-F19/F18</f>
         <v>0.23903731683722218</v>
       </c>
@@ -20738,22 +21404,66 @@
         <f>-G19/G18</f>
         <v>0.24175720423127123</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="7"/>
-    </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="L26" s="4">
+        <f>-L19/L18</f>
+        <v>-0.20199781508595252</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" ref="M26:Y26" si="46">-M19/M18</f>
+        <v>-0.23704419261616405</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="46"/>
+        <v>-0.14660577573323755</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="46"/>
+        <v>1.7037222709612658</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="46"/>
+        <v>-0.16690876173634772</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="46"/>
+        <v>-0.25340494585978113</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="46"/>
+        <v>-0.2436339034900652</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="46"/>
+        <v>1.599268922963331</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="46"/>
+        <v>-0.2254942837035761</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="46"/>
+        <v>-0.23743520195576315</v>
+      </c>
+      <c r="V26" s="4">
+        <f t="shared" si="46"/>
+        <v>-0.24223282415046121</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" si="46"/>
+        <v>1.7872443387663424</v>
+      </c>
+      <c r="X26" s="7">
+        <f t="shared" si="46"/>
+        <v>-0.22005357577020579</v>
+      </c>
+      <c r="Y26" s="4" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -20766,7 +21476,7 @@
         <f>E5/D5-1</f>
         <v>0.26107310823017738</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="39">
         <f>F5/E5-1</f>
         <v>0.14410788517543449</v>
       </c>
@@ -20774,11 +21484,11 @@
         <f>G5/F5-1</f>
         <v>0.14325962412845361</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="118">
         <f>H6/G5-1</f>
         <v>0.14064023143448479</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="118">
         <f>I6/H6-1</f>
         <v>0.13499111900532856</v>
       </c>
@@ -20786,48 +21496,48 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="4" t="e">
-        <f>P5/L5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="4" t="e">
-        <f>Q5/M5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="4" t="e">
-        <f>R5/N5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="4" t="e">
-        <f>S5/O5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="4" t="e">
+      <c r="P27" s="4">
+        <f t="shared" ref="P27:W27" si="47">P5/L5-1</f>
+        <v>0.1601791481848327</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="47"/>
+        <v>0.16950835333293179</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="47"/>
+        <v>0.13720122008999547</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="47"/>
+        <v>0.11219131780399527</v>
+      </c>
+      <c r="T27" s="4">
         <f>T5/P5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" s="4" t="e">
-        <f>U5/Q5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27" s="4" t="e">
-        <f>V5/R5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W27" s="7" t="e">
-        <f>W5/S5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X27" s="37" t="e">
-        <f>X6/T5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y27" s="37" t="e">
-        <f>Y6/U5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+        <v>0.17225156257810403</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="47"/>
+        <v>0.13620236213250658</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="47"/>
+        <v>0.11340232188904054</v>
+      </c>
+      <c r="W27" s="144">
+        <f t="shared" si="47"/>
+        <v>0.15395815553432701</v>
+      </c>
+      <c r="X27" s="7">
+        <f t="shared" ref="X27" si="48">X5/T5-1</f>
+        <v>0.14070371277305393</v>
+      </c>
+      <c r="Y27" s="144">
+        <f t="shared" ref="Y27" si="49">Y5/U5-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>132</v>
       </c>
@@ -20851,63 +21561,70 @@
         <f>G12/G5</f>
         <v>6.4182184759608046E-2</v>
       </c>
-      <c r="H28" s="122">
+      <c r="H28" s="118">
         <v>0.06</v>
       </c>
-      <c r="I28" s="122">
+      <c r="I28" s="118">
         <v>0.06</v>
       </c>
-      <c r="L28" s="4" t="e">
-        <f>L12/L5</f>
+      <c r="L28" s="4">
+        <f t="shared" ref="L28:W28" si="50">L12/L5</f>
+        <v>8.9059041384953283E-2</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="50"/>
+        <v>7.716833162663049E-2</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="50"/>
+        <v>7.4747159141839312E-2</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="50"/>
+        <v>8.1492558780761087E-2</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="50"/>
+        <v>7.2951821271452805E-2</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="50"/>
+        <v>6.3623331084845108E-2</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="50"/>
+        <v>6.3461664058013442E-2</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="50"/>
+        <v>6.1943071605554269E-2</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="50"/>
+        <v>6.2628241393577588E-2</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="50"/>
+        <v>6.2229973663920135E-2</v>
+      </c>
+      <c r="V28" s="4">
+        <f t="shared" si="50"/>
+        <v>6.4524415562139656E-2</v>
+      </c>
+      <c r="W28" s="144">
+        <f t="shared" si="50"/>
+        <v>6.725972849240161E-2</v>
+      </c>
+      <c r="X28" s="7">
+        <f t="shared" ref="X28:Y28" si="51">X12/X5</f>
+        <v>7.573520049980606E-2</v>
+      </c>
+      <c r="Y28" s="144" t="e">
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="4" t="e">
-        <f>M12/M5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4" t="e">
-        <f>N12/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="4" t="e">
-        <f>O12/O5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="4" t="e">
-        <f>P12/P5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="4" t="e">
-        <f>Q12/Q5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="4" t="e">
-        <f>R12/R5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="4" t="e">
-        <f>S12/S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="4" t="e">
-        <f>T12/T5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="4" t="e">
-        <f>U12/U5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="4" t="e">
-        <f>V12/V5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="7" t="e">
-        <f>W12/W5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X28" s="4"/>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>207</v>
       </c>
@@ -20931,63 +21648,70 @@
         <f>G13/G5</f>
         <v>3.2354675495451672E-2</v>
       </c>
-      <c r="H29" s="122">
+      <c r="H29" s="118">
         <v>0.03</v>
       </c>
-      <c r="I29" s="122">
+      <c r="I29" s="118">
         <v>0.03</v>
       </c>
-      <c r="L29" s="4" t="e">
-        <f>L13/L5</f>
+      <c r="L29" s="4">
+        <f t="shared" ref="L29:W29" si="52">L13/L5</f>
+        <v>3.6244204240414565E-2</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="52"/>
+        <v>3.2803568541292169E-2</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="52"/>
+        <v>3.2367215331542298E-2</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="52"/>
+        <v>3.3796228054918998E-2</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="52"/>
+        <v>3.5468258717104698E-2</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="52"/>
+        <v>3.1505792831554504E-2</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="52"/>
+        <v>3.2166833695542019E-2</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="52"/>
+        <v>3.3941132688770366E-2</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="52"/>
+        <v>3.2333718937084664E-2</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="52"/>
+        <v>3.1299096827144574E-2</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" si="52"/>
+        <v>3.1774940249552172E-2</v>
+      </c>
+      <c r="W29" s="144">
+        <f t="shared" si="52"/>
+        <v>3.3998855471482174E-2</v>
+      </c>
+      <c r="X29" s="7">
+        <f t="shared" ref="X29:Y29" si="53">X13/X5</f>
+        <v>3.0809653244742115E-2</v>
+      </c>
+      <c r="Y29" s="144" t="e">
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="4" t="e">
-        <f>M13/M5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="4" t="e">
-        <f>N13/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="4" t="e">
-        <f>O13/O5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" s="4" t="e">
-        <f>P13/P5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="4" t="e">
-        <f>Q13/Q5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="4" t="e">
-        <f>R13/R5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="4" t="e">
-        <f>S13/S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="4" t="e">
-        <f>T13/T5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="4" t="e">
-        <f>U13/U5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="4" t="e">
-        <f>V13/V5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" s="7" t="e">
-        <f>W13/W5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X29" s="4"/>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>208</v>
       </c>
@@ -21011,137 +21735,206 @@
         <f>G14/G5</f>
         <v>3.7411176187483975E-3</v>
       </c>
-      <c r="H30" s="122">
+      <c r="H30" s="118">
         <v>3.7411176187483975E-3</v>
       </c>
-      <c r="I30" s="122">
+      <c r="I30" s="118">
         <v>3.7411176187483975E-3</v>
       </c>
-      <c r="L30" s="4" t="e">
-        <f>L15/L5</f>
+      <c r="L30" s="4">
+        <f t="shared" ref="L30:W30" si="54">L15/L5</f>
+        <v>3.254525357793951E-3</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="54"/>
+        <v>2.2541159015036952E-3</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="54"/>
+        <v>2.3858854744239532E-3</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="54"/>
+        <v>2.3966749514059988E-3</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="54"/>
+        <v>2.1330941892237663E-3</v>
+      </c>
+      <c r="Q30" s="4">
+        <f t="shared" si="54"/>
+        <v>2.1149042238897881E-3</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" si="54"/>
+        <v>2.8659902935579407E-3</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="54"/>
+        <v>2.6529407745302996E-3</v>
+      </c>
+      <c r="T30" s="4">
+        <f t="shared" si="54"/>
+        <v>3.529963100254161E-3</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="54"/>
+        <v>6.4577674336856071E-3</v>
+      </c>
+      <c r="V30" s="4">
+        <f t="shared" si="54"/>
+        <v>2.9292687386627868E-3</v>
+      </c>
+      <c r="W30" s="144">
+        <f t="shared" si="54"/>
+        <v>2.5942646404272908E-3</v>
+      </c>
+      <c r="X30" s="7">
+        <f t="shared" ref="X30:Y30" si="55">X15/X5</f>
+        <v>2.0278712940180205E-3</v>
+      </c>
+      <c r="Y30" s="144" t="e">
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="4" t="e">
-        <f>M15/M5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="4" t="e">
-        <f>N15/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O30" s="4" t="e">
-        <f>O15/O5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P30" s="4" t="e">
-        <f>P15/P5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q30" s="4" t="e">
-        <f>Q15/Q5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="4" t="e">
-        <f>R15/R5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="4" t="e">
-        <f>S15/S5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="4" t="e">
-        <f>T15/T5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U30" s="4" t="e">
-        <f>U15/U5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V30" s="4" t="e">
-        <f>V15/V5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W30" s="7" t="e">
-        <f>W15/W5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X30" s="4"/>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>209</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4">
-        <f>D3/C3-1</f>
+        <f t="shared" ref="D31:G32" si="56">D3/C3-1</f>
         <v>6.4647846192687819E-2</v>
       </c>
       <c r="E31" s="4">
-        <f>E3/D3-1</f>
+        <f t="shared" si="56"/>
         <v>0.25954097131260712</v>
       </c>
       <c r="F31" s="4">
-        <f>F3/E3-1</f>
+        <f t="shared" si="56"/>
         <v>0.14762063190468133</v>
       </c>
       <c r="G31" s="7">
-        <f>G3/F3-1</f>
+        <f t="shared" si="56"/>
         <v>0.14560912063459663</v>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="4"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="144"/>
+      <c r="N31" s="144"/>
+      <c r="O31" s="144"/>
+      <c r="P31" s="144">
+        <f t="shared" ref="L31:W31" si="57">P3/L3-1</f>
+        <v>0.16489956235176195</v>
+      </c>
+      <c r="Q31" s="144">
+        <f t="shared" si="57"/>
+        <v>0.17301971525090076</v>
+      </c>
+      <c r="R31" s="144">
+        <f t="shared" si="57"/>
+        <v>0.1396841972894971</v>
+      </c>
+      <c r="S31" s="144">
+        <f t="shared" si="57"/>
+        <v>0.11575818356660972</v>
+      </c>
+      <c r="T31" s="144">
+        <f t="shared" si="57"/>
+        <v>0.17611843382245529</v>
+      </c>
+      <c r="U31" s="144">
+        <f t="shared" si="57"/>
+        <v>0.13895782656163203</v>
+      </c>
+      <c r="V31" s="144">
+        <f t="shared" si="57"/>
+        <v>0.11519722694448098</v>
+      </c>
+      <c r="W31" s="144">
+        <f t="shared" si="57"/>
+        <v>0.15511757205831755</v>
+      </c>
+      <c r="X31" s="7">
+        <f>X3/T3-1</f>
+        <v>0.14182761529198751</v>
+      </c>
+      <c r="Y31" s="4">
+        <f t="shared" ref="L31:Y31" si="58">Y3/X3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>210</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4">
-        <f>D4/C4-1</f>
+        <f t="shared" si="56"/>
         <v>1.5298622350294084</v>
       </c>
       <c r="E32" s="4">
-        <f>E4/D4-1</f>
+        <f t="shared" si="56"/>
         <v>0.4026119926976548</v>
       </c>
       <c r="F32" s="4">
-        <f>F4/E4-1</f>
+        <f t="shared" si="56"/>
         <v>-0.14729898099942151</v>
       </c>
       <c r="G32" s="7">
-        <f>G4/F4-1</f>
+        <f t="shared" si="56"/>
         <v>-0.11905911207942477</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="4"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="144">
+        <f t="shared" ref="L32:W32" si="59">P4/L4-1</f>
+        <v>-0.15641977721321099</v>
+      </c>
+      <c r="Q32" s="144">
+        <f t="shared" si="59"/>
+        <v>-0.11375307469900309</v>
+      </c>
+      <c r="R32" s="144">
+        <f t="shared" si="59"/>
+        <v>-0.10383803878227671</v>
+      </c>
+      <c r="S32" s="144">
+        <f t="shared" si="59"/>
+        <v>-0.21368004522328954</v>
+      </c>
+      <c r="T32" s="144">
+        <f t="shared" si="59"/>
+        <v>-0.18588704072649753</v>
+      </c>
+      <c r="U32" s="144">
+        <f t="shared" si="59"/>
+        <v>-0.15800749866095332</v>
+      </c>
+      <c r="V32" s="144">
+        <f t="shared" si="59"/>
+        <v>-0.10818992095969493</v>
+      </c>
+      <c r="W32" s="144">
+        <f t="shared" si="59"/>
+        <v>3.654445243230553E-3</v>
+      </c>
+      <c r="X32" s="7">
+        <f>X4/T4-1</f>
+        <v>-9.6750327243755319E-3</v>
+      </c>
+      <c r="Y32" s="4">
+        <f t="shared" ref="L32:Y32" si="60">Y4/X4-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>38</v>
       </c>
@@ -21154,7 +21947,7 @@
         <f>-(E20/D20-1)</f>
         <v>-0.83932419376192091</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="39">
         <f>F20/E20-1</f>
         <v>0.37691122600247629</v>
       </c>
@@ -21162,11 +21955,11 @@
         <f>G20/F20-1</f>
         <v>0.36662844330058375</v>
       </c>
-      <c r="H33" s="59">
+      <c r="H33" s="55">
         <f>H23/G22-1</f>
         <v>0.14291569310601226</v>
       </c>
-      <c r="I33" s="59">
+      <c r="I33" s="55">
         <f>I23/H23-1</f>
         <v>0.1564719810576165</v>
       </c>
@@ -21174,60 +21967,64 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="4" t="e">
-        <f t="shared" ref="P33:X33" si="30">P20/L20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q33" s="4" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R33" s="4" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S33" s="4" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="4" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U33" s="4" t="e">
+      <c r="P33" s="4">
+        <f t="shared" ref="P33:W33" si="61">P20/L20-1</f>
+        <v>0.24541899749018681</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" si="61"/>
+        <v>0.38286145956355733</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="61"/>
+        <v>0.25780447479382018</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="61"/>
+        <v>0.74068334977805028</v>
+      </c>
+      <c r="T33" s="4">
+        <f t="shared" si="61"/>
+        <v>0.84241980112953807</v>
+      </c>
+      <c r="U33" s="4">
         <f>U20/Q20-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V33" s="4" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W33" s="7" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X33" s="4" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.31517800124643358</v>
+      </c>
+      <c r="V33" s="4">
+        <f t="shared" si="61"/>
+        <v>0.21808911946114673</v>
+      </c>
+      <c r="W33" s="144">
+        <f t="shared" si="61"/>
+        <v>0.35120665189763245</v>
+      </c>
+      <c r="X33" s="7">
+        <f t="shared" ref="X33" si="62">X20/T20-1</f>
+        <v>0.23193688195197204</v>
+      </c>
+      <c r="Y33" s="144">
+        <f t="shared" ref="Y33" si="63">Y20/U20-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="145">
+      <c r="C36" s="11">
         <f>C37+C42</f>
         <v>0</v>
       </c>
-      <c r="D36" s="145">
+      <c r="D36" s="11">
         <f>D37+D42</f>
         <v>951.60299999999995</v>
       </c>
-      <c r="E36" s="145">
+      <c r="E36" s="11">
         <f>E37+E42</f>
         <v>1076.319</v>
       </c>
-      <c r="F36" s="145">
+      <c r="F36" s="11">
         <f>F37+F42</f>
         <v>899.13599999999997</v>
       </c>
@@ -21236,55 +22033,63 @@
         <v>1295.4470000000001</v>
       </c>
       <c r="L36" s="11">
-        <f>L37+L39-L51-L52-L58</f>
+        <f>L37+L42</f>
         <v>0</v>
       </c>
       <c r="M36" s="11">
-        <f>M37+M39-M51-M52-M58</f>
+        <f t="shared" ref="M36:Y36" si="64">M37+M42</f>
         <v>0</v>
       </c>
       <c r="N36" s="11">
-        <f>N37+N39-N51-N52-N58</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="O36" s="11">
-        <f>O37+O39-O51-O52-O58</f>
+        <f t="shared" si="64"/>
+        <v>1076.319</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" si="64"/>
+        <v>856.24200000000008</v>
+      </c>
+      <c r="Q36" s="11">
+        <f t="shared" si="64"/>
+        <v>761.61699999999996</v>
+      </c>
+      <c r="R36" s="11">
+        <f t="shared" si="64"/>
+        <v>783.90100000000007</v>
+      </c>
+      <c r="S36" s="11">
+        <f t="shared" si="64"/>
+        <v>899.13599999999997</v>
+      </c>
+      <c r="T36" s="11">
+        <f t="shared" si="64"/>
+        <v>1062.585</v>
+      </c>
+      <c r="U36" s="11">
+        <f t="shared" si="64"/>
+        <v>1356.008</v>
+      </c>
+      <c r="V36" s="11">
+        <f t="shared" si="64"/>
+        <v>1454.0059999999999</v>
+      </c>
+      <c r="W36" s="11">
+        <f t="shared" si="64"/>
+        <v>1295.4470000000001</v>
+      </c>
+      <c r="X36" s="14">
+        <f t="shared" si="64"/>
+        <v>1419.8679999999999</v>
+      </c>
+      <c r="Y36" s="11">
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="P36" s="11">
-        <f>P37+P39-P51-P52-P58</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="11">
-        <f>Q37+Q39-Q51-Q52-Q58</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="11">
-        <f>R37+R39-R51-R52-R58</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="11">
-        <f>S37+S39-S51-S52-S58</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="11">
-        <f>T37+T39-T51-T52-T58</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="11">
-        <f>U37+U39-U51-U52-U58</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="11">
-        <f>V37+V39-V51-V52-V58</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="14">
-        <f>W37+W39-W51-W52-W58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>25</v>
       </c>
@@ -21304,17 +22109,42 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="15"/>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O37" s="10">
+        <f>E37</f>
+        <v>815.37400000000002</v>
+      </c>
+      <c r="P37" s="10">
+        <v>615.86300000000006</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>520.93299999999999</v>
+      </c>
+      <c r="R37" s="10">
+        <v>366.62299999999999</v>
+      </c>
+      <c r="S37" s="10">
+        <f>F37</f>
+        <v>384</v>
+      </c>
+      <c r="T37" s="10">
+        <v>409.72699999999998</v>
+      </c>
+      <c r="U37" s="10">
+        <v>504.86599999999999</v>
+      </c>
+      <c r="V37" s="10">
+        <v>602.30700000000002</v>
+      </c>
+      <c r="W37" s="10">
+        <f>G37</f>
+        <v>560.60900000000004</v>
+      </c>
+      <c r="X37" s="15">
+        <v>727.39400000000001</v>
+      </c>
+      <c r="Y37" s="10"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>26</v>
       </c>
@@ -21334,17 +22164,42 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="15"/>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O38" s="10">
+        <f t="shared" ref="O38:O42" si="65">E38</f>
+        <v>99.599000000000004</v>
+      </c>
+      <c r="P38" s="10">
+        <v>89.295000000000002</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>83.635999999999996</v>
+      </c>
+      <c r="R38" s="10">
+        <v>71.275999999999996</v>
+      </c>
+      <c r="S38" s="10">
+        <f t="shared" ref="S38:S42" si="66">F38</f>
+        <v>106.88</v>
+      </c>
+      <c r="T38" s="10">
+        <v>65.869</v>
+      </c>
+      <c r="U38" s="10">
+        <v>60.984999999999999</v>
+      </c>
+      <c r="V38" s="10">
+        <v>71.122</v>
+      </c>
+      <c r="W38" s="10">
+        <f t="shared" ref="W38:W42" si="67">G38</f>
+        <v>115.535</v>
+      </c>
+      <c r="X38" s="15">
+        <v>89.835999999999999</v>
+      </c>
+      <c r="Y38" s="10"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>194</v>
       </c>
@@ -21364,17 +22219,42 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="15"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O39" s="10">
+        <f t="shared" si="65"/>
+        <v>32.826000000000001</v>
+      </c>
+      <c r="P39" s="10">
+        <v>29.852</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>29.456</v>
+      </c>
+      <c r="R39" s="10">
+        <v>33.752000000000002</v>
+      </c>
+      <c r="S39" s="10">
+        <f t="shared" si="66"/>
+        <v>35.667999999999999</v>
+      </c>
+      <c r="T39" s="10">
+        <v>34.598999999999997</v>
+      </c>
+      <c r="U39" s="10">
+        <v>36.003999999999998</v>
+      </c>
+      <c r="V39" s="10">
+        <v>40.177</v>
+      </c>
+      <c r="W39" s="10">
+        <f t="shared" si="67"/>
+        <v>39.308999999999997</v>
+      </c>
+      <c r="X39" s="15">
+        <v>37.947000000000003</v>
+      </c>
+      <c r="Y39" s="10"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>78</v>
       </c>
@@ -21394,17 +22274,42 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="15"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O40" s="10">
+        <f t="shared" si="65"/>
+        <v>78.756</v>
+      </c>
+      <c r="P40" s="10">
+        <v>70.403000000000006</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>73.715999999999994</v>
+      </c>
+      <c r="R40" s="10">
+        <v>76.438999999999993</v>
+      </c>
+      <c r="S40" s="10">
+        <f t="shared" si="66"/>
+        <v>86.412000000000006</v>
+      </c>
+      <c r="T40" s="10">
+        <v>98.388999999999996</v>
+      </c>
+      <c r="U40" s="10">
+        <v>103.422</v>
+      </c>
+      <c r="V40" s="10">
+        <v>104.038</v>
+      </c>
+      <c r="W40" s="10">
+        <f t="shared" si="67"/>
+        <v>117.462</v>
+      </c>
+      <c r="X40" s="15">
+        <v>98.117999999999995</v>
+      </c>
+      <c r="Y40" s="10"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>195</v>
       </c>
@@ -21424,17 +22329,42 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="15"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O41" s="10">
+        <f t="shared" si="65"/>
+        <v>94.063999999999993</v>
+      </c>
+      <c r="P41" s="10">
+        <v>50.701000000000001</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>97.873999999999995</v>
+      </c>
+      <c r="R41" s="10">
+        <v>112.06399999999999</v>
+      </c>
+      <c r="S41" s="10">
+        <f t="shared" si="66"/>
+        <v>47.741</v>
+      </c>
+      <c r="T41" s="10">
+        <v>0</v>
+      </c>
+      <c r="U41" s="10">
+        <v>0</v>
+      </c>
+      <c r="V41" s="10">
+        <v>0</v>
+      </c>
+      <c r="W41" s="10">
+        <f t="shared" si="67"/>
+        <v>52.96</v>
+      </c>
+      <c r="X41" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="10"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>196</v>
       </c>
@@ -21454,26 +22384,51 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="15"/>
-    </row>
-    <row r="43" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="10">
+        <f t="shared" si="65"/>
+        <v>260.94499999999999</v>
+      </c>
+      <c r="P42" s="10">
+        <v>240.37899999999999</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>240.684</v>
+      </c>
+      <c r="R42" s="10">
+        <v>417.27800000000002</v>
+      </c>
+      <c r="S42" s="10">
+        <f t="shared" si="66"/>
+        <v>515.13599999999997</v>
+      </c>
+      <c r="T42" s="10">
+        <v>652.85799999999995</v>
+      </c>
+      <c r="U42" s="10">
+        <v>851.14200000000005</v>
+      </c>
+      <c r="V42" s="10">
+        <v>851.69899999999996</v>
+      </c>
+      <c r="W42" s="10">
+        <f t="shared" si="67"/>
+        <v>734.83799999999997</v>
+      </c>
+      <c r="X42" s="15">
+        <v>692.47400000000005</v>
+      </c>
+      <c r="Y42" s="10"/>
+    </row>
+    <row r="43" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="11">
-        <f t="shared" ref="C43:D43" si="31">SUM(C37:C42)</f>
+        <f t="shared" ref="C43:D43" si="68">SUM(C37:C42)</f>
         <v>0</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="68"/>
         <v>1420.2370000000001</v>
       </c>
       <c r="E43" s="11">
@@ -21481,63 +22436,71 @@
         <v>1381.5640000000001</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" ref="F43:G43" si="32">SUM(F37:F42)</f>
+        <f t="shared" ref="F43:G43" si="69">SUM(F37:F42)</f>
         <v>1175.837</v>
       </c>
       <c r="G43" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="69"/>
         <v>1620.713</v>
       </c>
       <c r="L43" s="11">
-        <f t="shared" ref="L43:W43" si="33">SUM(L37:L42)</f>
+        <f t="shared" ref="L43:Y43" si="70">SUM(L37:L42)</f>
         <v>0</v>
       </c>
       <c r="M43" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="70"/>
+        <v>1381.5640000000001</v>
+      </c>
+      <c r="P43" s="11">
+        <f t="shared" si="70"/>
+        <v>1096.4929999999999</v>
+      </c>
+      <c r="Q43" s="11">
+        <f t="shared" si="70"/>
+        <v>1046.299</v>
+      </c>
+      <c r="R43" s="11">
+        <f t="shared" si="70"/>
+        <v>1077.432</v>
+      </c>
+      <c r="S43" s="11">
+        <f t="shared" si="70"/>
+        <v>1175.837</v>
+      </c>
+      <c r="T43" s="11">
+        <f t="shared" si="70"/>
+        <v>1261.442</v>
+      </c>
+      <c r="U43" s="11">
+        <f t="shared" si="70"/>
+        <v>1556.4190000000001</v>
+      </c>
+      <c r="V43" s="11">
+        <f t="shared" si="70"/>
+        <v>1669.3429999999998</v>
+      </c>
+      <c r="W43" s="11">
+        <f t="shared" si="70"/>
+        <v>1620.713</v>
+      </c>
+      <c r="X43" s="14">
+        <f t="shared" si="70"/>
+        <v>1645.7690000000002</v>
+      </c>
+      <c r="Y43" s="11">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="P43" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="14">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>197</v>
       </c>
@@ -21557,17 +22520,42 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="15"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O44" s="10">
+        <f t="shared" ref="O44:O49" si="71">E44</f>
+        <v>1769.278</v>
+      </c>
+      <c r="P44" s="10">
+        <v>1779.521</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>1813.348</v>
+      </c>
+      <c r="R44" s="10">
+        <v>1871.623</v>
+      </c>
+      <c r="S44" s="10">
+        <f t="shared" ref="S44:S49" si="72">F44</f>
+        <v>1951.1469999999999</v>
+      </c>
+      <c r="T44" s="10">
+        <v>1981.329</v>
+      </c>
+      <c r="U44" s="10">
+        <v>2021.9639999999999</v>
+      </c>
+      <c r="V44" s="10">
+        <v>2093.011</v>
+      </c>
+      <c r="W44" s="10">
+        <f t="shared" ref="W44:W49" si="73">G44</f>
+        <v>2170.038</v>
+      </c>
+      <c r="X44" s="15">
+        <v>2202.739</v>
+      </c>
+      <c r="Y44" s="10"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>198</v>
       </c>
@@ -21587,17 +22575,42 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="15"/>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O45" s="10">
+        <f t="shared" si="71"/>
+        <v>274.31099999999998</v>
+      </c>
+      <c r="P45" s="10">
+        <v>333.08800000000002</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>359.911</v>
+      </c>
+      <c r="R45" s="10">
+        <v>442.62</v>
+      </c>
+      <c r="S45" s="10">
+        <f t="shared" si="72"/>
+        <v>388.05500000000001</v>
+      </c>
+      <c r="T45" s="10">
+        <v>368.02300000000002</v>
+      </c>
+      <c r="U45" s="10">
+        <v>430.762</v>
+      </c>
+      <c r="V45" s="10">
+        <v>473.24700000000001</v>
+      </c>
+      <c r="W45" s="10">
+        <f t="shared" si="73"/>
+        <v>564.48800000000006</v>
+      </c>
+      <c r="X45" s="15">
+        <v>776.81500000000005</v>
+      </c>
+      <c r="Y45" s="10"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>77</v>
       </c>
@@ -21617,17 +22630,42 @@
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="15"/>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O46" s="10">
+        <f t="shared" si="71"/>
+        <v>30.856000000000002</v>
+      </c>
+      <c r="P46" s="10">
+        <v>30.872</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>30.895</v>
+      </c>
+      <c r="R46" s="10">
+        <v>30.974</v>
+      </c>
+      <c r="S46" s="10">
+        <f t="shared" si="72"/>
+        <v>24.966000000000001</v>
+      </c>
+      <c r="T46" s="10">
+        <v>25.132999999999999</v>
+      </c>
+      <c r="U46" s="10">
+        <v>25.106000000000002</v>
+      </c>
+      <c r="V46" s="10">
+        <v>25.315000000000001</v>
+      </c>
+      <c r="W46" s="10">
+        <f t="shared" si="73"/>
+        <v>25.553999999999998</v>
+      </c>
+      <c r="X46" s="15">
+        <v>26.138000000000002</v>
+      </c>
+      <c r="Y46" s="10"/>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>66</v>
       </c>
@@ -21647,17 +22685,42 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="15"/>
-    </row>
-    <row r="48" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="10">
+        <f t="shared" si="71"/>
+        <v>3118.2939999999999</v>
+      </c>
+      <c r="P47" s="10">
+        <v>3147.0610000000001</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>3209.9340000000002</v>
+      </c>
+      <c r="R47" s="10">
+        <v>3309.0509999999999</v>
+      </c>
+      <c r="S47" s="10">
+        <f t="shared" si="72"/>
+        <v>3302.402</v>
+      </c>
+      <c r="T47" s="10">
+        <v>3334.277</v>
+      </c>
+      <c r="U47" s="10">
+        <v>3433.7190000000001</v>
+      </c>
+      <c r="V47" s="10">
+        <v>3555.808</v>
+      </c>
+      <c r="W47" s="10">
+        <f t="shared" si="73"/>
+        <v>3578.5479999999998</v>
+      </c>
+      <c r="X47" s="15">
+        <v>3670.9830000000002</v>
+      </c>
+      <c r="Y47" s="10"/>
+    </row>
+    <row r="48" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>199</v>
       </c>
@@ -21677,15 +22740,40 @@
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="15"/>
+      <c r="O48" s="10">
+        <f t="shared" si="71"/>
+        <v>56.716000000000001</v>
+      </c>
+      <c r="P48" s="10">
+        <v>58.283000000000001</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>63.01</v>
+      </c>
+      <c r="R48" s="10">
+        <v>63.798000000000002</v>
+      </c>
+      <c r="S48" s="10">
+        <f t="shared" si="72"/>
+        <v>63.158000000000001</v>
+      </c>
+      <c r="T48" s="10">
+        <v>61.228999999999999</v>
+      </c>
+      <c r="U48" s="10">
+        <v>62.526000000000003</v>
+      </c>
+      <c r="V48" s="10">
+        <v>72.83</v>
+      </c>
+      <c r="W48" s="10">
+        <f t="shared" si="73"/>
+        <v>63.082000000000001</v>
+      </c>
+      <c r="X48" s="15">
+        <v>66.866</v>
+      </c>
+      <c r="Y48" s="10"/>
     </row>
     <row r="49" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
@@ -21707,15 +22795,40 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="15"/>
+      <c r="O49" s="10">
+        <f t="shared" si="71"/>
+        <v>21.939</v>
+      </c>
+      <c r="P49" s="10">
+        <v>21.939</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>21.939</v>
+      </c>
+      <c r="R49" s="10">
+        <v>21.939</v>
+      </c>
+      <c r="S49" s="10">
+        <f t="shared" si="72"/>
+        <v>21.939</v>
+      </c>
+      <c r="T49" s="10">
+        <v>21.939</v>
+      </c>
+      <c r="U49" s="10">
+        <v>21.939</v>
+      </c>
+      <c r="V49" s="10">
+        <v>21.939</v>
+      </c>
+      <c r="W49" s="10">
+        <f t="shared" si="73"/>
+        <v>21.939</v>
+      </c>
+      <c r="X49" s="15">
+        <v>21.939</v>
+      </c>
+      <c r="Y49" s="10"/>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
@@ -21742,51 +22855,59 @@
         <v>8044.362000000001</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" ref="L50:W50" si="34">SUM(L43:L49)</f>
+        <f t="shared" ref="L50:W50" si="74">SUM(L43:L49)</f>
         <v>0</v>
       </c>
       <c r="M50" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="74"/>
+        <v>6652.9580000000005</v>
       </c>
       <c r="P50" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="74"/>
+        <v>6467.2570000000005</v>
       </c>
       <c r="Q50" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="74"/>
+        <v>6545.3360000000011</v>
       </c>
       <c r="R50" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="74"/>
+        <v>6817.4370000000008</v>
       </c>
       <c r="S50" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="74"/>
+        <v>6927.5039999999999</v>
       </c>
       <c r="T50" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="74"/>
+        <v>7053.3720000000003</v>
       </c>
       <c r="U50" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="74"/>
+        <v>7552.4350000000004</v>
       </c>
       <c r="V50" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="W50" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="74"/>
+        <v>7911.4929999999995</v>
+      </c>
+      <c r="W50" s="11">
+        <f t="shared" si="74"/>
+        <v>8044.362000000001</v>
+      </c>
+      <c r="X50" s="14">
+        <f>SUM(X43:X49)</f>
+        <v>8411.2489999999998</v>
+      </c>
+      <c r="Y50" s="11">
+        <f>SUM(Y43:Y49)</f>
         <v>0</v>
       </c>
     </row>
@@ -21810,15 +22931,40 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="15"/>
+      <c r="O51" s="10">
+        <f t="shared" ref="O51:O56" si="75">E51</f>
+        <v>163.161</v>
+      </c>
+      <c r="P51" s="10">
+        <v>168.905</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>158.58099999999999</v>
+      </c>
+      <c r="R51" s="10">
+        <v>167.84200000000001</v>
+      </c>
+      <c r="S51" s="10">
+        <f t="shared" ref="S51:S56" si="76">F51</f>
+        <v>184.566</v>
+      </c>
+      <c r="T51" s="10">
+        <v>182.60599999999999</v>
+      </c>
+      <c r="U51" s="10">
+        <v>162.041</v>
+      </c>
+      <c r="V51" s="10">
+        <v>207.541</v>
+      </c>
+      <c r="W51" s="10">
+        <f t="shared" ref="W51:W56" si="77">G51</f>
+        <v>197.64599999999999</v>
+      </c>
+      <c r="X51" s="15">
+        <v>196.86600000000001</v>
+      </c>
+      <c r="Y51" s="10"/>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
@@ -21840,15 +22986,40 @@
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="15"/>
+      <c r="O52" s="10">
+        <f t="shared" si="75"/>
+        <v>162.405</v>
+      </c>
+      <c r="P52" s="10">
+        <v>172.45400000000001</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>161.05199999999999</v>
+      </c>
+      <c r="R52" s="10">
+        <v>128.495</v>
+      </c>
+      <c r="S52" s="10">
+        <f t="shared" si="76"/>
+        <v>170.45599999999999</v>
+      </c>
+      <c r="T52" s="10">
+        <v>116.465</v>
+      </c>
+      <c r="U52" s="10">
+        <v>177.47499999999999</v>
+      </c>
+      <c r="V52" s="10">
+        <v>155.01499999999999</v>
+      </c>
+      <c r="W52" s="10">
+        <f t="shared" si="77"/>
+        <v>227.53700000000001</v>
+      </c>
+      <c r="X52" s="15">
+        <v>142.42500000000001</v>
+      </c>
+      <c r="Y52" s="10"/>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
@@ -21870,15 +23041,40 @@
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="15"/>
+      <c r="O53" s="10">
+        <f t="shared" si="75"/>
+        <v>173.05199999999999</v>
+      </c>
+      <c r="P53" s="10">
+        <v>136.655</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>148.614</v>
+      </c>
+      <c r="R53" s="10">
+        <v>156.45500000000001</v>
+      </c>
+      <c r="S53" s="10">
+        <f t="shared" si="76"/>
+        <v>147.53899999999999</v>
+      </c>
+      <c r="T53" s="10">
+        <v>160.43600000000001</v>
+      </c>
+      <c r="U53" s="10">
+        <v>141.291</v>
+      </c>
+      <c r="V53" s="10">
+        <v>151.148</v>
+      </c>
+      <c r="W53" s="10">
+        <f t="shared" si="77"/>
+        <v>147.68799999999999</v>
+      </c>
+      <c r="X53" s="15">
+        <v>171.61199999999999</v>
+      </c>
+      <c r="Y53" s="10"/>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -21900,15 +23096,40 @@
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="15"/>
+      <c r="O54" s="10">
+        <f t="shared" si="75"/>
+        <v>156.351</v>
+      </c>
+      <c r="P54" s="10">
+        <v>132.42099999999999</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>132.446</v>
+      </c>
+      <c r="R54" s="10">
+        <v>133.11799999999999</v>
+      </c>
+      <c r="S54" s="10">
+        <f t="shared" si="76"/>
+        <v>183.071</v>
+      </c>
+      <c r="T54" s="10">
+        <v>157.898</v>
+      </c>
+      <c r="U54" s="10">
+        <v>158.959</v>
+      </c>
+      <c r="V54" s="10">
+        <v>156.32</v>
+      </c>
+      <c r="W54" s="10">
+        <f t="shared" si="77"/>
+        <v>209.68</v>
+      </c>
+      <c r="X54" s="15">
+        <v>187.31700000000001</v>
+      </c>
+      <c r="Y54" s="10"/>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -21930,291 +23151,493 @@
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="15"/>
-    </row>
-    <row r="56" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+      <c r="O55" s="10">
+        <f t="shared" si="75"/>
+        <v>218.71299999999999</v>
+      </c>
+      <c r="P55" s="10">
+        <v>233.303</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>230.93</v>
+      </c>
+      <c r="R55" s="10">
+        <v>231.947</v>
+      </c>
+      <c r="S55" s="10">
+        <f t="shared" si="76"/>
+        <v>236.24799999999999</v>
+      </c>
+      <c r="T55" s="10">
+        <v>239.029</v>
+      </c>
+      <c r="U55" s="10">
+        <v>244.06100000000001</v>
+      </c>
+      <c r="V55" s="10">
+        <v>244.994</v>
+      </c>
+      <c r="W55" s="10">
+        <f t="shared" si="77"/>
+        <v>248.07400000000001</v>
+      </c>
+      <c r="X55" s="15">
+        <v>254.14400000000001</v>
+      </c>
+      <c r="Y55" s="10"/>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="15"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="10">
+        <v>37.658000000000001</v>
+      </c>
+      <c r="U56" s="10">
+        <v>98.423000000000002</v>
+      </c>
+      <c r="V56" s="10">
+        <v>172.68899999999999</v>
+      </c>
+      <c r="W56" s="10">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="15">
+        <v>44.988999999999997</v>
+      </c>
+      <c r="Y56" s="10"/>
+    </row>
+    <row r="57" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="11">
-        <f>SUM(C51:C55)</f>
+      <c r="C57" s="11">
+        <f>SUM(C51:C56)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="11">
-        <f>SUM(D51:D55)</f>
+      <c r="D57" s="11">
+        <f>SUM(D51:D56)</f>
         <v>822.19899999999996</v>
       </c>
-      <c r="E56" s="11">
-        <f>SUM(E51:E55)</f>
+      <c r="E57" s="11">
+        <f>SUM(E51:E56)</f>
         <v>873.68200000000002</v>
       </c>
-      <c r="F56" s="11">
-        <f>SUM(F51:F55)</f>
+      <c r="F57" s="11">
+        <f>SUM(F51:F56)</f>
         <v>921.87999999999988</v>
       </c>
-      <c r="G56" s="14">
-        <f>SUM(G51:G55)</f>
+      <c r="G57" s="14">
+        <f>SUM(G51:G56)</f>
         <v>1030.625</v>
       </c>
-      <c r="L56" s="11">
-        <f t="shared" ref="L56:W56" si="35">SUM(L51:L55)</f>
+      <c r="L57" s="11">
+        <f t="shared" ref="L57:W57" si="78">SUM(L51:L56)</f>
         <v>0</v>
       </c>
-      <c r="M56" s="11">
-        <f t="shared" si="35"/>
+      <c r="M57" s="11">
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="N56" s="11">
-        <f t="shared" si="35"/>
+      <c r="N57" s="11">
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="O56" s="11">
-        <f t="shared" si="35"/>
+      <c r="O57" s="11">
+        <f t="shared" si="78"/>
+        <v>873.68200000000002</v>
+      </c>
+      <c r="P57" s="11">
+        <f t="shared" si="78"/>
+        <v>843.73799999999994</v>
+      </c>
+      <c r="Q57" s="11">
+        <f t="shared" si="78"/>
+        <v>831.62300000000005</v>
+      </c>
+      <c r="R57" s="11">
+        <f t="shared" si="78"/>
+        <v>817.85700000000008</v>
+      </c>
+      <c r="S57" s="11">
+        <f t="shared" si="78"/>
+        <v>921.87999999999988</v>
+      </c>
+      <c r="T57" s="11">
+        <f t="shared" si="78"/>
+        <v>894.0920000000001</v>
+      </c>
+      <c r="U57" s="11">
+        <f t="shared" si="78"/>
+        <v>982.25</v>
+      </c>
+      <c r="V57" s="11">
+        <f t="shared" si="78"/>
+        <v>1087.7069999999999</v>
+      </c>
+      <c r="W57" s="11">
+        <f t="shared" si="78"/>
+        <v>1030.625</v>
+      </c>
+      <c r="X57" s="14">
+        <f>SUM(X51:X56)</f>
+        <v>997.35300000000007</v>
+      </c>
+      <c r="Y57" s="11">
+        <f>SUM(Y51:Y56)</f>
         <v>0</v>
       </c>
-      <c r="P56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="S56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="V56" s="11">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="W56" s="14">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-    </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>204</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10">
-        <v>2952.2959999999998</v>
-      </c>
-      <c r="E57" s="10">
-        <v>3301.6010000000001</v>
-      </c>
-      <c r="F57" s="10">
-        <v>3495.1619999999998</v>
-      </c>
-      <c r="G57" s="15">
-        <v>3803.5509999999999</v>
-      </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="15"/>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10">
-        <v>149.422</v>
+        <v>2952.2959999999998</v>
       </c>
       <c r="E58" s="10">
-        <v>141.76499999999999</v>
+        <v>3301.6010000000001</v>
       </c>
       <c r="F58" s="10">
-        <v>98.623000000000005</v>
+        <v>3495.1619999999998</v>
       </c>
       <c r="G58" s="15">
-        <v>89.108999999999995</v>
+        <v>3803.5509999999999</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="15"/>
+      <c r="O58" s="10">
+        <f t="shared" ref="O58:O60" si="79">E58</f>
+        <v>3301.6010000000001</v>
+      </c>
+      <c r="P58" s="10">
+        <v>3331.319</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>3393.4229999999998</v>
+      </c>
+      <c r="R58" s="10">
+        <v>3497.221</v>
+      </c>
+      <c r="S58" s="10">
+        <f t="shared" ref="S58:S60" si="80">F58</f>
+        <v>3495.1619999999998</v>
+      </c>
+      <c r="T58" s="10">
+        <v>3532.5659999999998</v>
+      </c>
+      <c r="U58" s="10">
+        <v>3643.931</v>
+      </c>
+      <c r="V58" s="10">
+        <v>3773.087</v>
+      </c>
+      <c r="W58" s="10">
+        <f t="shared" ref="W58:W60" si="81">G58</f>
+        <v>3803.5509999999999</v>
+      </c>
+      <c r="X58" s="15">
+        <v>3903.3530000000001</v>
+      </c>
+      <c r="Y58" s="10"/>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
-        <v>38.844000000000001</v>
+        <v>149.422</v>
       </c>
       <c r="E59" s="10">
-        <v>38.536000000000001</v>
+        <v>141.76499999999999</v>
       </c>
       <c r="F59" s="10">
-        <v>43.816000000000003</v>
+        <v>98.623000000000005</v>
       </c>
       <c r="G59" s="15">
-        <v>58.87</v>
+        <v>89.108999999999995</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="15"/>
+      <c r="O59" s="10">
+        <f t="shared" si="79"/>
+        <v>141.76499999999999</v>
+      </c>
+      <c r="P59" s="10">
+        <v>127.729</v>
+      </c>
+      <c r="Q59" s="10">
+        <v>126.239</v>
+      </c>
+      <c r="R59" s="10">
+        <v>133.255</v>
+      </c>
+      <c r="S59" s="10">
+        <f t="shared" si="80"/>
+        <v>98.623000000000005</v>
+      </c>
+      <c r="T59" s="10">
+        <v>98.137</v>
+      </c>
+      <c r="U59" s="10">
+        <v>106.44</v>
+      </c>
+      <c r="V59" s="10">
+        <v>111.089</v>
+      </c>
+      <c r="W59" s="10">
+        <f t="shared" si="81"/>
+        <v>89.108999999999995</v>
+      </c>
+      <c r="X59" s="15">
+        <v>84.228999999999999</v>
+      </c>
+      <c r="Y59" s="10"/>
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10">
+        <v>38.844000000000001</v>
+      </c>
+      <c r="E60" s="10">
+        <v>38.536000000000001</v>
+      </c>
+      <c r="F60" s="10">
+        <v>43.816000000000003</v>
+      </c>
+      <c r="G60" s="15">
+        <v>58.87</v>
+      </c>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10">
+        <f t="shared" si="79"/>
+        <v>38.536000000000001</v>
+      </c>
+      <c r="P60" s="10">
+        <v>40.511000000000003</v>
+      </c>
+      <c r="Q60" s="10">
+        <v>39.851999999999997</v>
+      </c>
+      <c r="R60" s="10">
+        <v>41.722999999999999</v>
+      </c>
+      <c r="S60" s="10">
+        <f t="shared" si="80"/>
+        <v>43.816000000000003</v>
+      </c>
+      <c r="T60" s="10">
+        <v>46.892000000000003</v>
+      </c>
+      <c r="U60" s="10">
+        <v>52.927999999999997</v>
+      </c>
+      <c r="V60" s="10">
+        <v>53.295999999999999</v>
+      </c>
+      <c r="W60" s="10">
+        <f t="shared" si="81"/>
+        <v>58.87</v>
+      </c>
+      <c r="X60" s="15">
+        <v>64.984999999999999</v>
+      </c>
+      <c r="Y60" s="10"/>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="11">
-        <f>SUM(C56:C59)</f>
+      <c r="C61" s="11">
+        <f>SUM(C57:C60)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="11">
-        <f>SUM(D56:D59)</f>
+      <c r="D61" s="11">
+        <f>SUM(D57:D60)</f>
         <v>3962.761</v>
       </c>
-      <c r="E60" s="11">
-        <f>SUM(E56:E59)</f>
+      <c r="E61" s="11">
+        <f>SUM(E57:E60)</f>
         <v>4355.5840000000007</v>
       </c>
-      <c r="F60" s="11">
-        <f>SUM(F56:F59)</f>
+      <c r="F61" s="11">
+        <f>SUM(F57:F60)</f>
         <v>4559.4809999999989</v>
       </c>
-      <c r="G60" s="14">
-        <f>SUM(G56:G59)</f>
+      <c r="G61" s="14">
+        <f>SUM(G57:G60)</f>
         <v>4982.1549999999997</v>
       </c>
-      <c r="L60" s="11">
-        <f t="shared" ref="L60:W60" si="36">SUM(L56:L59)</f>
+      <c r="L61" s="11">
+        <f t="shared" ref="L61:W61" si="82">SUM(L57:L60)</f>
         <v>0</v>
       </c>
-      <c r="M60" s="11">
-        <f t="shared" si="36"/>
+      <c r="M61" s="11">
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="N60" s="11">
-        <f t="shared" si="36"/>
+      <c r="N61" s="11">
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="O60" s="11">
-        <f t="shared" si="36"/>
+      <c r="O61" s="11">
+        <f t="shared" si="82"/>
+        <v>4355.5840000000007</v>
+      </c>
+      <c r="P61" s="11">
+        <f t="shared" si="82"/>
+        <v>4343.2970000000005</v>
+      </c>
+      <c r="Q61" s="11">
+        <f t="shared" si="82"/>
+        <v>4391.1369999999997</v>
+      </c>
+      <c r="R61" s="11">
+        <f t="shared" si="82"/>
+        <v>4490.0560000000005</v>
+      </c>
+      <c r="S61" s="11">
+        <f t="shared" si="82"/>
+        <v>4559.4809999999989</v>
+      </c>
+      <c r="T61" s="11">
+        <f t="shared" si="82"/>
+        <v>4571.686999999999</v>
+      </c>
+      <c r="U61" s="11">
+        <f t="shared" si="82"/>
+        <v>4785.549</v>
+      </c>
+      <c r="V61" s="11">
+        <f t="shared" si="82"/>
+        <v>5025.1790000000001</v>
+      </c>
+      <c r="W61" s="11">
+        <f t="shared" si="82"/>
+        <v>4982.1549999999997</v>
+      </c>
+      <c r="X61" s="14">
+        <f>SUM(X57:X60)</f>
+        <v>5049.92</v>
+      </c>
+      <c r="Y61" s="11">
+        <f>SUM(Y57:Y60)</f>
         <v>0</v>
       </c>
-      <c r="P60" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="R60" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="T60" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="U60" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="V60" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="W60" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="144">
-        <f>D50-D60</f>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10">
+        <f>D50-D61</f>
         <v>2020.1349999999998</v>
       </c>
-      <c r="E61" s="144">
-        <f>E50-E60</f>
+      <c r="E62" s="10">
+        <f>E50-E61</f>
         <v>2297.3739999999998</v>
       </c>
-      <c r="F61" s="144">
-        <f>F50-F60</f>
+      <c r="F62" s="10">
+        <f>F50-F61</f>
         <v>2368.023000000001</v>
       </c>
-      <c r="G61" s="15">
-        <f>G50-G60</f>
+      <c r="G62" s="15">
+        <f>G50-G61</f>
         <v>3062.2070000000012</v>
       </c>
-    </row>
-    <row r="63" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="55"/>
-      <c r="W63" s="16"/>
-    </row>
-    <row r="81" spans="7:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G81" s="42"/>
-      <c r="W81" s="42"/>
-    </row>
-    <row r="82" spans="7:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G82" s="16"/>
-      <c r="W82" s="16"/>
+      <c r="L62" s="142"/>
+      <c r="M62" s="142"/>
+      <c r="N62" s="142"/>
+      <c r="O62" s="142">
+        <f t="shared" ref="L62:W62" si="83">O50-O61</f>
+        <v>2297.3739999999998</v>
+      </c>
+      <c r="P62" s="142">
+        <f t="shared" si="83"/>
+        <v>2123.96</v>
+      </c>
+      <c r="Q62" s="142">
+        <f t="shared" si="83"/>
+        <v>2154.1990000000014</v>
+      </c>
+      <c r="R62" s="142">
+        <f t="shared" si="83"/>
+        <v>2327.3810000000003</v>
+      </c>
+      <c r="S62" s="142">
+        <f t="shared" si="83"/>
+        <v>2368.023000000001</v>
+      </c>
+      <c r="T62" s="142">
+        <f t="shared" si="83"/>
+        <v>2481.6850000000013</v>
+      </c>
+      <c r="U62" s="142">
+        <f t="shared" si="83"/>
+        <v>2766.8860000000004</v>
+      </c>
+      <c r="V62" s="142">
+        <f t="shared" si="83"/>
+        <v>2886.3139999999994</v>
+      </c>
+      <c r="W62" s="142">
+        <f t="shared" si="83"/>
+        <v>3062.2070000000012</v>
+      </c>
+      <c r="X62" s="15">
+        <f>X50-X61</f>
+        <v>3361.3289999999997</v>
+      </c>
+      <c r="Y62" s="10"/>
+    </row>
+    <row r="64" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="51"/>
+      <c r="W64" s="145"/>
+      <c r="X64" s="16"/>
+    </row>
+    <row r="82" spans="7:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G82" s="41"/>
+      <c r="W82" s="146"/>
+      <c r="X82" s="41"/>
+    </row>
+    <row r="83" spans="7:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G83" s="16"/>
+      <c r="W83" s="145"/>
+      <c r="X83" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -22224,7 +23647,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C56" formula="1"/>
+    <ignoredError sqref="C57" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -34447,14 +35870,14 @@
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="134" t="s">
+      <c r="H1" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="132"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -34467,12 +35890,12 @@
         <f>C2/C3-1</f>
         <v>5.2768602233361772E-3</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
@@ -34485,22 +35908,22 @@
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>-2.9919525313729545E-2</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="L3" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="69" t="s">
+      <c r="M3" s="65" t="s">
         <v>99</v>
       </c>
     </row>
@@ -34515,27 +35938,27 @@
         <f t="shared" si="0"/>
         <v>1.7959598750214578E-2</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="66">
         <f>$I$19-3*$I$23</f>
         <v>-0.15385426193937241</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="67">
         <f>H4</f>
         <v>-0.15385426193937241</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="68">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>8</v>
       </c>
-      <c r="K4" s="72" t="str">
+      <c r="K4" s="68" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>Less than -15,39%</v>
       </c>
-      <c r="L4" s="73">
+      <c r="L4" s="69">
         <f>J4/$I$31</f>
         <v>8.4033613445378148E-3</v>
       </c>
-      <c r="M4" s="74">
+      <c r="M4" s="70">
         <f>L4</f>
         <v>8.4033613445378148E-3</v>
       </c>
@@ -34551,27 +35974,27 @@
         <f t="shared" si="0"/>
         <v>-4.6446674167910373E-4</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="71">
         <f>$I$19-2.4*$I$23</f>
         <v>-0.12191411129516899</v>
       </c>
-      <c r="I5" s="76">
+      <c r="I5" s="72">
         <f>H5</f>
         <v>-0.12191411129516899</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="73">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>6</v>
       </c>
-      <c r="K5" s="78" t="str">
+      <c r="K5" s="74" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>-15,39% to -12,19%</v>
       </c>
-      <c r="L5" s="79">
+      <c r="L5" s="75">
         <f>J5/$I$31</f>
         <v>6.3025210084033615E-3</v>
       </c>
-      <c r="M5" s="80">
+      <c r="M5" s="76">
         <f>M4+L5</f>
         <v>1.4705882352941176E-2</v>
       </c>
@@ -34587,27 +36010,27 @@
         <f t="shared" si="0"/>
         <v>8.5807208315471506E-3</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="71">
         <f>$I$19-1.8*$I$23</f>
         <v>-8.9973960650965593E-2</v>
       </c>
-      <c r="I6" s="76">
+      <c r="I6" s="72">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>-8.9973960650965593E-2</v>
       </c>
-      <c r="J6" s="77">
+      <c r="J6" s="73">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>18</v>
       </c>
-      <c r="K6" s="78" t="str">
+      <c r="K6" s="74" t="str">
         <f t="shared" si="1"/>
         <v>-12,19% to -9,00%</v>
       </c>
-      <c r="L6" s="79">
+      <c r="L6" s="75">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>1.8907563025210083E-2</v>
       </c>
-      <c r="M6" s="80">
+      <c r="M6" s="76">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>3.3613445378151259E-2</v>
       </c>
@@ -34623,27 +36046,27 @@
         <f t="shared" si="0"/>
         <v>4.5585040896825024E-2</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="71">
         <f>$I$19-1.2*$I$23</f>
         <v>-5.8033810006762179E-2</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="72">
         <f t="shared" si="2"/>
         <v>-5.8033810006762179E-2</v>
       </c>
-      <c r="J7" s="77">
+      <c r="J7" s="73">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="K7" s="78" t="str">
+      <c r="K7" s="74" t="str">
         <f t="shared" si="1"/>
         <v>-9,00% to -5,80%</v>
       </c>
-      <c r="L7" s="79">
+      <c r="L7" s="75">
         <f t="shared" si="4"/>
         <v>5.1470588235294115E-2</v>
       </c>
-      <c r="M7" s="80">
+      <c r="M7" s="76">
         <f t="shared" si="5"/>
         <v>8.5084033613445381E-2</v>
       </c>
@@ -34659,27 +36082,27 @@
         <f t="shared" si="0"/>
         <v>2.6160325279303231E-2</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="71">
         <f>$I$19-0.6*$I$23</f>
         <v>-2.6093659362558769E-2</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="72">
         <f t="shared" si="2"/>
         <v>-2.6093659362558769E-2</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="73">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="K8" s="78" t="str">
+      <c r="K8" s="74" t="str">
         <f t="shared" si="1"/>
         <v>-5,80% to -2,61%</v>
       </c>
-      <c r="L8" s="79">
+      <c r="L8" s="75">
         <f t="shared" si="4"/>
         <v>0.12710084033613445</v>
       </c>
-      <c r="M8" s="80">
+      <c r="M8" s="76">
         <f t="shared" si="5"/>
         <v>0.21218487394957983</v>
       </c>
@@ -34695,27 +36118,27 @@
         <f t="shared" si="0"/>
         <v>-9.8926352148986929E-4</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="71">
         <f>$I$19</f>
         <v>5.8464912816446361E-3</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="72">
         <f t="shared" si="2"/>
         <v>5.8464912816446361E-3</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="73">
         <f t="shared" si="3"/>
         <v>284</v>
       </c>
-      <c r="K9" s="78" t="str">
+      <c r="K9" s="74" t="str">
         <f t="shared" si="1"/>
         <v>-2,61% to 0,58%</v>
       </c>
-      <c r="L9" s="79">
+      <c r="L9" s="75">
         <f t="shared" si="4"/>
         <v>0.29831932773109243</v>
       </c>
-      <c r="M9" s="80">
+      <c r="M9" s="76">
         <f t="shared" si="5"/>
         <v>0.51050420168067223</v>
       </c>
@@ -34731,27 +36154,27 @@
         <f t="shared" si="0"/>
         <v>1.5891389516401455E-2</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="71">
         <f>$I$19+0.6*$I$23</f>
         <v>3.778664192584804E-2</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="72">
         <f t="shared" si="2"/>
         <v>3.778664192584804E-2</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="73">
         <f t="shared" si="3"/>
         <v>264</v>
       </c>
-      <c r="K10" s="78" t="str">
+      <c r="K10" s="74" t="str">
         <f t="shared" si="1"/>
         <v>0,58% to 3,78%</v>
       </c>
-      <c r="L10" s="79">
+      <c r="L10" s="75">
         <f t="shared" si="4"/>
         <v>0.27731092436974791</v>
       </c>
-      <c r="M10" s="80">
+      <c r="M10" s="76">
         <f t="shared" si="5"/>
         <v>0.78781512605042014</v>
       </c>
@@ -34767,27 +36190,27 @@
         <f t="shared" si="0"/>
         <v>1.8584314475946329E-2</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="71">
         <f>$I$19+1.2*$I$23</f>
         <v>6.9726792570051446E-2</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="72">
         <f t="shared" si="2"/>
         <v>6.9726792570051446E-2</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="73">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="K11" s="78" t="str">
+      <c r="K11" s="74" t="str">
         <f t="shared" si="1"/>
         <v>3,78% to 6,97%</v>
       </c>
-      <c r="L11" s="79">
+      <c r="L11" s="75">
         <f t="shared" si="4"/>
         <v>0.12289915966386554</v>
       </c>
-      <c r="M11" s="80">
+      <c r="M11" s="76">
         <f t="shared" si="5"/>
         <v>0.9107142857142857</v>
       </c>
@@ -34803,27 +36226,27 @@
         <f t="shared" si="0"/>
         <v>-1.5130731145294729E-2</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="71">
         <f>$I$19+1.8*$I$23</f>
         <v>0.10166694321425486</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="72">
         <f t="shared" si="2"/>
         <v>0.10166694321425486</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="73">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="K12" s="78" t="str">
+      <c r="K12" s="74" t="str">
         <f t="shared" si="1"/>
         <v>6,97% to 10,17%</v>
       </c>
-      <c r="L12" s="79">
+      <c r="L12" s="75">
         <f t="shared" si="4"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="M12" s="80">
+      <c r="M12" s="76">
         <f t="shared" si="5"/>
         <v>0.96953781512605042</v>
       </c>
@@ -34839,27 +36262,27 @@
         <f t="shared" si="0"/>
         <v>6.2873675482485236E-2</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="71">
         <f>$I$19+2.4*$I$23</f>
         <v>0.13360709385845826</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="72">
         <f t="shared" si="2"/>
         <v>0.13360709385845826</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="73">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="K13" s="78" t="str">
+      <c r="K13" s="74" t="str">
         <f t="shared" si="1"/>
         <v>10,17% to 13,36%</v>
       </c>
-      <c r="L13" s="79">
+      <c r="L13" s="75">
         <f t="shared" si="4"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="M13" s="80">
+      <c r="M13" s="76">
         <f t="shared" si="5"/>
         <v>0.98424369747899154</v>
       </c>
@@ -34875,27 +36298,27 @@
         <f t="shared" si="0"/>
         <v>6.707362880171952E-2</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="71">
         <f>$I$19+3*$I$23</f>
         <v>0.16554724450266167</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="72">
         <f t="shared" si="2"/>
         <v>0.16554724450266167</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="73">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="K14" s="78" t="str">
+      <c r="K14" s="74" t="str">
         <f t="shared" si="1"/>
         <v>13,36% to 16,55%</v>
       </c>
-      <c r="L14" s="79">
+      <c r="L14" s="75">
         <f t="shared" si="4"/>
         <v>7.3529411764705881E-3</v>
       </c>
-      <c r="M14" s="80">
+      <c r="M14" s="76">
         <f t="shared" si="5"/>
         <v>0.9915966386554621</v>
       </c>
@@ -34911,23 +36334,23 @@
         <f t="shared" si="0"/>
         <v>-3.5766716565946988E-3</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82" t="s">
+      <c r="H15" s="77"/>
+      <c r="I15" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="82">
+      <c r="J15" s="78">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>8</v>
       </c>
-      <c r="K15" s="82" t="str">
+      <c r="K15" s="78" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>Greater than 16,55%</v>
       </c>
-      <c r="L15" s="83">
+      <c r="L15" s="79">
         <f t="shared" si="4"/>
         <v>8.4033613445378148E-3</v>
       </c>
-      <c r="M15" s="83">
+      <c r="M15" s="79">
         <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
@@ -34943,8 +36366,8 @@
         <f t="shared" si="0"/>
         <v>2.7598133150498194E-2</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="M16" s="85"/>
+      <c r="H16" s="80"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
@@ -34957,11 +36380,11 @@
         <f t="shared" si="0"/>
         <v>2.6708175927015354E-2</v>
       </c>
-      <c r="H17" s="137" t="s">
+      <c r="H17" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="138"/>
-      <c r="M17" s="85"/>
+      <c r="I17" s="134"/>
+      <c r="M17" s="81"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
@@ -34974,9 +36397,9 @@
         <f t="shared" si="0"/>
         <v>-3.2427289180687158E-2</v>
       </c>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
-      <c r="M18" s="85"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="136"/>
+      <c r="M18" s="81"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
@@ -34989,14 +36412,14 @@
         <f t="shared" si="0"/>
         <v>-7.5466557859820149E-3</v>
       </c>
-      <c r="H19" s="86" t="s">
+      <c r="H19" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="123">
+      <c r="I19" s="119">
         <f>AVERAGE(D:D)</f>
         <v>5.8464912816446361E-3</v>
       </c>
-      <c r="M19" s="85"/>
+      <c r="M19" s="81"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
@@ -35009,14 +36432,14 @@
         <f t="shared" si="0"/>
         <v>1.4475263780627801E-2</v>
       </c>
-      <c r="H20" s="86" t="s">
+      <c r="H20" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="123">
+      <c r="I20" s="119">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>1.725310381532476E-3</v>
       </c>
-      <c r="M20" s="85"/>
+      <c r="M20" s="81"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
@@ -35029,14 +36452,14 @@
         <f t="shared" si="0"/>
         <v>1.2715406327851619E-2</v>
       </c>
-      <c r="H21" s="86" t="s">
+      <c r="H21" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="123">
+      <c r="I21" s="119">
         <f>MEDIAN(D:D)</f>
         <v>4.5528952995110838E-3</v>
       </c>
-      <c r="M21" s="85"/>
+      <c r="M21" s="81"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
@@ -35049,14 +36472,14 @@
         <f t="shared" si="0"/>
         <v>4.0826171559857904E-3</v>
       </c>
-      <c r="H22" s="86" t="s">
+      <c r="H22" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="I22" s="123" t="e">
+      <c r="I22" s="119" t="e">
         <f>MODE(D:D)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="85"/>
+      <c r="M22" s="81"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -35069,14 +36492,14 @@
         <f t="shared" si="0"/>
         <v>6.3793971615568879E-3</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="123">
+      <c r="I23" s="119">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>5.323358440700568E-2</v>
       </c>
-      <c r="M23" s="85"/>
+      <c r="M23" s="81"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -35089,14 +36512,14 @@
         <f t="shared" si="0"/>
         <v>2.6569891949258961E-2</v>
       </c>
-      <c r="H24" s="86" t="s">
+      <c r="H24" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="123">
+      <c r="I24" s="119">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>2.8338145088177983E-3</v>
       </c>
-      <c r="M24" s="85"/>
+      <c r="M24" s="81"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
@@ -35109,14 +36532,14 @@
         <f t="shared" si="0"/>
         <v>1.9636086103040462E-2</v>
       </c>
-      <c r="H25" s="86" t="s">
+      <c r="H25" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="I25" s="124">
+      <c r="I25" s="120">
         <f>KURT(D:D)</f>
         <v>3.5788006055415194</v>
       </c>
-      <c r="M25" s="85"/>
+      <c r="M25" s="81"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
@@ -35129,14 +36552,14 @@
         <f t="shared" si="0"/>
         <v>3.9230027425389169E-2</v>
       </c>
-      <c r="H26" s="86" t="s">
+      <c r="H26" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="I26" s="124">
+      <c r="I26" s="120">
         <f>SKEW(D:D)</f>
         <v>0.39195460808708005</v>
       </c>
-      <c r="M26" s="85"/>
+      <c r="M26" s="81"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -35149,14 +36572,14 @@
         <f t="shared" si="0"/>
         <v>8.1023986011165228E-2</v>
       </c>
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="123">
+      <c r="I27" s="119">
         <f>I29-I28</f>
         <v>0.47953268469771826</v>
       </c>
-      <c r="M27" s="85"/>
+      <c r="M27" s="81"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -35169,14 +36592,14 @@
         <f t="shared" si="0"/>
         <v>3.0765851740614414E-2</v>
       </c>
-      <c r="H28" s="86" t="s">
+      <c r="H28" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="123">
+      <c r="I28" s="119">
         <f>MIN(D:D)</f>
         <v>-0.19214003354155562</v>
       </c>
-      <c r="M28" s="85"/>
+      <c r="M28" s="81"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -35189,14 +36612,14 @@
         <f t="shared" si="0"/>
         <v>2.7937456810488426E-2</v>
       </c>
-      <c r="H29" s="86" t="s">
+      <c r="H29" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="123">
+      <c r="I29" s="119">
         <f>MAX(D:D)</f>
         <v>0.28739265115616264</v>
       </c>
-      <c r="M29" s="85"/>
+      <c r="M29" s="81"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -35209,14 +36632,14 @@
         <f t="shared" si="0"/>
         <v>-2.2384190900534007E-2</v>
       </c>
-      <c r="H30" s="86" t="s">
+      <c r="H30" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="I30" s="124">
+      <c r="I30" s="120">
         <f>SUM(D:D)</f>
         <v>5.565859700125694</v>
       </c>
-      <c r="M30" s="85"/>
+      <c r="M30" s="81"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
@@ -35229,14 +36652,14 @@
         <f t="shared" si="0"/>
         <v>-5.218790078569957E-3</v>
       </c>
-      <c r="H31" s="87" t="s">
+      <c r="H31" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="60">
         <f>COUNT(D:D)</f>
         <v>952</v>
       </c>
-      <c r="M31" s="85"/>
+      <c r="M31" s="81"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
@@ -35249,8 +36672,8 @@
         <f t="shared" si="0"/>
         <v>-2.3326118334781376E-2</v>
       </c>
-      <c r="H32" s="89"/>
-      <c r="M32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="M32" s="81"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -35263,20 +36686,20 @@
         <f t="shared" si="0"/>
         <v>-1.9304598169934573E-2</v>
       </c>
-      <c r="H33" s="90"/>
-      <c r="I33" s="91" t="s">
+      <c r="H33" s="86"/>
+      <c r="I33" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="J33" s="91" t="s">
+      <c r="J33" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="K33" s="91" t="s">
+      <c r="K33" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="L33" s="92" t="s">
+      <c r="L33" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="M33" s="85"/>
+      <c r="M33" s="81"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
@@ -35289,26 +36712,26 @@
         <f t="shared" si="0"/>
         <v>-1.6760051618035732E-2</v>
       </c>
-      <c r="H34" s="93" t="s">
+      <c r="H34" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="I34" s="79">
+      <c r="I34" s="75">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>3.9781459557057579E-2</v>
       </c>
-      <c r="J34" s="77">
+      <c r="J34" s="73">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>524</v>
       </c>
-      <c r="K34" s="79">
+      <c r="K34" s="75">
         <f>J34/$I$31</f>
         <v>0.55042016806722693</v>
       </c>
-      <c r="L34" s="80">
+      <c r="L34" s="76">
         <f>K34*I34</f>
         <v>2.1896517655355222E-2</v>
       </c>
-      <c r="M34" s="85"/>
+      <c r="M34" s="81"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
@@ -35321,26 +36744,26 @@
         <f t="shared" si="0"/>
         <v>3.3477548605527208E-3</v>
       </c>
-      <c r="H35" s="93" t="s">
+      <c r="H35" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="79">
+      <c r="I35" s="75">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>-3.5700058663019882E-2</v>
       </c>
-      <c r="J35" s="77">
+      <c r="J35" s="73">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>428</v>
       </c>
-      <c r="K35" s="79">
+      <c r="K35" s="75">
         <f>J35/$I$31</f>
         <v>0.44957983193277312</v>
       </c>
-      <c r="L35" s="80">
+      <c r="L35" s="76">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>-1.605002637371062E-2</v>
       </c>
-      <c r="M35" s="85"/>
+      <c r="M35" s="81"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
@@ -35353,25 +36776,25 @@
         <f t="shared" si="0"/>
         <v>3.2944700521426951E-2</v>
       </c>
-      <c r="H36" s="94" t="s">
+      <c r="H36" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="82">
+      <c r="I36" s="78">
         <v>0</v>
       </c>
-      <c r="J36" s="82">
+      <c r="J36" s="78">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="95">
+      <c r="K36" s="91">
         <f>J36/$I$31</f>
         <v>0</v>
       </c>
-      <c r="L36" s="83">
+      <c r="L36" s="79">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M36" s="85"/>
+      <c r="M36" s="81"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
@@ -35384,12 +36807,12 @@
         <f t="shared" si="0"/>
         <v>1.4914600222158514E-2</v>
       </c>
-      <c r="H37" s="89"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="81"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
@@ -35402,22 +36825,22 @@
         <f t="shared" si="0"/>
         <v>1.4350556062290298E-3</v>
       </c>
-      <c r="H38" s="70" t="s">
+      <c r="H38" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="I38" s="91" t="s">
+      <c r="I38" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="J38" s="91" t="s">
+      <c r="J38" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="91" t="s">
+      <c r="K38" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="91" t="s">
+      <c r="L38" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="M38" s="92" t="s">
+      <c r="M38" s="88" t="s">
         <v>124</v>
       </c>
     </row>
@@ -35432,26 +36855,26 @@
         <f t="shared" si="0"/>
         <v>-2.3304614039685201E-2</v>
       </c>
-      <c r="H39" s="97">
+      <c r="H39" s="93">
         <v>1</v>
       </c>
-      <c r="I39" s="79">
+      <c r="I39" s="75">
         <f>$I$19+($H39*$I$23)</f>
         <v>5.9080075688650313E-2</v>
       </c>
-      <c r="J39" s="79">
+      <c r="J39" s="75">
         <f>$I$19-($H39*$I$23)</f>
         <v>-4.7387093125361046E-2</v>
       </c>
-      <c r="K39" s="77">
+      <c r="K39" s="73">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>719</v>
       </c>
-      <c r="L39" s="79">
+      <c r="L39" s="75">
         <f>K39/$I$31</f>
         <v>0.75525210084033612</v>
       </c>
-      <c r="M39" s="80">
+      <c r="M39" s="76">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -35466,26 +36889,26 @@
         <f t="shared" si="0"/>
         <v>-1.1456107528746262E-2</v>
       </c>
-      <c r="H40" s="97">
+      <c r="H40" s="93">
         <v>2</v>
       </c>
-      <c r="I40" s="79">
+      <c r="I40" s="75">
         <f>$I$19+($H40*$I$23)</f>
         <v>0.11231366009565599</v>
       </c>
-      <c r="J40" s="79">
+      <c r="J40" s="75">
         <f>$I$19-($H40*$I$23)</f>
         <v>-0.10062067753236673</v>
       </c>
-      <c r="K40" s="77">
+      <c r="K40" s="73">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>902</v>
       </c>
-      <c r="L40" s="79">
+      <c r="L40" s="75">
         <f>K40/$I$31</f>
         <v>0.94747899159663862</v>
       </c>
-      <c r="M40" s="80">
+      <c r="M40" s="76">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -35500,26 +36923,26 @@
         <f t="shared" si="0"/>
         <v>-8.8785911758254787E-2</v>
       </c>
-      <c r="H41" s="97">
+      <c r="H41" s="93">
         <v>3</v>
       </c>
-      <c r="I41" s="79">
+      <c r="I41" s="75">
         <f>$I$19+($H41*$I$23)</f>
         <v>0.16554724450266167</v>
       </c>
-      <c r="J41" s="79">
+      <c r="J41" s="75">
         <f>$I$19-($H41*$I$23)</f>
         <v>-0.15385426193937241</v>
       </c>
-      <c r="K41" s="77">
+      <c r="K41" s="73">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>936</v>
       </c>
-      <c r="L41" s="79">
+      <c r="L41" s="75">
         <f>K41/$I$31</f>
         <v>0.98319327731092432</v>
       </c>
-      <c r="M41" s="98">
+      <c r="M41" s="94">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -35534,8 +36957,8 @@
         <f t="shared" si="0"/>
         <v>2.0861164708422919E-2</v>
       </c>
-      <c r="H42" s="75"/>
-      <c r="M42" s="98"/>
+      <c r="H42" s="71"/>
+      <c r="M42" s="94"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
@@ -35548,14 +36971,14 @@
         <f t="shared" si="0"/>
         <v>-1.0339540305585704E-2</v>
       </c>
-      <c r="H43" s="141" t="s">
+      <c r="H43" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="142"/>
-      <c r="M43" s="143"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="138"/>
+      <c r="L43" s="138"/>
+      <c r="M43" s="139"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -35568,24 +36991,24 @@
         <f t="shared" si="0"/>
         <v>-2.8770471715754975E-2</v>
       </c>
-      <c r="H44" s="99">
+      <c r="H44" s="95">
         <v>0.01</v>
       </c>
-      <c r="I44" s="100">
+      <c r="I44" s="96">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>-0.13963534475987524</v>
       </c>
-      <c r="J44" s="101">
+      <c r="J44" s="97">
         <v>0.2</v>
       </c>
-      <c r="K44" s="100">
+      <c r="K44" s="96">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>-2.8722440581477743E-2</v>
       </c>
-      <c r="L44" s="101">
+      <c r="L44" s="97">
         <v>0.85</v>
       </c>
-      <c r="M44" s="102">
+      <c r="M44" s="98">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>5.0068868334653349E-2</v>
       </c>
@@ -35601,24 +37024,24 @@
         <f t="shared" si="0"/>
         <v>4.6641325198352179E-2</v>
       </c>
-      <c r="H45" s="103">
+      <c r="H45" s="99">
         <v>0.02</v>
       </c>
-      <c r="I45" s="104">
+      <c r="I45" s="100">
         <f t="shared" si="7"/>
         <v>-0.10522464130612222</v>
       </c>
-      <c r="J45" s="105">
+      <c r="J45" s="101">
         <v>0.25</v>
       </c>
-      <c r="K45" s="104">
+      <c r="K45" s="100">
         <f t="shared" si="8"/>
         <v>-2.0557541725992945E-2</v>
       </c>
-      <c r="L45" s="105">
+      <c r="L45" s="101">
         <v>0.86</v>
       </c>
-      <c r="M45" s="106">
+      <c r="M45" s="102">
         <f t="shared" si="9"/>
         <v>5.283703363126336E-2</v>
       </c>
@@ -35634,24 +37057,24 @@
         <f t="shared" si="0"/>
         <v>5.2928840127073329E-3</v>
       </c>
-      <c r="H46" s="103">
+      <c r="H46" s="99">
         <v>0.03</v>
       </c>
-      <c r="I46" s="104">
+      <c r="I46" s="100">
         <f t="shared" si="7"/>
         <v>-9.6625091400779795E-2</v>
       </c>
-      <c r="J46" s="105">
+      <c r="J46" s="101">
         <v>0.3</v>
       </c>
-      <c r="K46" s="104">
+      <c r="K46" s="100">
         <f t="shared" si="8"/>
         <v>-1.5533828667659143E-2</v>
       </c>
-      <c r="L46" s="105">
+      <c r="L46" s="101">
         <v>0.87</v>
       </c>
-      <c r="M46" s="106">
+      <c r="M46" s="102">
         <f t="shared" si="9"/>
         <v>5.6548731003035188E-2</v>
       </c>
@@ -35667,24 +37090,24 @@
         <f t="shared" si="0"/>
         <v>-3.7391903245593827E-3</v>
       </c>
-      <c r="H47" s="103">
+      <c r="H47" s="99">
         <v>0.04</v>
       </c>
-      <c r="I47" s="104">
+      <c r="I47" s="100">
         <f t="shared" si="7"/>
         <v>-8.5930019564668378E-2</v>
       </c>
-      <c r="J47" s="105">
+      <c r="J47" s="101">
         <v>0.35</v>
       </c>
-      <c r="K47" s="104">
+      <c r="K47" s="100">
         <f t="shared" si="8"/>
         <v>-9.4758190687603498E-3</v>
       </c>
-      <c r="L47" s="105">
+      <c r="L47" s="101">
         <v>0.88</v>
       </c>
-      <c r="M47" s="106">
+      <c r="M47" s="102">
         <f t="shared" si="9"/>
         <v>5.9393187546676024E-2</v>
       </c>
@@ -35700,24 +37123,24 @@
         <f t="shared" si="0"/>
         <v>-1.0512858027599825E-2</v>
       </c>
-      <c r="H48" s="103">
+      <c r="H48" s="99">
         <v>0.05</v>
       </c>
-      <c r="I48" s="104">
+      <c r="I48" s="100">
         <f t="shared" si="7"/>
         <v>-7.8230516010701176E-2</v>
       </c>
-      <c r="J48" s="105">
+      <c r="J48" s="101">
         <v>0.4</v>
       </c>
-      <c r="K48" s="104">
+      <c r="K48" s="100">
         <f t="shared" si="8"/>
         <v>-4.3668915405717691E-3</v>
       </c>
-      <c r="L48" s="105">
+      <c r="L48" s="101">
         <v>0.89</v>
       </c>
-      <c r="M48" s="106">
+      <c r="M48" s="102">
         <f t="shared" si="9"/>
         <v>6.292964794910387E-2</v>
       </c>
@@ -35733,24 +37156,24 @@
         <f t="shared" si="0"/>
         <v>-4.2443046977401755E-3</v>
       </c>
-      <c r="H49" s="103">
+      <c r="H49" s="99">
         <v>0.06</v>
       </c>
-      <c r="I49" s="104">
+      <c r="I49" s="100">
         <f t="shared" si="7"/>
         <v>-7.1378516151194879E-2</v>
       </c>
-      <c r="J49" s="105">
+      <c r="J49" s="101">
         <v>0.45</v>
       </c>
-      <c r="K49" s="104">
+      <c r="K49" s="100">
         <f t="shared" si="8"/>
         <v>1.4840507812594804E-4</v>
       </c>
-      <c r="L49" s="105">
+      <c r="L49" s="101">
         <v>0.9</v>
       </c>
-      <c r="M49" s="106">
+      <c r="M49" s="102">
         <f t="shared" si="9"/>
         <v>6.5923495323713804E-2</v>
       </c>
@@ -35766,24 +37189,24 @@
         <f t="shared" si="0"/>
         <v>-1.6712381177967695E-2</v>
       </c>
-      <c r="H50" s="103">
+      <c r="H50" s="99">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="104">
+      <c r="I50" s="100">
         <f t="shared" si="7"/>
         <v>-6.5322318607939633E-2</v>
       </c>
-      <c r="J50" s="105">
+      <c r="J50" s="101">
         <v>0.5</v>
       </c>
-      <c r="K50" s="104">
+      <c r="K50" s="100">
         <f t="shared" si="8"/>
         <v>4.5528952995110838E-3</v>
       </c>
-      <c r="L50" s="105">
+      <c r="L50" s="101">
         <v>0.91</v>
       </c>
-      <c r="M50" s="106">
+      <c r="M50" s="102">
         <f t="shared" si="9"/>
         <v>6.9515049071658397E-2</v>
       </c>
@@ -35799,24 +37222,24 @@
         <f t="shared" si="0"/>
         <v>2.9619220412246516E-2</v>
       </c>
-      <c r="H51" s="103">
+      <c r="H51" s="99">
         <v>0.08</v>
       </c>
-      <c r="I51" s="104">
+      <c r="I51" s="100">
         <f t="shared" si="7"/>
         <v>-6.1252198961418688E-2</v>
       </c>
-      <c r="J51" s="105">
+      <c r="J51" s="101">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="104">
+      <c r="K51" s="100">
         <f t="shared" si="8"/>
         <v>9.0881251140893533E-3</v>
       </c>
-      <c r="L51" s="105">
+      <c r="L51" s="101">
         <v>0.92</v>
       </c>
-      <c r="M51" s="106">
+      <c r="M51" s="102">
         <f t="shared" si="9"/>
         <v>7.2869618983125481E-2</v>
       </c>
@@ -35832,24 +37255,24 @@
         <f t="shared" si="0"/>
         <v>8.588876070508622E-3</v>
       </c>
-      <c r="H52" s="103">
+      <c r="H52" s="99">
         <v>0.09</v>
       </c>
-      <c r="I52" s="104">
+      <c r="I52" s="100">
         <f t="shared" si="7"/>
         <v>-5.6392062385112129E-2</v>
       </c>
-      <c r="J52" s="105">
+      <c r="J52" s="101">
         <v>0.6</v>
       </c>
-      <c r="K52" s="104">
+      <c r="K52" s="100">
         <f t="shared" si="8"/>
         <v>1.4411330052331283E-2</v>
       </c>
-      <c r="L52" s="105">
+      <c r="L52" s="101">
         <v>0.93</v>
       </c>
-      <c r="M52" s="106">
+      <c r="M52" s="102">
         <f t="shared" si="9"/>
         <v>7.6859001905260599E-2</v>
       </c>
@@ -35865,24 +37288,24 @@
         <f t="shared" si="0"/>
         <v>-1.9060636756224714E-2</v>
       </c>
-      <c r="H53" s="103">
+      <c r="H53" s="99">
         <v>0.1</v>
       </c>
-      <c r="I53" s="104">
+      <c r="I53" s="100">
         <f t="shared" si="7"/>
         <v>-5.4231114739760222E-2</v>
       </c>
-      <c r="J53" s="105">
+      <c r="J53" s="101">
         <v>0.65</v>
       </c>
-      <c r="K53" s="104">
+      <c r="K53" s="100">
         <f t="shared" si="8"/>
         <v>1.9780711991497345E-2</v>
       </c>
-      <c r="L53" s="105">
+      <c r="L53" s="101">
         <v>0.94</v>
       </c>
-      <c r="M53" s="106">
+      <c r="M53" s="102">
         <f t="shared" si="9"/>
         <v>8.3610810790687162E-2</v>
       </c>
@@ -35898,24 +37321,24 @@
         <f t="shared" si="0"/>
         <v>0.14867784277777774</v>
       </c>
-      <c r="H54" s="103">
+      <c r="H54" s="99">
         <v>0.11</v>
       </c>
-      <c r="I54" s="104">
+      <c r="I54" s="100">
         <f t="shared" si="7"/>
         <v>-5.1629087686152222E-2</v>
       </c>
-      <c r="J54" s="105">
+      <c r="J54" s="101">
         <v>0.7</v>
       </c>
-      <c r="K54" s="104">
+      <c r="K54" s="100">
         <f t="shared" si="8"/>
         <v>2.5381474811995649E-2</v>
       </c>
-      <c r="L54" s="105">
+      <c r="L54" s="101">
         <v>0.95</v>
       </c>
-      <c r="M54" s="106">
+      <c r="M54" s="102">
         <f t="shared" si="9"/>
         <v>9.0257606990814365E-2</v>
       </c>
@@ -35931,24 +37354,24 @@
         <f t="shared" si="0"/>
         <v>3.5494419410213141E-2</v>
       </c>
-      <c r="H55" s="103">
+      <c r="H55" s="99">
         <v>0.12</v>
       </c>
-      <c r="I55" s="104">
+      <c r="I55" s="100">
         <f t="shared" si="7"/>
         <v>-4.7994043994764861E-2</v>
       </c>
-      <c r="J55" s="105">
+      <c r="J55" s="101">
         <v>0.75</v>
       </c>
-      <c r="K55" s="104">
+      <c r="K55" s="100">
         <f t="shared" si="8"/>
         <v>3.2891903112417853E-2</v>
       </c>
-      <c r="L55" s="105">
+      <c r="L55" s="101">
         <v>0.96</v>
       </c>
-      <c r="M55" s="106">
+      <c r="M55" s="102">
         <f t="shared" si="9"/>
         <v>9.790962352019475E-2</v>
       </c>
@@ -35964,24 +37387,24 @@
         <f t="shared" si="0"/>
         <v>3.1503545094461849E-2</v>
       </c>
-      <c r="H56" s="103">
+      <c r="H56" s="99">
         <v>0.13</v>
       </c>
-      <c r="I56" s="104">
+      <c r="I56" s="100">
         <f t="shared" si="7"/>
         <v>-4.3488148296210047E-2</v>
       </c>
-      <c r="J56" s="105">
+      <c r="J56" s="101">
         <v>0.8</v>
       </c>
-      <c r="K56" s="104">
+      <c r="K56" s="100">
         <f t="shared" si="8"/>
         <v>3.9562115273830398E-2</v>
       </c>
-      <c r="L56" s="105">
+      <c r="L56" s="101">
         <v>0.97</v>
       </c>
-      <c r="M56" s="106">
+      <c r="M56" s="102">
         <f t="shared" si="9"/>
         <v>0.10228296300910313</v>
       </c>
@@ -35997,19 +37420,19 @@
         <f t="shared" si="0"/>
         <v>-1.3510631961250907E-2</v>
       </c>
-      <c r="H57" s="103">
+      <c r="H57" s="99">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="104">
+      <c r="I57" s="100">
         <f t="shared" si="7"/>
         <v>-4.0877342937211791E-2</v>
       </c>
-      <c r="J57" s="105"/>
-      <c r="K57" s="104"/>
-      <c r="L57" s="105">
+      <c r="J57" s="101"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="101">
         <v>0.98</v>
       </c>
-      <c r="M57" s="106">
+      <c r="M57" s="102">
         <f t="shared" si="9"/>
         <v>0.12194054740126513</v>
       </c>
@@ -36025,19 +37448,19 @@
         <f t="shared" si="0"/>
         <v>5.1740827458827132E-2</v>
       </c>
-      <c r="H58" s="107">
+      <c r="H58" s="103">
         <v>0.15</v>
       </c>
-      <c r="I58" s="108">
+      <c r="I58" s="104">
         <f t="shared" si="7"/>
         <v>-3.9013993813855397E-2</v>
       </c>
-      <c r="J58" s="109"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="110">
+      <c r="J58" s="105"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="106">
         <v>0.99</v>
       </c>
-      <c r="M58" s="111">
+      <c r="M58" s="107">
         <f t="shared" si="9"/>
         <v>0.1520839629417807</v>
       </c>
@@ -36065,10 +37488,10 @@
         <f t="shared" si="0"/>
         <v>3.7486058942004741E-2</v>
       </c>
-      <c r="H60" s="112" t="s">
+      <c r="H60" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="I60" s="113"/>
+      <c r="I60" s="109"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
@@ -36081,10 +37504,10 @@
         <f t="shared" si="0"/>
         <v>2.6960239072847614E-2</v>
       </c>
-      <c r="H61" s="114" t="s">
+      <c r="H61" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="I61" s="115"/>
+      <c r="I61" s="111"/>
     </row>
     <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
@@ -36097,7 +37520,7 @@
         <f t="shared" si="0"/>
         <v>2.2529521612339565E-2</v>
       </c>
-      <c r="H62" s="116"/>
+      <c r="H62" s="112"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
@@ -36110,10 +37533,10 @@
         <f t="shared" si="0"/>
         <v>-8.712534705254138E-2</v>
       </c>
-      <c r="H63" s="112" t="s">
+      <c r="H63" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="I63" s="117"/>
+      <c r="I63" s="113"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
@@ -36126,10 +37549,10 @@
         <f t="shared" si="0"/>
         <v>2.1327256741371592E-2</v>
       </c>
-      <c r="H64" s="118" t="s">
+      <c r="H64" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="I64" s="119">
+      <c r="I64" s="115">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
@@ -36145,10 +37568,10 @@
         <f t="shared" si="0"/>
         <v>-6.4431122741987479E-2</v>
       </c>
-      <c r="H65" s="114" t="s">
+      <c r="H65" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="I65" s="120">
+      <c r="I65" s="116">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>

--- a/Retail Wholesale - Restaurants/CMG.xlsx
+++ b/Retail Wholesale - Restaurants/CMG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Retail Wholesale - Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B62A225-1CC0-4D01-85C6-8D48555BC9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD5332F-95DA-4525-8877-86932C1F7427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="219">
   <si>
     <t>Price</t>
   </si>
@@ -960,6 +960,21 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Changed CEO in August24</t>
+  </si>
+  <si>
+    <t>Brian Niccol went to Starbucks, COO Scott Boatwright new CEO</t>
+  </si>
+  <si>
+    <t>Opening of new Locations</t>
+  </si>
+  <si>
+    <t>higher average Transactions</t>
+  </si>
+  <si>
+    <t>Sales per Restaurant</t>
   </si>
 </sst>
 </file>
@@ -1696,7 +1711,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1758,8 +1773,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1844,6 +1857,14 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1902,29 +1923,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3030,10 +3040,10 @@
                   <c:v>0.14325962412845361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14064023143448479</c:v>
+                  <c:v>0.1487442472883711</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13499111900532856</c:v>
+                  <c:v>0.13580246913580241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4198,10 +4208,10 @@
                   <c:v>1228.7369999999983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1488.9920000000006</c:v>
+                  <c:v>1442.175999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1692.9760000000003</c:v>
+                  <c:v>1634.4560000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4325,10 +4335,10 @@
                   <c:v>0.36662844330058375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14291569310601226</c:v>
+                  <c:v>0.21111111111111125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1564719810576165</c:v>
+                  <c:v>0.1834862385321101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18969,7 +18979,7 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18996,7 +19006,7 @@
       <c r="E2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="55" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="25"/>
@@ -19100,7 +19110,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>2914.25</v>
+        <v>54.04</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>161</v>
@@ -19126,7 +19136,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <v>27.71</v>
+        <f>Model!Y21</f>
+        <v>1381.518</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>163</v>
@@ -19155,7 +19166,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>80753.867500000008</v>
+        <v>74657.23272</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>165</v>
@@ -19183,8 +19194,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!G37+Model!G42</f>
-        <v>1295.4470000000001</v>
+        <f>Model!Y37+Model!Y42</f>
+        <v>1489.8150000000001</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>167</v>
@@ -19242,7 +19253,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>1295.4470000000001</v>
+        <v>1489.8150000000001</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>171</v>
@@ -19271,7 +19282,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>79458.420500000007</v>
+        <v>73167.417719999998</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>173</v>
@@ -19300,7 +19311,7 @@
       </c>
       <c r="C13" s="36">
         <f>C6/Model!G22</f>
-        <v>65.721035095386668</v>
+        <v>60.044444444444444</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -19313,7 +19324,7 @@
       </c>
       <c r="C14" s="36">
         <f>C6/Model!H23</f>
-        <v>57.502959747434886</v>
+        <v>49.577981651376142</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -19331,7 +19342,7 @@
       </c>
       <c r="C15" s="36">
         <f>C6/Model!I23</f>
-        <v>49.722743559119607</v>
+        <v>41.891472868217051</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -19340,7 +19351,7 @@
       </c>
       <c r="C16" s="6">
         <f>Model!H23/Model!G22-1</f>
-        <v>0.14291569310601226</v>
+        <v>0.21111111111111125</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -19349,14 +19360,14 @@
       </c>
       <c r="C17" s="6">
         <f>Model!I23/Model!H23-1</f>
-        <v>0.1564719810576165</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="121"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="125"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -19364,11 +19375,14 @@
       </c>
       <c r="C18" s="49">
         <f>C14/(C16*100)</f>
-        <v>4.0235581200155703</v>
-      </c>
-      <c r="L18" s="124"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="126"/>
+        <v>2.3484307098020261</v>
+      </c>
+      <c r="E18" t="s">
+        <v>216</v>
+      </c>
+      <c r="L18" s="126"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="128"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -19376,11 +19390,14 @@
       </c>
       <c r="C19" s="49">
         <f>C15/(C17*100)</f>
-        <v>3.1777410385576044</v>
-      </c>
-      <c r="L19" s="124"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="126"/>
+        <v>2.2830852713178293</v>
+      </c>
+      <c r="E19" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" s="126"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="128"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -19388,11 +19405,14 @@
       </c>
       <c r="C20" s="6">
         <f>Model!H6/Model!G5-1</f>
-        <v>0.14064023143448479</v>
-      </c>
-      <c r="L20" s="124"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="126"/>
+        <v>0.1487442472883711</v>
+      </c>
+      <c r="E20" t="s">
+        <v>218</v>
+      </c>
+      <c r="L20" s="126"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="128"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -19400,11 +19420,11 @@
       </c>
       <c r="C21" s="6">
         <f>Model!I6/Model!H6-1</f>
-        <v>0.13499111900532856</v>
-      </c>
-      <c r="L21" s="124"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="126"/>
+        <v>0.13580246913580241</v>
+      </c>
+      <c r="L21" s="126"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="128"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -19414,9 +19434,9 @@
         <f>Model!G16+Model!G13</f>
         <v>1877.2069999999983</v>
       </c>
-      <c r="L22" s="124"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="128"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -19426,33 +19446,33 @@
         <f>Model!G18</f>
         <v>1620.5059999999983</v>
       </c>
-      <c r="L23" s="124"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="128"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!G24</f>
-        <v>0.26197163209510377</v>
-      </c>
-      <c r="L24" s="124"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="126"/>
+        <f>Model!Y24</f>
+        <v>0.2890569055977279</v>
+      </c>
+      <c r="L24" s="126"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="128"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!G25</f>
-        <v>0.12447130160320716</v>
-      </c>
-      <c r="L25" s="124"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="126"/>
+        <f>Model!Y25</f>
+        <v>0.15326372961440815</v>
+      </c>
+      <c r="L25" s="126"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="128"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -19460,25 +19480,25 @@
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>49.033092441496727</v>
-      </c>
-      <c r="L26" s="124"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="126"/>
+        <v>45.150969956297651</v>
+      </c>
+      <c r="L26" s="126"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="128"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="117">
+      <c r="C27" s="115">
         <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="124"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="128"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -19487,17 +19507,23 @@
       <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="L28" s="127"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="129"/>
+      <c r="E28" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" s="129"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="131"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!G43/Model!G57</f>
-        <v>1.5725535476046089</v>
+        <f>Model!Y43/Model!Y57</f>
+        <v>1.7123977621755522</v>
+      </c>
+      <c r="E29" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -19505,8 +19531,8 @@
         <v>85</v>
       </c>
       <c r="C30" s="36">
-        <f>(Model!G37+Model!G42)/Model!G57</f>
-        <v>1.2569528198908431</v>
+        <f>(Model!Y37+Model!Y42)/Model!Y57</f>
+        <v>1.4281804447273467</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -19514,8 +19540,8 @@
         <v>86</v>
       </c>
       <c r="C31" s="6">
-        <f>(Model!G43-Model!G57)/Model!G50</f>
-        <v>7.3354232442547948E-2</v>
+        <f>(Model!Y43-Model!Y57)/Model!Y50</f>
+        <v>8.331342451962398E-2</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -19523,8 +19549,8 @@
         <v>87</v>
       </c>
       <c r="C32" s="36">
-        <f>(Model!G50-Model!G61)/C7</f>
-        <v>110.50909418982322</v>
+        <f>(Model!Y50-Model!Y61)/C7</f>
+        <v>2.6867691915704324</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -19574,10 +19600,10 @@
   <dimension ref="A1:AA83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19585,8 +19611,8 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="23" max="23" width="11.42578125" style="140"/>
-    <col min="24" max="24" width="11.42578125" style="13"/>
+    <col min="24" max="24" width="11.42578125" style="142"/>
+    <col min="25" max="25" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -19649,13 +19675,13 @@
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="140" t="s">
+      <c r="W2" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="13" t="s">
         <v>70</v>
       </c>
       <c r="Z2" t="s">
@@ -19684,48 +19710,53 @@
       <c r="G3" s="15">
         <v>9804.1239999999998</v>
       </c>
-      <c r="L3" s="147">
+      <c r="L3" s="10">
         <v>1715.99</v>
       </c>
-      <c r="M3" s="147">
+      <c r="M3" s="10">
         <v>1869.365</v>
       </c>
-      <c r="N3" s="147">
+      <c r="N3" s="10">
         <v>1932.4090000000001</v>
       </c>
-      <c r="O3" s="147">
+      <c r="O3" s="10">
         <f>E3-N3-M3-L3</f>
         <v>1939.4050000000004</v>
       </c>
-      <c r="P3" s="147">
+      <c r="P3" s="10">
         <v>1998.9559999999999</v>
       </c>
-      <c r="Q3" s="147">
+      <c r="Q3" s="10">
         <v>2192.8020000000001</v>
       </c>
-      <c r="R3" s="147">
+      <c r="R3" s="10">
         <v>2202.3359999999998</v>
       </c>
-      <c r="S3" s="147">
+      <c r="S3" s="10">
         <f>F3-R3-Q3-P3</f>
         <v>2163.9070000000011</v>
       </c>
-      <c r="T3" s="147">
+      <c r="T3" s="10">
         <v>2351.009</v>
       </c>
-      <c r="U3" s="147">
+      <c r="U3" s="10">
         <v>2497.509</v>
       </c>
-      <c r="V3" s="147">
+      <c r="V3" s="10">
         <v>2456.0390000000002</v>
       </c>
-      <c r="W3" s="148">
+      <c r="W3" s="10">
         <f>G3-V3-U3-T3</f>
         <v>2499.5669999999991</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="143">
         <v>2684.4470000000001</v>
       </c>
+      <c r="Y3" s="15">
+        <v>2954.913</v>
+      </c>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -19746,48 +19777,53 @@
       <c r="G4" s="15">
         <v>67.525000000000006</v>
       </c>
-      <c r="L4" s="147">
+      <c r="L4" s="10">
         <v>25.585000000000001</v>
       </c>
-      <c r="M4" s="147">
+      <c r="M4" s="10">
         <v>23.172999999999998</v>
       </c>
-      <c r="N4" s="147">
+      <c r="N4" s="10">
         <v>19.905999999999999</v>
       </c>
-      <c r="O4" s="147">
+      <c r="O4" s="10">
         <f>E4-N4-M4-L4</f>
         <v>21.227999999999987</v>
       </c>
-      <c r="P4" s="147">
+      <c r="P4" s="10">
         <v>21.582999999999998</v>
       </c>
-      <c r="Q4" s="147">
+      <c r="Q4" s="10">
         <v>20.536999999999999</v>
       </c>
-      <c r="R4" s="147">
+      <c r="R4" s="10">
         <v>17.838999999999999</v>
       </c>
-      <c r="S4" s="147">
+      <c r="S4" s="10">
         <f>F4-R4-Q4-P4</f>
         <v>16.692</v>
       </c>
-      <c r="T4" s="147">
+      <c r="T4" s="10">
         <v>17.571000000000002</v>
       </c>
-      <c r="U4" s="147">
+      <c r="U4" s="10">
         <v>17.292000000000002</v>
       </c>
-      <c r="V4" s="147">
+      <c r="V4" s="10">
         <v>15.909000000000001</v>
       </c>
-      <c r="W4" s="148">
+      <c r="W4" s="10">
         <f>G4-V4-U4-T4</f>
         <v>16.753000000000004</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="143">
         <v>17.401</v>
       </c>
+      <c r="Y4" s="15">
+        <v>18.204000000000001</v>
+      </c>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
     </row>
     <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -19867,20 +19903,20 @@
         <f t="shared" si="0"/>
         <v>2516.3199999999993</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="144">
         <f t="shared" si="0"/>
         <v>2701.848</v>
       </c>
-      <c r="Y5" s="11">
-        <f t="shared" si="0"/>
+      <c r="Y5" s="14">
+        <f t="shared" ref="Y5:AA5" si="1">SUM(Y3:Y4)</f>
+        <v>2973.1170000000002</v>
+      </c>
+      <c r="Z5" s="144">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="11">
-        <f t="shared" si="0"/>
+      <c r="AA5" s="144">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -19894,48 +19930,46 @@
       <c r="F6" s="10"/>
       <c r="G6" s="15"/>
       <c r="H6" s="42">
-        <v>11260</v>
+        <v>11340</v>
       </c>
       <c r="I6" s="42">
-        <v>12780</v>
-      </c>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147">
+        <v>12880</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10">
         <v>2250</v>
       </c>
-      <c r="R6" s="147">
+      <c r="R6" s="10">
         <v>2230</v>
       </c>
-      <c r="S6" s="147">
+      <c r="S6" s="10">
         <v>2230</v>
       </c>
-      <c r="T6" s="147">
+      <c r="T6" s="10">
         <v>2430</v>
       </c>
-      <c r="U6" s="147">
+      <c r="U6" s="10">
         <v>2530</v>
       </c>
-      <c r="V6" s="147">
+      <c r="V6" s="10">
         <v>2470</v>
       </c>
-      <c r="W6" s="148">
+      <c r="W6" s="10">
         <v>2490</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="143">
         <v>2680</v>
       </c>
-      <c r="Y6" s="40">
-        <v>2920</v>
-      </c>
-      <c r="Z6" s="149">
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="143">
+        <v>2810</v>
+      </c>
+      <c r="AA6" s="143">
         <v>2850</v>
-      </c>
-      <c r="AA6" s="149">
-        <v>2870</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -19959,49 +19993,53 @@
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
-      <c r="L7" s="147">
+      <c r="L7" s="10">
         <v>522.67100000000005</v>
       </c>
-      <c r="M7" s="147">
+      <c r="M7" s="10">
         <v>574.47799999999995</v>
       </c>
-      <c r="N7" s="147">
+      <c r="N7" s="10">
         <v>591.33199999999999</v>
       </c>
-      <c r="O7" s="147">
-        <f t="shared" ref="O7:O10" si="1">E7-N7-M7-L7</f>
+      <c r="O7" s="10">
+        <f t="shared" ref="O7:O10" si="2">E7-N7-M7-L7</f>
         <v>620.14999999999986</v>
       </c>
-      <c r="P7" s="147">
+      <c r="P7" s="10">
         <v>626.92600000000004</v>
       </c>
-      <c r="Q7" s="147">
+      <c r="Q7" s="10">
         <v>673.928</v>
       </c>
-      <c r="R7" s="147">
+      <c r="R7" s="10">
         <v>662.54</v>
       </c>
-      <c r="S7" s="147">
-        <f t="shared" ref="S7:S10" si="2">F7-R7-Q7-P7</f>
+      <c r="S7" s="10">
+        <f t="shared" ref="S7:S10" si="3">F7-R7-Q7-P7</f>
         <v>638.851</v>
       </c>
-      <c r="T7" s="147">
+      <c r="T7" s="10">
         <v>692.55899999999997</v>
       </c>
-      <c r="U7" s="147">
+      <c r="U7" s="10">
         <v>738.66399999999999</v>
       </c>
-      <c r="V7" s="147">
+      <c r="V7" s="10">
         <v>734.18600000000004</v>
       </c>
-      <c r="W7" s="148">
-        <f t="shared" ref="W7:W10" si="3">G7-V7-U7-T7</f>
+      <c r="W7" s="10">
+        <f t="shared" ref="W7:W10" si="4">G7-V7-U7-T7</f>
         <v>747.15499999999975</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="143">
         <v>779.07600000000002</v>
       </c>
-      <c r="Y7" s="40"/>
+      <c r="Y7" s="15">
+        <v>873.673</v>
+      </c>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -20024,49 +20062,53 @@
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
-      <c r="L8" s="147">
+      <c r="L8" s="10">
         <v>433.66899999999998</v>
       </c>
-      <c r="M8" s="147">
+      <c r="M8" s="10">
         <v>464.50599999999997</v>
       </c>
-      <c r="N8" s="147">
+      <c r="N8" s="10">
         <v>502.75700000000001</v>
       </c>
-      <c r="O8" s="147">
-        <f t="shared" si="1"/>
+      <c r="O8" s="10">
+        <f t="shared" si="2"/>
         <v>516.82899999999995</v>
       </c>
-      <c r="P8" s="147">
+      <c r="P8" s="10">
         <v>531.94000000000005</v>
       </c>
-      <c r="Q8" s="147">
+      <c r="Q8" s="10">
         <v>549.92600000000004</v>
       </c>
-      <c r="R8" s="147">
+      <c r="R8" s="10">
         <v>557.178</v>
       </c>
-      <c r="S8" s="147">
-        <f t="shared" si="2"/>
+      <c r="S8" s="10">
+        <f t="shared" si="3"/>
         <v>558.91400000000021</v>
       </c>
-      <c r="T8" s="147">
+      <c r="T8" s="10">
         <v>583.79399999999998</v>
       </c>
-      <c r="U8" s="147">
+      <c r="U8" s="10">
         <v>611.678</v>
       </c>
-      <c r="V8" s="147">
+      <c r="V8" s="10">
         <v>616.28200000000004</v>
       </c>
-      <c r="W8" s="148">
-        <f t="shared" si="3"/>
+      <c r="W8" s="10">
+        <f t="shared" si="4"/>
         <v>629.22799999999995</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="143">
         <v>659.45</v>
       </c>
-      <c r="Y8" s="40"/>
+      <c r="Y8" s="15">
+        <v>716.62699999999995</v>
+      </c>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -20089,49 +20131,53 @@
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
-      <c r="L9" s="147">
+      <c r="L9" s="10">
         <v>101.76900000000001</v>
       </c>
-      <c r="M9" s="147">
+      <c r="M9" s="10">
         <v>103.43</v>
       </c>
-      <c r="N9" s="147">
+      <c r="N9" s="10">
         <v>104.223</v>
       </c>
-      <c r="O9" s="147">
-        <f t="shared" si="1"/>
+      <c r="O9" s="10">
+        <f t="shared" si="2"/>
         <v>107.18399999999997</v>
       </c>
-      <c r="P9" s="147">
+      <c r="P9" s="10">
         <v>112.032</v>
       </c>
-      <c r="Q9" s="147">
+      <c r="Q9" s="10">
         <v>113.919</v>
       </c>
-      <c r="R9" s="147">
+      <c r="R9" s="10">
         <v>115.82599999999999</v>
       </c>
-      <c r="S9" s="147">
-        <f t="shared" si="2"/>
+      <c r="S9" s="10">
+        <f t="shared" si="3"/>
         <v>118.64800000000007</v>
       </c>
-      <c r="T9" s="147">
+      <c r="T9" s="10">
         <v>121.931</v>
       </c>
-      <c r="U9" s="147">
+      <c r="U9" s="10">
         <v>123.89700000000001</v>
       </c>
-      <c r="V9" s="147">
+      <c r="V9" s="10">
         <v>126.26900000000001</v>
       </c>
-      <c r="W9" s="148">
-        <f t="shared" si="3"/>
+      <c r="W9" s="10">
+        <f t="shared" si="4"/>
         <v>131.16700000000003</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="143">
         <v>135.69900000000001</v>
       </c>
-      <c r="Y9" s="40"/>
+      <c r="Y9" s="15">
+        <v>138.66300000000001</v>
+      </c>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="143"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -20154,49 +20200,53 @@
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
-      <c r="L10" s="147">
+      <c r="L10" s="10">
         <v>294.70999999999998</v>
       </c>
-      <c r="M10" s="147">
+      <c r="M10" s="10">
         <v>287.24200000000002</v>
       </c>
-      <c r="N10" s="147">
+      <c r="N10" s="10">
         <v>294.64999999999998</v>
       </c>
-      <c r="O10" s="147">
-        <f t="shared" si="1"/>
+      <c r="O10" s="10">
+        <f t="shared" si="2"/>
         <v>320.45200000000006</v>
       </c>
-      <c r="P10" s="147">
+      <c r="P10" s="10">
         <v>330.69499999999999</v>
       </c>
-      <c r="Q10" s="147">
+      <c r="Q10" s="10">
         <v>317.48099999999999</v>
       </c>
-      <c r="R10" s="147">
+      <c r="R10" s="10">
         <v>322.08499999999998</v>
       </c>
-      <c r="S10" s="147">
-        <f t="shared" si="2"/>
+      <c r="S10" s="10">
+        <f t="shared" si="3"/>
         <v>341.64399999999995</v>
       </c>
-      <c r="T10" s="147">
+      <c r="T10" s="10">
         <v>363.20600000000002</v>
       </c>
-      <c r="U10" s="147">
+      <c r="U10" s="10">
         <v>349.70699999999999</v>
       </c>
-      <c r="V10" s="147">
+      <c r="V10" s="10">
         <v>345.36799999999999</v>
       </c>
-      <c r="W10" s="148">
-        <f t="shared" si="3"/>
+      <c r="W10" s="10">
+        <f t="shared" si="4"/>
         <v>370.46600000000012</v>
       </c>
-      <c r="X10" s="15">
+      <c r="X10" s="143">
         <v>385.77300000000002</v>
       </c>
-      <c r="Y10" s="40"/>
+      <c r="Y10" s="15">
+        <v>384.75400000000002</v>
+      </c>
+      <c r="Z10" s="143"/>
+      <c r="AA10" s="143"/>
     </row>
     <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -20207,90 +20257,90 @@
         <v>4443.8789999999999</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" ref="D11:G11" si="4">SUM(D7:D10)</f>
+        <f t="shared" ref="D11:G11" si="5">SUM(D7:D10)</f>
         <v>4944.3060000000005</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5840.0519999999997</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6572.5329999999994</v>
       </c>
       <c r="G11" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7285.5570000000007</v>
       </c>
       <c r="H11" s="11">
         <f>H6*(1-H24)</f>
-        <v>8332.4</v>
+        <v>8391.6</v>
       </c>
       <c r="I11" s="11">
         <f>I6*(1-I24)</f>
-        <v>9457.2000000000007</v>
+        <v>9531.2000000000007</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" ref="L11" si="5">SUM(L7:L10)</f>
+        <f t="shared" ref="L11" si="6">SUM(L7:L10)</f>
         <v>1352.819</v>
       </c>
       <c r="M11" s="11">
-        <f t="shared" ref="M11" si="6">SUM(M7:M10)</f>
+        <f t="shared" ref="M11" si="7">SUM(M7:M10)</f>
         <v>1429.6559999999999</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" ref="N11" si="7">SUM(N7:N10)</f>
+        <f t="shared" ref="N11" si="8">SUM(N7:N10)</f>
         <v>1492.962</v>
       </c>
       <c r="O11" s="11">
-        <f t="shared" ref="O11" si="8">SUM(O7:O10)</f>
+        <f t="shared" ref="O11" si="9">SUM(O7:O10)</f>
         <v>1564.6149999999998</v>
       </c>
       <c r="P11" s="11">
-        <f t="shared" ref="P11" si="9">SUM(P7:P10)</f>
+        <f t="shared" ref="P11" si="10">SUM(P7:P10)</f>
         <v>1601.5929999999998</v>
       </c>
       <c r="Q11" s="11">
-        <f t="shared" ref="Q11" si="10">SUM(Q7:Q10)</f>
+        <f t="shared" ref="Q11" si="11">SUM(Q7:Q10)</f>
         <v>1655.2540000000001</v>
       </c>
       <c r="R11" s="11">
-        <f t="shared" ref="R11" si="11">SUM(R7:R10)</f>
+        <f t="shared" ref="R11" si="12">SUM(R7:R10)</f>
         <v>1657.6289999999999</v>
       </c>
       <c r="S11" s="11">
-        <f t="shared" ref="S11" si="12">SUM(S7:S10)</f>
+        <f t="shared" ref="S11" si="13">SUM(S7:S10)</f>
         <v>1658.0570000000005</v>
       </c>
       <c r="T11" s="11">
-        <f t="shared" ref="T11" si="13">SUM(T7:T10)</f>
+        <f t="shared" ref="T11" si="14">SUM(T7:T10)</f>
         <v>1761.4900000000002</v>
       </c>
       <c r="U11" s="11">
-        <f t="shared" ref="U11" si="14">SUM(U7:U10)</f>
+        <f t="shared" ref="U11" si="15">SUM(U7:U10)</f>
         <v>1823.9459999999999</v>
       </c>
       <c r="V11" s="11">
-        <f t="shared" ref="V11" si="15">SUM(V7:V10)</f>
+        <f t="shared" ref="V11" si="16">SUM(V7:V10)</f>
         <v>1822.105</v>
       </c>
-      <c r="W11" s="141">
-        <f t="shared" ref="W11" si="16">SUM(W7:W10)</f>
+      <c r="W11" s="11">
+        <f t="shared" ref="W11" si="17">SUM(W7:W10)</f>
         <v>1878.0159999999998</v>
       </c>
-      <c r="X11" s="14">
-        <f t="shared" ref="X11" si="17">SUM(X7:X10)</f>
+      <c r="X11" s="144">
+        <f t="shared" ref="X11:AA11" si="18">SUM(X7:X10)</f>
         <v>1959.998</v>
       </c>
-      <c r="Y11" s="11">
-        <f t="shared" ref="Y11:AA11" si="18">SUM(Y7:Y10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="11">
+      <c r="Y11" s="14">
+        <f t="shared" si="18"/>
+        <v>2113.7170000000001</v>
+      </c>
+      <c r="Z11" s="144">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="144">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -20331,7 +20381,7 @@
       <c r="N12" s="10">
         <v>145.93</v>
       </c>
-      <c r="O12" s="147">
+      <c r="O12" s="10">
         <f t="shared" ref="O12:O15" si="20">E12-N12-M12-L12</f>
         <v>159.77699999999999</v>
       </c>
@@ -20344,7 +20394,7 @@
       <c r="R12" s="10">
         <v>140.89599999999999</v>
       </c>
-      <c r="S12" s="147">
+      <c r="S12" s="10">
         <f t="shared" ref="S12:S15" si="21">F12-R12-Q12-P12</f>
         <v>135.07300000000009</v>
       </c>
@@ -20357,13 +20407,18 @@
       <c r="V12" s="10">
         <v>159.501</v>
       </c>
-      <c r="W12" s="148">
+      <c r="W12" s="10">
         <f t="shared" ref="W12:W15" si="22">G12-V12-U12-T12</f>
         <v>169.24699999999999</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X12" s="143">
         <v>204.625</v>
       </c>
+      <c r="Y12" s="15">
+        <v>175.02799999999999</v>
+      </c>
+      <c r="Z12" s="143"/>
+      <c r="AA12" s="143"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -20386,11 +20441,11 @@
       </c>
       <c r="H13" s="40">
         <f t="shared" si="19"/>
-        <v>337.8</v>
+        <v>340.2</v>
       </c>
       <c r="I13" s="40">
         <f t="shared" si="19"/>
-        <v>383.4</v>
+        <v>386.4</v>
       </c>
       <c r="L13" s="10">
         <v>63.122</v>
@@ -20401,7 +20456,7 @@
       <c r="N13" s="10">
         <v>63.191000000000003</v>
       </c>
-      <c r="O13" s="147">
+      <c r="O13" s="10">
         <f t="shared" si="20"/>
         <v>66.262000000000015</v>
       </c>
@@ -20414,7 +20469,7 @@
       <c r="R13" s="10">
         <v>71.415999999999997</v>
       </c>
-      <c r="S13" s="147">
+      <c r="S13" s="10">
         <f t="shared" si="21"/>
         <v>74.012000000000015</v>
       </c>
@@ -20427,13 +20482,18 @@
       <c r="V13" s="10">
         <v>78.546000000000006</v>
       </c>
-      <c r="W13" s="148">
+      <c r="W13" s="10">
         <f t="shared" si="22"/>
         <v>85.552000000000007</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="143">
         <v>83.242999999999995</v>
       </c>
+      <c r="Y13" s="15">
+        <v>83.561999999999998</v>
+      </c>
+      <c r="Z13" s="143"/>
+      <c r="AA13" s="143"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -20471,7 +20531,7 @@
       <c r="N14" s="10">
         <v>5.8940000000000001</v>
       </c>
-      <c r="O14" s="147">
+      <c r="O14" s="10">
         <f t="shared" si="20"/>
         <v>6.984</v>
       </c>
@@ -20484,7 +20544,7 @@
       <c r="R14" s="10">
         <v>7.6180000000000003</v>
       </c>
-      <c r="S14" s="147">
+      <c r="S14" s="10">
         <f t="shared" si="21"/>
         <v>11.341000000000001</v>
       </c>
@@ -20497,13 +20557,18 @@
       <c r="V14" s="10">
         <v>9.6050000000000004</v>
       </c>
-      <c r="W14" s="148">
+      <c r="W14" s="10">
         <f t="shared" si="22"/>
         <v>13.589999999999996</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="143">
         <v>7.2110000000000003</v>
       </c>
+      <c r="Y14" s="15">
+        <v>8.9949999999999992</v>
+      </c>
+      <c r="Z14" s="143"/>
+      <c r="AA14" s="143"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -20539,7 +20604,7 @@
       <c r="N15" s="10">
         <v>4.6580000000000004</v>
       </c>
-      <c r="O15" s="147">
+      <c r="O15" s="10">
         <f t="shared" si="20"/>
         <v>4.698999999999999</v>
       </c>
@@ -20552,7 +20617,7 @@
       <c r="R15" s="10">
         <v>6.3630000000000004</v>
       </c>
-      <c r="S15" s="147">
+      <c r="S15" s="10">
         <f t="shared" si="21"/>
         <v>5.7849999999999993</v>
       </c>
@@ -20565,13 +20630,18 @@
       <c r="V15" s="10">
         <v>7.2409999999999997</v>
       </c>
-      <c r="W15" s="148">
+      <c r="W15" s="10">
         <f t="shared" si="22"/>
         <v>6.5279999999999987</v>
       </c>
-      <c r="X15" s="15">
+      <c r="X15" s="143">
         <v>5.4790000000000001</v>
       </c>
+      <c r="Y15" s="15">
+        <v>5.7619999999999996</v>
+      </c>
+      <c r="Z15" s="143"/>
+      <c r="AA15" s="143"/>
     </row>
     <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -20599,11 +20669,11 @@
       </c>
       <c r="H16" s="11">
         <f>H5-SUM(H11:H15)</f>
-        <v>1889.2000000000007</v>
+        <v>1827.5999999999985</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="23"/>
-        <v>2147.6000000000004</v>
+        <v>2070.6000000000004</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -20651,24 +20721,24 @@
         <f t="shared" ref="V16" si="34">V5-SUM(V11:V15)</f>
         <v>394.95000000000027</v>
       </c>
-      <c r="W16" s="141">
+      <c r="W16" s="11">
         <f t="shared" ref="W16" si="35">W5-SUM(W11:W15)</f>
         <v>363.38699999999926</v>
       </c>
-      <c r="X16" s="14">
-        <f t="shared" ref="X16" si="36">X5-SUM(X11:X15)</f>
+      <c r="X16" s="144">
+        <f t="shared" ref="X16:AA16" si="36">X5-SUM(X11:X15)</f>
         <v>441.29200000000037</v>
       </c>
-      <c r="Y16" s="11">
-        <f t="shared" ref="Y16:AA16" si="37">Y5-SUM(Y11:Y15)</f>
+      <c r="Y16" s="14">
+        <f t="shared" si="36"/>
+        <v>586.05300000000034</v>
+      </c>
+      <c r="Z16" s="144">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="11">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="11">
-        <f t="shared" si="37"/>
+      <c r="AA16" s="144">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -20706,7 +20776,7 @@
       <c r="N17" s="10">
         <v>-0.126</v>
       </c>
-      <c r="O17" s="147">
+      <c r="O17" s="10">
         <f>E17-N17-M17-L17</f>
         <v>9.2630000000000017</v>
       </c>
@@ -20719,7 +20789,7 @@
       <c r="R17" s="10">
         <v>3.7120000000000002</v>
       </c>
-      <c r="S17" s="147">
+      <c r="S17" s="10">
         <f>F17-R17-Q17-P17</f>
         <v>7.0570000000000013</v>
       </c>
@@ -20732,107 +20802,112 @@
       <c r="V17" s="10">
         <v>18.391999999999999</v>
       </c>
-      <c r="W17" s="148">
+      <c r="W17" s="10">
         <f>G17-V17-U17-T17</f>
         <v>18.905999999999999</v>
       </c>
-      <c r="X17" s="15">
+      <c r="X17" s="143">
         <v>19.364000000000001</v>
       </c>
+      <c r="Y17" s="15">
+        <v>21.861000000000001</v>
+      </c>
+      <c r="Z17" s="143"/>
+      <c r="AA17" s="143"/>
     </row>
     <row r="18" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" ref="C18:I18" si="38">C16+SUM(C17:C17)</f>
+        <f t="shared" ref="C18:I18" si="37">C16+SUM(C17:C17)</f>
         <v>458.28499999999963</v>
       </c>
       <c r="D18" s="11">
+        <f t="shared" si="37"/>
+        <v>293.02799999999917</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="37"/>
+        <v>812.76299999999935</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="37"/>
+        <v>1181.5310000000002</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="37"/>
+        <v>1620.5059999999983</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="37"/>
+        <v>1897.5999999999985</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="37"/>
+        <v>2150.6000000000004</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" ref="L18:AA18" si="38">L16+SUM(L17:L17)</f>
+        <v>159.274</v>
+      </c>
+      <c r="M18" s="11">
         <f t="shared" si="38"/>
-        <v>293.02799999999917</v>
-      </c>
-      <c r="E18" s="11">
+        <v>246.37599999999986</v>
+      </c>
+      <c r="N18" s="11">
         <f t="shared" si="38"/>
-        <v>812.76299999999935</v>
-      </c>
-      <c r="F18" s="11">
+        <v>239.55400000000006</v>
+      </c>
+      <c r="O18" s="11">
         <f t="shared" si="38"/>
-        <v>1181.5310000000002</v>
-      </c>
-      <c r="G18" s="14">
+        <v>167.55900000000074</v>
+      </c>
+      <c r="P18" s="11">
         <f t="shared" si="38"/>
-        <v>1620.5059999999983</v>
-      </c>
-      <c r="H18" s="11">
+        <v>190.00800000000024</v>
+      </c>
+      <c r="Q18" s="11">
         <f t="shared" si="38"/>
-        <v>1959.2000000000007</v>
-      </c>
-      <c r="I18" s="11">
+        <v>348.16999999999996</v>
+      </c>
+      <c r="R18" s="11">
         <f t="shared" si="38"/>
-        <v>2227.6000000000004</v>
-      </c>
-      <c r="L18" s="11">
-        <f t="shared" ref="L18:AA18" si="39">L16+SUM(L17:L17)</f>
-        <v>159.274</v>
-      </c>
-      <c r="M18" s="11">
-        <f t="shared" si="39"/>
-        <v>246.37599999999986</v>
-      </c>
-      <c r="N18" s="11">
-        <f t="shared" si="39"/>
-        <v>239.55400000000006</v>
-      </c>
-      <c r="O18" s="11">
-        <f t="shared" si="39"/>
-        <v>167.55900000000074</v>
-      </c>
-      <c r="P18" s="11">
-        <f t="shared" si="39"/>
-        <v>190.00800000000024</v>
-      </c>
-      <c r="Q18" s="11">
-        <f t="shared" si="39"/>
-        <v>348.16999999999996</v>
-      </c>
-      <c r="R18" s="11">
-        <f t="shared" si="39"/>
         <v>339.96499999999992</v>
       </c>
       <c r="S18" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>303.3880000000006</v>
       </c>
       <c r="T18" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>376.55499999999955</v>
       </c>
       <c r="U18" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>448.31600000000037</v>
       </c>
       <c r="V18" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>413.34200000000027</v>
       </c>
-      <c r="W18" s="141">
-        <f t="shared" si="39"/>
+      <c r="W18" s="11">
+        <f t="shared" si="38"/>
         <v>382.29299999999927</v>
       </c>
-      <c r="X18" s="14">
-        <f t="shared" si="39"/>
+      <c r="X18" s="144">
+        <f t="shared" si="38"/>
         <v>460.65600000000035</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Y18" s="14">
+        <f t="shared" ref="Y18:AA18" si="39">Y16+SUM(Y17:Y17)</f>
+        <v>607.91400000000033</v>
+      </c>
+      <c r="Z18" s="144">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="11">
+      <c r="AA18" s="144">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -20858,11 +20933,11 @@
       </c>
       <c r="H19" s="40">
         <f>H18*0.24</f>
-        <v>470.20800000000014</v>
+        <v>455.42399999999964</v>
       </c>
       <c r="I19" s="40">
         <f>I18*0.24</f>
-        <v>534.62400000000002</v>
+        <v>516.14400000000012</v>
       </c>
       <c r="L19" s="10">
         <v>32.173000000000002</v>
@@ -20873,7 +20948,7 @@
       <c r="N19" s="10">
         <v>35.119999999999997</v>
       </c>
-      <c r="O19" s="147">
+      <c r="O19" s="10">
         <f>E19-N19-M19-L19</f>
         <v>-285.47399999999999</v>
       </c>
@@ -20886,7 +20961,7 @@
       <c r="R19" s="10">
         <v>82.826999999999998</v>
       </c>
-      <c r="S19" s="147">
+      <c r="S19" s="10">
         <f>F19-R19-Q19-P19</f>
         <v>-485.19900000000001</v>
       </c>
@@ -20899,13 +20974,18 @@
       <c r="V19" s="10">
         <v>100.125</v>
       </c>
-      <c r="W19" s="148">
+      <c r="W19" s="10">
         <f>G19-V19-U19-T19</f>
         <v>-683.25099999999998</v>
       </c>
-      <c r="X19" s="15">
+      <c r="X19" s="143">
         <v>101.369</v>
       </c>
+      <c r="Y19" s="15">
+        <v>152.24299999999999</v>
+      </c>
+      <c r="Z19" s="143"/>
+      <c r="AA19" s="143"/>
     </row>
     <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -20931,13 +21011,13 @@
         <f>G18+SUM(G19:G19)</f>
         <v>1228.7369999999983</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H20" s="54">
         <f>H18-H19</f>
-        <v>1488.9920000000006</v>
-      </c>
-      <c r="I20" s="56">
+        <v>1442.175999999999</v>
+      </c>
+      <c r="I20" s="54">
         <f>I18-I19</f>
-        <v>1692.9760000000003</v>
+        <v>1634.4560000000001</v>
       </c>
       <c r="L20" s="11">
         <f t="shared" ref="L20:AA20" si="40">L18-SUM(L19:L19)</f>
@@ -20983,24 +21063,24 @@
         <f t="shared" si="40"/>
         <v>313.21700000000027</v>
       </c>
-      <c r="W20" s="141">
+      <c r="W20" s="11">
         <f t="shared" si="40"/>
         <v>1065.5439999999992</v>
       </c>
-      <c r="X20" s="14">
+      <c r="X20" s="144">
         <f t="shared" si="40"/>
         <v>359.28700000000038</v>
       </c>
-      <c r="Y20" s="11">
-        <f t="shared" si="40"/>
+      <c r="Y20" s="14">
+        <f t="shared" ref="Y20:AA20" si="41">Y18-SUM(Y19:Y19)</f>
+        <v>455.67100000000033</v>
+      </c>
+      <c r="Z20" s="144">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="11">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="11">
-        <f t="shared" si="40"/>
+      <c r="AA20" s="144">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -21020,14 +21100,14 @@
       <c r="F21" s="10">
         <v>28.062000000000001</v>
       </c>
-      <c r="G21" s="15">
-        <v>27.71</v>
+      <c r="G21" s="40">
+        <v>1381.518</v>
       </c>
       <c r="H21" s="40">
-        <v>27.5</v>
+        <v>1381.518</v>
       </c>
       <c r="I21" s="40">
-        <v>27.2</v>
+        <v>1381.518</v>
       </c>
       <c r="L21" s="10">
         <v>28.582000000000001</v>
@@ -21065,10 +21145,14 @@
       <c r="W21" s="10">
         <v>27.681000000000001</v>
       </c>
-      <c r="X21" s="15">
+      <c r="X21" s="143">
         <v>27.623999999999999</v>
       </c>
-      <c r="Y21" s="10"/>
+      <c r="Y21" s="15">
+        <v>1381.518</v>
+      </c>
+      <c r="Z21" s="143"/>
+      <c r="AA21" s="143"/>
     </row>
     <row r="22" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -21091,64 +21175,80 @@
         <v>32.039804718124159</v>
       </c>
       <c r="G22" s="52">
-        <f>G20/G21</f>
-        <v>44.342728256946884</v>
-      </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="L22" s="143">
-        <f t="shared" ref="L22:W22" si="41">L20/L21</f>
+        <v>0.9</v>
+      </c>
+      <c r="H22" s="150">
+        <f>H20/H21</f>
+        <v>1.043906775011255</v>
+      </c>
+      <c r="I22" s="150">
+        <f>I20/I21</f>
+        <v>1.1830870100860069</v>
+      </c>
+      <c r="L22" s="47">
+        <f t="shared" ref="L22:W22" si="42">L20/L21</f>
         <v>4.4468896508291929</v>
       </c>
-      <c r="M22" s="143">
-        <f t="shared" si="41"/>
+      <c r="M22" s="47">
+        <f t="shared" si="42"/>
         <v>6.595347531665551</v>
       </c>
-      <c r="N22" s="143">
-        <f t="shared" si="41"/>
+      <c r="N22" s="47">
+        <f t="shared" si="42"/>
         <v>7.1794205443371393</v>
       </c>
-      <c r="O22" s="143">
-        <f t="shared" si="41"/>
+      <c r="O22" s="47">
+        <f t="shared" si="42"/>
         <v>15.909850746268681</v>
       </c>
-      <c r="P22" s="143">
-        <f t="shared" si="41"/>
+      <c r="P22" s="47">
+        <f t="shared" si="42"/>
         <v>5.5932299212042063</v>
       </c>
-      <c r="Q22" s="143">
-        <f t="shared" si="41"/>
+      <c r="Q22" s="47">
+        <f t="shared" si="42"/>
         <v>9.2532393564003979</v>
       </c>
-      <c r="R22" s="143">
-        <f t="shared" si="41"/>
+      <c r="R22" s="47">
+        <f t="shared" si="42"/>
         <v>9.197953927600512</v>
       </c>
-      <c r="S22" s="143">
-        <f t="shared" si="41"/>
+      <c r="S22" s="47">
+        <f t="shared" si="42"/>
         <v>28.208148519101471</v>
       </c>
-      <c r="T22" s="143">
-        <f t="shared" si="41"/>
+      <c r="T22" s="47">
+        <f t="shared" si="42"/>
         <v>10.495321721606432</v>
       </c>
-      <c r="U22" s="143">
-        <f t="shared" si="41"/>
+      <c r="U22" s="47">
+        <f t="shared" si="42"/>
         <v>12.320971636573336</v>
       </c>
-      <c r="V22" s="143">
-        <f t="shared" si="41"/>
+      <c r="V22" s="47">
+        <f t="shared" si="42"/>
         <v>11.315234276218353</v>
       </c>
-      <c r="W22" s="143">
-        <f t="shared" si="41"/>
+      <c r="W22" s="47">
+        <f t="shared" si="42"/>
         <v>38.493696036992851</v>
       </c>
-      <c r="X22" s="46">
+      <c r="X22" s="145">
         <f>X20/X21</f>
         <v>13.006335070952808</v>
       </c>
-      <c r="Y22" s="47"/>
+      <c r="Y22" s="46">
+        <f t="shared" ref="Y22:AA22" si="43">Y20/Y21</f>
+        <v>0.32983355989570917</v>
+      </c>
+      <c r="Z22" s="145" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA22" s="145" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="23" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
@@ -21160,10 +21260,10 @@
       <c r="F23" s="2"/>
       <c r="G23" s="35"/>
       <c r="H23" s="44">
-        <v>50.68</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I23" s="45">
-        <v>58.61</v>
+        <v>1.29</v>
       </c>
       <c r="L23" s="48"/>
       <c r="M23" s="48"/>
@@ -21188,20 +21288,18 @@
       <c r="V23" s="48">
         <v>10.55</v>
       </c>
-      <c r="W23" s="150">
+      <c r="W23" s="119">
         <v>9.7100000000000009</v>
       </c>
-      <c r="X23" s="151">
+      <c r="X23" s="146">
         <v>11.69</v>
       </c>
-      <c r="Y23" s="152">
-        <v>15.6</v>
-      </c>
-      <c r="Z23" s="153">
-        <v>13.85</v>
-      </c>
-      <c r="AA23" s="153">
-        <v>12.9</v>
+      <c r="Y23" s="120"/>
+      <c r="Z23" s="146">
+        <v>0.25</v>
+      </c>
+      <c r="AA23" s="146">
+        <v>0.24</v>
       </c>
     </row>
     <row r="24" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -21228,66 +21326,74 @@
         <f>1-G11/G5</f>
         <v>0.26197163209510377</v>
       </c>
-      <c r="H24" s="154">
+      <c r="H24" s="121">
         <v>0.26</v>
       </c>
-      <c r="I24" s="154">
+      <c r="I24" s="121">
         <v>0.26</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" ref="L24:W24" si="42">1-L11/L5</f>
+        <f t="shared" ref="L24:W24" si="44">1-L11/L5</f>
         <v>0.22322093507313789</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.24458267152363655</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.23528631394011723</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.20198476716448244</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.20734368403678427</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.25214619179438835</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.25337912551938468</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.23963232121082345</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.25630968766096129</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.27471557391618662</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.26288700247739849</v>
       </c>
       <c r="W24" s="39">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.25366567050295652</v>
       </c>
-      <c r="X24" s="6">
-        <f t="shared" ref="X24:Y24" si="43">1-X11/X5</f>
+      <c r="X24" s="39">
+        <f t="shared" ref="X24:Y24" si="45">1-X11/X5</f>
         <v>0.27457133043753756</v>
       </c>
-      <c r="Y24" s="39" t="e">
-        <f t="shared" si="43"/>
+      <c r="Y24" s="6">
+        <f t="shared" ref="Y24:AA24" si="46">1-Y11/Y5</f>
+        <v>0.2890569055977279</v>
+      </c>
+      <c r="Z24" s="39" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA24" s="39" t="e">
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21315,68 +21421,76 @@
         <f>G20/G5</f>
         <v>0.12447130160320716</v>
       </c>
-      <c r="H25" s="155">
+      <c r="H25" s="122">
         <f>H20/H6</f>
-        <v>0.13223730017761995</v>
-      </c>
-      <c r="I25" s="155">
+        <v>0.12717601410934737</v>
+      </c>
+      <c r="I25" s="122">
         <f>I20/I6</f>
-        <v>0.13247073552425667</v>
+        <v>0.12689875776397516</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" ref="L25:W25" si="44">L20/L5</f>
+        <f t="shared" ref="L25:W25" si="47">L20/L5</f>
         <v>7.2980491796218933E-2</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>9.9323765229548819E-2</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.10471363483864031</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.23106466125990974</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>7.8342462085611922E-2</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.11744337401545807</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.11581879806771987</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.36163778851590794</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.12313031436556905</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.13594316210308505</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.12670857153953086</v>
       </c>
-      <c r="W25" s="144">
-        <f t="shared" si="44"/>
+      <c r="W25" s="4">
+        <f t="shared" si="47"/>
         <v>0.42345329687798033</v>
       </c>
-      <c r="X25" s="7">
-        <f t="shared" ref="X25:Y25" si="45">X20/X5</f>
+      <c r="X25" s="147">
+        <f t="shared" ref="X25:Y25" si="48">X20/X5</f>
         <v>0.13297824303957897</v>
       </c>
-      <c r="Y25" s="144" t="e">
-        <f t="shared" si="45"/>
+      <c r="Y25" s="7">
+        <f t="shared" ref="Y25:AA25" si="49">Y20/Y5</f>
+        <v>0.15326372961440815</v>
+      </c>
+      <c r="Z25" s="147" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA25" s="147" t="e">
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21404,62 +21518,70 @@
         <f>-G19/G18</f>
         <v>0.24175720423127123</v>
       </c>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
       <c r="L26" s="4">
         <f>-L19/L18</f>
         <v>-0.20199781508595252</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" ref="M26:Y26" si="46">-M19/M18</f>
+        <f t="shared" ref="M26:Y26" si="50">-M19/M18</f>
         <v>-0.23704419261616405</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-0.14660577573323755</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1.7037222709612658</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-0.16690876173634772</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-0.25340494585978113</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-0.2436339034900652</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="46"/>
-        <v>1.599268922963331</v>
+        <f>S19/S18</f>
+        <v>-1.599268922963331</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="46"/>
-        <v>-0.2254942837035761</v>
+        <f>T19/T18</f>
+        <v>0.2254942837035761</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="46"/>
-        <v>-0.23743520195576315</v>
+        <f>U19/U18</f>
+        <v>0.23743520195576315</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" si="46"/>
-        <v>-0.24223282415046121</v>
+        <f>V19/V18</f>
+        <v>0.24223282415046121</v>
       </c>
       <c r="W26" s="4">
-        <f t="shared" si="46"/>
-        <v>1.7872443387663424</v>
-      </c>
-      <c r="X26" s="7">
-        <f t="shared" si="46"/>
-        <v>-0.22005357577020579</v>
-      </c>
-      <c r="Y26" s="4" t="e">
-        <f t="shared" si="46"/>
+        <f>W19/W18</f>
+        <v>-1.7872443387663424</v>
+      </c>
+      <c r="X26" s="147">
+        <f>X19/X18</f>
+        <v>0.22005357577020579</v>
+      </c>
+      <c r="Y26" s="7">
+        <f>Y19/Y18</f>
+        <v>0.2504350944376999</v>
+      </c>
+      <c r="Z26" s="147" t="e">
+        <f t="shared" ref="Y26:AA26" si="51">-Z19/Z18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA26" s="147" t="e">
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21484,32 +21606,32 @@
         <f>G5/F5-1</f>
         <v>0.14325962412845361</v>
       </c>
-      <c r="H27" s="118">
+      <c r="H27" s="116">
         <f>H6/G5-1</f>
-        <v>0.14064023143448479</v>
-      </c>
-      <c r="I27" s="118">
+        <v>0.1487442472883711</v>
+      </c>
+      <c r="I27" s="116">
         <f>I6/H6-1</f>
-        <v>0.13499111900532856</v>
+        <v>0.13580246913580241</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4">
-        <f t="shared" ref="P27:W27" si="47">P5/L5-1</f>
+        <f t="shared" ref="P27:W27" si="52">P5/L5-1</f>
         <v>0.1601791481848327</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.16950835333293179</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.13720122008999547</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.11219131780399527</v>
       </c>
       <c r="T27" s="4">
@@ -21517,23 +21639,31 @@
         <v>0.17225156257810403</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.13620236213250658</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.11340232188904054</v>
       </c>
-      <c r="W27" s="144">
-        <f t="shared" si="47"/>
+      <c r="W27" s="4">
+        <f t="shared" si="52"/>
         <v>0.15395815553432701</v>
       </c>
-      <c r="X27" s="7">
-        <f t="shared" ref="X27" si="48">X5/T5-1</f>
+      <c r="X27" s="147">
+        <f t="shared" ref="X27" si="53">X5/T5-1</f>
         <v>0.14070371277305393</v>
       </c>
-      <c r="Y27" s="144">
-        <f t="shared" ref="Y27" si="49">Y5/U5-1</f>
+      <c r="Y27" s="7">
+        <f t="shared" ref="Y27" si="54">Y5/U5-1</f>
+        <v>0.18224742236065605</v>
+      </c>
+      <c r="Z27" s="147">
+        <f t="shared" ref="Z27" si="55">Z5/V5-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AA27" s="147">
+        <f t="shared" ref="AA27" si="56">AA5/W5-1</f>
         <v>-1</v>
       </c>
     </row>
@@ -21561,66 +21691,74 @@
         <f>G12/G5</f>
         <v>6.4182184759608046E-2</v>
       </c>
-      <c r="H28" s="118">
+      <c r="H28" s="116">
         <v>0.06</v>
       </c>
-      <c r="I28" s="118">
+      <c r="I28" s="116">
         <v>0.06</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" ref="L28:W28" si="50">L12/L5</f>
+        <f t="shared" ref="L28:W28" si="57">L12/L5</f>
         <v>8.9059041384953283E-2</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>7.716833162663049E-2</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>7.4747159141839312E-2</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>8.1492558780761087E-2</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>7.2951821271452805E-2</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>6.3623331084845108E-2</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>6.3461664058013442E-2</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>6.1943071605554269E-2</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>6.2628241393577588E-2</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>6.2229973663920135E-2</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>6.4524415562139656E-2</v>
       </c>
-      <c r="W28" s="144">
-        <f t="shared" si="50"/>
+      <c r="W28" s="4">
+        <f t="shared" si="57"/>
         <v>6.725972849240161E-2</v>
       </c>
-      <c r="X28" s="7">
-        <f t="shared" ref="X28:Y28" si="51">X12/X5</f>
+      <c r="X28" s="147">
+        <f t="shared" ref="X28:Y28" si="58">X12/X5</f>
         <v>7.573520049980606E-2</v>
       </c>
-      <c r="Y28" s="144" t="e">
-        <f t="shared" si="51"/>
+      <c r="Y28" s="7">
+        <f t="shared" ref="Y28:AA28" si="59">Y12/Y5</f>
+        <v>5.8870202551732739E-2</v>
+      </c>
+      <c r="Z28" s="147" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA28" s="147" t="e">
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21648,66 +21786,74 @@
         <f>G13/G5</f>
         <v>3.2354675495451672E-2</v>
       </c>
-      <c r="H29" s="118">
+      <c r="H29" s="116">
         <v>0.03</v>
       </c>
-      <c r="I29" s="118">
+      <c r="I29" s="116">
         <v>0.03</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" ref="L29:W29" si="52">L13/L5</f>
+        <f t="shared" ref="L29:W29" si="60">L13/L5</f>
         <v>3.6244204240414565E-2</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>3.2803568541292169E-2</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>3.2367215331542298E-2</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>3.3796228054918998E-2</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>3.5468258717104698E-2</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>3.1505792831554504E-2</v>
       </c>
       <c r="R29" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>3.2166833695542019E-2</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>3.3941132688770366E-2</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>3.2333718937084664E-2</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>3.1299096827144574E-2</v>
       </c>
       <c r="V29" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>3.1774940249552172E-2</v>
       </c>
-      <c r="W29" s="144">
-        <f t="shared" si="52"/>
+      <c r="W29" s="4">
+        <f t="shared" si="60"/>
         <v>3.3998855471482174E-2</v>
       </c>
-      <c r="X29" s="7">
-        <f t="shared" ref="X29:Y29" si="53">X13/X5</f>
+      <c r="X29" s="147">
+        <f t="shared" ref="X29:Y29" si="61">X13/X5</f>
         <v>3.0809653244742115E-2</v>
       </c>
-      <c r="Y29" s="144" t="e">
-        <f t="shared" si="53"/>
+      <c r="Y29" s="7">
+        <f t="shared" ref="Y29:AA29" si="62">Y13/Y5</f>
+        <v>2.810585658082073E-2</v>
+      </c>
+      <c r="Z29" s="147" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA29" s="147" t="e">
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21735,66 +21881,74 @@
         <f>G14/G5</f>
         <v>3.7411176187483975E-3</v>
       </c>
-      <c r="H30" s="118">
+      <c r="H30" s="116">
         <v>3.7411176187483975E-3</v>
       </c>
-      <c r="I30" s="118">
+      <c r="I30" s="116">
         <v>3.7411176187483975E-3</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" ref="L30:W30" si="54">L15/L5</f>
+        <f t="shared" ref="L30:W30" si="63">L15/L5</f>
         <v>3.254525357793951E-3</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>2.2541159015036952E-3</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>2.3858854744239532E-3</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>2.3966749514059988E-3</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>2.1330941892237663E-3</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>2.1149042238897881E-3</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>2.8659902935579407E-3</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>2.6529407745302996E-3</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>3.529963100254161E-3</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>6.4577674336856071E-3</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>2.9292687386627868E-3</v>
       </c>
-      <c r="W30" s="144">
-        <f t="shared" si="54"/>
+      <c r="W30" s="4">
+        <f t="shared" si="63"/>
         <v>2.5942646404272908E-3</v>
       </c>
-      <c r="X30" s="7">
-        <f t="shared" ref="X30:Y30" si="55">X15/X5</f>
+      <c r="X30" s="147">
+        <f t="shared" ref="X30:Y30" si="64">X15/X5</f>
         <v>2.0278712940180205E-3</v>
       </c>
-      <c r="Y30" s="144" t="e">
-        <f t="shared" si="55"/>
+      <c r="Y30" s="7">
+        <f t="shared" ref="Y30:AA30" si="65">Y15/Y5</f>
+        <v>1.938033383819069E-3</v>
+      </c>
+      <c r="Z30" s="147" t="e">
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA30" s="147" t="e">
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21804,65 +21958,73 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4">
-        <f t="shared" ref="D31:G32" si="56">D3/C3-1</f>
+        <f t="shared" ref="D31:G32" si="66">D3/C3-1</f>
         <v>6.4647846192687819E-2</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>0.25954097131260712</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>0.14762063190468133</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>0.14560912063459663</v>
       </c>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="144"/>
-      <c r="N31" s="144"/>
-      <c r="O31" s="144"/>
-      <c r="P31" s="144">
-        <f t="shared" ref="L31:W31" si="57">P3/L3-1</f>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4">
+        <f t="shared" ref="P31:W31" si="67">P3/L3-1</f>
         <v>0.16489956235176195</v>
       </c>
-      <c r="Q31" s="144">
-        <f t="shared" si="57"/>
+      <c r="Q31" s="4">
+        <f t="shared" si="67"/>
         <v>0.17301971525090076</v>
       </c>
-      <c r="R31" s="144">
-        <f t="shared" si="57"/>
+      <c r="R31" s="4">
+        <f t="shared" si="67"/>
         <v>0.1396841972894971</v>
       </c>
-      <c r="S31" s="144">
-        <f t="shared" si="57"/>
+      <c r="S31" s="4">
+        <f t="shared" si="67"/>
         <v>0.11575818356660972</v>
       </c>
-      <c r="T31" s="144">
-        <f t="shared" si="57"/>
+      <c r="T31" s="4">
+        <f t="shared" si="67"/>
         <v>0.17611843382245529</v>
       </c>
-      <c r="U31" s="144">
-        <f t="shared" si="57"/>
+      <c r="U31" s="4">
+        <f t="shared" si="67"/>
         <v>0.13895782656163203</v>
       </c>
-      <c r="V31" s="144">
-        <f t="shared" si="57"/>
+      <c r="V31" s="4">
+        <f t="shared" si="67"/>
         <v>0.11519722694448098</v>
       </c>
-      <c r="W31" s="144">
-        <f t="shared" si="57"/>
+      <c r="W31" s="4">
+        <f t="shared" si="67"/>
         <v>0.15511757205831755</v>
       </c>
-      <c r="X31" s="7">
+      <c r="X31" s="147">
         <f>X3/T3-1</f>
         <v>0.14182761529198751</v>
       </c>
-      <c r="Y31" s="4">
-        <f t="shared" ref="L31:Y31" si="58">Y3/X3-1</f>
+      <c r="Y31" s="7">
+        <f t="shared" ref="Y31:AA31" si="68">Y3/U3-1</f>
+        <v>0.18314408476606081</v>
+      </c>
+      <c r="Z31" s="147">
+        <f t="shared" si="68"/>
+        <v>-1</v>
+      </c>
+      <c r="AA31" s="147">
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
     </row>
@@ -21872,69 +22034,77 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1.5298622350294084</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>0.4026119926976548</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>-0.14729898099942151</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>-0.11905911207942477</v>
       </c>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="144"/>
-      <c r="P32" s="144">
-        <f t="shared" ref="L32:W32" si="59">P4/L4-1</f>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4">
+        <f t="shared" ref="P32:W32" si="69">P4/L4-1</f>
         <v>-0.15641977721321099</v>
       </c>
-      <c r="Q32" s="144">
-        <f t="shared" si="59"/>
+      <c r="Q32" s="4">
+        <f t="shared" si="69"/>
         <v>-0.11375307469900309</v>
       </c>
-      <c r="R32" s="144">
-        <f t="shared" si="59"/>
+      <c r="R32" s="4">
+        <f t="shared" si="69"/>
         <v>-0.10383803878227671</v>
       </c>
-      <c r="S32" s="144">
-        <f t="shared" si="59"/>
+      <c r="S32" s="4">
+        <f t="shared" si="69"/>
         <v>-0.21368004522328954</v>
       </c>
-      <c r="T32" s="144">
-        <f t="shared" si="59"/>
+      <c r="T32" s="4">
+        <f t="shared" si="69"/>
         <v>-0.18588704072649753</v>
       </c>
-      <c r="U32" s="144">
-        <f t="shared" si="59"/>
+      <c r="U32" s="4">
+        <f t="shared" si="69"/>
         <v>-0.15800749866095332</v>
       </c>
-      <c r="V32" s="144">
-        <f t="shared" si="59"/>
+      <c r="V32" s="4">
+        <f t="shared" si="69"/>
         <v>-0.10818992095969493</v>
       </c>
-      <c r="W32" s="144">
-        <f t="shared" si="59"/>
+      <c r="W32" s="4">
+        <f t="shared" si="69"/>
         <v>3.654445243230553E-3</v>
       </c>
-      <c r="X32" s="7">
+      <c r="X32" s="147">
         <f>X4/T4-1</f>
         <v>-9.6750327243755319E-3</v>
       </c>
-      <c r="Y32" s="4">
-        <f t="shared" ref="L32:Y32" si="60">Y4/X4-1</f>
+      <c r="Y32" s="7">
+        <f t="shared" ref="Y32:AA32" si="70">Y4/U4-1</f>
+        <v>5.2741151977793166E-2</v>
+      </c>
+      <c r="Z32" s="147">
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA32" s="147">
+        <f t="shared" si="70"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>38</v>
       </c>
@@ -21955,36 +22125,36 @@
         <f>G20/F20-1</f>
         <v>0.36662844330058375</v>
       </c>
-      <c r="H33" s="55">
+      <c r="H33" s="53">
         <f>H23/G22-1</f>
-        <v>0.14291569310601226</v>
-      </c>
-      <c r="I33" s="55">
+        <v>0.21111111111111125</v>
+      </c>
+      <c r="I33" s="53">
         <f>I23/H23-1</f>
-        <v>0.1564719810576165</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4">
-        <f t="shared" ref="P33:W33" si="61">P20/L20-1</f>
+        <f t="shared" ref="P33:W33" si="71">P20/L20-1</f>
         <v>0.24541899749018681</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.38286145956355733</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.25780447479382018</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.74068334977805028</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.84241980112953807</v>
       </c>
       <c r="U33" s="4">
@@ -21992,23 +22162,31 @@
         <v>0.31517800124643358</v>
       </c>
       <c r="V33" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.21808911946114673</v>
       </c>
-      <c r="W33" s="144">
-        <f t="shared" si="61"/>
+      <c r="W33" s="4">
+        <f t="shared" si="71"/>
         <v>0.35120665189763245</v>
       </c>
-      <c r="X33" s="7">
-        <f t="shared" ref="X33" si="62">X20/T20-1</f>
+      <c r="X33" s="147">
+        <f t="shared" ref="X33" si="72">X20/T20-1</f>
         <v>0.23193688195197204</v>
       </c>
-      <c r="Y33" s="144">
-        <f t="shared" ref="Y33" si="63">Y20/U20-1</f>
+      <c r="Y33" s="7">
+        <f t="shared" ref="Y33" si="73">Y20/U20-1</f>
+        <v>0.33287799455933498</v>
+      </c>
+      <c r="Z33" s="147">
+        <f t="shared" ref="Z33" si="74">Z20/V20-1</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA33" s="147">
+        <f t="shared" ref="AA33" si="75">AA20/W20-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
@@ -22037,59 +22215,67 @@
         <v>0</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" ref="M36:Y36" si="64">M37+M42</f>
+        <f t="shared" ref="M36:Y36" si="76">M37+M42</f>
         <v>0</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="O36" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>1076.319</v>
       </c>
       <c r="P36" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>856.24200000000008</v>
       </c>
       <c r="Q36" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>761.61699999999996</v>
       </c>
       <c r="R36" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>783.90100000000007</v>
       </c>
       <c r="S36" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>899.13599999999997</v>
       </c>
       <c r="T36" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>1062.585</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>1356.008</v>
       </c>
       <c r="V36" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>1454.0059999999999</v>
       </c>
       <c r="W36" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>1295.4470000000001</v>
       </c>
-      <c r="X36" s="14">
-        <f t="shared" si="64"/>
+      <c r="X36" s="144">
+        <f t="shared" si="76"/>
         <v>1419.8679999999999</v>
       </c>
-      <c r="Y36" s="11">
-        <f t="shared" si="64"/>
+      <c r="Y36" s="14">
+        <f t="shared" ref="Y36:AA36" si="77">Y37+Y42</f>
+        <v>1489.8150000000001</v>
+      </c>
+      <c r="Z36" s="144">
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA36" s="144">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>25</v>
       </c>
@@ -22139,12 +22325,16 @@
         <f>G37</f>
         <v>560.60900000000004</v>
       </c>
-      <c r="X37" s="15">
+      <c r="X37" s="143">
         <v>727.39400000000001</v>
       </c>
-      <c r="Y37" s="10"/>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y37" s="15">
+        <v>806.52800000000002</v>
+      </c>
+      <c r="Z37" s="143"/>
+      <c r="AA37" s="143"/>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>26</v>
       </c>
@@ -22165,7 +22355,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10">
-        <f t="shared" ref="O38:O42" si="65">E38</f>
+        <f t="shared" ref="O38:O42" si="78">E38</f>
         <v>99.599000000000004</v>
       </c>
       <c r="P38" s="10">
@@ -22178,7 +22368,7 @@
         <v>71.275999999999996</v>
       </c>
       <c r="S38" s="10">
-        <f t="shared" ref="S38:S42" si="66">F38</f>
+        <f t="shared" ref="S38:S42" si="79">F38</f>
         <v>106.88</v>
       </c>
       <c r="T38" s="10">
@@ -22191,15 +22381,19 @@
         <v>71.122</v>
       </c>
       <c r="W38" s="10">
-        <f t="shared" ref="W38:W42" si="67">G38</f>
+        <f t="shared" ref="W38:W42" si="80">G38</f>
         <v>115.535</v>
       </c>
-      <c r="X38" s="15">
+      <c r="X38" s="143">
         <v>89.835999999999999</v>
       </c>
-      <c r="Y38" s="10"/>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y38" s="15">
+        <v>97.542000000000002</v>
+      </c>
+      <c r="Z38" s="143"/>
+      <c r="AA38" s="143"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>194</v>
       </c>
@@ -22220,7 +22414,7 @@
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>32.826000000000001</v>
       </c>
       <c r="P39" s="10">
@@ -22233,7 +22427,7 @@
         <v>33.752000000000002</v>
       </c>
       <c r="S39" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>35.667999999999999</v>
       </c>
       <c r="T39" s="10">
@@ -22246,15 +22440,19 @@
         <v>40.177</v>
       </c>
       <c r="W39" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>39.308999999999997</v>
       </c>
-      <c r="X39" s="15">
+      <c r="X39" s="143">
         <v>37.947000000000003</v>
       </c>
-      <c r="Y39" s="10"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y39" s="15">
+        <v>35.56</v>
+      </c>
+      <c r="Z39" s="143"/>
+      <c r="AA39" s="143"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>78</v>
       </c>
@@ -22275,7 +22473,7 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>78.756</v>
       </c>
       <c r="P40" s="10">
@@ -22288,7 +22486,7 @@
         <v>76.438999999999993</v>
       </c>
       <c r="S40" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>86.412000000000006</v>
       </c>
       <c r="T40" s="10">
@@ -22301,15 +22499,19 @@
         <v>104.038</v>
       </c>
       <c r="W40" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>117.462</v>
       </c>
-      <c r="X40" s="15">
+      <c r="X40" s="143">
         <v>98.117999999999995</v>
       </c>
-      <c r="Y40" s="10"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y40" s="15">
+        <v>91.852000000000004</v>
+      </c>
+      <c r="Z40" s="143"/>
+      <c r="AA40" s="143"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>195</v>
       </c>
@@ -22330,7 +22532,7 @@
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>94.063999999999993</v>
       </c>
       <c r="P41" s="10">
@@ -22343,7 +22545,7 @@
         <v>112.06399999999999</v>
       </c>
       <c r="S41" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>47.741</v>
       </c>
       <c r="T41" s="10">
@@ -22356,15 +22558,19 @@
         <v>0</v>
       </c>
       <c r="W41" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>52.96</v>
       </c>
-      <c r="X41" s="15">
+      <c r="X41" s="143">
         <v>0</v>
       </c>
-      <c r="Y41" s="10"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y41" s="15">
+        <v>71.528999999999996</v>
+      </c>
+      <c r="Z41" s="143"/>
+      <c r="AA41" s="143"/>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>196</v>
       </c>
@@ -22385,7 +22591,7 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="78"/>
         <v>260.94499999999999</v>
       </c>
       <c r="P42" s="10">
@@ -22398,7 +22604,7 @@
         <v>417.27800000000002</v>
       </c>
       <c r="S42" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>515.13599999999997</v>
       </c>
       <c r="T42" s="10">
@@ -22411,24 +22617,28 @@
         <v>851.69899999999996</v>
       </c>
       <c r="W42" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>734.83799999999997</v>
       </c>
-      <c r="X42" s="15">
+      <c r="X42" s="143">
         <v>692.47400000000005</v>
       </c>
-      <c r="Y42" s="10"/>
-    </row>
-    <row r="43" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y42" s="15">
+        <v>683.28700000000003</v>
+      </c>
+      <c r="Z42" s="143"/>
+      <c r="AA42" s="143"/>
+    </row>
+    <row r="43" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="11">
-        <f t="shared" ref="C43:D43" si="68">SUM(C37:C42)</f>
+        <f t="shared" ref="C43:D43" si="81">SUM(C37:C42)</f>
         <v>0</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v>1420.2370000000001</v>
       </c>
       <c r="E43" s="11">
@@ -22436,71 +22646,79 @@
         <v>1381.5640000000001</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" ref="F43:G43" si="69">SUM(F37:F42)</f>
+        <f t="shared" ref="F43:G43" si="82">SUM(F37:F42)</f>
         <v>1175.837</v>
       </c>
       <c r="G43" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v>1620.713</v>
       </c>
       <c r="L43" s="11">
-        <f t="shared" ref="L43:Y43" si="70">SUM(L37:L42)</f>
+        <f t="shared" ref="L43:Y43" si="83">SUM(L37:L42)</f>
         <v>0</v>
       </c>
       <c r="M43" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>1381.5640000000001</v>
       </c>
       <c r="P43" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>1096.4929999999999</v>
       </c>
       <c r="Q43" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>1046.299</v>
       </c>
       <c r="R43" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>1077.432</v>
       </c>
       <c r="S43" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>1175.837</v>
       </c>
       <c r="T43" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>1261.442</v>
       </c>
       <c r="U43" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>1556.4190000000001</v>
       </c>
       <c r="V43" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>1669.3429999999998</v>
       </c>
       <c r="W43" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>1620.713</v>
       </c>
-      <c r="X43" s="14">
-        <f t="shared" si="70"/>
+      <c r="X43" s="144">
+        <f t="shared" si="83"/>
         <v>1645.7690000000002</v>
       </c>
-      <c r="Y43" s="11">
-        <f t="shared" si="70"/>
+      <c r="Y43" s="14">
+        <f t="shared" ref="Y43:AA43" si="84">SUM(Y37:Y42)</f>
+        <v>1786.2980000000002</v>
+      </c>
+      <c r="Z43" s="144">
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA43" s="144">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>197</v>
       </c>
@@ -22521,7 +22739,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10">
-        <f t="shared" ref="O44:O49" si="71">E44</f>
+        <f t="shared" ref="O44:O49" si="85">E44</f>
         <v>1769.278</v>
       </c>
       <c r="P44" s="10">
@@ -22534,7 +22752,7 @@
         <v>1871.623</v>
       </c>
       <c r="S44" s="10">
-        <f t="shared" ref="S44:S49" si="72">F44</f>
+        <f t="shared" ref="S44:S49" si="86">F44</f>
         <v>1951.1469999999999</v>
       </c>
       <c r="T44" s="10">
@@ -22547,15 +22765,19 @@
         <v>2093.011</v>
       </c>
       <c r="W44" s="10">
-        <f t="shared" ref="W44:W49" si="73">G44</f>
+        <f t="shared" ref="W44:W49" si="87">G44</f>
         <v>2170.038</v>
       </c>
-      <c r="X44" s="15">
+      <c r="X44" s="143">
         <v>2202.739</v>
       </c>
-      <c r="Y44" s="10"/>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y44" s="15">
+        <v>2265.694</v>
+      </c>
+      <c r="Z44" s="143"/>
+      <c r="AA44" s="143"/>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>198</v>
       </c>
@@ -22576,7 +22798,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>274.31099999999998</v>
       </c>
       <c r="P45" s="10">
@@ -22589,7 +22811,7 @@
         <v>442.62</v>
       </c>
       <c r="S45" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="86"/>
         <v>388.05500000000001</v>
       </c>
       <c r="T45" s="10">
@@ -22602,15 +22824,19 @@
         <v>473.24700000000001</v>
       </c>
       <c r="W45" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="87"/>
         <v>564.48800000000006</v>
       </c>
-      <c r="X45" s="15">
+      <c r="X45" s="143">
         <v>776.81500000000005</v>
       </c>
-      <c r="Y45" s="10"/>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y45" s="15">
+        <v>972.64400000000001</v>
+      </c>
+      <c r="Z45" s="143"/>
+      <c r="AA45" s="143"/>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>77</v>
       </c>
@@ -22631,7 +22857,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>30.856000000000002</v>
       </c>
       <c r="P46" s="10">
@@ -22644,7 +22870,7 @@
         <v>30.974</v>
       </c>
       <c r="S46" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="86"/>
         <v>24.966000000000001</v>
       </c>
       <c r="T46" s="10">
@@ -22657,15 +22883,19 @@
         <v>25.315000000000001</v>
       </c>
       <c r="W46" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="87"/>
         <v>25.553999999999998</v>
       </c>
-      <c r="X46" s="15">
+      <c r="X46" s="143">
         <v>26.138000000000002</v>
       </c>
-      <c r="Y46" s="10"/>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y46" s="15">
+        <v>27.664000000000001</v>
+      </c>
+      <c r="Z46" s="143"/>
+      <c r="AA46" s="143"/>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>66</v>
       </c>
@@ -22686,7 +22916,7 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>3118.2939999999999</v>
       </c>
       <c r="P47" s="10">
@@ -22699,7 +22929,7 @@
         <v>3309.0509999999999</v>
       </c>
       <c r="S47" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="86"/>
         <v>3302.402</v>
       </c>
       <c r="T47" s="10">
@@ -22712,15 +22942,19 @@
         <v>3555.808</v>
       </c>
       <c r="W47" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="87"/>
         <v>3578.5479999999998</v>
       </c>
-      <c r="X47" s="15">
+      <c r="X47" s="143">
         <v>3670.9830000000002</v>
       </c>
-      <c r="Y47" s="10"/>
-    </row>
-    <row r="48" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y47" s="15">
+        <v>3770.9969999999998</v>
+      </c>
+      <c r="Z47" s="143"/>
+      <c r="AA47" s="143"/>
+    </row>
+    <row r="48" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>199</v>
       </c>
@@ -22741,7 +22975,7 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>56.716000000000001</v>
       </c>
       <c r="P48" s="10">
@@ -22754,7 +22988,7 @@
         <v>63.798000000000002</v>
       </c>
       <c r="S48" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="86"/>
         <v>63.158000000000001</v>
       </c>
       <c r="T48" s="10">
@@ -22767,15 +23001,19 @@
         <v>72.83</v>
       </c>
       <c r="W48" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="87"/>
         <v>63.082000000000001</v>
       </c>
-      <c r="X48" s="15">
+      <c r="X48" s="143">
         <v>66.866</v>
       </c>
-      <c r="Y48" s="10"/>
-    </row>
-    <row r="49" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y48" s="15">
+        <v>74.599000000000004</v>
+      </c>
+      <c r="Z48" s="143"/>
+      <c r="AA48" s="143"/>
+    </row>
+    <row r="49" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -22796,7 +23034,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>21.939</v>
       </c>
       <c r="P49" s="10">
@@ -22809,7 +23047,7 @@
         <v>21.939</v>
       </c>
       <c r="S49" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="86"/>
         <v>21.939</v>
       </c>
       <c r="T49" s="10">
@@ -22822,15 +23060,19 @@
         <v>21.939</v>
       </c>
       <c r="W49" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="87"/>
         <v>21.939</v>
       </c>
-      <c r="X49" s="15">
+      <c r="X49" s="143">
         <v>21.939</v>
       </c>
-      <c r="Y49" s="10"/>
-    </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y49" s="15">
+        <v>21.939</v>
+      </c>
+      <c r="Z49" s="143"/>
+      <c r="AA49" s="143"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>29</v>
       </c>
@@ -22855,63 +23097,71 @@
         <v>8044.362000000001</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" ref="L50:W50" si="74">SUM(L43:L49)</f>
+        <f t="shared" ref="L50:W50" si="88">SUM(L43:L49)</f>
         <v>0</v>
       </c>
       <c r="M50" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>6652.9580000000005</v>
       </c>
       <c r="P50" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>6467.2570000000005</v>
       </c>
       <c r="Q50" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>6545.3360000000011</v>
       </c>
       <c r="R50" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>6817.4370000000008</v>
       </c>
       <c r="S50" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>6927.5039999999999</v>
       </c>
       <c r="T50" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>7053.3720000000003</v>
       </c>
       <c r="U50" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>7552.4350000000004</v>
       </c>
       <c r="V50" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>7911.4929999999995</v>
       </c>
       <c r="W50" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="88"/>
         <v>8044.362000000001</v>
       </c>
-      <c r="X50" s="14">
+      <c r="X50" s="144">
         <f>SUM(X43:X49)</f>
         <v>8411.2489999999998</v>
       </c>
-      <c r="Y50" s="11">
-        <f>SUM(Y43:Y49)</f>
+      <c r="Y50" s="14">
+        <f t="shared" ref="Y50:AA50" si="89">SUM(Y43:Y49)</f>
+        <v>8919.8350000000009</v>
+      </c>
+      <c r="Z50" s="144">
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA50" s="144">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>31</v>
       </c>
@@ -22932,7 +23182,7 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10">
-        <f t="shared" ref="O51:O56" si="75">E51</f>
+        <f t="shared" ref="O51:O56" si="90">E51</f>
         <v>163.161</v>
       </c>
       <c r="P51" s="10">
@@ -22945,7 +23195,7 @@
         <v>167.84200000000001</v>
       </c>
       <c r="S51" s="10">
-        <f t="shared" ref="S51:S56" si="76">F51</f>
+        <f t="shared" ref="S51:S56" si="91">F51</f>
         <v>184.566</v>
       </c>
       <c r="T51" s="10">
@@ -22958,15 +23208,19 @@
         <v>207.541</v>
       </c>
       <c r="W51" s="10">
-        <f t="shared" ref="W51:W56" si="77">G51</f>
+        <f t="shared" ref="W51:W56" si="92">G51</f>
         <v>197.64599999999999</v>
       </c>
-      <c r="X51" s="15">
+      <c r="X51" s="143">
         <v>196.86600000000001</v>
       </c>
-      <c r="Y51" s="10"/>
-    </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y51" s="15">
+        <v>203.48</v>
+      </c>
+      <c r="Z51" s="143"/>
+      <c r="AA51" s="143"/>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>200</v>
       </c>
@@ -22987,7 +23241,7 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="90"/>
         <v>162.405</v>
       </c>
       <c r="P52" s="10">
@@ -23000,7 +23254,7 @@
         <v>128.495</v>
       </c>
       <c r="S52" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>170.45599999999999</v>
       </c>
       <c r="T52" s="10">
@@ -23013,15 +23267,19 @@
         <v>155.01499999999999</v>
       </c>
       <c r="W52" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>227.53700000000001</v>
       </c>
-      <c r="X52" s="15">
+      <c r="X52" s="143">
         <v>142.42500000000001</v>
       </c>
-      <c r="Y52" s="10"/>
-    </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y52" s="15">
+        <v>223.41</v>
+      </c>
+      <c r="Z52" s="143"/>
+      <c r="AA52" s="143"/>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>201</v>
       </c>
@@ -23042,7 +23300,7 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="90"/>
         <v>173.05199999999999</v>
       </c>
       <c r="P53" s="10">
@@ -23055,7 +23313,7 @@
         <v>156.45500000000001</v>
       </c>
       <c r="S53" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>147.53899999999999</v>
       </c>
       <c r="T53" s="10">
@@ -23068,15 +23326,19 @@
         <v>151.148</v>
       </c>
       <c r="W53" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>147.68799999999999</v>
       </c>
-      <c r="X53" s="15">
+      <c r="X53" s="143">
         <v>171.61199999999999</v>
       </c>
-      <c r="Y53" s="10"/>
-    </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y53" s="15">
+        <v>169.631</v>
+      </c>
+      <c r="Z53" s="143"/>
+      <c r="AA53" s="143"/>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>202</v>
       </c>
@@ -23097,7 +23359,7 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="90"/>
         <v>156.351</v>
       </c>
       <c r="P54" s="10">
@@ -23110,7 +23372,7 @@
         <v>133.11799999999999</v>
       </c>
       <c r="S54" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>183.071</v>
       </c>
       <c r="T54" s="10">
@@ -23123,15 +23385,19 @@
         <v>156.32</v>
       </c>
       <c r="W54" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>209.68</v>
       </c>
-      <c r="X54" s="15">
+      <c r="X54" s="143">
         <v>187.31700000000001</v>
       </c>
-      <c r="Y54" s="10"/>
-    </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y54" s="15">
+        <v>182.33099999999999</v>
+      </c>
+      <c r="Z54" s="143"/>
+      <c r="AA54" s="143"/>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>203</v>
       </c>
@@ -23152,7 +23418,7 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="90"/>
         <v>218.71299999999999</v>
       </c>
       <c r="P55" s="10">
@@ -23165,7 +23431,7 @@
         <v>231.947</v>
       </c>
       <c r="S55" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>236.24799999999999</v>
       </c>
       <c r="T55" s="10">
@@ -23178,15 +23444,19 @@
         <v>244.994</v>
       </c>
       <c r="W55" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>248.07400000000001</v>
       </c>
-      <c r="X55" s="15">
+      <c r="X55" s="143">
         <v>254.14400000000001</v>
       </c>
-      <c r="Y55" s="10"/>
-    </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y55" s="15">
+        <v>264.30399999999997</v>
+      </c>
+      <c r="Z55" s="143"/>
+      <c r="AA55" s="143"/>
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>212</v>
       </c>
@@ -23199,14 +23469,14 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="T56" s="10">
@@ -23219,15 +23489,17 @@
         <v>172.68899999999999</v>
       </c>
       <c r="W56" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="X56" s="15">
+      <c r="X56" s="143">
         <v>44.988999999999997</v>
       </c>
-      <c r="Y56" s="10"/>
-    </row>
-    <row r="57" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="143"/>
+      <c r="AA56" s="143"/>
+    </row>
+    <row r="57" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>65</v>
       </c>
@@ -23252,63 +23524,71 @@
         <v>1030.625</v>
       </c>
       <c r="L57" s="11">
-        <f t="shared" ref="L57:W57" si="78">SUM(L51:L56)</f>
+        <f t="shared" ref="L57:W57" si="93">SUM(L51:L56)</f>
         <v>0</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="N57" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>873.68200000000002</v>
       </c>
       <c r="P57" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>843.73799999999994</v>
       </c>
       <c r="Q57" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>831.62300000000005</v>
       </c>
       <c r="R57" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>817.85700000000008</v>
       </c>
       <c r="S57" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>921.87999999999988</v>
       </c>
       <c r="T57" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>894.0920000000001</v>
       </c>
       <c r="U57" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>982.25</v>
       </c>
       <c r="V57" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>1087.7069999999999</v>
       </c>
       <c r="W57" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="93"/>
         <v>1030.625</v>
       </c>
-      <c r="X57" s="14">
+      <c r="X57" s="144">
         <f>SUM(X51:X56)</f>
         <v>997.35300000000007</v>
       </c>
-      <c r="Y57" s="11">
-        <f>SUM(Y51:Y56)</f>
+      <c r="Y57" s="14">
+        <f t="shared" ref="Y57:AA57" si="94">SUM(Y51:Y56)</f>
+        <v>1043.1559999999999</v>
+      </c>
+      <c r="Z57" s="144">
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA57" s="144">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>204</v>
       </c>
@@ -23329,7 +23609,7 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10">
-        <f t="shared" ref="O58:O60" si="79">E58</f>
+        <f t="shared" ref="O58:O60" si="95">E58</f>
         <v>3301.6010000000001</v>
       </c>
       <c r="P58" s="10">
@@ -23342,7 +23622,7 @@
         <v>3497.221</v>
       </c>
       <c r="S58" s="10">
-        <f t="shared" ref="S58:S60" si="80">F58</f>
+        <f t="shared" ref="S58:S60" si="96">F58</f>
         <v>3495.1619999999998</v>
       </c>
       <c r="T58" s="10">
@@ -23355,15 +23635,19 @@
         <v>3773.087</v>
       </c>
       <c r="W58" s="10">
-        <f t="shared" ref="W58:W60" si="81">G58</f>
+        <f t="shared" ref="W58:W60" si="97">G58</f>
         <v>3803.5509999999999</v>
       </c>
-      <c r="X58" s="15">
+      <c r="X58" s="143">
         <v>3903.3530000000001</v>
       </c>
-      <c r="Y58" s="10"/>
-    </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y58" s="15">
+        <v>4014.4540000000002</v>
+      </c>
+      <c r="Z58" s="143"/>
+      <c r="AA58" s="143"/>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>205</v>
       </c>
@@ -23384,7 +23668,7 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="95"/>
         <v>141.76499999999999</v>
       </c>
       <c r="P59" s="10">
@@ -23397,7 +23681,7 @@
         <v>133.255</v>
       </c>
       <c r="S59" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="96"/>
         <v>98.623000000000005</v>
       </c>
       <c r="T59" s="10">
@@ -23410,15 +23694,19 @@
         <v>111.089</v>
       </c>
       <c r="W59" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="97"/>
         <v>89.108999999999995</v>
       </c>
-      <c r="X59" s="15">
+      <c r="X59" s="143">
         <v>84.228999999999999</v>
       </c>
-      <c r="Y59" s="10"/>
-    </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y59" s="15">
+        <v>83.298000000000002</v>
+      </c>
+      <c r="Z59" s="143"/>
+      <c r="AA59" s="143"/>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>27</v>
       </c>
@@ -23439,7 +23727,7 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="95"/>
         <v>38.536000000000001</v>
       </c>
       <c r="P60" s="10">
@@ -23452,7 +23740,7 @@
         <v>41.722999999999999</v>
       </c>
       <c r="S60" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="96"/>
         <v>43.816000000000003</v>
       </c>
       <c r="T60" s="10">
@@ -23465,15 +23753,19 @@
         <v>53.295999999999999</v>
       </c>
       <c r="W60" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="97"/>
         <v>58.87</v>
       </c>
-      <c r="X60" s="15">
+      <c r="X60" s="143">
         <v>64.984999999999999</v>
       </c>
-      <c r="Y60" s="10"/>
-    </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y60" s="15">
+        <v>67.106999999999999</v>
+      </c>
+      <c r="Z60" s="143"/>
+      <c r="AA60" s="143"/>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>30</v>
       </c>
@@ -23498,63 +23790,71 @@
         <v>4982.1549999999997</v>
       </c>
       <c r="L61" s="11">
-        <f t="shared" ref="L61:W61" si="82">SUM(L57:L60)</f>
+        <f t="shared" ref="L61:W61" si="98">SUM(L57:L60)</f>
         <v>0</v>
       </c>
       <c r="M61" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="N61" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="O61" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>4355.5840000000007</v>
       </c>
       <c r="P61" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>4343.2970000000005</v>
       </c>
       <c r="Q61" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>4391.1369999999997</v>
       </c>
       <c r="R61" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>4490.0560000000005</v>
       </c>
       <c r="S61" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>4559.4809999999989</v>
       </c>
       <c r="T61" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>4571.686999999999</v>
       </c>
       <c r="U61" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>4785.549</v>
       </c>
       <c r="V61" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>5025.1790000000001</v>
       </c>
       <c r="W61" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>4982.1549999999997</v>
       </c>
-      <c r="X61" s="14">
+      <c r="X61" s="144">
         <f>SUM(X57:X60)</f>
         <v>5049.92</v>
       </c>
-      <c r="Y61" s="11">
-        <f>SUM(Y57:Y60)</f>
+      <c r="Y61" s="14">
+        <f t="shared" ref="Y61:AA61" si="99">SUM(Y57:Y60)</f>
+        <v>5208.0150000000003</v>
+      </c>
+      <c r="Z61" s="144">
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA61" s="144">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>79</v>
       </c>
@@ -23575,69 +23875,80 @@
         <f>G50-G61</f>
         <v>3062.2070000000012</v>
       </c>
-      <c r="L62" s="142"/>
-      <c r="M62" s="142"/>
-      <c r="N62" s="142"/>
-      <c r="O62" s="142">
-        <f t="shared" ref="L62:W62" si="83">O50-O61</f>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10">
+        <f t="shared" ref="O62:W62" si="100">O50-O61</f>
         <v>2297.3739999999998</v>
       </c>
-      <c r="P62" s="142">
-        <f t="shared" si="83"/>
+      <c r="P62" s="10">
+        <f t="shared" si="100"/>
         <v>2123.96</v>
       </c>
-      <c r="Q62" s="142">
-        <f t="shared" si="83"/>
+      <c r="Q62" s="10">
+        <f t="shared" si="100"/>
         <v>2154.1990000000014</v>
       </c>
-      <c r="R62" s="142">
-        <f t="shared" si="83"/>
+      <c r="R62" s="10">
+        <f t="shared" si="100"/>
         <v>2327.3810000000003</v>
       </c>
-      <c r="S62" s="142">
-        <f t="shared" si="83"/>
+      <c r="S62" s="10">
+        <f t="shared" si="100"/>
         <v>2368.023000000001</v>
       </c>
-      <c r="T62" s="142">
-        <f t="shared" si="83"/>
+      <c r="T62" s="10">
+        <f t="shared" si="100"/>
         <v>2481.6850000000013</v>
       </c>
-      <c r="U62" s="142">
-        <f t="shared" si="83"/>
+      <c r="U62" s="10">
+        <f t="shared" si="100"/>
         <v>2766.8860000000004</v>
       </c>
-      <c r="V62" s="142">
-        <f t="shared" si="83"/>
+      <c r="V62" s="10">
+        <f t="shared" si="100"/>
         <v>2886.3139999999994</v>
       </c>
-      <c r="W62" s="142">
-        <f t="shared" si="83"/>
+      <c r="W62" s="10">
+        <f t="shared" si="100"/>
         <v>3062.2070000000012</v>
       </c>
-      <c r="X62" s="15">
+      <c r="X62" s="143">
         <f>X50-X61</f>
         <v>3361.3289999999997</v>
       </c>
-      <c r="Y62" s="10"/>
-    </row>
-    <row r="64" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y62" s="15">
+        <f t="shared" ref="Y62:AA62" si="101">Y50-Y61</f>
+        <v>3711.8200000000006</v>
+      </c>
+      <c r="Z62" s="143">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="143">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="50"/>
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
       <c r="F64" s="50"/>
       <c r="G64" s="51"/>
-      <c r="W64" s="145"/>
-      <c r="X64" s="16"/>
-    </row>
-    <row r="82" spans="7:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X64" s="148"/>
+      <c r="Y64" s="16"/>
+    </row>
+    <row r="82" spans="7:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G82" s="41"/>
-      <c r="W82" s="146"/>
-      <c r="X82" s="41"/>
-    </row>
-    <row r="83" spans="7:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X82" s="149"/>
+      <c r="Y82" s="41"/>
+    </row>
+    <row r="83" spans="7:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G83" s="16"/>
-      <c r="W83" s="145"/>
-      <c r="X83" s="16"/>
+      <c r="X83" s="148"/>
+      <c r="Y83" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -23656,7 +23967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
@@ -35870,14 +36181,14 @@
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="132"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="134"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -35890,12 +36201,12 @@
         <f>C2/C3-1</f>
         <v>5.2768602233361772E-3</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
@@ -35908,22 +36219,22 @@
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>-2.9919525313729545E-2</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="63" t="s">
         <v>99</v>
       </c>
     </row>
@@ -35938,27 +36249,27 @@
         <f t="shared" si="0"/>
         <v>1.7959598750214578E-2</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="64">
         <f>$I$19-3*$I$23</f>
         <v>-0.15385426193937241</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="65">
         <f>H4</f>
         <v>-0.15385426193937241</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="66">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>8</v>
       </c>
-      <c r="K4" s="68" t="str">
+      <c r="K4" s="66" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>Less than -15,39%</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="67">
         <f>J4/$I$31</f>
         <v>8.4033613445378148E-3</v>
       </c>
-      <c r="M4" s="70">
+      <c r="M4" s="68">
         <f>L4</f>
         <v>8.4033613445378148E-3</v>
       </c>
@@ -35974,27 +36285,27 @@
         <f t="shared" si="0"/>
         <v>-4.6446674167910373E-4</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="69">
         <f>$I$19-2.4*$I$23</f>
         <v>-0.12191411129516899</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="70">
         <f>H5</f>
         <v>-0.12191411129516899</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="71">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>6</v>
       </c>
-      <c r="K5" s="74" t="str">
+      <c r="K5" s="72" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>-15,39% to -12,19%</v>
       </c>
-      <c r="L5" s="75">
+      <c r="L5" s="73">
         <f>J5/$I$31</f>
         <v>6.3025210084033615E-3</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="74">
         <f>M4+L5</f>
         <v>1.4705882352941176E-2</v>
       </c>
@@ -36010,27 +36321,27 @@
         <f t="shared" si="0"/>
         <v>8.5807208315471506E-3</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="69">
         <f>$I$19-1.8*$I$23</f>
         <v>-8.9973960650965593E-2</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="70">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>-8.9973960650965593E-2</v>
       </c>
-      <c r="J6" s="73">
+      <c r="J6" s="71">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>18</v>
       </c>
-      <c r="K6" s="74" t="str">
+      <c r="K6" s="72" t="str">
         <f t="shared" si="1"/>
         <v>-12,19% to -9,00%</v>
       </c>
-      <c r="L6" s="75">
+      <c r="L6" s="73">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>1.8907563025210083E-2</v>
       </c>
-      <c r="M6" s="76">
+      <c r="M6" s="74">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>3.3613445378151259E-2</v>
       </c>
@@ -36046,27 +36357,27 @@
         <f t="shared" si="0"/>
         <v>4.5585040896825024E-2</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="69">
         <f>$I$19-1.2*$I$23</f>
         <v>-5.8033810006762179E-2</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="70">
         <f t="shared" si="2"/>
         <v>-5.8033810006762179E-2</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="71">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="K7" s="74" t="str">
+      <c r="K7" s="72" t="str">
         <f t="shared" si="1"/>
         <v>-9,00% to -5,80%</v>
       </c>
-      <c r="L7" s="75">
+      <c r="L7" s="73">
         <f t="shared" si="4"/>
         <v>5.1470588235294115E-2</v>
       </c>
-      <c r="M7" s="76">
+      <c r="M7" s="74">
         <f t="shared" si="5"/>
         <v>8.5084033613445381E-2</v>
       </c>
@@ -36082,27 +36393,27 @@
         <f t="shared" si="0"/>
         <v>2.6160325279303231E-2</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="69">
         <f>$I$19-0.6*$I$23</f>
         <v>-2.6093659362558769E-2</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="70">
         <f t="shared" si="2"/>
         <v>-2.6093659362558769E-2</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="71">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="K8" s="74" t="str">
+      <c r="K8" s="72" t="str">
         <f t="shared" si="1"/>
         <v>-5,80% to -2,61%</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="73">
         <f t="shared" si="4"/>
         <v>0.12710084033613445</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="74">
         <f t="shared" si="5"/>
         <v>0.21218487394957983</v>
       </c>
@@ -36118,27 +36429,27 @@
         <f t="shared" si="0"/>
         <v>-9.8926352148986929E-4</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="69">
         <f>$I$19</f>
         <v>5.8464912816446361E-3</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="70">
         <f t="shared" si="2"/>
         <v>5.8464912816446361E-3</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="71">
         <f t="shared" si="3"/>
         <v>284</v>
       </c>
-      <c r="K9" s="74" t="str">
+      <c r="K9" s="72" t="str">
         <f t="shared" si="1"/>
         <v>-2,61% to 0,58%</v>
       </c>
-      <c r="L9" s="75">
+      <c r="L9" s="73">
         <f t="shared" si="4"/>
         <v>0.29831932773109243</v>
       </c>
-      <c r="M9" s="76">
+      <c r="M9" s="74">
         <f t="shared" si="5"/>
         <v>0.51050420168067223</v>
       </c>
@@ -36154,27 +36465,27 @@
         <f t="shared" si="0"/>
         <v>1.5891389516401455E-2</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="69">
         <f>$I$19+0.6*$I$23</f>
         <v>3.778664192584804E-2</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="70">
         <f t="shared" si="2"/>
         <v>3.778664192584804E-2</v>
       </c>
-      <c r="J10" s="73">
+      <c r="J10" s="71">
         <f t="shared" si="3"/>
         <v>264</v>
       </c>
-      <c r="K10" s="74" t="str">
+      <c r="K10" s="72" t="str">
         <f t="shared" si="1"/>
         <v>0,58% to 3,78%</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="73">
         <f t="shared" si="4"/>
         <v>0.27731092436974791</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="74">
         <f t="shared" si="5"/>
         <v>0.78781512605042014</v>
       </c>
@@ -36190,27 +36501,27 @@
         <f t="shared" si="0"/>
         <v>1.8584314475946329E-2</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="69">
         <f>$I$19+1.2*$I$23</f>
         <v>6.9726792570051446E-2</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="70">
         <f t="shared" si="2"/>
         <v>6.9726792570051446E-2</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="71">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="K11" s="74" t="str">
+      <c r="K11" s="72" t="str">
         <f t="shared" si="1"/>
         <v>3,78% to 6,97%</v>
       </c>
-      <c r="L11" s="75">
+      <c r="L11" s="73">
         <f t="shared" si="4"/>
         <v>0.12289915966386554</v>
       </c>
-      <c r="M11" s="76">
+      <c r="M11" s="74">
         <f t="shared" si="5"/>
         <v>0.9107142857142857</v>
       </c>
@@ -36226,27 +36537,27 @@
         <f t="shared" si="0"/>
         <v>-1.5130731145294729E-2</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="69">
         <f>$I$19+1.8*$I$23</f>
         <v>0.10166694321425486</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="70">
         <f t="shared" si="2"/>
         <v>0.10166694321425486</v>
       </c>
-      <c r="J12" s="73">
+      <c r="J12" s="71">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="K12" s="74" t="str">
+      <c r="K12" s="72" t="str">
         <f t="shared" si="1"/>
         <v>6,97% to 10,17%</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="73">
         <f t="shared" si="4"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="74">
         <f t="shared" si="5"/>
         <v>0.96953781512605042</v>
       </c>
@@ -36262,27 +36573,27 @@
         <f t="shared" si="0"/>
         <v>6.2873675482485236E-2</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="69">
         <f>$I$19+2.4*$I$23</f>
         <v>0.13360709385845826</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="70">
         <f t="shared" si="2"/>
         <v>0.13360709385845826</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="71">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="K13" s="74" t="str">
+      <c r="K13" s="72" t="str">
         <f t="shared" si="1"/>
         <v>10,17% to 13,36%</v>
       </c>
-      <c r="L13" s="75">
+      <c r="L13" s="73">
         <f t="shared" si="4"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="M13" s="76">
+      <c r="M13" s="74">
         <f t="shared" si="5"/>
         <v>0.98424369747899154</v>
       </c>
@@ -36298,27 +36609,27 @@
         <f t="shared" si="0"/>
         <v>6.707362880171952E-2</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="69">
         <f>$I$19+3*$I$23</f>
         <v>0.16554724450266167</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="70">
         <f t="shared" si="2"/>
         <v>0.16554724450266167</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="71">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="K14" s="74" t="str">
+      <c r="K14" s="72" t="str">
         <f t="shared" si="1"/>
         <v>13,36% to 16,55%</v>
       </c>
-      <c r="L14" s="75">
+      <c r="L14" s="73">
         <f t="shared" si="4"/>
         <v>7.3529411764705881E-3</v>
       </c>
-      <c r="M14" s="76">
+      <c r="M14" s="74">
         <f t="shared" si="5"/>
         <v>0.9915966386554621</v>
       </c>
@@ -36334,23 +36645,23 @@
         <f t="shared" si="0"/>
         <v>-3.5766716565946988E-3</v>
       </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78" t="s">
+      <c r="H15" s="75"/>
+      <c r="I15" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="78">
+      <c r="J15" s="76">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>8</v>
       </c>
-      <c r="K15" s="78" t="str">
+      <c r="K15" s="76" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>Greater than 16,55%</v>
       </c>
-      <c r="L15" s="79">
+      <c r="L15" s="77">
         <f t="shared" si="4"/>
         <v>8.4033613445378148E-3</v>
       </c>
-      <c r="M15" s="79">
+      <c r="M15" s="77">
         <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
@@ -36366,8 +36677,8 @@
         <f t="shared" si="0"/>
         <v>2.7598133150498194E-2</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="H16" s="78"/>
+      <c r="M16" s="79"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
@@ -36380,11 +36691,11 @@
         <f t="shared" si="0"/>
         <v>2.6708175927015354E-2</v>
       </c>
-      <c r="H17" s="133" t="s">
+      <c r="H17" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="134"/>
-      <c r="M17" s="81"/>
+      <c r="I17" s="136"/>
+      <c r="M17" s="79"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
@@ -36397,9 +36708,9 @@
         <f t="shared" si="0"/>
         <v>-3.2427289180687158E-2</v>
       </c>
-      <c r="H18" s="135"/>
-      <c r="I18" s="136"/>
-      <c r="M18" s="81"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="138"/>
+      <c r="M18" s="79"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
@@ -36412,14 +36723,14 @@
         <f t="shared" si="0"/>
         <v>-7.5466557859820149E-3</v>
       </c>
-      <c r="H19" s="82" t="s">
+      <c r="H19" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="119">
+      <c r="I19" s="117">
         <f>AVERAGE(D:D)</f>
         <v>5.8464912816446361E-3</v>
       </c>
-      <c r="M19" s="81"/>
+      <c r="M19" s="79"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
@@ -36432,14 +36743,14 @@
         <f t="shared" si="0"/>
         <v>1.4475263780627801E-2</v>
       </c>
-      <c r="H20" s="82" t="s">
+      <c r="H20" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="119">
+      <c r="I20" s="117">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>1.725310381532476E-3</v>
       </c>
-      <c r="M20" s="81"/>
+      <c r="M20" s="79"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
@@ -36452,14 +36763,14 @@
         <f t="shared" si="0"/>
         <v>1.2715406327851619E-2</v>
       </c>
-      <c r="H21" s="82" t="s">
+      <c r="H21" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="119">
+      <c r="I21" s="117">
         <f>MEDIAN(D:D)</f>
         <v>4.5528952995110838E-3</v>
       </c>
-      <c r="M21" s="81"/>
+      <c r="M21" s="79"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
@@ -36472,14 +36783,14 @@
         <f t="shared" si="0"/>
         <v>4.0826171559857904E-3</v>
       </c>
-      <c r="H22" s="82" t="s">
+      <c r="H22" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="I22" s="119" t="e">
+      <c r="I22" s="117" t="e">
         <f>MODE(D:D)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="81"/>
+      <c r="M22" s="79"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -36492,14 +36803,14 @@
         <f t="shared" si="0"/>
         <v>6.3793971615568879E-3</v>
       </c>
-      <c r="H23" s="82" t="s">
+      <c r="H23" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="119">
+      <c r="I23" s="117">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>5.323358440700568E-2</v>
       </c>
-      <c r="M23" s="81"/>
+      <c r="M23" s="79"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -36512,14 +36823,14 @@
         <f t="shared" si="0"/>
         <v>2.6569891949258961E-2</v>
       </c>
-      <c r="H24" s="82" t="s">
+      <c r="H24" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="119">
+      <c r="I24" s="117">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>2.8338145088177983E-3</v>
       </c>
-      <c r="M24" s="81"/>
+      <c r="M24" s="79"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
@@ -36532,14 +36843,14 @@
         <f t="shared" si="0"/>
         <v>1.9636086103040462E-2</v>
       </c>
-      <c r="H25" s="82" t="s">
+      <c r="H25" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="I25" s="120">
+      <c r="I25" s="118">
         <f>KURT(D:D)</f>
         <v>3.5788006055415194</v>
       </c>
-      <c r="M25" s="81"/>
+      <c r="M25" s="79"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
@@ -36552,14 +36863,14 @@
         <f t="shared" si="0"/>
         <v>3.9230027425389169E-2</v>
       </c>
-      <c r="H26" s="82" t="s">
+      <c r="H26" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="I26" s="120">
+      <c r="I26" s="118">
         <f>SKEW(D:D)</f>
         <v>0.39195460808708005</v>
       </c>
-      <c r="M26" s="81"/>
+      <c r="M26" s="79"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -36572,14 +36883,14 @@
         <f t="shared" si="0"/>
         <v>8.1023986011165228E-2</v>
       </c>
-      <c r="H27" s="82" t="s">
+      <c r="H27" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="119">
+      <c r="I27" s="117">
         <f>I29-I28</f>
         <v>0.47953268469771826</v>
       </c>
-      <c r="M27" s="81"/>
+      <c r="M27" s="79"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -36592,14 +36903,14 @@
         <f t="shared" si="0"/>
         <v>3.0765851740614414E-2</v>
       </c>
-      <c r="H28" s="82" t="s">
+      <c r="H28" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="119">
+      <c r="I28" s="117">
         <f>MIN(D:D)</f>
         <v>-0.19214003354155562</v>
       </c>
-      <c r="M28" s="81"/>
+      <c r="M28" s="79"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -36612,14 +36923,14 @@
         <f t="shared" si="0"/>
         <v>2.7937456810488426E-2</v>
       </c>
-      <c r="H29" s="82" t="s">
+      <c r="H29" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="119">
+      <c r="I29" s="117">
         <f>MAX(D:D)</f>
         <v>0.28739265115616264</v>
       </c>
-      <c r="M29" s="81"/>
+      <c r="M29" s="79"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -36632,14 +36943,14 @@
         <f t="shared" si="0"/>
         <v>-2.2384190900534007E-2</v>
       </c>
-      <c r="H30" s="82" t="s">
+      <c r="H30" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="I30" s="120">
+      <c r="I30" s="118">
         <f>SUM(D:D)</f>
         <v>5.565859700125694</v>
       </c>
-      <c r="M30" s="81"/>
+      <c r="M30" s="79"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
@@ -36652,14 +36963,14 @@
         <f t="shared" si="0"/>
         <v>-5.218790078569957E-3</v>
       </c>
-      <c r="H31" s="83" t="s">
+      <c r="H31" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="58">
         <f>COUNT(D:D)</f>
         <v>952</v>
       </c>
-      <c r="M31" s="81"/>
+      <c r="M31" s="79"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
@@ -36672,8 +36983,8 @@
         <f t="shared" si="0"/>
         <v>-2.3326118334781376E-2</v>
       </c>
-      <c r="H32" s="85"/>
-      <c r="M32" s="81"/>
+      <c r="H32" s="83"/>
+      <c r="M32" s="79"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -36686,20 +36997,20 @@
         <f t="shared" si="0"/>
         <v>-1.9304598169934573E-2</v>
       </c>
-      <c r="H33" s="86"/>
-      <c r="I33" s="87" t="s">
+      <c r="H33" s="84"/>
+      <c r="I33" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="J33" s="87" t="s">
+      <c r="J33" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="K33" s="87" t="s">
+      <c r="K33" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="L33" s="88" t="s">
+      <c r="L33" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="M33" s="81"/>
+      <c r="M33" s="79"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
@@ -36712,26 +37023,26 @@
         <f t="shared" si="0"/>
         <v>-1.6760051618035732E-2</v>
       </c>
-      <c r="H34" s="89" t="s">
+      <c r="H34" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="I34" s="75">
+      <c r="I34" s="73">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>3.9781459557057579E-2</v>
       </c>
-      <c r="J34" s="73">
+      <c r="J34" s="71">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>524</v>
       </c>
-      <c r="K34" s="75">
+      <c r="K34" s="73">
         <f>J34/$I$31</f>
         <v>0.55042016806722693</v>
       </c>
-      <c r="L34" s="76">
+      <c r="L34" s="74">
         <f>K34*I34</f>
         <v>2.1896517655355222E-2</v>
       </c>
-      <c r="M34" s="81"/>
+      <c r="M34" s="79"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
@@ -36744,26 +37055,26 @@
         <f t="shared" si="0"/>
         <v>3.3477548605527208E-3</v>
       </c>
-      <c r="H35" s="89" t="s">
+      <c r="H35" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="75">
+      <c r="I35" s="73">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>-3.5700058663019882E-2</v>
       </c>
-      <c r="J35" s="73">
+      <c r="J35" s="71">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>428</v>
       </c>
-      <c r="K35" s="75">
+      <c r="K35" s="73">
         <f>J35/$I$31</f>
         <v>0.44957983193277312</v>
       </c>
-      <c r="L35" s="76">
+      <c r="L35" s="74">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>-1.605002637371062E-2</v>
       </c>
-      <c r="M35" s="81"/>
+      <c r="M35" s="79"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
@@ -36776,25 +37087,25 @@
         <f t="shared" si="0"/>
         <v>3.2944700521426951E-2</v>
       </c>
-      <c r="H36" s="90" t="s">
+      <c r="H36" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="78">
+      <c r="I36" s="76">
         <v>0</v>
       </c>
-      <c r="J36" s="78">
+      <c r="J36" s="76">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="91">
+      <c r="K36" s="89">
         <f>J36/$I$31</f>
         <v>0</v>
       </c>
-      <c r="L36" s="79">
+      <c r="L36" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M36" s="81"/>
+      <c r="M36" s="79"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
@@ -36807,12 +37118,12 @@
         <f t="shared" si="0"/>
         <v>1.4914600222158514E-2</v>
       </c>
-      <c r="H37" s="85"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="81"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="79"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
@@ -36825,22 +37136,22 @@
         <f t="shared" si="0"/>
         <v>1.4350556062290298E-3</v>
       </c>
-      <c r="H38" s="66" t="s">
+      <c r="H38" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="I38" s="87" t="s">
+      <c r="I38" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="J38" s="87" t="s">
+      <c r="J38" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="87" t="s">
+      <c r="K38" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="87" t="s">
+      <c r="L38" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="M38" s="88" t="s">
+      <c r="M38" s="86" t="s">
         <v>124</v>
       </c>
     </row>
@@ -36855,26 +37166,26 @@
         <f t="shared" si="0"/>
         <v>-2.3304614039685201E-2</v>
       </c>
-      <c r="H39" s="93">
+      <c r="H39" s="91">
         <v>1</v>
       </c>
-      <c r="I39" s="75">
+      <c r="I39" s="73">
         <f>$I$19+($H39*$I$23)</f>
         <v>5.9080075688650313E-2</v>
       </c>
-      <c r="J39" s="75">
+      <c r="J39" s="73">
         <f>$I$19-($H39*$I$23)</f>
         <v>-4.7387093125361046E-2</v>
       </c>
-      <c r="K39" s="73">
+      <c r="K39" s="71">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>719</v>
       </c>
-      <c r="L39" s="75">
+      <c r="L39" s="73">
         <f>K39/$I$31</f>
         <v>0.75525210084033612</v>
       </c>
-      <c r="M39" s="76">
+      <c r="M39" s="74">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -36889,26 +37200,26 @@
         <f t="shared" si="0"/>
         <v>-1.1456107528746262E-2</v>
       </c>
-      <c r="H40" s="93">
+      <c r="H40" s="91">
         <v>2</v>
       </c>
-      <c r="I40" s="75">
+      <c r="I40" s="73">
         <f>$I$19+($H40*$I$23)</f>
         <v>0.11231366009565599</v>
       </c>
-      <c r="J40" s="75">
+      <c r="J40" s="73">
         <f>$I$19-($H40*$I$23)</f>
         <v>-0.10062067753236673</v>
       </c>
-      <c r="K40" s="73">
+      <c r="K40" s="71">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>902</v>
       </c>
-      <c r="L40" s="75">
+      <c r="L40" s="73">
         <f>K40/$I$31</f>
         <v>0.94747899159663862</v>
       </c>
-      <c r="M40" s="76">
+      <c r="M40" s="74">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -36923,26 +37234,26 @@
         <f t="shared" si="0"/>
         <v>-8.8785911758254787E-2</v>
       </c>
-      <c r="H41" s="93">
+      <c r="H41" s="91">
         <v>3</v>
       </c>
-      <c r="I41" s="75">
+      <c r="I41" s="73">
         <f>$I$19+($H41*$I$23)</f>
         <v>0.16554724450266167</v>
       </c>
-      <c r="J41" s="75">
+      <c r="J41" s="73">
         <f>$I$19-($H41*$I$23)</f>
         <v>-0.15385426193937241</v>
       </c>
-      <c r="K41" s="73">
+      <c r="K41" s="71">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>936</v>
       </c>
-      <c r="L41" s="75">
+      <c r="L41" s="73">
         <f>K41/$I$31</f>
         <v>0.98319327731092432</v>
       </c>
-      <c r="M41" s="94">
+      <c r="M41" s="92">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -36957,8 +37268,8 @@
         <f t="shared" si="0"/>
         <v>2.0861164708422919E-2</v>
       </c>
-      <c r="H42" s="71"/>
-      <c r="M42" s="94"/>
+      <c r="H42" s="69"/>
+      <c r="M42" s="92"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
@@ -36971,14 +37282,14 @@
         <f t="shared" si="0"/>
         <v>-1.0339540305585704E-2</v>
       </c>
-      <c r="H43" s="137" t="s">
+      <c r="H43" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="M43" s="139"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="140"/>
+      <c r="M43" s="141"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -36991,24 +37302,24 @@
         <f t="shared" si="0"/>
         <v>-2.8770471715754975E-2</v>
       </c>
-      <c r="H44" s="95">
+      <c r="H44" s="93">
         <v>0.01</v>
       </c>
-      <c r="I44" s="96">
+      <c r="I44" s="94">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>-0.13963534475987524</v>
       </c>
-      <c r="J44" s="97">
+      <c r="J44" s="95">
         <v>0.2</v>
       </c>
-      <c r="K44" s="96">
+      <c r="K44" s="94">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>-2.8722440581477743E-2</v>
       </c>
-      <c r="L44" s="97">
+      <c r="L44" s="95">
         <v>0.85</v>
       </c>
-      <c r="M44" s="98">
+      <c r="M44" s="96">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>5.0068868334653349E-2</v>
       </c>
@@ -37024,24 +37335,24 @@
         <f t="shared" si="0"/>
         <v>4.6641325198352179E-2</v>
       </c>
-      <c r="H45" s="99">
+      <c r="H45" s="97">
         <v>0.02</v>
       </c>
-      <c r="I45" s="100">
+      <c r="I45" s="98">
         <f t="shared" si="7"/>
         <v>-0.10522464130612222</v>
       </c>
-      <c r="J45" s="101">
+      <c r="J45" s="99">
         <v>0.25</v>
       </c>
-      <c r="K45" s="100">
+      <c r="K45" s="98">
         <f t="shared" si="8"/>
         <v>-2.0557541725992945E-2</v>
       </c>
-      <c r="L45" s="101">
+      <c r="L45" s="99">
         <v>0.86</v>
       </c>
-      <c r="M45" s="102">
+      <c r="M45" s="100">
         <f t="shared" si="9"/>
         <v>5.283703363126336E-2</v>
       </c>
@@ -37057,24 +37368,24 @@
         <f t="shared" si="0"/>
         <v>5.2928840127073329E-3</v>
       </c>
-      <c r="H46" s="99">
+      <c r="H46" s="97">
         <v>0.03</v>
       </c>
-      <c r="I46" s="100">
+      <c r="I46" s="98">
         <f t="shared" si="7"/>
         <v>-9.6625091400779795E-2</v>
       </c>
-      <c r="J46" s="101">
+      <c r="J46" s="99">
         <v>0.3</v>
       </c>
-      <c r="K46" s="100">
+      <c r="K46" s="98">
         <f t="shared" si="8"/>
         <v>-1.5533828667659143E-2</v>
       </c>
-      <c r="L46" s="101">
+      <c r="L46" s="99">
         <v>0.87</v>
       </c>
-      <c r="M46" s="102">
+      <c r="M46" s="100">
         <f t="shared" si="9"/>
         <v>5.6548731003035188E-2</v>
       </c>
@@ -37090,24 +37401,24 @@
         <f t="shared" si="0"/>
         <v>-3.7391903245593827E-3</v>
       </c>
-      <c r="H47" s="99">
+      <c r="H47" s="97">
         <v>0.04</v>
       </c>
-      <c r="I47" s="100">
+      <c r="I47" s="98">
         <f t="shared" si="7"/>
         <v>-8.5930019564668378E-2</v>
       </c>
-      <c r="J47" s="101">
+      <c r="J47" s="99">
         <v>0.35</v>
       </c>
-      <c r="K47" s="100">
+      <c r="K47" s="98">
         <f t="shared" si="8"/>
         <v>-9.4758190687603498E-3</v>
       </c>
-      <c r="L47" s="101">
+      <c r="L47" s="99">
         <v>0.88</v>
       </c>
-      <c r="M47" s="102">
+      <c r="M47" s="100">
         <f t="shared" si="9"/>
         <v>5.9393187546676024E-2</v>
       </c>
@@ -37123,24 +37434,24 @@
         <f t="shared" si="0"/>
         <v>-1.0512858027599825E-2</v>
       </c>
-      <c r="H48" s="99">
+      <c r="H48" s="97">
         <v>0.05</v>
       </c>
-      <c r="I48" s="100">
+      <c r="I48" s="98">
         <f t="shared" si="7"/>
         <v>-7.8230516010701176E-2</v>
       </c>
-      <c r="J48" s="101">
+      <c r="J48" s="99">
         <v>0.4</v>
       </c>
-      <c r="K48" s="100">
+      <c r="K48" s="98">
         <f t="shared" si="8"/>
         <v>-4.3668915405717691E-3</v>
       </c>
-      <c r="L48" s="101">
+      <c r="L48" s="99">
         <v>0.89</v>
       </c>
-      <c r="M48" s="102">
+      <c r="M48" s="100">
         <f t="shared" si="9"/>
         <v>6.292964794910387E-2</v>
       </c>
@@ -37156,24 +37467,24 @@
         <f t="shared" si="0"/>
         <v>-4.2443046977401755E-3</v>
       </c>
-      <c r="H49" s="99">
+      <c r="H49" s="97">
         <v>0.06</v>
       </c>
-      <c r="I49" s="100">
+      <c r="I49" s="98">
         <f t="shared" si="7"/>
         <v>-7.1378516151194879E-2</v>
       </c>
-      <c r="J49" s="101">
+      <c r="J49" s="99">
         <v>0.45</v>
       </c>
-      <c r="K49" s="100">
+      <c r="K49" s="98">
         <f t="shared" si="8"/>
         <v>1.4840507812594804E-4</v>
       </c>
-      <c r="L49" s="101">
+      <c r="L49" s="99">
         <v>0.9</v>
       </c>
-      <c r="M49" s="102">
+      <c r="M49" s="100">
         <f t="shared" si="9"/>
         <v>6.5923495323713804E-2</v>
       </c>
@@ -37189,24 +37500,24 @@
         <f t="shared" si="0"/>
         <v>-1.6712381177967695E-2</v>
       </c>
-      <c r="H50" s="99">
+      <c r="H50" s="97">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="100">
+      <c r="I50" s="98">
         <f t="shared" si="7"/>
         <v>-6.5322318607939633E-2</v>
       </c>
-      <c r="J50" s="101">
+      <c r="J50" s="99">
         <v>0.5</v>
       </c>
-      <c r="K50" s="100">
+      <c r="K50" s="98">
         <f t="shared" si="8"/>
         <v>4.5528952995110838E-3</v>
       </c>
-      <c r="L50" s="101">
+      <c r="L50" s="99">
         <v>0.91</v>
       </c>
-      <c r="M50" s="102">
+      <c r="M50" s="100">
         <f t="shared" si="9"/>
         <v>6.9515049071658397E-2</v>
       </c>
@@ -37222,24 +37533,24 @@
         <f t="shared" si="0"/>
         <v>2.9619220412246516E-2</v>
       </c>
-      <c r="H51" s="99">
+      <c r="H51" s="97">
         <v>0.08</v>
       </c>
-      <c r="I51" s="100">
+      <c r="I51" s="98">
         <f t="shared" si="7"/>
         <v>-6.1252198961418688E-2</v>
       </c>
-      <c r="J51" s="101">
+      <c r="J51" s="99">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="100">
+      <c r="K51" s="98">
         <f t="shared" si="8"/>
         <v>9.0881251140893533E-3</v>
       </c>
-      <c r="L51" s="101">
+      <c r="L51" s="99">
         <v>0.92</v>
       </c>
-      <c r="M51" s="102">
+      <c r="M51" s="100">
         <f t="shared" si="9"/>
         <v>7.2869618983125481E-2</v>
       </c>
@@ -37255,24 +37566,24 @@
         <f t="shared" si="0"/>
         <v>8.588876070508622E-3</v>
       </c>
-      <c r="H52" s="99">
+      <c r="H52" s="97">
         <v>0.09</v>
       </c>
-      <c r="I52" s="100">
+      <c r="I52" s="98">
         <f t="shared" si="7"/>
         <v>-5.6392062385112129E-2</v>
       </c>
-      <c r="J52" s="101">
+      <c r="J52" s="99">
         <v>0.6</v>
       </c>
-      <c r="K52" s="100">
+      <c r="K52" s="98">
         <f t="shared" si="8"/>
         <v>1.4411330052331283E-2</v>
       </c>
-      <c r="L52" s="101">
+      <c r="L52" s="99">
         <v>0.93</v>
       </c>
-      <c r="M52" s="102">
+      <c r="M52" s="100">
         <f t="shared" si="9"/>
         <v>7.6859001905260599E-2</v>
       </c>
@@ -37288,24 +37599,24 @@
         <f t="shared" si="0"/>
         <v>-1.9060636756224714E-2</v>
       </c>
-      <c r="H53" s="99">
+      <c r="H53" s="97">
         <v>0.1</v>
       </c>
-      <c r="I53" s="100">
+      <c r="I53" s="98">
         <f t="shared" si="7"/>
         <v>-5.4231114739760222E-2</v>
       </c>
-      <c r="J53" s="101">
+      <c r="J53" s="99">
         <v>0.65</v>
       </c>
-      <c r="K53" s="100">
+      <c r="K53" s="98">
         <f t="shared" si="8"/>
         <v>1.9780711991497345E-2</v>
       </c>
-      <c r="L53" s="101">
+      <c r="L53" s="99">
         <v>0.94</v>
       </c>
-      <c r="M53" s="102">
+      <c r="M53" s="100">
         <f t="shared" si="9"/>
         <v>8.3610810790687162E-2</v>
       </c>
@@ -37321,24 +37632,24 @@
         <f t="shared" si="0"/>
         <v>0.14867784277777774</v>
       </c>
-      <c r="H54" s="99">
+      <c r="H54" s="97">
         <v>0.11</v>
       </c>
-      <c r="I54" s="100">
+      <c r="I54" s="98">
         <f t="shared" si="7"/>
         <v>-5.1629087686152222E-2</v>
       </c>
-      <c r="J54" s="101">
+      <c r="J54" s="99">
         <v>0.7</v>
       </c>
-      <c r="K54" s="100">
+      <c r="K54" s="98">
         <f t="shared" si="8"/>
         <v>2.5381474811995649E-2</v>
       </c>
-      <c r="L54" s="101">
+      <c r="L54" s="99">
         <v>0.95</v>
       </c>
-      <c r="M54" s="102">
+      <c r="M54" s="100">
         <f t="shared" si="9"/>
         <v>9.0257606990814365E-2</v>
       </c>
@@ -37354,24 +37665,24 @@
         <f t="shared" si="0"/>
         <v>3.5494419410213141E-2</v>
       </c>
-      <c r="H55" s="99">
+      <c r="H55" s="97">
         <v>0.12</v>
       </c>
-      <c r="I55" s="100">
+      <c r="I55" s="98">
         <f t="shared" si="7"/>
         <v>-4.7994043994764861E-2</v>
       </c>
-      <c r="J55" s="101">
+      <c r="J55" s="99">
         <v>0.75</v>
       </c>
-      <c r="K55" s="100">
+      <c r="K55" s="98">
         <f t="shared" si="8"/>
         <v>3.2891903112417853E-2</v>
       </c>
-      <c r="L55" s="101">
+      <c r="L55" s="99">
         <v>0.96</v>
       </c>
-      <c r="M55" s="102">
+      <c r="M55" s="100">
         <f t="shared" si="9"/>
         <v>9.790962352019475E-2</v>
       </c>
@@ -37387,24 +37698,24 @@
         <f t="shared" si="0"/>
         <v>3.1503545094461849E-2</v>
       </c>
-      <c r="H56" s="99">
+      <c r="H56" s="97">
         <v>0.13</v>
       </c>
-      <c r="I56" s="100">
+      <c r="I56" s="98">
         <f t="shared" si="7"/>
         <v>-4.3488148296210047E-2</v>
       </c>
-      <c r="J56" s="101">
+      <c r="J56" s="99">
         <v>0.8</v>
       </c>
-      <c r="K56" s="100">
+      <c r="K56" s="98">
         <f t="shared" si="8"/>
         <v>3.9562115273830398E-2</v>
       </c>
-      <c r="L56" s="101">
+      <c r="L56" s="99">
         <v>0.97</v>
       </c>
-      <c r="M56" s="102">
+      <c r="M56" s="100">
         <f t="shared" si="9"/>
         <v>0.10228296300910313</v>
       </c>
@@ -37420,19 +37731,19 @@
         <f t="shared" si="0"/>
         <v>-1.3510631961250907E-2</v>
       </c>
-      <c r="H57" s="99">
+      <c r="H57" s="97">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="100">
+      <c r="I57" s="98">
         <f t="shared" si="7"/>
         <v>-4.0877342937211791E-2</v>
       </c>
-      <c r="J57" s="101"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="101">
+      <c r="J57" s="99"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="99">
         <v>0.98</v>
       </c>
-      <c r="M57" s="102">
+      <c r="M57" s="100">
         <f t="shared" si="9"/>
         <v>0.12194054740126513</v>
       </c>
@@ -37448,19 +37759,19 @@
         <f t="shared" si="0"/>
         <v>5.1740827458827132E-2</v>
       </c>
-      <c r="H58" s="103">
+      <c r="H58" s="101">
         <v>0.15</v>
       </c>
-      <c r="I58" s="104">
+      <c r="I58" s="102">
         <f t="shared" si="7"/>
         <v>-3.9013993813855397E-2</v>
       </c>
-      <c r="J58" s="105"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="106">
+      <c r="J58" s="103"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="104">
         <v>0.99</v>
       </c>
-      <c r="M58" s="107">
+      <c r="M58" s="105">
         <f t="shared" si="9"/>
         <v>0.1520839629417807</v>
       </c>
@@ -37488,10 +37799,10 @@
         <f t="shared" si="0"/>
         <v>3.7486058942004741E-2</v>
       </c>
-      <c r="H60" s="108" t="s">
+      <c r="H60" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="I60" s="109"/>
+      <c r="I60" s="107"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
@@ -37504,10 +37815,10 @@
         <f t="shared" si="0"/>
         <v>2.6960239072847614E-2</v>
       </c>
-      <c r="H61" s="110" t="s">
+      <c r="H61" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="I61" s="111"/>
+      <c r="I61" s="109"/>
     </row>
     <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
@@ -37520,7 +37831,7 @@
         <f t="shared" si="0"/>
         <v>2.2529521612339565E-2</v>
       </c>
-      <c r="H62" s="112"/>
+      <c r="H62" s="110"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
@@ -37533,10 +37844,10 @@
         <f t="shared" si="0"/>
         <v>-8.712534705254138E-2</v>
       </c>
-      <c r="H63" s="108" t="s">
+      <c r="H63" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="I63" s="113"/>
+      <c r="I63" s="111"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
@@ -37549,10 +37860,10 @@
         <f t="shared" si="0"/>
         <v>2.1327256741371592E-2</v>
       </c>
-      <c r="H64" s="114" t="s">
+      <c r="H64" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="I64" s="115">
+      <c r="I64" s="113">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
@@ -37568,10 +37879,10 @@
         <f t="shared" si="0"/>
         <v>-6.4431122741987479E-2</v>
       </c>
-      <c r="H65" s="110" t="s">
+      <c r="H65" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="I65" s="116">
+      <c r="I65" s="114">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>

--- a/Retail Wholesale - Restaurants/CMG.xlsx
+++ b/Retail Wholesale - Restaurants/CMG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Retail Wholesale - Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD5332F-95DA-4525-8877-86932C1F7427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009F708D-E74B-4A8B-9816-BE0991824078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1088,7 +1088,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1145,6 +1145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9B9B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,7 +1717,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1865,6 +1871,7 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1934,7 +1941,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4335,10 +4343,10 @@
                   <c:v>0.36662844330058375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21111111111111125</c:v>
+                  <c:v>0.23333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1834862385321101</c:v>
+                  <c:v>0.18018018018018012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18978,8 +18986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19034,7 +19042,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="20">
-        <v>45419</v>
+        <v>45604</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>155</v>
@@ -19058,7 +19066,7 @@
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.81041666666666667</v>
+        <v>3.9583333333333331E-2</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>157</v>
@@ -19110,7 +19118,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>54.04</v>
+        <v>58.3</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>161</v>
@@ -19166,7 +19174,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>74657.23272</v>
+        <v>80542.499400000001</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>165</v>
@@ -19282,7 +19290,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>73167.417719999998</v>
+        <v>79052.684399999998</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>173</v>
@@ -19311,7 +19319,7 @@
       </c>
       <c r="C13" s="36">
         <f>C6/Model!G22</f>
-        <v>60.044444444444444</v>
+        <v>64.777777777777771</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -19324,7 +19332,7 @@
       </c>
       <c r="C14" s="36">
         <f>C6/Model!H23</f>
-        <v>49.577981651376142</v>
+        <v>52.522522522522515</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -19342,7 +19350,7 @@
       </c>
       <c r="C15" s="36">
         <f>C6/Model!I23</f>
-        <v>41.891472868217051</v>
+        <v>44.503816793893122</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -19351,7 +19359,7 @@
       </c>
       <c r="C16" s="6">
         <f>Model!H23/Model!G22-1</f>
-        <v>0.21111111111111125</v>
+        <v>0.23333333333333339</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -19360,14 +19368,14 @@
       </c>
       <c r="C17" s="6">
         <f>Model!I23/Model!H23-1</f>
-        <v>0.1834862385321101</v>
+        <v>0.18018018018018012</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="123"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="125"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="126"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -19375,14 +19383,14 @@
       </c>
       <c r="C18" s="49">
         <f>C14/(C16*100)</f>
-        <v>2.3484307098020261</v>
+        <v>2.2509652509652502</v>
       </c>
       <c r="E18" t="s">
         <v>216</v>
       </c>
-      <c r="L18" s="126"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="128"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="129"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -19390,14 +19398,14 @@
       </c>
       <c r="C19" s="49">
         <f>C15/(C17*100)</f>
-        <v>2.2830852713178293</v>
+        <v>2.469961832061069</v>
       </c>
       <c r="E19" t="s">
         <v>217</v>
       </c>
-      <c r="L19" s="126"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="128"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="129"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -19410,9 +19418,9 @@
       <c r="E20" t="s">
         <v>218</v>
       </c>
-      <c r="L20" s="126"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="128"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="129"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -19422,9 +19430,9 @@
         <f>Model!I6/Model!H6-1</f>
         <v>0.13580246913580241</v>
       </c>
-      <c r="L21" s="126"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="128"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="129"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -19434,9 +19442,9 @@
         <f>Model!G16+Model!G13</f>
         <v>1877.2069999999983</v>
       </c>
-      <c r="L22" s="126"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="128"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="129"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -19446,9 +19454,9 @@
         <f>Model!G18</f>
         <v>1620.5059999999983</v>
       </c>
-      <c r="L23" s="126"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="128"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="129"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -19458,9 +19466,9 @@
         <f>Model!Y24</f>
         <v>0.2890569055977279</v>
       </c>
-      <c r="L24" s="126"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="128"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="129"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -19470,9 +19478,9 @@
         <f>Model!Y25</f>
         <v>0.15326372961440815</v>
       </c>
-      <c r="L25" s="126"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="128"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="129"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -19480,11 +19488,11 @@
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>45.150969956297651</v>
-      </c>
-      <c r="L26" s="126"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="128"/>
+        <v>48.782716262698244</v>
+      </c>
+      <c r="L26" s="127"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="129"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -19496,9 +19504,9 @@
       <c r="E27" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="126"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="128"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="129"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -19510,9 +19518,9 @@
       <c r="E28" t="s">
         <v>214</v>
       </c>
-      <c r="L28" s="129"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="131"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="132"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -19597,13 +19605,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AA83"/>
+  <dimension ref="A1:AB83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19611,16 +19619,16 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="24" max="24" width="11.42578125" style="142"/>
-    <col min="25" max="25" width="11.42578125" style="13"/>
+    <col min="25" max="25" width="11.42578125" style="143"/>
+    <col min="26" max="26" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -19678,20 +19686,20 @@
       <c r="W2" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="142" t="s">
+      <c r="X2" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="13" t="s">
         <v>211</v>
       </c>
       <c r="AA2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>185</v>
       </c>
@@ -19749,16 +19757,18 @@
         <f>G3-V3-U3-T3</f>
         <v>2499.5669999999991</v>
       </c>
-      <c r="X3" s="143">
+      <c r="X3" s="10">
         <v>2684.4470000000001</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3" s="144">
         <v>2954.913</v>
       </c>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z3" s="15">
+        <v>2778.0340000000001</v>
+      </c>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>186</v>
       </c>
@@ -19816,16 +19826,18 @@
         <f>G4-V4-U4-T4</f>
         <v>16.753000000000004</v>
       </c>
-      <c r="X4" s="143">
+      <c r="X4" s="10">
         <v>17.401</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y4" s="144">
         <v>18.204000000000001</v>
       </c>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-    </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="15">
+        <v>15.542</v>
+      </c>
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -19860,7 +19872,7 @@
         <v>1741.575</v>
       </c>
       <c r="M5" s="11">
-        <f t="shared" ref="M5:AA5" si="0">SUM(M3:M4)</f>
+        <f t="shared" ref="M5:X5" si="0">SUM(M3:M4)</f>
         <v>1892.538</v>
       </c>
       <c r="N5" s="11">
@@ -19903,24 +19915,28 @@
         <f t="shared" si="0"/>
         <v>2516.3199999999993</v>
       </c>
-      <c r="X5" s="144">
+      <c r="X5" s="11">
         <f t="shared" si="0"/>
         <v>2701.848</v>
       </c>
-      <c r="Y5" s="14">
-        <f t="shared" ref="Y5:AA5" si="1">SUM(Y3:Y4)</f>
+      <c r="Y5" s="145">
+        <f t="shared" ref="Y5:AB5" si="1">SUM(Y3:Y4)</f>
         <v>2973.1170000000002</v>
       </c>
-      <c r="Z5" s="144">
+      <c r="Z5" s="14">
+        <f t="shared" si="1"/>
+        <v>2793.576</v>
+      </c>
+      <c r="AA5" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="144">
+      <c r="AB5" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -19961,18 +19977,21 @@
       <c r="W6" s="10">
         <v>2490</v>
       </c>
-      <c r="X6" s="143">
+      <c r="X6" s="10">
         <v>2680</v>
       </c>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="143">
+      <c r="Y6" s="144"/>
+      <c r="Z6" s="152">
         <v>2810</v>
       </c>
-      <c r="AA6" s="143">
+      <c r="AA6" s="10">
         <v>2850</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="151">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>187</v>
       </c>
@@ -20032,16 +20051,18 @@
         <f t="shared" ref="W7:W10" si="4">G7-V7-U7-T7</f>
         <v>747.15499999999975</v>
       </c>
-      <c r="X7" s="143">
+      <c r="X7" s="10">
         <v>779.07600000000002</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Y7" s="144">
         <v>873.673</v>
       </c>
-      <c r="Z7" s="143"/>
-      <c r="AA7" s="143"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z7" s="15">
+        <v>855.51499999999999</v>
+      </c>
+      <c r="AA7" s="10"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>188</v>
       </c>
@@ -20101,16 +20122,18 @@
         <f t="shared" si="4"/>
         <v>629.22799999999995</v>
       </c>
-      <c r="X8" s="143">
+      <c r="X8" s="10">
         <v>659.45</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Y8" s="144">
         <v>716.62699999999995</v>
       </c>
-      <c r="Z8" s="143"/>
-      <c r="AA8" s="143"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z8" s="15">
+        <v>696.84699999999998</v>
+      </c>
+      <c r="AA8" s="10"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>189</v>
       </c>
@@ -20170,16 +20193,18 @@
         <f t="shared" si="4"/>
         <v>131.16700000000003</v>
       </c>
-      <c r="X9" s="143">
+      <c r="X9" s="10">
         <v>135.69900000000001</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="Y9" s="144">
         <v>138.66300000000001</v>
       </c>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="143"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z9" s="15">
+        <v>142.57</v>
+      </c>
+      <c r="AA9" s="10"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>190</v>
       </c>
@@ -20239,16 +20264,18 @@
         <f t="shared" si="4"/>
         <v>370.46600000000012</v>
       </c>
-      <c r="X10" s="143">
+      <c r="X10" s="10">
         <v>385.77300000000002</v>
       </c>
-      <c r="Y10" s="15">
+      <c r="Y10" s="144">
         <v>384.75400000000002</v>
       </c>
-      <c r="Z10" s="143"/>
-      <c r="AA10" s="143"/>
-    </row>
-    <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z10" s="15">
+        <v>386.46300000000002</v>
+      </c>
+      <c r="AA10" s="10"/>
+    </row>
+    <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
@@ -20328,24 +20355,24 @@
         <f t="shared" ref="W11" si="17">SUM(W7:W10)</f>
         <v>1878.0159999999998</v>
       </c>
-      <c r="X11" s="144">
+      <c r="X11" s="11">
         <f t="shared" ref="X11:AA11" si="18">SUM(X7:X10)</f>
         <v>1959.998</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y11" s="145">
         <f t="shared" si="18"/>
         <v>2113.7170000000001</v>
       </c>
-      <c r="Z11" s="144">
+      <c r="Z11" s="14">
+        <f t="shared" si="18"/>
+        <v>2081.395</v>
+      </c>
+      <c r="AA11" s="11">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="144">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>133</v>
       </c>
@@ -20411,16 +20438,18 @@
         <f t="shared" ref="W12:W15" si="22">G12-V12-U12-T12</f>
         <v>169.24699999999999</v>
       </c>
-      <c r="X12" s="143">
+      <c r="X12" s="10">
         <v>204.625</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="Y12" s="144">
         <v>175.02799999999999</v>
       </c>
-      <c r="Z12" s="143"/>
-      <c r="AA12" s="143"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z12" s="15">
+        <v>126.614</v>
+      </c>
+      <c r="AA12" s="10"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -20486,16 +20515,18 @@
         <f t="shared" si="22"/>
         <v>85.552000000000007</v>
       </c>
-      <c r="X13" s="143">
+      <c r="X13" s="10">
         <v>83.242999999999995</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13" s="144">
         <v>83.561999999999998</v>
       </c>
-      <c r="Z13" s="143"/>
-      <c r="AA13" s="143"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z13" s="15">
+        <v>84.349000000000004</v>
+      </c>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>191</v>
       </c>
@@ -20561,16 +20592,18 @@
         <f t="shared" si="22"/>
         <v>13.589999999999996</v>
       </c>
-      <c r="X14" s="143">
+      <c r="X14" s="10">
         <v>7.2110000000000003</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y14" s="144">
         <v>8.9949999999999992</v>
       </c>
-      <c r="Z14" s="143"/>
-      <c r="AA14" s="143"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z14" s="15">
+        <v>12.786</v>
+      </c>
+      <c r="AA14" s="10"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>192</v>
       </c>
@@ -20634,16 +20667,18 @@
         <f t="shared" si="22"/>
         <v>6.5279999999999987</v>
       </c>
-      <c r="X15" s="143">
+      <c r="X15" s="10">
         <v>5.4790000000000001</v>
       </c>
-      <c r="Y15" s="15">
+      <c r="Y15" s="144">
         <v>5.7619999999999996</v>
       </c>
-      <c r="Z15" s="143"/>
-      <c r="AA15" s="143"/>
-    </row>
-    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z15" s="15">
+        <v>15.176</v>
+      </c>
+      <c r="AA15" s="10"/>
+    </row>
+    <row r="16" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -20725,24 +20760,24 @@
         <f t="shared" ref="W16" si="35">W5-SUM(W11:W15)</f>
         <v>363.38699999999926</v>
       </c>
-      <c r="X16" s="144">
+      <c r="X16" s="11">
         <f t="shared" ref="X16:AA16" si="36">X5-SUM(X11:X15)</f>
         <v>441.29200000000037</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="Y16" s="145">
         <f t="shared" si="36"/>
         <v>586.05300000000034</v>
       </c>
-      <c r="Z16" s="144">
+      <c r="Z16" s="14">
+        <f t="shared" si="36"/>
+        <v>473.25599999999986</v>
+      </c>
+      <c r="AA16" s="11">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="144">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>193</v>
       </c>
@@ -20806,16 +20841,16 @@
         <f>G17-V17-U17-T17</f>
         <v>18.905999999999999</v>
       </c>
-      <c r="X17" s="143">
+      <c r="X17" s="10">
         <v>19.364000000000001</v>
       </c>
-      <c r="Y17" s="15">
+      <c r="Y17" s="144">
         <v>21.861000000000001</v>
       </c>
-      <c r="Z17" s="143"/>
-      <c r="AA17" s="143"/>
-    </row>
-    <row r="18" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="10"/>
+    </row>
+    <row r="18" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -20848,7 +20883,7 @@
         <v>2150.6000000000004</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" ref="L18:AA18" si="38">L16+SUM(L17:L17)</f>
+        <f t="shared" ref="L18:X18" si="38">L16+SUM(L17:L17)</f>
         <v>159.274</v>
       </c>
       <c r="M18" s="11">
@@ -20895,24 +20930,24 @@
         <f t="shared" si="38"/>
         <v>382.29299999999927</v>
       </c>
-      <c r="X18" s="144">
+      <c r="X18" s="11">
         <f t="shared" si="38"/>
         <v>460.65600000000035</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="Y18" s="145">
         <f t="shared" ref="Y18:AA18" si="39">Y16+SUM(Y17:Y17)</f>
         <v>607.91400000000033</v>
       </c>
-      <c r="Z18" s="144">
+      <c r="Z18" s="14">
+        <f t="shared" si="39"/>
+        <v>473.25599999999986</v>
+      </c>
+      <c r="AA18" s="11">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="144">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -20978,16 +21013,16 @@
         <f>G19-V19-U19-T19</f>
         <v>-683.25099999999998</v>
       </c>
-      <c r="X19" s="143">
+      <c r="X19" s="10">
         <v>101.369</v>
       </c>
-      <c r="Y19" s="15">
+      <c r="Y19" s="144">
         <v>152.24299999999999</v>
       </c>
-      <c r="Z19" s="143"/>
-      <c r="AA19" s="143"/>
-    </row>
-    <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="10"/>
+    </row>
+    <row r="20" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
@@ -21020,7 +21055,7 @@
         <v>1634.4560000000001</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" ref="L20:AA20" si="40">L18-SUM(L19:L19)</f>
+        <f t="shared" ref="L20:X20" si="40">L18-SUM(L19:L19)</f>
         <v>127.101</v>
       </c>
       <c r="M20" s="11">
@@ -21067,24 +21102,24 @@
         <f t="shared" si="40"/>
         <v>1065.5439999999992</v>
       </c>
-      <c r="X20" s="144">
+      <c r="X20" s="11">
         <f t="shared" si="40"/>
         <v>359.28700000000038</v>
       </c>
-      <c r="Y20" s="14">
+      <c r="Y20" s="145">
         <f t="shared" ref="Y20:AA20" si="41">Y18-SUM(Y19:Y19)</f>
         <v>455.67100000000033</v>
       </c>
-      <c r="Z20" s="144">
+      <c r="Z20" s="14">
+        <f t="shared" si="41"/>
+        <v>473.25599999999986</v>
+      </c>
+      <c r="AA20" s="11">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="144">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -21145,16 +21180,16 @@
       <c r="W21" s="10">
         <v>27.681000000000001</v>
       </c>
-      <c r="X21" s="143">
+      <c r="X21" s="10">
         <v>27.623999999999999</v>
       </c>
-      <c r="Y21" s="15">
+      <c r="Y21" s="144">
         <v>1381.518</v>
       </c>
-      <c r="Z21" s="143"/>
-      <c r="AA21" s="143"/>
-    </row>
-    <row r="22" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="10"/>
+    </row>
+    <row r="22" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
@@ -21177,11 +21212,11 @@
       <c r="G22" s="52">
         <v>0.9</v>
       </c>
-      <c r="H22" s="150">
+      <c r="H22" s="123">
         <f>H20/H21</f>
         <v>1.043906775011255</v>
       </c>
-      <c r="I22" s="150">
+      <c r="I22" s="123">
         <f>I20/I21</f>
         <v>1.1830870100860069</v>
       </c>
@@ -21233,24 +21268,24 @@
         <f t="shared" si="42"/>
         <v>38.493696036992851</v>
       </c>
-      <c r="X22" s="145">
+      <c r="X22" s="47">
         <f>X20/X21</f>
         <v>13.006335070952808</v>
       </c>
-      <c r="Y22" s="46">
+      <c r="Y22" s="146">
         <f t="shared" ref="Y22:AA22" si="43">Y20/Y21</f>
         <v>0.32983355989570917</v>
       </c>
-      <c r="Z22" s="145" t="e">
+      <c r="Z22" s="46" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA22" s="145" t="e">
+      <c r="AA22" s="47" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>68</v>
       </c>
@@ -21260,10 +21295,10 @@
       <c r="F23" s="2"/>
       <c r="G23" s="35"/>
       <c r="H23" s="44">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I23" s="45">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="L23" s="48"/>
       <c r="M23" s="48"/>
@@ -21291,18 +21326,19 @@
       <c r="W23" s="119">
         <v>9.7100000000000009</v>
       </c>
-      <c r="X23" s="146">
+      <c r="X23" s="119">
         <v>11.69</v>
       </c>
-      <c r="Y23" s="120"/>
-      <c r="Z23" s="146">
-        <v>0.25</v>
-      </c>
-      <c r="AA23" s="146">
+      <c r="Y23" s="147"/>
+      <c r="Z23" s="120"/>
+      <c r="AA23" s="119">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="24" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB23" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -21381,23 +21417,23 @@
         <v>0.25366567050295652</v>
       </c>
       <c r="X24" s="39">
-        <f t="shared" ref="X24:Y24" si="45">1-X11/X5</f>
+        <f t="shared" ref="X24" si="45">1-X11/X5</f>
         <v>0.27457133043753756</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y24" s="39">
         <f t="shared" ref="Y24:AA24" si="46">1-Y11/Y5</f>
         <v>0.2890569055977279</v>
       </c>
-      <c r="Z24" s="39" t="e">
+      <c r="Z24" s="6">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>0.25493525144832285</v>
       </c>
       <c r="AA24" s="39" t="e">
         <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -21477,24 +21513,24 @@
         <f t="shared" si="47"/>
         <v>0.42345329687798033</v>
       </c>
-      <c r="X25" s="147">
-        <f t="shared" ref="X25:Y25" si="48">X20/X5</f>
+      <c r="X25" s="4">
+        <f t="shared" ref="X25" si="48">X20/X5</f>
         <v>0.13297824303957897</v>
       </c>
-      <c r="Y25" s="7">
+      <c r="Y25" s="148">
         <f t="shared" ref="Y25:AA25" si="49">Y20/Y5</f>
         <v>0.15326372961440815</v>
       </c>
-      <c r="Z25" s="147" t="e">
+      <c r="Z25" s="7">
+        <f t="shared" si="49"/>
+        <v>0.16940867189580661</v>
+      </c>
+      <c r="AA25" s="4" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="147" t="e">
-        <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>206</v>
       </c>
@@ -21525,7 +21561,7 @@
         <v>-0.20199781508595252</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" ref="M26:Y26" si="50">-M19/M18</f>
+        <f t="shared" ref="M26:R26" si="50">-M19/M18</f>
         <v>-0.23704419261616405</v>
       </c>
       <c r="N26" s="4">
@@ -21549,43 +21585,43 @@
         <v>-0.2436339034900652</v>
       </c>
       <c r="S26" s="4">
-        <f>S19/S18</f>
+        <f t="shared" ref="S26:Y26" si="51">S19/S18</f>
         <v>-1.599268922963331</v>
       </c>
       <c r="T26" s="4">
-        <f>T19/T18</f>
+        <f t="shared" si="51"/>
         <v>0.2254942837035761</v>
       </c>
       <c r="U26" s="4">
-        <f>U19/U18</f>
+        <f t="shared" si="51"/>
         <v>0.23743520195576315</v>
       </c>
       <c r="V26" s="4">
-        <f>V19/V18</f>
+        <f t="shared" si="51"/>
         <v>0.24223282415046121</v>
       </c>
       <c r="W26" s="4">
-        <f>W19/W18</f>
+        <f t="shared" si="51"/>
         <v>-1.7872443387663424</v>
       </c>
-      <c r="X26" s="147">
-        <f>X19/X18</f>
+      <c r="X26" s="4">
+        <f t="shared" si="51"/>
         <v>0.22005357577020579</v>
       </c>
-      <c r="Y26" s="7">
-        <f>Y19/Y18</f>
+      <c r="Y26" s="148">
+        <f t="shared" si="51"/>
         <v>0.2504350944376999</v>
       </c>
-      <c r="Z26" s="147" t="e">
-        <f t="shared" ref="Y26:AA26" si="51">-Z19/Z18</f>
+      <c r="Z26" s="7">
+        <f t="shared" ref="Z26:AA26" si="52">-Z19/Z18</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="4" t="e">
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA26" s="147" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -21619,19 +21655,19 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4">
-        <f t="shared" ref="P27:W27" si="52">P5/L5-1</f>
+        <f t="shared" ref="P27:W27" si="53">P5/L5-1</f>
         <v>0.1601791481848327</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.16950835333293179</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.13720122008999547</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.11219131780399527</v>
       </c>
       <c r="T27" s="4">
@@ -21639,35 +21675,35 @@
         <v>0.17225156257810403</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.13620236213250658</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.11340232188904054</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.15395815553432701</v>
       </c>
-      <c r="X27" s="147">
-        <f t="shared" ref="X27" si="53">X5/T5-1</f>
+      <c r="X27" s="4">
+        <f t="shared" ref="X27" si="54">X5/T5-1</f>
         <v>0.14070371277305393</v>
       </c>
-      <c r="Y27" s="7">
-        <f t="shared" ref="Y27" si="54">Y5/U5-1</f>
+      <c r="Y27" s="148">
+        <f t="shared" ref="Y27" si="55">Y5/U5-1</f>
         <v>0.18224742236065605</v>
       </c>
-      <c r="Z27" s="147">
-        <f t="shared" ref="Z27" si="55">Z5/V5-1</f>
+      <c r="Z27" s="7">
+        <f t="shared" ref="Z27" si="56">Z5/V5-1</f>
+        <v>0.13011115120544603</v>
+      </c>
+      <c r="AA27" s="4">
+        <f t="shared" ref="AA27" si="57">AA5/W5-1</f>
         <v>-1</v>
       </c>
-      <c r="AA27" s="147">
-        <f t="shared" ref="AA27" si="56">AA5/W5-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>132</v>
       </c>
@@ -21698,71 +21734,71 @@
         <v>0.06</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" ref="L28:W28" si="57">L12/L5</f>
+        <f t="shared" ref="L28:W28" si="58">L12/L5</f>
         <v>8.9059041384953283E-2</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>7.716833162663049E-2</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>7.4747159141839312E-2</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>8.1492558780761087E-2</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>7.2951821271452805E-2</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.3623331084845108E-2</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.3461664058013442E-2</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.1943071605554269E-2</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.2628241393577588E-2</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.2229973663920135E-2</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.4524415562139656E-2</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.725972849240161E-2</v>
       </c>
-      <c r="X28" s="147">
-        <f t="shared" ref="X28:Y28" si="58">X12/X5</f>
+      <c r="X28" s="4">
+        <f t="shared" ref="X28" si="59">X12/X5</f>
         <v>7.573520049980606E-2</v>
       </c>
-      <c r="Y28" s="7">
-        <f t="shared" ref="Y28:AA28" si="59">Y12/Y5</f>
+      <c r="Y28" s="148">
+        <f t="shared" ref="Y28:AA28" si="60">Y12/Y5</f>
         <v>5.8870202551732739E-2</v>
       </c>
-      <c r="Z28" s="147" t="e">
-        <f t="shared" si="59"/>
+      <c r="Z28" s="7">
+        <f t="shared" si="60"/>
+        <v>4.5323270245735216E-2</v>
+      </c>
+      <c r="AA28" s="4" t="e">
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA28" s="147" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>207</v>
       </c>
@@ -21793,71 +21829,71 @@
         <v>0.03</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" ref="L29:W29" si="60">L13/L5</f>
+        <f t="shared" ref="L29:W29" si="61">L13/L5</f>
         <v>3.6244204240414565E-2</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3.2803568541292169E-2</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3.2367215331542298E-2</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3.3796228054918998E-2</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3.5468258717104698E-2</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3.1505792831554504E-2</v>
       </c>
       <c r="R29" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3.2166833695542019E-2</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3.3941132688770366E-2</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3.2333718937084664E-2</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3.1299096827144574E-2</v>
       </c>
       <c r="V29" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3.1774940249552172E-2</v>
       </c>
       <c r="W29" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3.3998855471482174E-2</v>
       </c>
-      <c r="X29" s="147">
-        <f t="shared" ref="X29:Y29" si="61">X13/X5</f>
+      <c r="X29" s="4">
+        <f t="shared" ref="X29" si="62">X13/X5</f>
         <v>3.0809653244742115E-2</v>
       </c>
-      <c r="Y29" s="7">
-        <f t="shared" ref="Y29:AA29" si="62">Y13/Y5</f>
+      <c r="Y29" s="148">
+        <f t="shared" ref="Y29:AA29" si="63">Y13/Y5</f>
         <v>2.810585658082073E-2</v>
       </c>
-      <c r="Z29" s="147" t="e">
-        <f t="shared" si="62"/>
+      <c r="Z29" s="7">
+        <f t="shared" si="63"/>
+        <v>3.0193916328032602E-2</v>
+      </c>
+      <c r="AA29" s="4" t="e">
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="147" t="e">
-        <f t="shared" si="62"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>208</v>
       </c>
@@ -21888,89 +21924,89 @@
         <v>3.7411176187483975E-3</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" ref="L30:W30" si="63">L15/L5</f>
+        <f t="shared" ref="L30:W30" si="64">L15/L5</f>
         <v>3.254525357793951E-3</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.2541159015036952E-3</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.3858854744239532E-3</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.3966749514059988E-3</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.1330941892237663E-3</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.1149042238897881E-3</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.8659902935579407E-3</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.6529407745302996E-3</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.529963100254161E-3</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>6.4577674336856071E-3</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.9292687386627868E-3</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.5942646404272908E-3</v>
       </c>
-      <c r="X30" s="147">
-        <f t="shared" ref="X30:Y30" si="64">X15/X5</f>
+      <c r="X30" s="4">
+        <f t="shared" ref="X30" si="65">X15/X5</f>
         <v>2.0278712940180205E-3</v>
       </c>
-      <c r="Y30" s="7">
-        <f t="shared" ref="Y30:AA30" si="65">Y15/Y5</f>
+      <c r="Y30" s="148">
+        <f t="shared" ref="Y30:AA30" si="66">Y15/Y5</f>
         <v>1.938033383819069E-3</v>
       </c>
-      <c r="Z30" s="147" t="e">
-        <f t="shared" si="65"/>
+      <c r="Z30" s="7">
+        <f t="shared" si="66"/>
+        <v>5.4324636236851975E-3</v>
+      </c>
+      <c r="AA30" s="4" t="e">
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="147" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>209</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4">
-        <f t="shared" ref="D31:G32" si="66">D3/C3-1</f>
+        <f t="shared" ref="D31:G32" si="67">D3/C3-1</f>
         <v>6.4647846192687819E-2</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.25954097131260712</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.14762063190468133</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.14560912063459663</v>
       </c>
       <c r="H31" s="116"/>
@@ -21980,73 +22016,73 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4">
-        <f t="shared" ref="P31:W31" si="67">P3/L3-1</f>
+        <f t="shared" ref="P31:W31" si="68">P3/L3-1</f>
         <v>0.16489956235176195</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.17301971525090076</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.1396841972894971</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.11575818356660972</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.17611843382245529</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.13895782656163203</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.11519722694448098</v>
       </c>
       <c r="W31" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.15511757205831755</v>
       </c>
-      <c r="X31" s="147">
+      <c r="X31" s="4">
         <f>X3/T3-1</f>
         <v>0.14182761529198751</v>
       </c>
-      <c r="Y31" s="7">
-        <f t="shared" ref="Y31:AA31" si="68">Y3/U3-1</f>
+      <c r="Y31" s="148">
+        <f t="shared" ref="Y31:AA31" si="69">Y3/U3-1</f>
         <v>0.18314408476606081</v>
       </c>
-      <c r="Z31" s="147">
-        <f t="shared" si="68"/>
+      <c r="Z31" s="7">
+        <f t="shared" si="69"/>
+        <v>0.13110337417280427</v>
+      </c>
+      <c r="AA31" s="4">
+        <f t="shared" si="69"/>
         <v>-1</v>
       </c>
-      <c r="AA31" s="147">
-        <f t="shared" si="68"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>210</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.5298622350294084</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.4026119926976548</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-0.14729898099942151</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-0.11905911207942477</v>
       </c>
       <c r="H32" s="116"/>
@@ -22056,51 +22092,51 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4">
-        <f t="shared" ref="P32:W32" si="69">P4/L4-1</f>
+        <f t="shared" ref="P32:W32" si="70">P4/L4-1</f>
         <v>-0.15641977721321099</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-0.11375307469900309</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-0.10383803878227671</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-0.21368004522328954</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-0.18588704072649753</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-0.15800749866095332</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-0.10818992095969493</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>3.654445243230553E-3</v>
       </c>
-      <c r="X32" s="147">
+      <c r="X32" s="4">
         <f>X4/T4-1</f>
         <v>-9.6750327243755319E-3</v>
       </c>
-      <c r="Y32" s="7">
-        <f t="shared" ref="Y32:AA32" si="70">Y4/U4-1</f>
+      <c r="Y32" s="148">
+        <f t="shared" ref="Y32:AA32" si="71">Y4/U4-1</f>
         <v>5.2741151977793166E-2</v>
       </c>
-      <c r="Z32" s="147">
-        <f t="shared" si="70"/>
-        <v>-1</v>
-      </c>
-      <c r="AA32" s="147">
-        <f t="shared" si="70"/>
+      <c r="Z32" s="7">
+        <f t="shared" si="71"/>
+        <v>-2.3068703249732869E-2</v>
+      </c>
+      <c r="AA32" s="4">
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
     </row>
@@ -22127,34 +22163,34 @@
       </c>
       <c r="H33" s="53">
         <f>H23/G22-1</f>
-        <v>0.21111111111111125</v>
+        <v>0.23333333333333339</v>
       </c>
       <c r="I33" s="53">
         <f>I23/H23-1</f>
-        <v>0.1834862385321101</v>
+        <v>0.18018018018018012</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4">
-        <f t="shared" ref="P33:W33" si="71">P20/L20-1</f>
+        <f t="shared" ref="P33:W33" si="72">P20/L20-1</f>
         <v>0.24541899749018681</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.38286145956355733</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.25780447479382018</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.74068334977805028</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.84241980112953807</v>
       </c>
       <c r="U33" s="4">
@@ -22162,27 +22198,27 @@
         <v>0.31517800124643358</v>
       </c>
       <c r="V33" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.21808911946114673</v>
       </c>
       <c r="W33" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.35120665189763245</v>
       </c>
-      <c r="X33" s="147">
-        <f t="shared" ref="X33" si="72">X20/T20-1</f>
+      <c r="X33" s="4">
+        <f t="shared" ref="X33" si="73">X20/T20-1</f>
         <v>0.23193688195197204</v>
       </c>
-      <c r="Y33" s="7">
-        <f t="shared" ref="Y33" si="73">Y20/U20-1</f>
+      <c r="Y33" s="148">
+        <f t="shared" ref="Y33" si="74">Y20/U20-1</f>
         <v>0.33287799455933498</v>
       </c>
-      <c r="Z33" s="147">
-        <f t="shared" ref="Z33" si="74">Z20/V20-1</f>
-        <v>-1</v>
-      </c>
-      <c r="AA33" s="147">
-        <f t="shared" ref="AA33" si="75">AA20/W20-1</f>
+      <c r="Z33" s="7">
+        <f t="shared" ref="Z33" si="75">Z20/V20-1</f>
+        <v>0.51095247065133576</v>
+      </c>
+      <c r="AA33" s="4">
+        <f t="shared" ref="AA33" si="76">AA20/W20-1</f>
         <v>-1</v>
       </c>
     </row>
@@ -22215,63 +22251,63 @@
         <v>0</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" ref="M36:Y36" si="76">M37+M42</f>
+        <f t="shared" ref="M36:X36" si="77">M37+M42</f>
         <v>0</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="11">
-        <f t="shared" si="76"/>
-        <v>1076.319</v>
-      </c>
-      <c r="P36" s="11">
-        <f t="shared" si="76"/>
-        <v>856.24200000000008</v>
-      </c>
-      <c r="Q36" s="11">
-        <f t="shared" si="76"/>
-        <v>761.61699999999996</v>
-      </c>
-      <c r="R36" s="11">
-        <f t="shared" si="76"/>
-        <v>783.90100000000007</v>
-      </c>
-      <c r="S36" s="11">
-        <f t="shared" si="76"/>
-        <v>899.13599999999997</v>
-      </c>
-      <c r="T36" s="11">
-        <f t="shared" si="76"/>
-        <v>1062.585</v>
-      </c>
-      <c r="U36" s="11">
-        <f t="shared" si="76"/>
-        <v>1356.008</v>
-      </c>
-      <c r="V36" s="11">
-        <f t="shared" si="76"/>
-        <v>1454.0059999999999</v>
-      </c>
-      <c r="W36" s="11">
-        <f t="shared" si="76"/>
-        <v>1295.4470000000001</v>
-      </c>
-      <c r="X36" s="144">
-        <f t="shared" si="76"/>
-        <v>1419.8679999999999</v>
-      </c>
-      <c r="Y36" s="14">
-        <f t="shared" ref="Y36:AA36" si="77">Y37+Y42</f>
-        <v>1489.8150000000001</v>
-      </c>
-      <c r="Z36" s="144">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="144">
+      <c r="O36" s="11">
         <f t="shared" si="77"/>
+        <v>1076.319</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" si="77"/>
+        <v>856.24200000000008</v>
+      </c>
+      <c r="Q36" s="11">
+        <f t="shared" si="77"/>
+        <v>761.61699999999996</v>
+      </c>
+      <c r="R36" s="11">
+        <f t="shared" si="77"/>
+        <v>783.90100000000007</v>
+      </c>
+      <c r="S36" s="11">
+        <f t="shared" si="77"/>
+        <v>899.13599999999997</v>
+      </c>
+      <c r="T36" s="11">
+        <f t="shared" si="77"/>
+        <v>1062.585</v>
+      </c>
+      <c r="U36" s="11">
+        <f t="shared" si="77"/>
+        <v>1356.008</v>
+      </c>
+      <c r="V36" s="11">
+        <f t="shared" si="77"/>
+        <v>1454.0059999999999</v>
+      </c>
+      <c r="W36" s="11">
+        <f t="shared" si="77"/>
+        <v>1295.4470000000001</v>
+      </c>
+      <c r="X36" s="11">
+        <f t="shared" si="77"/>
+        <v>1419.8679999999999</v>
+      </c>
+      <c r="Y36" s="145">
+        <f t="shared" ref="Y36:AA36" si="78">Y37+Y42</f>
+        <v>1489.8150000000001</v>
+      </c>
+      <c r="Z36" s="14">
+        <f t="shared" si="78"/>
+        <v>1367.223</v>
+      </c>
+      <c r="AA36" s="11">
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
@@ -22325,14 +22361,16 @@
         <f>G37</f>
         <v>560.60900000000004</v>
       </c>
-      <c r="X37" s="143">
+      <c r="X37" s="10">
         <v>727.39400000000001</v>
       </c>
-      <c r="Y37" s="15">
+      <c r="Y37" s="144">
         <v>806.52800000000002</v>
       </c>
-      <c r="Z37" s="143"/>
-      <c r="AA37" s="143"/>
+      <c r="Z37" s="15">
+        <v>698.54700000000003</v>
+      </c>
+      <c r="AA37" s="10"/>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -22355,7 +22393,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10">
-        <f t="shared" ref="O38:O42" si="78">E38</f>
+        <f t="shared" ref="O38:O42" si="79">E38</f>
         <v>99.599000000000004</v>
       </c>
       <c r="P38" s="10">
@@ -22368,7 +22406,7 @@
         <v>71.275999999999996</v>
       </c>
       <c r="S38" s="10">
-        <f t="shared" ref="S38:S42" si="79">F38</f>
+        <f t="shared" ref="S38:S42" si="80">F38</f>
         <v>106.88</v>
       </c>
       <c r="T38" s="10">
@@ -22381,17 +22419,19 @@
         <v>71.122</v>
       </c>
       <c r="W38" s="10">
-        <f t="shared" ref="W38:W42" si="80">G38</f>
+        <f t="shared" ref="W38:W42" si="81">G38</f>
         <v>115.535</v>
       </c>
-      <c r="X38" s="143">
+      <c r="X38" s="10">
         <v>89.835999999999999</v>
       </c>
-      <c r="Y38" s="15">
+      <c r="Y38" s="144">
         <v>97.542000000000002</v>
       </c>
-      <c r="Z38" s="143"/>
-      <c r="AA38" s="143"/>
+      <c r="Z38" s="15">
+        <v>93.201999999999998</v>
+      </c>
+      <c r="AA38" s="10"/>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
@@ -22414,7 +22454,7 @@
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>32.826000000000001</v>
       </c>
       <c r="P39" s="10">
@@ -22427,7 +22467,7 @@
         <v>33.752000000000002</v>
       </c>
       <c r="S39" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>35.667999999999999</v>
       </c>
       <c r="T39" s="10">
@@ -22440,17 +22480,19 @@
         <v>40.177</v>
       </c>
       <c r="W39" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>39.308999999999997</v>
       </c>
-      <c r="X39" s="143">
+      <c r="X39" s="10">
         <v>37.947000000000003</v>
       </c>
-      <c r="Y39" s="15">
+      <c r="Y39" s="144">
         <v>35.56</v>
       </c>
-      <c r="Z39" s="143"/>
-      <c r="AA39" s="143"/>
+      <c r="Z39" s="15">
+        <v>49.847999999999999</v>
+      </c>
+      <c r="AA39" s="10"/>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -22473,7 +22515,7 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>78.756</v>
       </c>
       <c r="P40" s="10">
@@ -22486,7 +22528,7 @@
         <v>76.438999999999993</v>
       </c>
       <c r="S40" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>86.412000000000006</v>
       </c>
       <c r="T40" s="10">
@@ -22499,17 +22541,19 @@
         <v>104.038</v>
       </c>
       <c r="W40" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>117.462</v>
       </c>
-      <c r="X40" s="143">
+      <c r="X40" s="10">
         <v>98.117999999999995</v>
       </c>
-      <c r="Y40" s="15">
+      <c r="Y40" s="144">
         <v>91.852000000000004</v>
       </c>
-      <c r="Z40" s="143"/>
-      <c r="AA40" s="143"/>
+      <c r="Z40" s="15">
+        <v>87.896000000000001</v>
+      </c>
+      <c r="AA40" s="10"/>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -22532,7 +22576,7 @@
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>94.063999999999993</v>
       </c>
       <c r="P41" s="10">
@@ -22545,7 +22589,7 @@
         <v>112.06399999999999</v>
       </c>
       <c r="S41" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>47.741</v>
       </c>
       <c r="T41" s="10">
@@ -22558,17 +22602,19 @@
         <v>0</v>
       </c>
       <c r="W41" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>52.96</v>
       </c>
-      <c r="X41" s="143">
+      <c r="X41" s="10">
         <v>0</v>
       </c>
-      <c r="Y41" s="15">
+      <c r="Y41" s="144">
         <v>71.528999999999996</v>
       </c>
-      <c r="Z41" s="143"/>
-      <c r="AA41" s="143"/>
+      <c r="Z41" s="15">
+        <v>82.087000000000003</v>
+      </c>
+      <c r="AA41" s="10"/>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -22591,7 +22637,7 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>260.94499999999999</v>
       </c>
       <c r="P42" s="10">
@@ -22604,7 +22650,7 @@
         <v>417.27800000000002</v>
       </c>
       <c r="S42" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>515.13599999999997</v>
       </c>
       <c r="T42" s="10">
@@ -22617,28 +22663,30 @@
         <v>851.69899999999996</v>
       </c>
       <c r="W42" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>734.83799999999997</v>
       </c>
-      <c r="X42" s="143">
+      <c r="X42" s="10">
         <v>692.47400000000005</v>
       </c>
-      <c r="Y42" s="15">
+      <c r="Y42" s="144">
         <v>683.28700000000003</v>
       </c>
-      <c r="Z42" s="143"/>
-      <c r="AA42" s="143"/>
+      <c r="Z42" s="15">
+        <v>668.67600000000004</v>
+      </c>
+      <c r="AA42" s="10"/>
     </row>
     <row r="43" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="11">
-        <f t="shared" ref="C43:D43" si="81">SUM(C37:C42)</f>
+        <f t="shared" ref="C43:D43" si="82">SUM(C37:C42)</f>
         <v>0</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1420.2370000000001</v>
       </c>
       <c r="E43" s="11">
@@ -22646,75 +22694,75 @@
         <v>1381.5640000000001</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" ref="F43:G43" si="82">SUM(F37:F42)</f>
+        <f t="shared" ref="F43:G43" si="83">SUM(F37:F42)</f>
         <v>1175.837</v>
       </c>
       <c r="G43" s="14">
-        <f t="shared" si="82"/>
-        <v>1620.713</v>
-      </c>
-      <c r="L43" s="11">
-        <f t="shared" ref="L43:Y43" si="83">SUM(L37:L42)</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="11">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="11">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="11">
-        <f t="shared" si="83"/>
-        <v>1381.5640000000001</v>
-      </c>
-      <c r="P43" s="11">
-        <f t="shared" si="83"/>
-        <v>1096.4929999999999</v>
-      </c>
-      <c r="Q43" s="11">
-        <f t="shared" si="83"/>
-        <v>1046.299</v>
-      </c>
-      <c r="R43" s="11">
-        <f t="shared" si="83"/>
-        <v>1077.432</v>
-      </c>
-      <c r="S43" s="11">
-        <f t="shared" si="83"/>
-        <v>1175.837</v>
-      </c>
-      <c r="T43" s="11">
-        <f t="shared" si="83"/>
-        <v>1261.442</v>
-      </c>
-      <c r="U43" s="11">
-        <f t="shared" si="83"/>
-        <v>1556.4190000000001</v>
-      </c>
-      <c r="V43" s="11">
-        <f t="shared" si="83"/>
-        <v>1669.3429999999998</v>
-      </c>
-      <c r="W43" s="11">
         <f t="shared" si="83"/>
         <v>1620.713</v>
       </c>
-      <c r="X43" s="144">
-        <f t="shared" si="83"/>
-        <v>1645.7690000000002</v>
-      </c>
-      <c r="Y43" s="14">
-        <f t="shared" ref="Y43:AA43" si="84">SUM(Y37:Y42)</f>
-        <v>1786.2980000000002</v>
-      </c>
-      <c r="Z43" s="144">
+      <c r="L43" s="11">
+        <f t="shared" ref="L43:X43" si="84">SUM(L37:L42)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
-      <c r="AA43" s="144">
+      <c r="N43" s="11">
         <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="11">
+        <f t="shared" si="84"/>
+        <v>1381.5640000000001</v>
+      </c>
+      <c r="P43" s="11">
+        <f t="shared" si="84"/>
+        <v>1096.4929999999999</v>
+      </c>
+      <c r="Q43" s="11">
+        <f t="shared" si="84"/>
+        <v>1046.299</v>
+      </c>
+      <c r="R43" s="11">
+        <f t="shared" si="84"/>
+        <v>1077.432</v>
+      </c>
+      <c r="S43" s="11">
+        <f t="shared" si="84"/>
+        <v>1175.837</v>
+      </c>
+      <c r="T43" s="11">
+        <f t="shared" si="84"/>
+        <v>1261.442</v>
+      </c>
+      <c r="U43" s="11">
+        <f t="shared" si="84"/>
+        <v>1556.4190000000001</v>
+      </c>
+      <c r="V43" s="11">
+        <f t="shared" si="84"/>
+        <v>1669.3429999999998</v>
+      </c>
+      <c r="W43" s="11">
+        <f t="shared" si="84"/>
+        <v>1620.713</v>
+      </c>
+      <c r="X43" s="11">
+        <f t="shared" si="84"/>
+        <v>1645.7690000000002</v>
+      </c>
+      <c r="Y43" s="145">
+        <f t="shared" ref="Y43:AA43" si="85">SUM(Y37:Y42)</f>
+        <v>1786.2980000000002</v>
+      </c>
+      <c r="Z43" s="14">
+        <f t="shared" si="85"/>
+        <v>1680.2559999999999</v>
+      </c>
+      <c r="AA43" s="11">
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
     </row>
@@ -22739,7 +22787,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10">
-        <f t="shared" ref="O44:O49" si="85">E44</f>
+        <f t="shared" ref="O44:O49" si="86">E44</f>
         <v>1769.278</v>
       </c>
       <c r="P44" s="10">
@@ -22752,7 +22800,7 @@
         <v>1871.623</v>
       </c>
       <c r="S44" s="10">
-        <f t="shared" ref="S44:S49" si="86">F44</f>
+        <f t="shared" ref="S44:S49" si="87">F44</f>
         <v>1951.1469999999999</v>
       </c>
       <c r="T44" s="10">
@@ -22765,17 +22813,19 @@
         <v>2093.011</v>
       </c>
       <c r="W44" s="10">
-        <f t="shared" ref="W44:W49" si="87">G44</f>
+        <f t="shared" ref="W44:W49" si="88">G44</f>
         <v>2170.038</v>
       </c>
-      <c r="X44" s="143">
+      <c r="X44" s="10">
         <v>2202.739</v>
       </c>
-      <c r="Y44" s="15">
+      <c r="Y44" s="144">
         <v>2265.694</v>
       </c>
-      <c r="Z44" s="143"/>
-      <c r="AA44" s="143"/>
+      <c r="Z44" s="15">
+        <v>2320.395</v>
+      </c>
+      <c r="AA44" s="10"/>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -22798,7 +22848,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>274.31099999999998</v>
       </c>
       <c r="P45" s="10">
@@ -22811,7 +22861,7 @@
         <v>442.62</v>
       </c>
       <c r="S45" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>388.05500000000001</v>
       </c>
       <c r="T45" s="10">
@@ -22824,17 +22874,19 @@
         <v>473.24700000000001</v>
       </c>
       <c r="W45" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>564.48800000000006</v>
       </c>
-      <c r="X45" s="143">
+      <c r="X45" s="10">
         <v>776.81500000000005</v>
       </c>
-      <c r="Y45" s="15">
+      <c r="Y45" s="144">
         <v>972.64400000000001</v>
       </c>
-      <c r="Z45" s="143"/>
-      <c r="AA45" s="143"/>
+      <c r="Z45" s="15">
+        <v>892.48699999999997</v>
+      </c>
+      <c r="AA45" s="10"/>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -22857,7 +22909,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>30.856000000000002</v>
       </c>
       <c r="P46" s="10">
@@ -22870,7 +22922,7 @@
         <v>30.974</v>
       </c>
       <c r="S46" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>24.966000000000001</v>
       </c>
       <c r="T46" s="10">
@@ -22883,17 +22935,19 @@
         <v>25.315000000000001</v>
       </c>
       <c r="W46" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>25.553999999999998</v>
       </c>
-      <c r="X46" s="143">
+      <c r="X46" s="10">
         <v>26.138000000000002</v>
       </c>
-      <c r="Y46" s="15">
+      <c r="Y46" s="144">
         <v>27.664000000000001</v>
       </c>
-      <c r="Z46" s="143"/>
-      <c r="AA46" s="143"/>
+      <c r="Z46" s="15">
+        <v>27.969000000000001</v>
+      </c>
+      <c r="AA46" s="10"/>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -22916,7 +22970,7 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>3118.2939999999999</v>
       </c>
       <c r="P47" s="10">
@@ -22929,7 +22983,7 @@
         <v>3309.0509999999999</v>
       </c>
       <c r="S47" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>3302.402</v>
       </c>
       <c r="T47" s="10">
@@ -22942,17 +22996,19 @@
         <v>3555.808</v>
       </c>
       <c r="W47" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>3578.5479999999998</v>
       </c>
-      <c r="X47" s="143">
+      <c r="X47" s="10">
         <v>3670.9830000000002</v>
       </c>
-      <c r="Y47" s="15">
+      <c r="Y47" s="144">
         <v>3770.9969999999998</v>
       </c>
-      <c r="Z47" s="143"/>
-      <c r="AA47" s="143"/>
+      <c r="Z47" s="15">
+        <v>3954.6889999999999</v>
+      </c>
+      <c r="AA47" s="10"/>
     </row>
     <row r="48" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -22975,7 +23031,7 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>56.716000000000001</v>
       </c>
       <c r="P48" s="10">
@@ -22988,7 +23044,7 @@
         <v>63.798000000000002</v>
       </c>
       <c r="S48" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>63.158000000000001</v>
       </c>
       <c r="T48" s="10">
@@ -23001,17 +23057,19 @@
         <v>72.83</v>
       </c>
       <c r="W48" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>63.082000000000001</v>
       </c>
-      <c r="X48" s="143">
+      <c r="X48" s="10">
         <v>66.866</v>
       </c>
-      <c r="Y48" s="15">
+      <c r="Y48" s="144">
         <v>74.599000000000004</v>
       </c>
-      <c r="Z48" s="143"/>
-      <c r="AA48" s="143"/>
+      <c r="Z48" s="15">
+        <v>113.935</v>
+      </c>
+      <c r="AA48" s="10"/>
     </row>
     <row r="49" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
@@ -23034,7 +23092,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>21.939</v>
       </c>
       <c r="P49" s="10">
@@ -23047,7 +23105,7 @@
         <v>21.939</v>
       </c>
       <c r="S49" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>21.939</v>
       </c>
       <c r="T49" s="10">
@@ -23060,17 +23118,19 @@
         <v>21.939</v>
       </c>
       <c r="W49" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>21.939</v>
       </c>
-      <c r="X49" s="143">
+      <c r="X49" s="10">
         <v>21.939</v>
       </c>
-      <c r="Y49" s="15">
+      <c r="Y49" s="144">
         <v>21.939</v>
       </c>
-      <c r="Z49" s="143"/>
-      <c r="AA49" s="143"/>
+      <c r="Z49" s="15">
+        <v>21.939</v>
+      </c>
+      <c r="AA49" s="10"/>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
@@ -23097,67 +23157,67 @@
         <v>8044.362000000001</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" ref="L50:W50" si="88">SUM(L43:L49)</f>
+        <f t="shared" ref="L50:W50" si="89">SUM(L43:L49)</f>
         <v>0</v>
       </c>
       <c r="M50" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6652.9580000000005</v>
       </c>
       <c r="P50" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6467.2570000000005</v>
       </c>
       <c r="Q50" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6545.3360000000011</v>
       </c>
       <c r="R50" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6817.4370000000008</v>
       </c>
       <c r="S50" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6927.5039999999999</v>
       </c>
       <c r="T50" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>7053.3720000000003</v>
       </c>
       <c r="U50" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>7552.4350000000004</v>
       </c>
       <c r="V50" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>7911.4929999999995</v>
       </c>
       <c r="W50" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>8044.362000000001</v>
       </c>
-      <c r="X50" s="144">
+      <c r="X50" s="11">
         <f>SUM(X43:X49)</f>
         <v>8411.2489999999998</v>
       </c>
-      <c r="Y50" s="14">
-        <f t="shared" ref="Y50:AA50" si="89">SUM(Y43:Y49)</f>
+      <c r="Y50" s="145">
+        <f t="shared" ref="Y50:AA50" si="90">SUM(Y43:Y49)</f>
         <v>8919.8350000000009</v>
       </c>
-      <c r="Z50" s="144">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="AA50" s="144">
-        <f t="shared" si="89"/>
+      <c r="Z50" s="14">
+        <f t="shared" si="90"/>
+        <v>9011.67</v>
+      </c>
+      <c r="AA50" s="11">
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
@@ -23182,7 +23242,7 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10">
-        <f t="shared" ref="O51:O56" si="90">E51</f>
+        <f t="shared" ref="O51:O56" si="91">E51</f>
         <v>163.161</v>
       </c>
       <c r="P51" s="10">
@@ -23195,7 +23255,7 @@
         <v>167.84200000000001</v>
       </c>
       <c r="S51" s="10">
-        <f t="shared" ref="S51:S56" si="91">F51</f>
+        <f t="shared" ref="S51:S56" si="92">F51</f>
         <v>184.566</v>
       </c>
       <c r="T51" s="10">
@@ -23208,17 +23268,19 @@
         <v>207.541</v>
       </c>
       <c r="W51" s="10">
-        <f t="shared" ref="W51:W56" si="92">G51</f>
+        <f t="shared" ref="W51:W56" si="93">G51</f>
         <v>197.64599999999999</v>
       </c>
-      <c r="X51" s="143">
+      <c r="X51" s="10">
         <v>196.86600000000001</v>
       </c>
-      <c r="Y51" s="15">
+      <c r="Y51" s="144">
         <v>203.48</v>
       </c>
-      <c r="Z51" s="143"/>
-      <c r="AA51" s="143"/>
+      <c r="Z51" s="15">
+        <v>221.30099999999999</v>
+      </c>
+      <c r="AA51" s="10"/>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
@@ -23241,7 +23303,7 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>162.405</v>
       </c>
       <c r="P52" s="10">
@@ -23254,7 +23316,7 @@
         <v>128.495</v>
       </c>
       <c r="S52" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>170.45599999999999</v>
       </c>
       <c r="T52" s="10">
@@ -23267,17 +23329,19 @@
         <v>155.01499999999999</v>
       </c>
       <c r="W52" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>227.53700000000001</v>
       </c>
-      <c r="X52" s="143">
+      <c r="X52" s="10">
         <v>142.42500000000001</v>
       </c>
-      <c r="Y52" s="15">
+      <c r="Y52" s="144">
         <v>223.41</v>
       </c>
-      <c r="Z52" s="143"/>
-      <c r="AA52" s="143"/>
+      <c r="Z52" s="15">
+        <v>184.36699999999999</v>
+      </c>
+      <c r="AA52" s="10"/>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
@@ -23300,7 +23364,7 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>173.05199999999999</v>
       </c>
       <c r="P53" s="10">
@@ -23313,7 +23377,7 @@
         <v>156.45500000000001</v>
       </c>
       <c r="S53" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>147.53899999999999</v>
       </c>
       <c r="T53" s="10">
@@ -23326,17 +23390,19 @@
         <v>151.148</v>
       </c>
       <c r="W53" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>147.68799999999999</v>
       </c>
-      <c r="X53" s="143">
+      <c r="X53" s="10">
         <v>171.61199999999999</v>
       </c>
-      <c r="Y53" s="15">
+      <c r="Y53" s="144">
         <v>169.631</v>
       </c>
-      <c r="Z53" s="143"/>
-      <c r="AA53" s="143"/>
+      <c r="Z53" s="15">
+        <v>181.35400000000001</v>
+      </c>
+      <c r="AA53" s="10"/>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -23359,7 +23425,7 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>156.351</v>
       </c>
       <c r="P54" s="10">
@@ -23372,7 +23438,7 @@
         <v>133.11799999999999</v>
       </c>
       <c r="S54" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>183.071</v>
       </c>
       <c r="T54" s="10">
@@ -23385,17 +23451,19 @@
         <v>156.32</v>
       </c>
       <c r="W54" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>209.68</v>
       </c>
-      <c r="X54" s="143">
+      <c r="X54" s="10">
         <v>187.31700000000001</v>
       </c>
-      <c r="Y54" s="15">
+      <c r="Y54" s="144">
         <v>182.33099999999999</v>
       </c>
-      <c r="Z54" s="143"/>
-      <c r="AA54" s="143"/>
+      <c r="Z54" s="15">
+        <v>180.28800000000001</v>
+      </c>
+      <c r="AA54" s="10"/>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -23418,7 +23486,7 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>218.71299999999999</v>
       </c>
       <c r="P55" s="10">
@@ -23431,7 +23499,7 @@
         <v>231.947</v>
       </c>
       <c r="S55" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>236.24799999999999</v>
       </c>
       <c r="T55" s="10">
@@ -23444,17 +23512,19 @@
         <v>244.994</v>
       </c>
       <c r="W55" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>248.07400000000001</v>
       </c>
-      <c r="X55" s="143">
+      <c r="X55" s="10">
         <v>254.14400000000001</v>
       </c>
-      <c r="Y55" s="15">
+      <c r="Y55" s="144">
         <v>264.30399999999997</v>
       </c>
-      <c r="Z55" s="143"/>
-      <c r="AA55" s="143"/>
+      <c r="Z55" s="15">
+        <v>270.57400000000001</v>
+      </c>
+      <c r="AA55" s="10"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
@@ -23469,14 +23539,14 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="T56" s="10">
@@ -23489,15 +23559,15 @@
         <v>172.68899999999999</v>
       </c>
       <c r="W56" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="X56" s="143">
+      <c r="X56" s="10">
         <v>44.988999999999997</v>
       </c>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="143"/>
-      <c r="AA56" s="143"/>
+      <c r="Y56" s="144"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="10"/>
     </row>
     <row r="57" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -23524,67 +23594,67 @@
         <v>1030.625</v>
       </c>
       <c r="L57" s="11">
-        <f t="shared" ref="L57:W57" si="93">SUM(L51:L56)</f>
+        <f t="shared" ref="L57:W57" si="94">SUM(L51:L56)</f>
         <v>0</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="N57" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>873.68200000000002</v>
       </c>
       <c r="P57" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>843.73799999999994</v>
       </c>
       <c r="Q57" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>831.62300000000005</v>
       </c>
       <c r="R57" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>817.85700000000008</v>
       </c>
       <c r="S57" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>921.87999999999988</v>
       </c>
       <c r="T57" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>894.0920000000001</v>
       </c>
       <c r="U57" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>982.25</v>
       </c>
       <c r="V57" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1087.7069999999999</v>
       </c>
       <c r="W57" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1030.625</v>
       </c>
-      <c r="X57" s="144">
+      <c r="X57" s="11">
         <f>SUM(X51:X56)</f>
         <v>997.35300000000007</v>
       </c>
-      <c r="Y57" s="14">
-        <f t="shared" ref="Y57:AA57" si="94">SUM(Y51:Y56)</f>
+      <c r="Y57" s="145">
+        <f t="shared" ref="Y57:AA57" si="95">SUM(Y51:Y56)</f>
         <v>1043.1559999999999</v>
       </c>
-      <c r="Z57" s="144">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="AA57" s="144">
-        <f t="shared" si="94"/>
+      <c r="Z57" s="14">
+        <f t="shared" si="95"/>
+        <v>1037.884</v>
+      </c>
+      <c r="AA57" s="11">
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
     </row>
@@ -23609,7 +23679,7 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10">
-        <f t="shared" ref="O58:O60" si="95">E58</f>
+        <f t="shared" ref="O58:O60" si="96">E58</f>
         <v>3301.6010000000001</v>
       </c>
       <c r="P58" s="10">
@@ -23622,7 +23692,7 @@
         <v>3497.221</v>
       </c>
       <c r="S58" s="10">
-        <f t="shared" ref="S58:S60" si="96">F58</f>
+        <f t="shared" ref="S58:S60" si="97">F58</f>
         <v>3495.1619999999998</v>
       </c>
       <c r="T58" s="10">
@@ -23635,17 +23705,19 @@
         <v>3773.087</v>
       </c>
       <c r="W58" s="10">
-        <f t="shared" ref="W58:W60" si="97">G58</f>
+        <f t="shared" ref="W58:W60" si="98">G58</f>
         <v>3803.5509999999999</v>
       </c>
-      <c r="X58" s="143">
+      <c r="X58" s="10">
         <v>3903.3530000000001</v>
       </c>
-      <c r="Y58" s="15">
+      <c r="Y58" s="144">
         <v>4014.4540000000002</v>
       </c>
-      <c r="Z58" s="143"/>
-      <c r="AA58" s="143"/>
+      <c r="Z58" s="15">
+        <v>4212.8680000000004</v>
+      </c>
+      <c r="AA58" s="10"/>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
@@ -23668,7 +23740,7 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>141.76499999999999</v>
       </c>
       <c r="P59" s="10">
@@ -23681,7 +23753,7 @@
         <v>133.255</v>
       </c>
       <c r="S59" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>98.623000000000005</v>
       </c>
       <c r="T59" s="10">
@@ -23694,17 +23766,19 @@
         <v>111.089</v>
       </c>
       <c r="W59" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>89.108999999999995</v>
       </c>
-      <c r="X59" s="143">
+      <c r="X59" s="10">
         <v>84.228999999999999</v>
       </c>
-      <c r="Y59" s="15">
+      <c r="Y59" s="144">
         <v>83.298000000000002</v>
       </c>
-      <c r="Z59" s="143"/>
-      <c r="AA59" s="143"/>
+      <c r="Z59" s="15">
+        <v>79.519000000000005</v>
+      </c>
+      <c r="AA59" s="10"/>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -23727,7 +23801,7 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>38.536000000000001</v>
       </c>
       <c r="P60" s="10">
@@ -23740,7 +23814,7 @@
         <v>41.722999999999999</v>
       </c>
       <c r="S60" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>43.816000000000003</v>
       </c>
       <c r="T60" s="10">
@@ -23753,17 +23827,19 @@
         <v>53.295999999999999</v>
       </c>
       <c r="W60" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>58.87</v>
       </c>
-      <c r="X60" s="143">
+      <c r="X60" s="10">
         <v>64.984999999999999</v>
       </c>
-      <c r="Y60" s="15">
+      <c r="Y60" s="144">
         <v>67.106999999999999</v>
       </c>
-      <c r="Z60" s="143"/>
-      <c r="AA60" s="143"/>
+      <c r="Z60" s="15">
+        <v>67.501000000000005</v>
+      </c>
+      <c r="AA60" s="10"/>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
@@ -23790,67 +23866,67 @@
         <v>4982.1549999999997</v>
       </c>
       <c r="L61" s="11">
-        <f t="shared" ref="L61:W61" si="98">SUM(L57:L60)</f>
+        <f t="shared" ref="L61:W61" si="99">SUM(L57:L60)</f>
         <v>0</v>
       </c>
       <c r="M61" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="N61" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="O61" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>4355.5840000000007</v>
       </c>
       <c r="P61" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>4343.2970000000005</v>
       </c>
       <c r="Q61" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>4391.1369999999997</v>
       </c>
       <c r="R61" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>4490.0560000000005</v>
       </c>
       <c r="S61" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>4559.4809999999989</v>
       </c>
       <c r="T61" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>4571.686999999999</v>
       </c>
       <c r="U61" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>4785.549</v>
       </c>
       <c r="V61" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>5025.1790000000001</v>
       </c>
       <c r="W61" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>4982.1549999999997</v>
       </c>
-      <c r="X61" s="144">
+      <c r="X61" s="11">
         <f>SUM(X57:X60)</f>
         <v>5049.92</v>
       </c>
-      <c r="Y61" s="14">
-        <f t="shared" ref="Y61:AA61" si="99">SUM(Y57:Y60)</f>
+      <c r="Y61" s="145">
+        <f t="shared" ref="Y61:AA61" si="100">SUM(Y57:Y60)</f>
         <v>5208.0150000000003</v>
       </c>
-      <c r="Z61" s="144">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="AA61" s="144">
-        <f t="shared" si="99"/>
+      <c r="Z61" s="14">
+        <f t="shared" si="100"/>
+        <v>5397.7720000000008</v>
+      </c>
+      <c r="AA61" s="11">
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
     </row>
@@ -23879,55 +23955,55 @@
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10">
-        <f t="shared" ref="O62:W62" si="100">O50-O61</f>
+        <f t="shared" ref="O62:W62" si="101">O50-O61</f>
         <v>2297.3739999999998</v>
       </c>
       <c r="P62" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>2123.96</v>
       </c>
       <c r="Q62" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>2154.1990000000014</v>
       </c>
       <c r="R62" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>2327.3810000000003</v>
       </c>
       <c r="S62" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>2368.023000000001</v>
       </c>
       <c r="T62" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>2481.6850000000013</v>
       </c>
       <c r="U62" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>2766.8860000000004</v>
       </c>
       <c r="V62" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>2886.3139999999994</v>
       </c>
       <c r="W62" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>3062.2070000000012</v>
       </c>
-      <c r="X62" s="143">
+      <c r="X62" s="10">
         <f>X50-X61</f>
         <v>3361.3289999999997</v>
       </c>
-      <c r="Y62" s="15">
-        <f t="shared" ref="Y62:AA62" si="101">Y50-Y61</f>
+      <c r="Y62" s="144">
+        <f t="shared" ref="Y62:AA62" si="102">Y50-Y61</f>
         <v>3711.8200000000006</v>
       </c>
-      <c r="Z62" s="143">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="AA62" s="143">
-        <f t="shared" si="101"/>
+      <c r="Z62" s="15">
+        <f t="shared" si="102"/>
+        <v>3613.8979999999992</v>
+      </c>
+      <c r="AA62" s="10">
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
     </row>
@@ -23937,18 +24013,18 @@
       <c r="E64" s="50"/>
       <c r="F64" s="50"/>
       <c r="G64" s="51"/>
-      <c r="X64" s="148"/>
-      <c r="Y64" s="16"/>
-    </row>
-    <row r="82" spans="7:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y64" s="149"/>
+      <c r="Z64" s="16"/>
+    </row>
+    <row r="82" spans="7:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G82" s="41"/>
-      <c r="X82" s="149"/>
-      <c r="Y82" s="41"/>
-    </row>
-    <row r="83" spans="7:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y82" s="150"/>
+      <c r="Z82" s="41"/>
+    </row>
+    <row r="83" spans="7:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G83" s="16"/>
-      <c r="X83" s="148"/>
-      <c r="Y83" s="16"/>
+      <c r="Y83" s="149"/>
+      <c r="Z83" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -36181,14 +36257,14 @@
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="135"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -36691,10 +36767,10 @@
         <f t="shared" si="0"/>
         <v>2.6708175927015354E-2</v>
       </c>
-      <c r="H17" s="135" t="s">
+      <c r="H17" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="136"/>
+      <c r="I17" s="137"/>
       <c r="M17" s="79"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -36708,8 +36784,8 @@
         <f t="shared" si="0"/>
         <v>-3.2427289180687158E-2</v>
       </c>
-      <c r="H18" s="137"/>
-      <c r="I18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="139"/>
       <c r="M18" s="79"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -37282,14 +37358,14 @@
         <f t="shared" si="0"/>
         <v>-1.0339540305585704E-2</v>
       </c>
-      <c r="H43" s="139" t="s">
+      <c r="H43" s="140" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="140"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="140"/>
-      <c r="L43" s="140"/>
-      <c r="M43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="142"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">

--- a/Retail Wholesale - Restaurants/CMG.xlsx
+++ b/Retail Wholesale - Restaurants/CMG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Retail Wholesale - Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009F708D-E74B-4A8B-9816-BE0991824078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC0B4DC-FE69-40B8-99CC-024E61F86611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="220">
   <si>
     <t>Price</t>
   </si>
@@ -975,6 +975,9 @@
   </si>
   <si>
     <t>Sales per Restaurant</t>
+  </si>
+  <si>
+    <t>Shares (diluted)</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1720,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1872,6 +1875,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1929,20 +1933,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -18987,7 +18977,7 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19118,7 +19108,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>58.3</v>
+        <v>58.8</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>161</v>
@@ -19144,8 +19134,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!Y21</f>
-        <v>1381.518</v>
+        <f>Model!Z21</f>
+        <v>1374.605</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>163</v>
@@ -19174,7 +19164,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>80542.499400000001</v>
+        <v>80826.77399999999</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>165</v>
@@ -19202,8 +19192,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!Y37+Model!Y42</f>
-        <v>1489.8150000000001</v>
+        <f>Model!Z37+Model!Z42</f>
+        <v>1367.223</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>167</v>
@@ -19261,7 +19251,7 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>1489.8150000000001</v>
+        <v>1367.223</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>171</v>
@@ -19290,7 +19280,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>79052.684399999998</v>
+        <v>79459.550999999992</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>173</v>
@@ -19319,7 +19309,7 @@
       </c>
       <c r="C13" s="36">
         <f>C6/Model!G22</f>
-        <v>64.777777777777771</v>
+        <v>65.333333333333329</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -19332,7 +19322,7 @@
       </c>
       <c r="C14" s="36">
         <f>C6/Model!H23</f>
-        <v>52.522522522522515</v>
+        <v>52.972972972972968</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -19350,7 +19340,7 @@
       </c>
       <c r="C15" s="36">
         <f>C6/Model!I23</f>
-        <v>44.503816793893122</v>
+        <v>44.885496183206101</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -19373,9 +19363,9 @@
       <c r="E17" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="124"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="126"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="127"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -19383,14 +19373,14 @@
       </c>
       <c r="C18" s="49">
         <f>C14/(C16*100)</f>
-        <v>2.2509652509652502</v>
+        <v>2.2702702702702693</v>
       </c>
       <c r="E18" t="s">
         <v>216</v>
       </c>
-      <c r="L18" s="127"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="129"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="130"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -19398,14 +19388,14 @@
       </c>
       <c r="C19" s="49">
         <f>C15/(C17*100)</f>
-        <v>2.469961832061069</v>
+        <v>2.4911450381679394</v>
       </c>
       <c r="E19" t="s">
         <v>217</v>
       </c>
-      <c r="L19" s="127"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="129"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="130"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -19418,9 +19408,9 @@
       <c r="E20" t="s">
         <v>218</v>
       </c>
-      <c r="L20" s="127"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="129"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="130"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -19430,9 +19420,9 @@
         <f>Model!I6/Model!H6-1</f>
         <v>0.13580246913580241</v>
       </c>
-      <c r="L21" s="127"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="129"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="130"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -19442,9 +19432,9 @@
         <f>Model!G16+Model!G13</f>
         <v>1877.2069999999983</v>
       </c>
-      <c r="L22" s="127"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="129"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="130"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -19454,33 +19444,33 @@
         <f>Model!G18</f>
         <v>1620.5059999999983</v>
       </c>
-      <c r="L23" s="127"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="129"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="130"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!Y24</f>
-        <v>0.2890569055977279</v>
-      </c>
-      <c r="L24" s="127"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="129"/>
+        <f>Model!Z24</f>
+        <v>0.25493525144832285</v>
+      </c>
+      <c r="L24" s="128"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="130"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!Y25</f>
-        <v>0.15326372961440815</v>
-      </c>
-      <c r="L25" s="127"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="129"/>
+        <f>Model!Z25</f>
+        <v>0.13867100805562471</v>
+      </c>
+      <c r="L25" s="128"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="130"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -19488,11 +19478,11 @@
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>48.782716262698244</v>
-      </c>
-      <c r="L26" s="127"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="129"/>
+        <v>49.033790063103794</v>
+      </c>
+      <c r="L26" s="128"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="130"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -19504,9 +19494,9 @@
       <c r="E27" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="127"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="129"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="130"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -19518,17 +19508,17 @@
       <c r="E28" t="s">
         <v>214</v>
       </c>
-      <c r="L28" s="130"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="132"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="133"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!Y43/Model!Y57</f>
-        <v>1.7123977621755522</v>
+        <f>Model!Z43/Model!Z57</f>
+        <v>1.6189246582469716</v>
       </c>
       <c r="E29" t="s">
         <v>215</v>
@@ -19539,8 +19529,8 @@
         <v>85</v>
       </c>
       <c r="C30" s="36">
-        <f>(Model!Y37+Model!Y42)/Model!Y57</f>
-        <v>1.4281804447273467</v>
+        <f>(Model!Z37+Model!Z42)/Model!Z57</f>
+        <v>1.317317734929915</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -19548,8 +19538,8 @@
         <v>86</v>
       </c>
       <c r="C31" s="6">
-        <f>(Model!Y43-Model!Y57)/Model!Y50</f>
-        <v>8.331342451962398E-2</v>
+        <f>(Model!Z43-Model!Z57)/Model!Z50</f>
+        <v>7.1282237365549325E-2</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -19557,8 +19547,8 @@
         <v>87</v>
       </c>
       <c r="C32" s="36">
-        <f>(Model!Y50-Model!Y61)/C7</f>
-        <v>2.6867691915704324</v>
+        <f>(Model!Z50-Model!Z61)/C7</f>
+        <v>2.6290447073886676</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -19608,10 +19598,10 @@
   <dimension ref="A1:AB83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="V24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z16" sqref="Z16"/>
+      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19619,7 +19609,6 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="25" max="25" width="11.42578125" style="143"/>
     <col min="26" max="26" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -19689,7 +19678,7 @@
       <c r="X2" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="143" t="s">
+      <c r="Y2" t="s">
         <v>70</v>
       </c>
       <c r="Z2" s="13" t="s">
@@ -19760,7 +19749,7 @@
       <c r="X3" s="10">
         <v>2684.4470000000001</v>
       </c>
-      <c r="Y3" s="144">
+      <c r="Y3" s="10">
         <v>2954.913</v>
       </c>
       <c r="Z3" s="15">
@@ -19829,7 +19818,7 @@
       <c r="X4" s="10">
         <v>17.401</v>
       </c>
-      <c r="Y4" s="144">
+      <c r="Y4" s="10">
         <v>18.204000000000001</v>
       </c>
       <c r="Z4" s="15">
@@ -19919,7 +19908,7 @@
         <f t="shared" si="0"/>
         <v>2701.848</v>
       </c>
-      <c r="Y5" s="145">
+      <c r="Y5" s="11">
         <f t="shared" ref="Y5:AB5" si="1">SUM(Y3:Y4)</f>
         <v>2973.1170000000002</v>
       </c>
@@ -19980,14 +19969,14 @@
       <c r="X6" s="10">
         <v>2680</v>
       </c>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="152">
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="124">
         <v>2810</v>
       </c>
       <c r="AA6" s="10">
         <v>2850</v>
       </c>
-      <c r="AB6" s="151">
+      <c r="AB6" s="10">
         <v>3060</v>
       </c>
     </row>
@@ -20054,7 +20043,7 @@
       <c r="X7" s="10">
         <v>779.07600000000002</v>
       </c>
-      <c r="Y7" s="144">
+      <c r="Y7" s="10">
         <v>873.673</v>
       </c>
       <c r="Z7" s="15">
@@ -20125,7 +20114,7 @@
       <c r="X8" s="10">
         <v>659.45</v>
       </c>
-      <c r="Y8" s="144">
+      <c r="Y8" s="10">
         <v>716.62699999999995</v>
       </c>
       <c r="Z8" s="15">
@@ -20196,7 +20185,7 @@
       <c r="X9" s="10">
         <v>135.69900000000001</v>
       </c>
-      <c r="Y9" s="144">
+      <c r="Y9" s="10">
         <v>138.66300000000001</v>
       </c>
       <c r="Z9" s="15">
@@ -20267,7 +20256,7 @@
       <c r="X10" s="10">
         <v>385.77300000000002</v>
       </c>
-      <c r="Y10" s="144">
+      <c r="Y10" s="10">
         <v>384.75400000000002</v>
       </c>
       <c r="Z10" s="15">
@@ -20359,12 +20348,12 @@
         <f t="shared" ref="X11:AA11" si="18">SUM(X7:X10)</f>
         <v>1959.998</v>
       </c>
-      <c r="Y11" s="145">
+      <c r="Y11" s="11">
         <f t="shared" si="18"/>
         <v>2113.7170000000001</v>
       </c>
       <c r="Z11" s="14">
-        <f t="shared" si="18"/>
+        <f>SUM(Z7:Z10)</f>
         <v>2081.395</v>
       </c>
       <c r="AA11" s="11">
@@ -20441,7 +20430,7 @@
       <c r="X12" s="10">
         <v>204.625</v>
       </c>
-      <c r="Y12" s="144">
+      <c r="Y12" s="10">
         <v>175.02799999999999</v>
       </c>
       <c r="Z12" s="15">
@@ -20518,7 +20507,7 @@
       <c r="X13" s="10">
         <v>83.242999999999995</v>
       </c>
-      <c r="Y13" s="144">
+      <c r="Y13" s="10">
         <v>83.561999999999998</v>
       </c>
       <c r="Z13" s="15">
@@ -20595,7 +20584,7 @@
       <c r="X14" s="10">
         <v>7.2110000000000003</v>
       </c>
-      <c r="Y14" s="144">
+      <c r="Y14" s="10">
         <v>8.9949999999999992</v>
       </c>
       <c r="Z14" s="15">
@@ -20670,7 +20659,7 @@
       <c r="X15" s="10">
         <v>5.4790000000000001</v>
       </c>
-      <c r="Y15" s="144">
+      <c r="Y15" s="10">
         <v>5.7619999999999996</v>
       </c>
       <c r="Z15" s="15">
@@ -20764,7 +20753,7 @@
         <f t="shared" ref="X16:AA16" si="36">X5-SUM(X11:X15)</f>
         <v>441.29200000000037</v>
       </c>
-      <c r="Y16" s="145">
+      <c r="Y16" s="11">
         <f t="shared" si="36"/>
         <v>586.05300000000034</v>
       </c>
@@ -20844,10 +20833,12 @@
       <c r="X17" s="10">
         <v>19.364000000000001</v>
       </c>
-      <c r="Y17" s="144">
+      <c r="Y17" s="10">
         <v>21.861000000000001</v>
       </c>
-      <c r="Z17" s="15"/>
+      <c r="Z17" s="15">
+        <v>29.306999999999999</v>
+      </c>
       <c r="AA17" s="10"/>
     </row>
     <row r="18" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -20934,13 +20925,13 @@
         <f t="shared" si="38"/>
         <v>460.65600000000035</v>
       </c>
-      <c r="Y18" s="145">
+      <c r="Y18" s="11">
         <f t="shared" ref="Y18:AA18" si="39">Y16+SUM(Y17:Y17)</f>
         <v>607.91400000000033</v>
       </c>
       <c r="Z18" s="14">
         <f t="shared" si="39"/>
-        <v>473.25599999999986</v>
+        <v>502.56299999999987</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="39"/>
@@ -21016,10 +21007,12 @@
       <c r="X19" s="10">
         <v>101.369</v>
       </c>
-      <c r="Y19" s="144">
+      <c r="Y19" s="10">
         <v>152.24299999999999</v>
       </c>
-      <c r="Z19" s="15"/>
+      <c r="Z19" s="15">
+        <v>115.175</v>
+      </c>
       <c r="AA19" s="10"/>
     </row>
     <row r="20" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -21106,13 +21099,13 @@
         <f t="shared" si="40"/>
         <v>359.28700000000038</v>
       </c>
-      <c r="Y20" s="145">
+      <c r="Y20" s="11">
         <f t="shared" ref="Y20:AA20" si="41">Y18-SUM(Y19:Y19)</f>
         <v>455.67100000000033</v>
       </c>
       <c r="Z20" s="14">
         <f t="shared" si="41"/>
-        <v>473.25599999999986</v>
+        <v>387.38799999999986</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="41"/>
@@ -21121,7 +21114,7 @@
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="C21" s="10">
         <v>28.295000000000002</v>
@@ -21183,10 +21176,12 @@
       <c r="X21" s="10">
         <v>27.623999999999999</v>
       </c>
-      <c r="Y21" s="144">
+      <c r="Y21" s="10">
         <v>1381.518</v>
       </c>
-      <c r="Z21" s="15"/>
+      <c r="Z21" s="15">
+        <v>1374.605</v>
+      </c>
       <c r="AA21" s="10"/>
     </row>
     <row r="22" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -21272,13 +21267,13 @@
         <f>X20/X21</f>
         <v>13.006335070952808</v>
       </c>
-      <c r="Y22" s="146">
+      <c r="Y22" s="47">
         <f t="shared" ref="Y22:AA22" si="43">Y20/Y21</f>
         <v>0.32983355989570917</v>
       </c>
-      <c r="Z22" s="46" t="e">
+      <c r="Z22" s="46">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
+        <v>0.28181768580792288</v>
       </c>
       <c r="AA22" s="47" t="e">
         <f t="shared" si="43"/>
@@ -21329,9 +21324,9 @@
       <c r="X23" s="119">
         <v>11.69</v>
       </c>
-      <c r="Y23" s="147"/>
+      <c r="Y23" s="119"/>
       <c r="Z23" s="120"/>
-      <c r="AA23" s="119">
+      <c r="AA23" s="47">
         <v>0.24</v>
       </c>
       <c r="AB23" s="1">
@@ -21517,13 +21512,13 @@
         <f t="shared" ref="X25" si="48">X20/X5</f>
         <v>0.13297824303957897</v>
       </c>
-      <c r="Y25" s="148">
+      <c r="Y25" s="4">
         <f t="shared" ref="Y25:AA25" si="49">Y20/Y5</f>
         <v>0.15326372961440815</v>
       </c>
       <c r="Z25" s="7">
         <f t="shared" si="49"/>
-        <v>0.16940867189580661</v>
+        <v>0.13867100805562471</v>
       </c>
       <c r="AA25" s="4" t="e">
         <f t="shared" si="49"/>
@@ -21608,13 +21603,13 @@
         <f t="shared" si="51"/>
         <v>0.22005357577020579</v>
       </c>
-      <c r="Y26" s="148">
+      <c r="Y26" s="4">
         <f t="shared" si="51"/>
         <v>0.2504350944376999</v>
       </c>
       <c r="Z26" s="7">
         <f t="shared" ref="Z26:AA26" si="52">-Z19/Z18</f>
-        <v>0</v>
+        <v>-0.22917524768039038</v>
       </c>
       <c r="AA26" s="4" t="e">
         <f t="shared" si="52"/>
@@ -21690,7 +21685,7 @@
         <f t="shared" ref="X27" si="54">X5/T5-1</f>
         <v>0.14070371277305393</v>
       </c>
-      <c r="Y27" s="148">
+      <c r="Y27" s="4">
         <f t="shared" ref="Y27" si="55">Y5/U5-1</f>
         <v>0.18224742236065605</v>
       </c>
@@ -21785,7 +21780,7 @@
         <f t="shared" ref="X28" si="59">X12/X5</f>
         <v>7.573520049980606E-2</v>
       </c>
-      <c r="Y28" s="148">
+      <c r="Y28" s="4">
         <f t="shared" ref="Y28:AA28" si="60">Y12/Y5</f>
         <v>5.8870202551732739E-2</v>
       </c>
@@ -21880,7 +21875,7 @@
         <f t="shared" ref="X29" si="62">X13/X5</f>
         <v>3.0809653244742115E-2</v>
       </c>
-      <c r="Y29" s="148">
+      <c r="Y29" s="4">
         <f t="shared" ref="Y29:AA29" si="63">Y13/Y5</f>
         <v>2.810585658082073E-2</v>
       </c>
@@ -21975,7 +21970,7 @@
         <f t="shared" ref="X30" si="65">X15/X5</f>
         <v>2.0278712940180205E-3</v>
       </c>
-      <c r="Y30" s="148">
+      <c r="Y30" s="4">
         <f t="shared" ref="Y30:AA30" si="66">Y15/Y5</f>
         <v>1.938033383819069E-3</v>
       </c>
@@ -22051,7 +22046,7 @@
         <f>X3/T3-1</f>
         <v>0.14182761529198751</v>
       </c>
-      <c r="Y31" s="148">
+      <c r="Y31" s="4">
         <f t="shared" ref="Y31:AA31" si="69">Y3/U3-1</f>
         <v>0.18314408476606081</v>
       </c>
@@ -22127,7 +22122,7 @@
         <f>X4/T4-1</f>
         <v>-9.6750327243755319E-3</v>
       </c>
-      <c r="Y32" s="148">
+      <c r="Y32" s="4">
         <f t="shared" ref="Y32:AA32" si="71">Y4/U4-1</f>
         <v>5.2741151977793166E-2</v>
       </c>
@@ -22209,13 +22204,13 @@
         <f t="shared" ref="X33" si="73">X20/T20-1</f>
         <v>0.23193688195197204</v>
       </c>
-      <c r="Y33" s="148">
+      <c r="Y33" s="4">
         <f t="shared" ref="Y33" si="74">Y20/U20-1</f>
         <v>0.33287799455933498</v>
       </c>
       <c r="Z33" s="7">
         <f t="shared" ref="Z33" si="75">Z20/V20-1</f>
-        <v>0.51095247065133576</v>
+        <v>0.23680387718418716</v>
       </c>
       <c r="AA33" s="4">
         <f t="shared" ref="AA33" si="76">AA20/W20-1</f>
@@ -22298,7 +22293,7 @@
         <f t="shared" si="77"/>
         <v>1419.8679999999999</v>
       </c>
-      <c r="Y36" s="145">
+      <c r="Y36" s="11">
         <f t="shared" ref="Y36:AA36" si="78">Y37+Y42</f>
         <v>1489.8150000000001</v>
       </c>
@@ -22364,7 +22359,7 @@
       <c r="X37" s="10">
         <v>727.39400000000001</v>
       </c>
-      <c r="Y37" s="144">
+      <c r="Y37" s="10">
         <v>806.52800000000002</v>
       </c>
       <c r="Z37" s="15">
@@ -22425,7 +22420,7 @@
       <c r="X38" s="10">
         <v>89.835999999999999</v>
       </c>
-      <c r="Y38" s="144">
+      <c r="Y38" s="10">
         <v>97.542000000000002</v>
       </c>
       <c r="Z38" s="15">
@@ -22486,7 +22481,7 @@
       <c r="X39" s="10">
         <v>37.947000000000003</v>
       </c>
-      <c r="Y39" s="144">
+      <c r="Y39" s="10">
         <v>35.56</v>
       </c>
       <c r="Z39" s="15">
@@ -22547,7 +22542,7 @@
       <c r="X40" s="10">
         <v>98.117999999999995</v>
       </c>
-      <c r="Y40" s="144">
+      <c r="Y40" s="10">
         <v>91.852000000000004</v>
       </c>
       <c r="Z40" s="15">
@@ -22608,7 +22603,7 @@
       <c r="X41" s="10">
         <v>0</v>
       </c>
-      <c r="Y41" s="144">
+      <c r="Y41" s="10">
         <v>71.528999999999996</v>
       </c>
       <c r="Z41" s="15">
@@ -22669,7 +22664,7 @@
       <c r="X42" s="10">
         <v>692.47400000000005</v>
       </c>
-      <c r="Y42" s="144">
+      <c r="Y42" s="10">
         <v>683.28700000000003</v>
       </c>
       <c r="Z42" s="15">
@@ -22753,7 +22748,7 @@
         <f t="shared" si="84"/>
         <v>1645.7690000000002</v>
       </c>
-      <c r="Y43" s="145">
+      <c r="Y43" s="11">
         <f t="shared" ref="Y43:AA43" si="85">SUM(Y37:Y42)</f>
         <v>1786.2980000000002</v>
       </c>
@@ -22819,7 +22814,7 @@
       <c r="X44" s="10">
         <v>2202.739</v>
       </c>
-      <c r="Y44" s="144">
+      <c r="Y44" s="10">
         <v>2265.694</v>
       </c>
       <c r="Z44" s="15">
@@ -22880,7 +22875,7 @@
       <c r="X45" s="10">
         <v>776.81500000000005</v>
       </c>
-      <c r="Y45" s="144">
+      <c r="Y45" s="10">
         <v>972.64400000000001</v>
       </c>
       <c r="Z45" s="15">
@@ -22941,7 +22936,7 @@
       <c r="X46" s="10">
         <v>26.138000000000002</v>
       </c>
-      <c r="Y46" s="144">
+      <c r="Y46" s="10">
         <v>27.664000000000001</v>
       </c>
       <c r="Z46" s="15">
@@ -23002,7 +22997,7 @@
       <c r="X47" s="10">
         <v>3670.9830000000002</v>
       </c>
-      <c r="Y47" s="144">
+      <c r="Y47" s="10">
         <v>3770.9969999999998</v>
       </c>
       <c r="Z47" s="15">
@@ -23063,7 +23058,7 @@
       <c r="X48" s="10">
         <v>66.866</v>
       </c>
-      <c r="Y48" s="144">
+      <c r="Y48" s="10">
         <v>74.599000000000004</v>
       </c>
       <c r="Z48" s="15">
@@ -23124,7 +23119,7 @@
       <c r="X49" s="10">
         <v>21.939</v>
       </c>
-      <c r="Y49" s="144">
+      <c r="Y49" s="10">
         <v>21.939</v>
       </c>
       <c r="Z49" s="15">
@@ -23208,7 +23203,7 @@
         <f>SUM(X43:X49)</f>
         <v>8411.2489999999998</v>
       </c>
-      <c r="Y50" s="145">
+      <c r="Y50" s="11">
         <f t="shared" ref="Y50:AA50" si="90">SUM(Y43:Y49)</f>
         <v>8919.8350000000009</v>
       </c>
@@ -23274,7 +23269,7 @@
       <c r="X51" s="10">
         <v>196.86600000000001</v>
       </c>
-      <c r="Y51" s="144">
+      <c r="Y51" s="10">
         <v>203.48</v>
       </c>
       <c r="Z51" s="15">
@@ -23335,7 +23330,7 @@
       <c r="X52" s="10">
         <v>142.42500000000001</v>
       </c>
-      <c r="Y52" s="144">
+      <c r="Y52" s="10">
         <v>223.41</v>
       </c>
       <c r="Z52" s="15">
@@ -23396,7 +23391,7 @@
       <c r="X53" s="10">
         <v>171.61199999999999</v>
       </c>
-      <c r="Y53" s="144">
+      <c r="Y53" s="10">
         <v>169.631</v>
       </c>
       <c r="Z53" s="15">
@@ -23457,7 +23452,7 @@
       <c r="X54" s="10">
         <v>187.31700000000001</v>
       </c>
-      <c r="Y54" s="144">
+      <c r="Y54" s="10">
         <v>182.33099999999999</v>
       </c>
       <c r="Z54" s="15">
@@ -23518,7 +23513,7 @@
       <c r="X55" s="10">
         <v>254.14400000000001</v>
       </c>
-      <c r="Y55" s="144">
+      <c r="Y55" s="10">
         <v>264.30399999999997</v>
       </c>
       <c r="Z55" s="15">
@@ -23565,7 +23560,7 @@
       <c r="X56" s="10">
         <v>44.988999999999997</v>
       </c>
-      <c r="Y56" s="144"/>
+      <c r="Y56" s="10"/>
       <c r="Z56" s="15"/>
       <c r="AA56" s="10"/>
     </row>
@@ -23645,7 +23640,7 @@
         <f>SUM(X51:X56)</f>
         <v>997.35300000000007</v>
       </c>
-      <c r="Y57" s="145">
+      <c r="Y57" s="11">
         <f t="shared" ref="Y57:AA57" si="95">SUM(Y51:Y56)</f>
         <v>1043.1559999999999</v>
       </c>
@@ -23711,7 +23706,7 @@
       <c r="X58" s="10">
         <v>3903.3530000000001</v>
       </c>
-      <c r="Y58" s="144">
+      <c r="Y58" s="10">
         <v>4014.4540000000002</v>
       </c>
       <c r="Z58" s="15">
@@ -23772,7 +23767,7 @@
       <c r="X59" s="10">
         <v>84.228999999999999</v>
       </c>
-      <c r="Y59" s="144">
+      <c r="Y59" s="10">
         <v>83.298000000000002</v>
       </c>
       <c r="Z59" s="15">
@@ -23833,7 +23828,7 @@
       <c r="X60" s="10">
         <v>64.984999999999999</v>
       </c>
-      <c r="Y60" s="144">
+      <c r="Y60" s="10">
         <v>67.106999999999999</v>
       </c>
       <c r="Z60" s="15">
@@ -23917,7 +23912,7 @@
         <f>SUM(X57:X60)</f>
         <v>5049.92</v>
       </c>
-      <c r="Y61" s="145">
+      <c r="Y61" s="11">
         <f t="shared" ref="Y61:AA61" si="100">SUM(Y57:Y60)</f>
         <v>5208.0150000000003</v>
       </c>
@@ -23994,7 +23989,7 @@
         <f>X50-X61</f>
         <v>3361.3289999999997</v>
       </c>
-      <c r="Y62" s="144">
+      <c r="Y62" s="10">
         <f t="shared" ref="Y62:AA62" si="102">Y50-Y61</f>
         <v>3711.8200000000006</v>
       </c>
@@ -24013,17 +24008,14 @@
       <c r="E64" s="50"/>
       <c r="F64" s="50"/>
       <c r="G64" s="51"/>
-      <c r="Y64" s="149"/>
       <c r="Z64" s="16"/>
     </row>
     <row r="82" spans="7:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G82" s="41"/>
-      <c r="Y82" s="150"/>
       <c r="Z82" s="41"/>
     </row>
     <row r="83" spans="7:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G83" s="16"/>
-      <c r="Y83" s="149"/>
       <c r="Z83" s="16"/>
     </row>
   </sheetData>
@@ -36257,14 +36249,14 @@
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="136"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -36767,10 +36759,10 @@
         <f t="shared" si="0"/>
         <v>2.6708175927015354E-2</v>
       </c>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="137"/>
+      <c r="I17" s="138"/>
       <c r="M17" s="79"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -36784,8 +36776,8 @@
         <f t="shared" si="0"/>
         <v>-3.2427289180687158E-2</v>
       </c>
-      <c r="H18" s="138"/>
-      <c r="I18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="140"/>
       <c r="M18" s="79"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -37358,14 +37350,14 @@
         <f t="shared" si="0"/>
         <v>-1.0339540305585704E-2</v>
       </c>
-      <c r="H43" s="140" t="s">
+      <c r="H43" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="141"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="141"/>
-      <c r="L43" s="141"/>
-      <c r="M43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="143"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">

--- a/Retail Wholesale - Restaurants/CMG.xlsx
+++ b/Retail Wholesale - Restaurants/CMG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Retail Wholesale - Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC0B4DC-FE69-40B8-99CC-024E61F86611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147C5B1E-A50C-4095-9139-2A03A55E989E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="240" windowWidth="14190" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$23</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$22:$X$22</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$23:$X$23</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$5:$X$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$6:$X$6</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$M$2:$Y$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$M$5:$Y$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$M$6:$Y$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$23</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$M$22:$Y$22</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$M$23:$Y$23</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$M$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="226">
   <si>
     <t>Price</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>FY19</t>
-  </si>
-  <si>
-    <t>Net Income y/y</t>
   </si>
   <si>
     <t>Q223</t>
@@ -978,6 +975,27 @@
   </si>
   <si>
     <t>Shares (diluted)</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>EPS Growth</t>
+  </si>
+  <si>
+    <t>06.05.25 New COO and new CSO</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1738,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1758,7 +1776,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1768,8 +1785,6 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1780,10 +1795,7 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1863,19 +1875,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1933,6 +1937,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2150,7 +2177,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$X$2</c:f>
+              <c:f>Model!$M$2:$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -2197,7 +2224,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$5:$X$5</c:f>
+              <c:f>Model!$M$5:$Y$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2347,7 +2374,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$27:$X$27</c:f>
+              <c:f>Model!$M$27:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2900,10 +2927,10 @@
                   <c:v>9871.6489999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11260</c:v>
+                  <c:v>11313.852999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12780</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3038,10 +3065,10 @@
                   <c:v>0.14325962412845361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1487442472883711</c:v>
+                  <c:v>0.14609555100672633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13580246913580241</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3501,7 +3528,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$X$2</c:f>
+              <c:f>Model!$M$2:$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -3548,7 +3575,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$20:$X$20</c:f>
+              <c:f>Model!$M$20:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3698,7 +3725,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$24:$X$24</c:f>
+              <c:f>Model!$M$24:$Y$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4206,10 +4233,10 @@
                   <c:v>1228.7369999999983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1442.175999999999</c:v>
+                  <c:v>1534.1099999999969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1634.4560000000001</c:v>
+                  <c:v>68.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4245,7 +4272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Net Income y/y</c:v>
+                  <c:v>EPS Growth</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4321,22 +4348,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
-                  <c:v>-1.3865169437795366E-2</c:v>
+                  <c:v>-9.5479648522811544E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.83932419376192091</c:v>
+                  <c:v>0.85789265924707614</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37691122600247629</c:v>
+                  <c:v>0.38034589872074931</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.36662844330058375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23333333333333339</c:v>
+                  <c:v>0.25302733229602725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18018018018018012</c:v>
+                  <c:v>-0.95554425693072842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4788,7 +4815,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$V$2</c:f>
+              <c:f>Model!$M$2:$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4829,7 +4856,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$28:$V$28</c:f>
+              <c:f>Model!$M$28:$W$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4974,7 +5001,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$29:$W$29</c:f>
+              <c:f>Model!$M$29:$X$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5122,7 +5149,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$30:$W$30</c:f>
+              <c:f>Model!$M$30:$X$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -12479,18 +12506,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -12534,7 +12561,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12554,7 +12581,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12585,18 +12612,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -12640,7 +12667,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12660,7 +12687,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -18976,8 +19003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18998,84 +19025,84 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="20">
-        <v>45604</v>
+        <v>45804</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>156</v>
-      </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="38"/>
+      <c r="J3" s="37"/>
       <c r="L3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" t="s">
         <v>135</v>
       </c>
-      <c r="M3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N3" s="37"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>3.9583333333333331E-2</v>
+        <v>2.7083333333333334E-2</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>158</v>
-      </c>
       <c r="H4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I4" s="10">
         <v>3512</v>
       </c>
-      <c r="J4" s="38"/>
+      <c r="J4" s="37"/>
       <c r="L4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" t="s">
         <v>137</v>
-      </c>
-      <c r="M4" t="s">
-        <v>138</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -19083,23 +19110,23 @@
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
       <c r="E5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>160</v>
-      </c>
       <c r="H5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I5" s="10">
         <v>8563</v>
       </c>
-      <c r="J5" s="38"/>
+      <c r="J5" s="37"/>
       <c r="L5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" t="s">
         <v>139</v>
-      </c>
-      <c r="M5" t="s">
-        <v>140</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -19108,24 +19135,24 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>58.8</v>
+        <v>50.63</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>162</v>
-      </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="38"/>
+      <c r="J6" s="37"/>
       <c r="L6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" t="s">
         <v>141</v>
-      </c>
-      <c r="M6" t="s">
-        <v>142</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -19134,27 +19161,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!Z21</f>
-        <v>1374.605</v>
+        <f>Model!AC21</f>
+        <v>1360.7190000000001</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>164</v>
-      </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I7" s="10">
         <v>7166</v>
       </c>
-      <c r="J7" s="38"/>
+      <c r="J7" s="37"/>
       <c r="L7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" t="s">
         <v>143</v>
-      </c>
-      <c r="M7" t="s">
-        <v>144</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -19164,26 +19191,26 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>80826.77399999999</v>
+        <v>68893.202970000013</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>166</v>
-      </c>
       <c r="H8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I8" s="10">
         <v>67166</v>
       </c>
-      <c r="J8" s="38"/>
+      <c r="J8" s="37"/>
       <c r="L8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" t="s">
         <v>145</v>
-      </c>
-      <c r="M8" t="s">
-        <v>146</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -19192,27 +19219,27 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!Z37+Model!Z42</f>
-        <v>1367.223</v>
+        <f>Model!AC37+Model!AC42</f>
+        <v>1414.722</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>168</v>
-      </c>
       <c r="H9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I9" s="10">
         <v>799</v>
       </c>
-      <c r="J9" s="38"/>
+      <c r="J9" s="37"/>
       <c r="L9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M9" t="s">
         <v>147</v>
-      </c>
-      <c r="M9" t="s">
-        <v>148</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -19225,52 +19252,52 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>170</v>
-      </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I10" s="10">
         <v>29075</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="37"/>
       <c r="L10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" t="s">
         <v>149</v>
-      </c>
-      <c r="M10" t="s">
-        <v>150</v>
       </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>1367.223</v>
+        <v>1414.722</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>172</v>
-      </c>
       <c r="H11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I11" s="10">
         <v>2069</v>
       </c>
-      <c r="J11" s="38"/>
+      <c r="J11" s="37"/>
       <c r="L11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M11" t="s">
         <v>151</v>
-      </c>
-      <c r="M11" t="s">
-        <v>152</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -19280,36 +19307,36 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>79459.550999999992</v>
+        <v>67478.480970000019</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="H12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I12" s="10">
         <v>1906</v>
       </c>
       <c r="J12" s="13"/>
       <c r="L12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M12" t="s">
         <v>153</v>
-      </c>
-      <c r="M12" t="s">
-        <v>154</v>
       </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="36">
-        <f>C6/Model!G22</f>
-        <v>65.333333333333329</v>
+        <v>50</v>
+      </c>
+      <c r="C13" s="35">
+        <f>C6/Model!H22</f>
+        <v>45.43023619557929</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -19318,11 +19345,11 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="36">
-        <f>C6/Model!H23</f>
-        <v>52.972972972972968</v>
+        <v>48</v>
+      </c>
+      <c r="C14" s="35">
+        <f>C6/Model!I23</f>
+        <v>41.842975206611577</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -19336,251 +19363,254 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="36">
-        <f>C6/Model!I23</f>
-        <v>44.885496183206101</v>
+        <v>49</v>
+      </c>
+      <c r="C15" s="35">
+        <f>C6/Model!J23</f>
+        <v>35.159722222222229</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6">
-        <f>Model!H23/Model!G22-1</f>
-        <v>0.23333333333333339</v>
+        <f>Model!I23/Model!H22-1</f>
+        <v>8.5731499045051063E-2</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="6">
-        <f>Model!I23/Model!H23-1</f>
-        <v>0.18018018018018012</v>
+        <f>Model!J23/Model!I23-1</f>
+        <v>0.19008264462809921</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="127"/>
+        <v>57</v>
+      </c>
+      <c r="L17" s="113"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="115"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="49">
+        <v>71</v>
+      </c>
+      <c r="C18" s="46">
         <f>C14/(C16*100)</f>
-        <v>2.2702702702702693</v>
+        <v>4.8807002878397707</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
-      </c>
-      <c r="L18" s="128"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="130"/>
+        <v>215</v>
+      </c>
+      <c r="L18" s="116"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="118"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="49">
+        <v>72</v>
+      </c>
+      <c r="C19" s="46">
         <f>C15/(C17*100)</f>
-        <v>2.4911450381679394</v>
+        <v>1.8497071256038649</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="128"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="130"/>
+        <v>216</v>
+      </c>
+      <c r="L19" s="116"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="118"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="6">
-        <f>Model!H6/Model!G5-1</f>
-        <v>0.1487442472883711</v>
+        <f>Model!I6/Model!H5-1</f>
+        <v>8.3627301857289504E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="128"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="130"/>
+        <v>217</v>
+      </c>
+      <c r="L20" s="116"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="118"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="6">
-        <f>Model!I6/Model!H6-1</f>
-        <v>0.13580246913580241</v>
-      </c>
-      <c r="L21" s="128"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="130"/>
+        <f>Model!J6/Model!I6-1</f>
+        <v>0.13050570962479613</v>
+      </c>
+      <c r="L21" s="116"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="118"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="15">
-        <f>Model!G16+Model!G13</f>
-        <v>1877.2069999999983</v>
-      </c>
-      <c r="L22" s="128"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="130"/>
+        <f>Model!H16+Model!H13</f>
+        <v>2251.3629999999966</v>
+      </c>
+      <c r="L22" s="116"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="118"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!G18</f>
-        <v>1620.5059999999983</v>
-      </c>
-      <c r="L23" s="128"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="130"/>
+        <f>Model!H18</f>
+        <v>2010.2299999999968</v>
+      </c>
+      <c r="L23" s="116"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="118"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!Z24</f>
-        <v>0.25493525144832285</v>
-      </c>
-      <c r="L24" s="128"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="130"/>
+        <f>Model!AC24</f>
+        <v>0.26210632594766448</v>
+      </c>
+      <c r="L24" s="116"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="118"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!Z25</f>
-        <v>0.13867100805562471</v>
-      </c>
-      <c r="L25" s="128"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="130"/>
+        <f>Model!AC25</f>
+        <v>0.13445738514141206</v>
+      </c>
+      <c r="L25" s="116"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="118"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="36">
+        <v>74</v>
+      </c>
+      <c r="C26" s="35">
         <f>C12/C23</f>
-        <v>49.033790063103794</v>
-      </c>
-      <c r="L26" s="128"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="130"/>
+        <v>33.567542505086543</v>
+      </c>
+      <c r="L26" s="116"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="118"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="115">
+        <v>81</v>
+      </c>
+      <c r="C27" s="109">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" s="128"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="130"/>
+        <v>75</v>
+      </c>
+      <c r="L27" s="116"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="118"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="36">
+        <v>82</v>
+      </c>
+      <c r="C28" s="35">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>214</v>
-      </c>
-      <c r="L28" s="131"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="133"/>
+        <v>213</v>
+      </c>
+      <c r="L28" s="119"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="121"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="36">
-        <f>Model!Z43/Model!Z57</f>
-        <v>1.6189246582469716</v>
+        <v>83</v>
+      </c>
+      <c r="C29" s="35">
+        <f>Model!AC43/Model!AC57</f>
+        <v>1.5222997275404062</v>
       </c>
       <c r="E29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="36">
-        <f>(Model!Z37+Model!Z42)/Model!Z57</f>
-        <v>1.317317734929915</v>
+        <v>84</v>
+      </c>
+      <c r="C30" s="35">
+        <f>(Model!AC37+Model!AC42)/Model!AC57</f>
+        <v>1.2960813091252892</v>
+      </c>
+      <c r="E30" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="6">
-        <f>(Model!Z43-Model!Z57)/Model!Z50</f>
-        <v>7.1282237365549325E-2</v>
+        <f>(Model!AC43-Model!AC57)/Model!AC50</f>
+        <v>6.3036717663482913E-2</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="36">
-        <f>(Model!Z50-Model!Z61)/C7</f>
-        <v>2.6290447073886676</v>
+        <v>86</v>
+      </c>
+      <c r="C32" s="35">
+        <f>(Model!AC50-Model!AC61)/C7</f>
+        <v>2.5654613480079296</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="36">
-        <f>Model!G5/Model!G50</f>
-        <v>1.227151264450804</v>
+        <v>87</v>
+      </c>
+      <c r="C33" s="35">
+        <f>Model!H5/Model!H50</f>
+        <v>1.2291822344463623</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="38">
-        <f>Model!G20/Model!G50</f>
-        <v>0.15274511515021305</v>
+        <v>88</v>
+      </c>
+      <c r="C34" s="37">
+        <f>Model!H20/Model!H50</f>
+        <v>0.16667184536395385</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="38">
-        <f>Model!G20/Model!G62</f>
-        <v>0.40125863470366235</v>
+        <v>89</v>
+      </c>
+      <c r="C35" s="37">
+        <f>Model!H20/Model!H62</f>
+        <v>0.41966644654451007</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="23"/>
     </row>
@@ -19595,29 +19625,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AB83"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="V24" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="26" max="26" width="11.42578125" style="13"/>
+    <col min="7" max="7" width="11.42578125" style="132"/>
+    <col min="8" max="8" width="11.42578125" style="13"/>
+    <col min="27" max="27" width="11.42578125" style="132"/>
+    <col min="29" max="29" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -19630,67 +19662,82 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="13" t="s">
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>6</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>7</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>8</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>9</v>
       </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
       <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" t="s">
-        <v>67</v>
-      </c>
       <c r="Y2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="132" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="10">
         <v>5561.0360000000001</v>
@@ -19704,62 +19751,71 @@
       <c r="F3" s="10">
         <v>8558.0010000000002</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="133">
         <v>9804.1239999999998</v>
       </c>
-      <c r="L3" s="10">
+      <c r="H3" s="148">
+        <v>11247.384</v>
+      </c>
+      <c r="M3" s="10">
         <v>1715.99</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>1869.365</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="10">
         <v>1932.4090000000001</v>
       </c>
-      <c r="O3" s="10">
-        <f>E3-N3-M3-L3</f>
+      <c r="P3" s="10">
+        <f>E3-O3-N3-M3</f>
         <v>1939.4050000000004</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>1998.9559999999999</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>2192.8020000000001</v>
       </c>
-      <c r="R3" s="10">
+      <c r="S3" s="10">
         <v>2202.3359999999998</v>
       </c>
-      <c r="S3" s="10">
-        <f>F3-R3-Q3-P3</f>
+      <c r="T3" s="10">
+        <f>F3-S3-R3-Q3</f>
         <v>2163.9070000000011</v>
       </c>
-      <c r="T3" s="10">
+      <c r="U3" s="10">
         <v>2351.009</v>
       </c>
-      <c r="U3" s="10">
+      <c r="V3" s="10">
         <v>2497.509</v>
       </c>
-      <c r="V3" s="10">
+      <c r="W3" s="10">
         <v>2456.0390000000002</v>
       </c>
-      <c r="W3" s="10">
-        <f>G3-V3-U3-T3</f>
+      <c r="X3" s="10">
+        <f>G3-W3-V3-U3</f>
         <v>2499.5669999999991</v>
       </c>
-      <c r="X3" s="10">
+      <c r="Y3" s="10">
         <v>2684.4470000000001</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Z3" s="10">
         <v>2954.913</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="AA3" s="133">
         <v>2778.0340000000001</v>
       </c>
-      <c r="AA3" s="10"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB3" s="10">
+        <f>H3-AA3-Z3-Y3</f>
+        <v>2829.99</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>2859.8310000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="10">
         <v>25.332999999999998</v>
@@ -19773,60 +19829,69 @@
       <c r="F4" s="10">
         <v>76.650999999999996</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="133">
         <v>67.525000000000006</v>
       </c>
-      <c r="L4" s="10">
+      <c r="H4" s="148">
+        <v>66.468999999999994</v>
+      </c>
+      <c r="M4" s="10">
         <v>25.585000000000001</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>23.172999999999998</v>
       </c>
-      <c r="N4" s="10">
+      <c r="O4" s="10">
         <v>19.905999999999999</v>
       </c>
-      <c r="O4" s="10">
-        <f>E4-N4-M4-L4</f>
+      <c r="P4" s="10">
+        <f>E4-O4-N4-M4</f>
         <v>21.227999999999987</v>
       </c>
-      <c r="P4" s="10">
+      <c r="Q4" s="10">
         <v>21.582999999999998</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="10">
         <v>20.536999999999999</v>
       </c>
-      <c r="R4" s="10">
+      <c r="S4" s="10">
         <v>17.838999999999999</v>
       </c>
-      <c r="S4" s="10">
-        <f>F4-R4-Q4-P4</f>
+      <c r="T4" s="10">
+        <f>F4-S4-R4-Q4</f>
         <v>16.692</v>
       </c>
-      <c r="T4" s="10">
+      <c r="U4" s="10">
         <v>17.571000000000002</v>
       </c>
-      <c r="U4" s="10">
+      <c r="V4" s="10">
         <v>17.292000000000002</v>
       </c>
-      <c r="V4" s="10">
+      <c r="W4" s="10">
         <v>15.909000000000001</v>
       </c>
-      <c r="W4" s="10">
-        <f>G4-V4-U4-T4</f>
+      <c r="X4" s="10">
+        <f>G4-W4-V4-U4</f>
         <v>16.753000000000004</v>
       </c>
-      <c r="X4" s="10">
+      <c r="Y4" s="10">
         <v>17.401</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Z4" s="10">
         <v>18.204000000000001</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="AA4" s="133">
         <v>15.542</v>
       </c>
-      <c r="AA4" s="10"/>
-    </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB4" s="10">
+        <f>H4-AA4-Z4-Y4</f>
+        <v>15.321999999999992</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>15.422000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -19846,143 +19911,158 @@
         <f>SUM(F3:F4)</f>
         <v>8634.652</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="134">
         <f>SUM(G3:G4)</f>
         <v>9871.6489999999994</v>
       </c>
-      <c r="H5" s="43">
-        <v>11260</v>
-      </c>
-      <c r="I5" s="43">
-        <v>12780</v>
-      </c>
-      <c r="L5" s="11">
-        <f>SUM(L3:L4)</f>
+      <c r="H5" s="14">
+        <f t="shared" ref="H5:J5" si="0">SUM(H3:H4)</f>
+        <v>11313.852999999999</v>
+      </c>
+      <c r="I5" s="134">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="134">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <f>SUM(M3:M4)</f>
         <v>1741.575</v>
       </c>
-      <c r="M5" s="11">
-        <f t="shared" ref="M5:X5" si="0">SUM(M3:M4)</f>
+      <c r="N5" s="11">
+        <f t="shared" ref="N5:Y5" si="1">SUM(N3:N4)</f>
         <v>1892.538</v>
       </c>
-      <c r="N5" s="11">
-        <f t="shared" si="0"/>
+      <c r="O5" s="11">
+        <f t="shared" si="1"/>
         <v>1952.3150000000001</v>
       </c>
-      <c r="O5" s="11">
-        <f t="shared" si="0"/>
+      <c r="P5" s="11">
+        <f t="shared" si="1"/>
         <v>1960.6330000000005</v>
       </c>
-      <c r="P5" s="11">
-        <f t="shared" si="0"/>
+      <c r="Q5" s="11">
+        <f t="shared" si="1"/>
         <v>2020.539</v>
       </c>
-      <c r="Q5" s="11">
-        <f t="shared" si="0"/>
+      <c r="R5" s="11">
+        <f t="shared" si="1"/>
         <v>2213.3389999999999</v>
       </c>
-      <c r="R5" s="11">
-        <f t="shared" si="0"/>
+      <c r="S5" s="11">
+        <f t="shared" si="1"/>
         <v>2220.1749999999997</v>
       </c>
-      <c r="S5" s="11">
-        <f t="shared" si="0"/>
+      <c r="T5" s="11">
+        <f t="shared" si="1"/>
         <v>2180.5990000000011</v>
       </c>
-      <c r="T5" s="11">
-        <f t="shared" si="0"/>
+      <c r="U5" s="11">
+        <f t="shared" si="1"/>
         <v>2368.58</v>
       </c>
-      <c r="U5" s="11">
-        <f t="shared" si="0"/>
+      <c r="V5" s="11">
+        <f t="shared" si="1"/>
         <v>2514.8009999999999</v>
       </c>
-      <c r="V5" s="11">
-        <f t="shared" si="0"/>
+      <c r="W5" s="11">
+        <f t="shared" si="1"/>
         <v>2471.9480000000003</v>
       </c>
-      <c r="W5" s="11">
-        <f t="shared" si="0"/>
+      <c r="X5" s="11">
+        <f t="shared" si="1"/>
         <v>2516.3199999999993</v>
       </c>
-      <c r="X5" s="11">
-        <f t="shared" si="0"/>
+      <c r="Y5" s="11">
+        <f t="shared" si="1"/>
         <v>2701.848</v>
       </c>
-      <c r="Y5" s="11">
-        <f t="shared" ref="Y5:AB5" si="1">SUM(Y3:Y4)</f>
+      <c r="Z5" s="11">
+        <f t="shared" ref="Z5:AC5" si="2">SUM(Z3:Z4)</f>
         <v>2973.1170000000002</v>
       </c>
-      <c r="Z5" s="14">
-        <f t="shared" si="1"/>
+      <c r="AA5" s="134">
+        <f t="shared" si="2"/>
         <v>2793.576</v>
       </c>
-      <c r="AA5" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="AB5" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2845.3119999999999</v>
+      </c>
+      <c r="AC5" s="14">
+        <f t="shared" si="2"/>
+        <v>2875.2530000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="42">
+      <c r="G6" s="133"/>
+      <c r="H6" s="142">
         <v>11340</v>
       </c>
-      <c r="I6" s="42">
-        <v>12880</v>
-      </c>
-      <c r="L6" s="10"/>
+      <c r="I6" s="41">
+        <v>12260</v>
+      </c>
+      <c r="J6" s="41">
+        <v>13860</v>
+      </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="10">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10">
         <v>2250</v>
-      </c>
-      <c r="R6" s="10">
-        <v>2230</v>
       </c>
       <c r="S6" s="10">
         <v>2230</v>
       </c>
       <c r="T6" s="10">
+        <v>2230</v>
+      </c>
+      <c r="U6" s="10">
         <v>2430</v>
       </c>
-      <c r="U6" s="10">
+      <c r="V6" s="10">
         <v>2530</v>
       </c>
-      <c r="V6" s="10">
+      <c r="W6" s="10">
         <v>2470</v>
       </c>
-      <c r="W6" s="10">
+      <c r="X6" s="10">
         <v>2490</v>
       </c>
-      <c r="X6" s="10">
+      <c r="Y6" s="10">
         <v>2680</v>
       </c>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="124">
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="145">
         <v>2810</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AB6" s="10">
         <v>2850</v>
       </c>
-      <c r="AB6" s="10">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6" s="15">
+        <v>2940</v>
+      </c>
+      <c r="AD6" s="150">
+        <v>3110</v>
+      </c>
+      <c r="AE6" s="150">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="10">
         <v>1847.9159999999999</v>
@@ -19996,64 +20076,73 @@
       <c r="F7" s="10">
         <v>2602.2449999999999</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="133">
         <v>2912.5639999999999</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="L7" s="10">
+      <c r="H7" s="143">
+        <v>3374.5160000000001</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="M7" s="10">
         <v>522.67100000000005</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <v>574.47799999999995</v>
       </c>
-      <c r="N7" s="10">
+      <c r="O7" s="10">
         <v>591.33199999999999</v>
       </c>
-      <c r="O7" s="10">
-        <f t="shared" ref="O7:O10" si="2">E7-N7-M7-L7</f>
+      <c r="P7" s="10">
+        <f t="shared" ref="P7:P10" si="3">E7-O7-N7-M7</f>
         <v>620.14999999999986</v>
       </c>
-      <c r="P7" s="10">
+      <c r="Q7" s="10">
         <v>626.92600000000004</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <v>673.928</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S7" s="10">
         <v>662.54</v>
       </c>
-      <c r="S7" s="10">
-        <f t="shared" ref="S7:S10" si="3">F7-R7-Q7-P7</f>
+      <c r="T7" s="10">
+        <f t="shared" ref="T7:T10" si="4">F7-S7-R7-Q7</f>
         <v>638.851</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
         <v>692.55899999999997</v>
       </c>
-      <c r="U7" s="10">
+      <c r="V7" s="10">
         <v>738.66399999999999</v>
       </c>
-      <c r="V7" s="10">
+      <c r="W7" s="10">
         <v>734.18600000000004</v>
       </c>
-      <c r="W7" s="10">
-        <f t="shared" ref="W7:W10" si="4">G7-V7-U7-T7</f>
+      <c r="X7" s="10">
+        <f t="shared" ref="X7:X10" si="5">G7-W7-V7-U7</f>
         <v>747.15499999999975</v>
       </c>
-      <c r="X7" s="10">
+      <c r="Y7" s="10">
         <v>779.07600000000002</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Z7" s="10">
         <v>873.673</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="AA7" s="133">
         <v>855.51499999999999</v>
       </c>
-      <c r="AA7" s="10"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB7" s="10">
+        <f t="shared" ref="AB7:AB19" si="6">H7-AA7-Z7-Y7</f>
+        <v>866.25200000000018</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>838.40300000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="10">
         <v>1472.06</v>
@@ -20067,64 +20156,73 @@
       <c r="F8" s="10">
         <v>2197.9580000000001</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="133">
         <v>2440.982</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="L8" s="10">
+      <c r="H8" s="143">
+        <v>2789.7890000000002</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="M8" s="10">
         <v>433.66899999999998</v>
       </c>
-      <c r="M8" s="10">
+      <c r="N8" s="10">
         <v>464.50599999999997</v>
       </c>
-      <c r="N8" s="10">
+      <c r="O8" s="10">
         <v>502.75700000000001</v>
       </c>
-      <c r="O8" s="10">
-        <f t="shared" si="2"/>
+      <c r="P8" s="10">
+        <f t="shared" si="3"/>
         <v>516.82899999999995</v>
       </c>
-      <c r="P8" s="10">
+      <c r="Q8" s="10">
         <v>531.94000000000005</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="R8" s="10">
         <v>549.92600000000004</v>
       </c>
-      <c r="R8" s="10">
+      <c r="S8" s="10">
         <v>557.178</v>
       </c>
-      <c r="S8" s="10">
-        <f t="shared" si="3"/>
+      <c r="T8" s="10">
+        <f t="shared" si="4"/>
         <v>558.91400000000021</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
         <v>583.79399999999998</v>
       </c>
-      <c r="U8" s="10">
+      <c r="V8" s="10">
         <v>611.678</v>
       </c>
-      <c r="V8" s="10">
+      <c r="W8" s="10">
         <v>616.28200000000004</v>
       </c>
-      <c r="W8" s="10">
-        <f t="shared" si="4"/>
+      <c r="X8" s="10">
+        <f t="shared" si="5"/>
         <v>629.22799999999995</v>
       </c>
-      <c r="X8" s="10">
+      <c r="Y8" s="10">
         <v>659.45</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Z8" s="10">
         <v>716.62699999999995</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="AA8" s="133">
         <v>696.84699999999998</v>
       </c>
-      <c r="AA8" s="10"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB8" s="10">
+        <f t="shared" si="6"/>
+        <v>716.86500000000001</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>718.226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="10">
         <v>363.072</v>
@@ -20138,64 +20236,73 @@
       <c r="F9" s="10">
         <v>460.42500000000001</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="133">
         <v>503.26400000000001</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="L9" s="10">
+      <c r="H9" s="143">
+        <v>563.37400000000002</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="M9" s="10">
         <v>101.76900000000001</v>
       </c>
-      <c r="M9" s="10">
+      <c r="N9" s="10">
         <v>103.43</v>
       </c>
-      <c r="N9" s="10">
+      <c r="O9" s="10">
         <v>104.223</v>
       </c>
-      <c r="O9" s="10">
-        <f t="shared" si="2"/>
+      <c r="P9" s="10">
+        <f t="shared" si="3"/>
         <v>107.18399999999997</v>
       </c>
-      <c r="P9" s="10">
+      <c r="Q9" s="10">
         <v>112.032</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="R9" s="10">
         <v>113.919</v>
       </c>
-      <c r="R9" s="10">
+      <c r="S9" s="10">
         <v>115.82599999999999</v>
       </c>
-      <c r="S9" s="10">
-        <f t="shared" si="3"/>
+      <c r="T9" s="10">
+        <f t="shared" si="4"/>
         <v>118.64800000000007</v>
       </c>
-      <c r="T9" s="10">
+      <c r="U9" s="10">
         <v>121.931</v>
       </c>
-      <c r="U9" s="10">
+      <c r="V9" s="10">
         <v>123.89700000000001</v>
       </c>
-      <c r="V9" s="10">
+      <c r="W9" s="10">
         <v>126.26900000000001</v>
       </c>
-      <c r="W9" s="10">
-        <f t="shared" si="4"/>
+      <c r="X9" s="10">
+        <f t="shared" si="5"/>
         <v>131.16700000000003</v>
       </c>
-      <c r="X9" s="10">
+      <c r="Y9" s="10">
         <v>135.69900000000001</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Z9" s="10">
         <v>138.66300000000001</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="AA9" s="133">
         <v>142.57</v>
       </c>
-      <c r="AA9" s="10"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB9" s="10">
+        <f t="shared" si="6"/>
+        <v>146.44200000000001</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>149.84100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="10">
         <v>760.83100000000002</v>
@@ -20209,161 +20316,178 @@
       <c r="F10" s="10">
         <v>1311.905</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="133">
         <v>1428.7470000000001</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="L10" s="10">
+      <c r="H10" s="143">
+        <v>1568.482</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="M10" s="10">
         <v>294.70999999999998</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <v>287.24200000000002</v>
       </c>
-      <c r="N10" s="10">
+      <c r="O10" s="10">
         <v>294.64999999999998</v>
       </c>
-      <c r="O10" s="10">
-        <f t="shared" si="2"/>
+      <c r="P10" s="10">
+        <f t="shared" si="3"/>
         <v>320.45200000000006</v>
       </c>
-      <c r="P10" s="10">
+      <c r="Q10" s="10">
         <v>330.69499999999999</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="R10" s="10">
         <v>317.48099999999999</v>
       </c>
-      <c r="R10" s="10">
+      <c r="S10" s="10">
         <v>322.08499999999998</v>
       </c>
-      <c r="S10" s="10">
-        <f t="shared" si="3"/>
+      <c r="T10" s="10">
+        <f t="shared" si="4"/>
         <v>341.64399999999995</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
         <v>363.20600000000002</v>
       </c>
-      <c r="U10" s="10">
+      <c r="V10" s="10">
         <v>349.70699999999999</v>
       </c>
-      <c r="V10" s="10">
+      <c r="W10" s="10">
         <v>345.36799999999999</v>
       </c>
-      <c r="W10" s="10">
-        <f t="shared" si="4"/>
+      <c r="X10" s="10">
+        <f t="shared" si="5"/>
         <v>370.46600000000012</v>
       </c>
-      <c r="X10" s="10">
+      <c r="Y10" s="10">
         <v>385.77300000000002</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Z10" s="10">
         <v>384.75400000000002</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="AA10" s="133">
         <v>386.46300000000002</v>
       </c>
-      <c r="AA10" s="10"/>
-    </row>
-    <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="10">
+        <f t="shared" si="6"/>
+        <v>411.49199999999996</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>415.161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11">
         <f>SUM(C7:C10)</f>
         <v>4443.8789999999999</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" ref="D11:G11" si="5">SUM(D7:D10)</f>
+        <f t="shared" ref="D11:J11" si="7">SUM(D7:D10)</f>
         <v>4944.3060000000005</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5840.0519999999997</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6572.5329999999994</v>
       </c>
-      <c r="G11" s="14">
-        <f t="shared" si="5"/>
+      <c r="G11" s="134">
+        <f t="shared" si="7"/>
         <v>7285.5570000000007</v>
       </c>
-      <c r="H11" s="11">
-        <f>H6*(1-H24)</f>
-        <v>8391.6</v>
-      </c>
-      <c r="I11" s="11">
-        <f>I6*(1-I24)</f>
-        <v>9531.2000000000007</v>
-      </c>
-      <c r="L11" s="11">
-        <f t="shared" ref="L11" si="6">SUM(L7:L10)</f>
+      <c r="H11" s="14">
+        <f t="shared" si="7"/>
+        <v>8296.1610000000001</v>
+      </c>
+      <c r="I11" s="134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" ref="M11" si="8">SUM(M7:M10)</f>
         <v>1352.819</v>
       </c>
-      <c r="M11" s="11">
-        <f t="shared" ref="M11" si="7">SUM(M7:M10)</f>
+      <c r="N11" s="11">
+        <f t="shared" ref="N11" si="9">SUM(N7:N10)</f>
         <v>1429.6559999999999</v>
       </c>
-      <c r="N11" s="11">
-        <f t="shared" ref="N11" si="8">SUM(N7:N10)</f>
+      <c r="O11" s="11">
+        <f t="shared" ref="O11" si="10">SUM(O7:O10)</f>
         <v>1492.962</v>
       </c>
-      <c r="O11" s="11">
-        <f t="shared" ref="O11" si="9">SUM(O7:O10)</f>
+      <c r="P11" s="11">
+        <f t="shared" ref="P11" si="11">SUM(P7:P10)</f>
         <v>1564.6149999999998</v>
       </c>
-      <c r="P11" s="11">
-        <f t="shared" ref="P11" si="10">SUM(P7:P10)</f>
+      <c r="Q11" s="11">
+        <f t="shared" ref="Q11" si="12">SUM(Q7:Q10)</f>
         <v>1601.5929999999998</v>
       </c>
-      <c r="Q11" s="11">
-        <f t="shared" ref="Q11" si="11">SUM(Q7:Q10)</f>
+      <c r="R11" s="11">
+        <f t="shared" ref="R11" si="13">SUM(R7:R10)</f>
         <v>1655.2540000000001</v>
       </c>
-      <c r="R11" s="11">
-        <f t="shared" ref="R11" si="12">SUM(R7:R10)</f>
+      <c r="S11" s="11">
+        <f t="shared" ref="S11" si="14">SUM(S7:S10)</f>
         <v>1657.6289999999999</v>
       </c>
-      <c r="S11" s="11">
-        <f t="shared" ref="S11" si="13">SUM(S7:S10)</f>
+      <c r="T11" s="11">
+        <f t="shared" ref="T11" si="15">SUM(T7:T10)</f>
         <v>1658.0570000000005</v>
       </c>
-      <c r="T11" s="11">
-        <f t="shared" ref="T11" si="14">SUM(T7:T10)</f>
+      <c r="U11" s="11">
+        <f t="shared" ref="U11" si="16">SUM(U7:U10)</f>
         <v>1761.4900000000002</v>
       </c>
-      <c r="U11" s="11">
-        <f t="shared" ref="U11" si="15">SUM(U7:U10)</f>
+      <c r="V11" s="11">
+        <f t="shared" ref="V11" si="17">SUM(V7:V10)</f>
         <v>1823.9459999999999</v>
       </c>
-      <c r="V11" s="11">
-        <f t="shared" ref="V11" si="16">SUM(V7:V10)</f>
+      <c r="W11" s="11">
+        <f t="shared" ref="W11" si="18">SUM(W7:W10)</f>
         <v>1822.105</v>
       </c>
-      <c r="W11" s="11">
-        <f t="shared" ref="W11" si="17">SUM(W7:W10)</f>
+      <c r="X11" s="11">
+        <f t="shared" ref="X11" si="19">SUM(X7:X10)</f>
         <v>1878.0159999999998</v>
       </c>
-      <c r="X11" s="11">
-        <f t="shared" ref="X11:AA11" si="18">SUM(X7:X10)</f>
+      <c r="Y11" s="11">
+        <f t="shared" ref="Y11:AC11" si="20">SUM(Y7:Y10)</f>
         <v>1959.998</v>
       </c>
-      <c r="Y11" s="11">
-        <f t="shared" si="18"/>
+      <c r="Z11" s="11">
+        <f t="shared" si="20"/>
         <v>2113.7170000000001</v>
       </c>
-      <c r="Z11" s="14">
-        <f>SUM(Z7:Z10)</f>
+      <c r="AA11" s="134">
+        <f>SUM(AA7:AA10)</f>
         <v>2081.395</v>
       </c>
-      <c r="AA11" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB11" s="11">
+        <f t="shared" si="20"/>
+        <v>2141.0510000000004</v>
+      </c>
+      <c r="AC11" s="14">
+        <f t="shared" si="20"/>
+        <v>2121.6309999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="10">
         <v>451.55200000000002</v>
@@ -20377,68 +20501,74 @@
       <c r="F12" s="10">
         <v>564.19100000000003</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="133">
         <v>633.58399999999995</v>
       </c>
-      <c r="H12" s="40">
-        <f t="shared" ref="H12:I14" si="19">H5*H28</f>
-        <v>675.6</v>
-      </c>
-      <c r="I12" s="40">
-        <f t="shared" si="19"/>
-        <v>766.8</v>
-      </c>
-      <c r="L12" s="10">
+      <c r="H12" s="143">
+        <v>697.48299999999995</v>
+      </c>
+      <c r="I12" s="39">
+        <f t="shared" ref="H12:I14" si="21">I5*I28</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="M12" s="10">
         <v>155.10300000000001</v>
       </c>
-      <c r="M12" s="10">
+      <c r="N12" s="10">
         <v>146.04400000000001</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <v>145.93</v>
       </c>
-      <c r="O12" s="10">
-        <f t="shared" ref="O12:O15" si="20">E12-N12-M12-L12</f>
+      <c r="P12" s="10">
+        <f t="shared" ref="P12:P15" si="22">E12-O12-N12-M12</f>
         <v>159.77699999999999</v>
       </c>
-      <c r="P12" s="10">
+      <c r="Q12" s="10">
         <v>147.40199999999999</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="R12" s="10">
         <v>140.82</v>
       </c>
-      <c r="R12" s="10">
+      <c r="S12" s="10">
         <v>140.89599999999999</v>
       </c>
-      <c r="S12" s="10">
-        <f t="shared" ref="S12:S15" si="21">F12-R12-Q12-P12</f>
+      <c r="T12" s="10">
+        <f t="shared" ref="T12:T15" si="23">F12-S12-R12-Q12</f>
         <v>135.07300000000009</v>
       </c>
-      <c r="T12" s="10">
+      <c r="U12" s="10">
         <v>148.34</v>
       </c>
-      <c r="U12" s="10">
+      <c r="V12" s="10">
         <v>156.49600000000001</v>
       </c>
-      <c r="V12" s="10">
+      <c r="W12" s="10">
         <v>159.501</v>
       </c>
-      <c r="W12" s="10">
-        <f t="shared" ref="W12:W15" si="22">G12-V12-U12-T12</f>
+      <c r="X12" s="10">
+        <f t="shared" ref="X12:X15" si="24">G12-W12-V12-U12</f>
         <v>169.24699999999999</v>
       </c>
-      <c r="X12" s="10">
+      <c r="Y12" s="10">
         <v>204.625</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Z12" s="10">
         <v>175.02799999999999</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="AA12" s="133">
         <v>126.614</v>
       </c>
-      <c r="AA12" s="10"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB12" s="10">
+        <f t="shared" si="6"/>
+        <v>191.21599999999989</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>172.78299999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -20454,70 +20584,76 @@
       <c r="F13" s="10">
         <v>286.82600000000002</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="133">
         <v>319.39400000000001</v>
       </c>
-      <c r="H13" s="40">
-        <f t="shared" si="19"/>
-        <v>340.2</v>
-      </c>
-      <c r="I13" s="40">
-        <f t="shared" si="19"/>
-        <v>386.4</v>
-      </c>
-      <c r="L13" s="10">
+      <c r="H13" s="143">
+        <v>335.03</v>
+      </c>
+      <c r="I13" s="39">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="M13" s="10">
         <v>63.122</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="10">
         <v>62.082000000000001</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="10">
         <v>63.191000000000003</v>
       </c>
-      <c r="O13" s="10">
-        <f t="shared" si="20"/>
+      <c r="P13" s="10">
+        <f t="shared" si="22"/>
         <v>66.262000000000015</v>
       </c>
-      <c r="P13" s="10">
+      <c r="Q13" s="10">
         <v>71.665000000000006</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="R13" s="10">
         <v>69.733000000000004</v>
       </c>
-      <c r="R13" s="10">
+      <c r="S13" s="10">
         <v>71.415999999999997</v>
       </c>
-      <c r="S13" s="10">
-        <f t="shared" si="21"/>
+      <c r="T13" s="10">
+        <f t="shared" si="23"/>
         <v>74.012000000000015</v>
       </c>
-      <c r="T13" s="10">
+      <c r="U13" s="10">
         <v>76.584999999999994</v>
       </c>
-      <c r="U13" s="10">
+      <c r="V13" s="10">
         <v>78.710999999999999</v>
       </c>
-      <c r="V13" s="10">
+      <c r="W13" s="10">
         <v>78.546000000000006</v>
       </c>
-      <c r="W13" s="10">
-        <f t="shared" si="22"/>
+      <c r="X13" s="10">
+        <f t="shared" si="24"/>
         <v>85.552000000000007</v>
       </c>
-      <c r="X13" s="10">
+      <c r="Y13" s="10">
         <v>83.242999999999995</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Z13" s="10">
         <v>83.561999999999998</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="AA13" s="133">
         <v>84.349000000000004</v>
       </c>
-      <c r="AA13" s="10"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB13" s="10">
+        <f t="shared" si="6"/>
+        <v>83.875999999999976</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>87.210999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="10">
         <v>11.108000000000001</v>
@@ -20531,70 +20667,76 @@
       <c r="F14" s="10">
         <v>29.56</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="133">
         <v>36.930999999999997</v>
       </c>
-      <c r="H14" s="40">
-        <f t="shared" si="19"/>
+      <c r="H14" s="143">
+        <v>41.896999999999998</v>
+      </c>
+      <c r="I14" s="39">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I14" s="40">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
+      <c r="J14" s="39"/>
+      <c r="M14" s="10">
         <v>3.4209999999999998</v>
       </c>
-      <c r="M14" s="10">
+      <c r="N14" s="10">
         <v>4.9649999999999999</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <v>5.8940000000000001</v>
       </c>
-      <c r="O14" s="10">
-        <f t="shared" si="20"/>
+      <c r="P14" s="10">
+        <f t="shared" si="22"/>
         <v>6.984</v>
       </c>
-      <c r="P14" s="10">
+      <c r="Q14" s="10">
         <v>5.3479999999999999</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="R14" s="10">
         <v>5.2530000000000001</v>
       </c>
-      <c r="R14" s="10">
+      <c r="S14" s="10">
         <v>7.6180000000000003</v>
       </c>
-      <c r="S14" s="10">
-        <f t="shared" si="21"/>
+      <c r="T14" s="10">
+        <f t="shared" si="23"/>
         <v>11.341000000000001</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
         <v>6.1980000000000004</v>
       </c>
-      <c r="U14" s="10">
+      <c r="V14" s="10">
         <v>7.5380000000000003</v>
       </c>
-      <c r="V14" s="10">
+      <c r="W14" s="10">
         <v>9.6050000000000004</v>
       </c>
-      <c r="W14" s="10">
-        <f t="shared" si="22"/>
+      <c r="X14" s="10">
+        <f t="shared" si="24"/>
         <v>13.589999999999996</v>
       </c>
-      <c r="X14" s="10">
+      <c r="Y14" s="10">
         <v>7.2110000000000003</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Z14" s="10">
         <v>8.9949999999999992</v>
       </c>
-      <c r="Z14" s="15">
+      <c r="AA14" s="133">
         <v>12.786</v>
       </c>
-      <c r="AA14" s="10"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB14" s="10">
+        <f t="shared" si="6"/>
+        <v>12.904999999999999</v>
+      </c>
+      <c r="AC14" s="15">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="10">
         <v>23.094000000000001</v>
@@ -20608,66 +20750,73 @@
       <c r="F15" s="10">
         <v>21.138999999999999</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="133">
         <v>38.369999999999997</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="143">
+        <v>26.949000000000002</v>
+      </c>
+      <c r="I15" s="39">
         <v>25</v>
       </c>
-      <c r="I15" s="40">
-        <v>25</v>
-      </c>
-      <c r="L15" s="10">
+      <c r="J15" s="39"/>
+      <c r="M15" s="10">
         <v>5.6680000000000001</v>
       </c>
-      <c r="M15" s="10">
+      <c r="N15" s="10">
         <v>4.266</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <v>4.6580000000000004</v>
       </c>
-      <c r="O15" s="10">
-        <f t="shared" si="20"/>
+      <c r="P15" s="10">
+        <f t="shared" si="22"/>
         <v>4.698999999999999</v>
       </c>
-      <c r="P15" s="10">
+      <c r="Q15" s="10">
         <v>4.3099999999999996</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="R15" s="10">
         <v>4.681</v>
       </c>
-      <c r="R15" s="10">
+      <c r="S15" s="10">
         <v>6.3630000000000004</v>
       </c>
-      <c r="S15" s="10">
-        <f t="shared" si="21"/>
+      <c r="T15" s="10">
+        <f t="shared" si="23"/>
         <v>5.7849999999999993</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="10">
         <v>8.3610000000000007</v>
       </c>
-      <c r="U15" s="10">
+      <c r="V15" s="10">
         <v>16.239999999999998</v>
       </c>
-      <c r="V15" s="10">
+      <c r="W15" s="10">
         <v>7.2409999999999997</v>
       </c>
-      <c r="W15" s="10">
-        <f t="shared" si="22"/>
+      <c r="X15" s="10">
+        <f t="shared" si="24"/>
         <v>6.5279999999999987</v>
       </c>
-      <c r="X15" s="10">
+      <c r="Y15" s="10">
         <v>5.4790000000000001</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Z15" s="10">
         <v>5.7619999999999996</v>
       </c>
-      <c r="Z15" s="15">
+      <c r="AA15" s="133">
         <v>15.176</v>
       </c>
-      <c r="AA15" s="10"/>
-    </row>
-    <row r="16" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB15" s="10">
+        <f t="shared" si="6"/>
+        <v>0.5320000000000018</v>
+      </c>
+      <c r="AC15" s="15">
+        <v>6.1680000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -20676,99 +20825,107 @@
         <v>443.95799999999963</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ref="D16:I16" si="23">D5-SUM(D11:D15)</f>
+        <f t="shared" ref="D16:J16" si="25">D5-SUM(D11:D15)</f>
         <v>289.41099999999915</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>804.9429999999993</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1160.4030000000002</v>
       </c>
-      <c r="G16" s="14">
-        <f t="shared" si="23"/>
+      <c r="G16" s="134">
+        <f t="shared" si="25"/>
         <v>1557.8129999999983</v>
       </c>
-      <c r="H16" s="11">
-        <f>H5-SUM(H11:H15)</f>
-        <v>1827.5999999999985</v>
-      </c>
-      <c r="I16" s="11">
-        <f t="shared" si="23"/>
-        <v>2070.6000000000004</v>
-      </c>
-      <c r="J16" s="11"/>
+      <c r="H16" s="14">
+        <f t="shared" si="25"/>
+        <v>1916.3329999999969</v>
+      </c>
+      <c r="I16" s="134">
+        <f t="shared" si="25"/>
+        <v>-25</v>
+      </c>
+      <c r="J16" s="134">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="K16" s="11"/>
-      <c r="L16" s="11">
-        <f t="shared" ref="L16" si="24">L5-SUM(L11:L15)</f>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11">
+        <f t="shared" ref="M16" si="26">M5-SUM(M11:M15)</f>
         <v>161.44200000000001</v>
       </c>
-      <c r="M16" s="11">
-        <f t="shared" ref="M16" si="25">M5-SUM(M11:M15)</f>
+      <c r="N16" s="11">
+        <f t="shared" ref="N16" si="27">N5-SUM(N11:N15)</f>
         <v>245.52499999999986</v>
       </c>
-      <c r="N16" s="11">
-        <f t="shared" ref="N16" si="26">N5-SUM(N11:N15)</f>
+      <c r="O16" s="11">
+        <f t="shared" ref="O16" si="28">O5-SUM(O11:O15)</f>
         <v>239.68000000000006</v>
       </c>
-      <c r="O16" s="11">
-        <f t="shared" ref="O16" si="27">O5-SUM(O11:O15)</f>
+      <c r="P16" s="11">
+        <f t="shared" ref="P16" si="29">P5-SUM(P11:P15)</f>
         <v>158.29600000000073</v>
       </c>
-      <c r="P16" s="11">
-        <f t="shared" ref="P16" si="28">P5-SUM(P11:P15)</f>
+      <c r="Q16" s="11">
+        <f t="shared" ref="Q16" si="30">Q5-SUM(Q11:Q15)</f>
         <v>190.22100000000023</v>
       </c>
-      <c r="Q16" s="11">
-        <f t="shared" ref="Q16" si="29">Q5-SUM(Q11:Q15)</f>
+      <c r="R16" s="11">
+        <f t="shared" ref="R16" si="31">R5-SUM(R11:R15)</f>
         <v>337.59799999999996</v>
       </c>
-      <c r="R16" s="11">
-        <f t="shared" ref="R16" si="30">R5-SUM(R11:R15)</f>
+      <c r="S16" s="11">
+        <f t="shared" ref="S16" si="32">S5-SUM(S11:S15)</f>
         <v>336.25299999999993</v>
       </c>
-      <c r="S16" s="11">
-        <f t="shared" ref="S16" si="31">S5-SUM(S11:S15)</f>
+      <c r="T16" s="11">
+        <f t="shared" ref="T16" si="33">T5-SUM(T11:T15)</f>
         <v>296.33100000000059</v>
       </c>
-      <c r="T16" s="11">
-        <f t="shared" ref="T16" si="32">T5-SUM(T11:T15)</f>
+      <c r="U16" s="11">
+        <f t="shared" ref="U16" si="34">U5-SUM(U11:U15)</f>
         <v>367.60599999999954</v>
       </c>
-      <c r="U16" s="11">
-        <f t="shared" ref="U16" si="33">U5-SUM(U11:U15)</f>
+      <c r="V16" s="11">
+        <f t="shared" ref="V16" si="35">V5-SUM(V11:V15)</f>
         <v>431.87000000000035</v>
       </c>
-      <c r="V16" s="11">
-        <f t="shared" ref="V16" si="34">V5-SUM(V11:V15)</f>
+      <c r="W16" s="11">
+        <f t="shared" ref="W16" si="36">W5-SUM(W11:W15)</f>
         <v>394.95000000000027</v>
       </c>
-      <c r="W16" s="11">
-        <f t="shared" ref="W16" si="35">W5-SUM(W11:W15)</f>
+      <c r="X16" s="11">
+        <f t="shared" ref="X16" si="37">X5-SUM(X11:X15)</f>
         <v>363.38699999999926</v>
       </c>
-      <c r="X16" s="11">
-        <f t="shared" ref="X16:AA16" si="36">X5-SUM(X11:X15)</f>
+      <c r="Y16" s="11">
+        <f t="shared" ref="Y16:AC16" si="38">Y5-SUM(Y11:Y15)</f>
         <v>441.29200000000037</v>
       </c>
-      <c r="Y16" s="11">
-        <f t="shared" si="36"/>
+      <c r="Z16" s="11">
+        <f t="shared" si="38"/>
         <v>586.05300000000034</v>
       </c>
-      <c r="Z16" s="14">
-        <f t="shared" si="36"/>
+      <c r="AA16" s="134">
+        <f t="shared" si="38"/>
         <v>473.25599999999986</v>
       </c>
-      <c r="AA16" s="11">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AB16" s="11">
+        <f t="shared" si="38"/>
+        <v>415.73199999999952</v>
+      </c>
+      <c r="AC16" s="14">
+        <f t="shared" si="38"/>
+        <v>479.25000000000045</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="10">
         <v>14.327</v>
@@ -20782,163 +20939,178 @@
       <c r="F17" s="10">
         <v>21.128</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="133">
         <v>62.692999999999998</v>
       </c>
-      <c r="H17" s="40">
-        <v>70</v>
-      </c>
-      <c r="I17" s="40">
+      <c r="H17" s="143">
+        <v>93.897000000000006</v>
+      </c>
+      <c r="I17" s="39">
         <v>80</v>
       </c>
-      <c r="L17" s="10">
+      <c r="J17" s="39"/>
+      <c r="M17" s="10">
         <v>-2.1680000000000001</v>
       </c>
-      <c r="M17" s="10">
+      <c r="N17" s="10">
         <v>0.85099999999999998</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <v>-0.126</v>
       </c>
-      <c r="O17" s="10">
-        <f>E17-N17-M17-L17</f>
+      <c r="P17" s="10">
+        <f>E17-O17-N17-M17</f>
         <v>9.2630000000000017</v>
       </c>
-      <c r="P17" s="10">
+      <c r="Q17" s="10">
         <v>-0.21299999999999999</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="R17" s="10">
         <v>10.571999999999999</v>
       </c>
-      <c r="R17" s="10">
+      <c r="S17" s="10">
         <v>3.7120000000000002</v>
       </c>
-      <c r="S17" s="10">
-        <f>F17-R17-Q17-P17</f>
+      <c r="T17" s="10">
+        <f>F17-S17-R17-Q17</f>
         <v>7.0570000000000013</v>
       </c>
-      <c r="T17" s="10">
+      <c r="U17" s="10">
         <v>8.9489999999999998</v>
       </c>
-      <c r="U17" s="10">
+      <c r="V17" s="10">
         <v>16.446000000000002</v>
       </c>
-      <c r="V17" s="10">
+      <c r="W17" s="10">
         <v>18.391999999999999</v>
       </c>
-      <c r="W17" s="10">
-        <f>G17-V17-U17-T17</f>
+      <c r="X17" s="10">
+        <f>G17-W17-V17-U17</f>
         <v>18.905999999999999</v>
       </c>
-      <c r="X17" s="10">
+      <c r="Y17" s="10">
         <v>19.364000000000001</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Z17" s="10">
         <v>21.861000000000001</v>
       </c>
-      <c r="Z17" s="15">
+      <c r="AA17" s="133">
         <v>29.306999999999999</v>
       </c>
-      <c r="AA17" s="10"/>
-    </row>
-    <row r="18" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="10">
+        <f t="shared" si="6"/>
+        <v>23.364999999999998</v>
+      </c>
+      <c r="AC17" s="15">
+        <v>22.253</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" ref="C18:I18" si="37">C16+SUM(C17:C17)</f>
+        <f t="shared" ref="C18:J18" si="39">C16+SUM(C17:C17)</f>
         <v>458.28499999999963</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>293.02799999999917</v>
       </c>
       <c r="E18" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>812.76299999999935</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1181.5310000000002</v>
       </c>
-      <c r="G18" s="14">
-        <f t="shared" si="37"/>
+      <c r="G18" s="134">
+        <f t="shared" si="39"/>
         <v>1620.5059999999983</v>
       </c>
-      <c r="H18" s="11">
-        <f t="shared" si="37"/>
-        <v>1897.5999999999985</v>
-      </c>
-      <c r="I18" s="11">
-        <f t="shared" si="37"/>
-        <v>2150.6000000000004</v>
-      </c>
-      <c r="L18" s="11">
-        <f t="shared" ref="L18:X18" si="38">L16+SUM(L17:L17)</f>
-        <v>159.274</v>
-      </c>
-      <c r="M18" s="11">
-        <f t="shared" si="38"/>
-        <v>246.37599999999986</v>
-      </c>
-      <c r="N18" s="11">
-        <f t="shared" si="38"/>
-        <v>239.55400000000006</v>
-      </c>
-      <c r="O18" s="11">
-        <f t="shared" si="38"/>
-        <v>167.55900000000074</v>
-      </c>
-      <c r="P18" s="11">
-        <f t="shared" si="38"/>
-        <v>190.00800000000024</v>
-      </c>
-      <c r="Q18" s="11">
-        <f t="shared" si="38"/>
-        <v>348.16999999999996</v>
-      </c>
-      <c r="R18" s="11">
-        <f t="shared" si="38"/>
-        <v>339.96499999999992</v>
-      </c>
-      <c r="S18" s="11">
-        <f t="shared" si="38"/>
-        <v>303.3880000000006</v>
-      </c>
-      <c r="T18" s="11">
-        <f t="shared" si="38"/>
-        <v>376.55499999999955</v>
-      </c>
-      <c r="U18" s="11">
-        <f t="shared" si="38"/>
-        <v>448.31600000000037</v>
-      </c>
-      <c r="V18" s="11">
-        <f t="shared" si="38"/>
-        <v>413.34200000000027</v>
-      </c>
-      <c r="W18" s="11">
-        <f t="shared" si="38"/>
-        <v>382.29299999999927</v>
-      </c>
-      <c r="X18" s="11">
-        <f t="shared" si="38"/>
-        <v>460.65600000000035</v>
-      </c>
-      <c r="Y18" s="11">
-        <f t="shared" ref="Y18:AA18" si="39">Y16+SUM(Y17:Y17)</f>
-        <v>607.91400000000033</v>
-      </c>
-      <c r="Z18" s="14">
+      <c r="H18" s="14">
         <f t="shared" si="39"/>
-        <v>502.56299999999987</v>
-      </c>
-      <c r="AA18" s="11">
+        <v>2010.2299999999968</v>
+      </c>
+      <c r="I18" s="134">
+        <f t="shared" si="39"/>
+        <v>55</v>
+      </c>
+      <c r="J18" s="134">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="M18" s="11">
+        <f t="shared" ref="M18:Y18" si="40">M16+SUM(M17:M17)</f>
+        <v>159.274</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="40"/>
+        <v>246.37599999999986</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="40"/>
+        <v>239.55400000000006</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="40"/>
+        <v>167.55900000000074</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="40"/>
+        <v>190.00800000000024</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="40"/>
+        <v>348.16999999999996</v>
+      </c>
+      <c r="S18" s="11">
+        <f t="shared" si="40"/>
+        <v>339.96499999999992</v>
+      </c>
+      <c r="T18" s="11">
+        <f t="shared" si="40"/>
+        <v>303.3880000000006</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" si="40"/>
+        <v>376.55499999999955</v>
+      </c>
+      <c r="V18" s="11">
+        <f t="shared" si="40"/>
+        <v>448.31600000000037</v>
+      </c>
+      <c r="W18" s="11">
+        <f t="shared" si="40"/>
+        <v>413.34200000000027</v>
+      </c>
+      <c r="X18" s="11">
+        <f t="shared" si="40"/>
+        <v>382.29299999999927</v>
+      </c>
+      <c r="Y18" s="11">
+        <f t="shared" si="40"/>
+        <v>460.65600000000035</v>
+      </c>
+      <c r="Z18" s="11">
+        <f t="shared" ref="Z18:AC18" si="41">Z16+SUM(Z17:Z17)</f>
+        <v>607.91400000000033</v>
+      </c>
+      <c r="AA18" s="134">
+        <f t="shared" si="41"/>
+        <v>502.56299999999987</v>
+      </c>
+      <c r="AB18" s="11">
+        <f t="shared" si="41"/>
+        <v>439.09699999999953</v>
+      </c>
+      <c r="AC18" s="14">
+        <f t="shared" si="41"/>
+        <v>501.50300000000044</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -20954,68 +21126,74 @@
       <c r="F19" s="10">
         <v>-282.43</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="133">
         <v>-391.76900000000001</v>
       </c>
-      <c r="H19" s="40">
-        <f>H18*0.24</f>
-        <v>455.42399999999964</v>
-      </c>
-      <c r="I19" s="40">
+      <c r="H19" s="143">
+        <v>-476.12</v>
+      </c>
+      <c r="I19" s="39">
         <f>I18*0.24</f>
-        <v>516.14400000000012</v>
-      </c>
-      <c r="L19" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="J19" s="39"/>
+      <c r="M19" s="10">
         <v>32.173000000000002</v>
       </c>
-      <c r="M19" s="10">
+      <c r="N19" s="10">
         <v>58.402000000000001</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <v>35.119999999999997</v>
       </c>
-      <c r="O19" s="10">
-        <f>E19-N19-M19-L19</f>
+      <c r="P19" s="10">
+        <f>E19-O19-N19-M19</f>
         <v>-285.47399999999999</v>
       </c>
-      <c r="P19" s="10">
+      <c r="Q19" s="10">
         <v>31.713999999999999</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="R19" s="10">
         <v>88.227999999999994</v>
       </c>
-      <c r="R19" s="10">
+      <c r="S19" s="10">
         <v>82.826999999999998</v>
       </c>
-      <c r="S19" s="10">
-        <f>F19-R19-Q19-P19</f>
+      <c r="T19" s="10">
+        <f>F19-S19-R19-Q19</f>
         <v>-485.19900000000001</v>
       </c>
-      <c r="T19" s="10">
+      <c r="U19" s="10">
         <v>84.911000000000001</v>
       </c>
-      <c r="U19" s="10">
+      <c r="V19" s="10">
         <v>106.446</v>
       </c>
-      <c r="V19" s="10">
+      <c r="W19" s="10">
         <v>100.125</v>
       </c>
-      <c r="W19" s="10">
-        <f>G19-V19-U19-T19</f>
+      <c r="X19" s="10">
+        <f>G19-W19-V19-U19</f>
         <v>-683.25099999999998</v>
       </c>
-      <c r="X19" s="10">
+      <c r="Y19" s="10">
         <v>101.369</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Z19" s="10">
         <v>152.24299999999999</v>
       </c>
-      <c r="Z19" s="15">
+      <c r="AA19" s="133">
         <v>115.175</v>
       </c>
-      <c r="AA19" s="10"/>
-    </row>
-    <row r="20" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="10">
+        <f>H19-AA19-Z19-Y19</f>
+        <v>-844.90700000000004</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>114.904</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
@@ -21035,86 +21213,94 @@
         <f>F18+SUM(F19:F19)</f>
         <v>899.10100000000011</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="134">
         <f>G18+SUM(G19:G19)</f>
         <v>1228.7369999999983</v>
       </c>
-      <c r="H20" s="54">
-        <f>H18-H19</f>
-        <v>1442.175999999999</v>
-      </c>
-      <c r="I20" s="54">
-        <f>I18-I19</f>
-        <v>1634.4560000000001</v>
-      </c>
-      <c r="L20" s="11">
-        <f t="shared" ref="L20:X20" si="40">L18-SUM(L19:L19)</f>
+      <c r="H20" s="14">
+        <f t="shared" ref="H20:J20" si="42">H18+SUM(H19:H19)</f>
+        <v>1534.1099999999969</v>
+      </c>
+      <c r="I20" s="134">
+        <f t="shared" si="42"/>
+        <v>68.2</v>
+      </c>
+      <c r="J20" s="134">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" ref="M20:Y20" si="43">M18-SUM(M19:M19)</f>
         <v>127.101</v>
       </c>
-      <c r="M20" s="11">
-        <f t="shared" si="40"/>
+      <c r="N20" s="11">
+        <f t="shared" si="43"/>
         <v>187.97399999999988</v>
       </c>
-      <c r="N20" s="11">
-        <f t="shared" si="40"/>
+      <c r="O20" s="11">
+        <f t="shared" si="43"/>
         <v>204.43400000000005</v>
       </c>
-      <c r="O20" s="11">
-        <f t="shared" si="40"/>
+      <c r="P20" s="11">
+        <f t="shared" si="43"/>
         <v>453.0330000000007</v>
       </c>
-      <c r="P20" s="11">
-        <f t="shared" si="40"/>
+      <c r="Q20" s="11">
+        <f t="shared" si="43"/>
         <v>158.29400000000024</v>
       </c>
-      <c r="Q20" s="11">
-        <f t="shared" si="40"/>
+      <c r="R20" s="11">
+        <f t="shared" si="43"/>
         <v>259.94199999999995</v>
       </c>
-      <c r="R20" s="11">
-        <f t="shared" si="40"/>
+      <c r="S20" s="11">
+        <f t="shared" si="43"/>
         <v>257.13799999999992</v>
       </c>
-      <c r="S20" s="11">
-        <f t="shared" si="40"/>
+      <c r="T20" s="11">
+        <f t="shared" si="43"/>
         <v>788.58700000000067</v>
       </c>
-      <c r="T20" s="11">
-        <f t="shared" si="40"/>
+      <c r="U20" s="11">
+        <f t="shared" si="43"/>
         <v>291.64399999999955</v>
       </c>
-      <c r="U20" s="11">
-        <f t="shared" si="40"/>
+      <c r="V20" s="11">
+        <f t="shared" si="43"/>
         <v>341.87000000000035</v>
       </c>
-      <c r="V20" s="11">
-        <f t="shared" si="40"/>
+      <c r="W20" s="11">
+        <f t="shared" si="43"/>
         <v>313.21700000000027</v>
       </c>
-      <c r="W20" s="11">
-        <f t="shared" si="40"/>
+      <c r="X20" s="11">
+        <f t="shared" si="43"/>
         <v>1065.5439999999992</v>
       </c>
-      <c r="X20" s="11">
-        <f t="shared" si="40"/>
+      <c r="Y20" s="11">
+        <f t="shared" si="43"/>
         <v>359.28700000000038</v>
       </c>
-      <c r="Y20" s="11">
-        <f t="shared" ref="Y20:AA20" si="41">Y18-SUM(Y19:Y19)</f>
+      <c r="Z20" s="11">
+        <f t="shared" ref="Z20:AB20" si="44">Z18-SUM(Z19:Z19)</f>
         <v>455.67100000000033</v>
       </c>
-      <c r="Z20" s="14">
-        <f t="shared" si="41"/>
+      <c r="AA20" s="134">
+        <f t="shared" si="44"/>
         <v>387.38799999999986</v>
       </c>
-      <c r="AA20" s="11">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AB20" s="11">
+        <f>AB18-SUM(AB19:AB19)</f>
+        <v>1284.0039999999995</v>
+      </c>
+      <c r="AC20" s="14">
+        <f>AC18-SUM(AC19:AC19)</f>
+        <v>386.59900000000044</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="10">
         <v>28.295000000000002</v>
@@ -21128,63 +21314,70 @@
       <c r="F21" s="10">
         <v>28.062000000000001</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="135">
         <v>1381.518</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="143">
+        <v>1376.5550000000001</v>
+      </c>
+      <c r="I21" s="39">
         <v>1381.518</v>
       </c>
-      <c r="I21" s="40">
-        <v>1381.518</v>
-      </c>
-      <c r="L21" s="10">
+      <c r="J21" s="39"/>
+      <c r="M21" s="10">
         <v>28.582000000000001</v>
       </c>
-      <c r="M21" s="10">
+      <c r="N21" s="10">
         <v>28.501000000000001</v>
-      </c>
-      <c r="N21" s="10">
-        <v>28.475000000000001</v>
       </c>
       <c r="O21" s="10">
         <v>28.475000000000001</v>
       </c>
       <c r="P21" s="10">
+        <v>28.475000000000001</v>
+      </c>
+      <c r="Q21" s="10">
         <v>28.300999999999998</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="R21" s="10">
         <v>28.091999999999999</v>
-      </c>
-      <c r="R21" s="10">
-        <v>27.956</v>
       </c>
       <c r="S21" s="10">
         <v>27.956</v>
       </c>
       <c r="T21" s="10">
+        <v>27.956</v>
+      </c>
+      <c r="U21" s="10">
         <v>27.788</v>
       </c>
-      <c r="U21" s="10">
+      <c r="V21" s="10">
         <v>27.747</v>
-      </c>
-      <c r="V21" s="10">
-        <v>27.681000000000001</v>
       </c>
       <c r="W21" s="10">
         <v>27.681000000000001</v>
       </c>
       <c r="X21" s="10">
+        <v>27.681000000000001</v>
+      </c>
+      <c r="Y21" s="10">
         <v>27.623999999999999</v>
       </c>
-      <c r="Y21" s="10">
+      <c r="Z21" s="10">
         <v>1381.518</v>
       </c>
-      <c r="Z21" s="15">
+      <c r="AA21" s="133">
         <v>1374.605</v>
       </c>
-      <c r="AA21" s="10"/>
-    </row>
-    <row r="22" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB21" s="10">
+        <f>AA21</f>
+        <v>1374.605</v>
+      </c>
+      <c r="AC21" s="15">
+        <v>1360.7190000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
@@ -21204,136 +21397,154 @@
         <f>F20/F21</f>
         <v>32.039804718124159</v>
       </c>
-      <c r="G22" s="52">
-        <v>0.9</v>
-      </c>
-      <c r="H22" s="123">
+      <c r="G22" s="136">
+        <f>G20/G21</f>
+        <v>0.88941077857834516</v>
+      </c>
+      <c r="H22" s="48">
         <f>H20/H21</f>
-        <v>1.043906775011255</v>
-      </c>
-      <c r="I22" s="123">
+        <v>1.1144560151973564</v>
+      </c>
+      <c r="I22" s="149">
         <f>I20/I21</f>
-        <v>1.1830870100860069</v>
-      </c>
-      <c r="L22" s="47">
-        <f t="shared" ref="L22:W22" si="42">L20/L21</f>
+        <v>4.9365987269076483E-2</v>
+      </c>
+      <c r="J22" s="149" t="e">
+        <f>J20/J21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="44">
+        <f t="shared" ref="M22:X22" si="45">M20/M21</f>
         <v>4.4468896508291929</v>
       </c>
-      <c r="M22" s="47">
-        <f t="shared" si="42"/>
+      <c r="N22" s="44">
+        <f t="shared" si="45"/>
         <v>6.595347531665551</v>
       </c>
-      <c r="N22" s="47">
-        <f t="shared" si="42"/>
+      <c r="O22" s="44">
+        <f t="shared" si="45"/>
         <v>7.1794205443371393</v>
       </c>
-      <c r="O22" s="47">
-        <f t="shared" si="42"/>
+      <c r="P22" s="44">
+        <f t="shared" si="45"/>
         <v>15.909850746268681</v>
       </c>
-      <c r="P22" s="47">
-        <f t="shared" si="42"/>
+      <c r="Q22" s="44">
+        <f t="shared" si="45"/>
         <v>5.5932299212042063</v>
       </c>
-      <c r="Q22" s="47">
-        <f t="shared" si="42"/>
+      <c r="R22" s="44">
+        <f t="shared" si="45"/>
         <v>9.2532393564003979</v>
       </c>
-      <c r="R22" s="47">
-        <f t="shared" si="42"/>
+      <c r="S22" s="44">
+        <f t="shared" si="45"/>
         <v>9.197953927600512</v>
       </c>
-      <c r="S22" s="47">
-        <f t="shared" si="42"/>
+      <c r="T22" s="44">
+        <f t="shared" si="45"/>
         <v>28.208148519101471</v>
       </c>
-      <c r="T22" s="47">
-        <f t="shared" si="42"/>
+      <c r="U22" s="44">
+        <f t="shared" si="45"/>
         <v>10.495321721606432</v>
       </c>
-      <c r="U22" s="47">
-        <f t="shared" si="42"/>
+      <c r="V22" s="44">
+        <f t="shared" si="45"/>
         <v>12.320971636573336</v>
       </c>
-      <c r="V22" s="47">
-        <f t="shared" si="42"/>
+      <c r="W22" s="44">
+        <f t="shared" si="45"/>
         <v>11.315234276218353</v>
       </c>
-      <c r="W22" s="47">
-        <f t="shared" si="42"/>
+      <c r="X22" s="44">
+        <f t="shared" si="45"/>
         <v>38.493696036992851</v>
       </c>
-      <c r="X22" s="47">
-        <f>X20/X21</f>
+      <c r="Y22" s="44">
+        <f>Y20/Y21</f>
         <v>13.006335070952808</v>
       </c>
-      <c r="Y22" s="47">
-        <f t="shared" ref="Y22:AA22" si="43">Y20/Y21</f>
+      <c r="Z22" s="44">
+        <f t="shared" ref="Z22:AB22" si="46">Z20/Z21</f>
         <v>0.32983355989570917</v>
       </c>
-      <c r="Z22" s="46">
-        <f t="shared" si="43"/>
+      <c r="AA22" s="146">
+        <f t="shared" si="46"/>
         <v>0.28181768580792288</v>
       </c>
-      <c r="AA22" s="47" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB22" s="44">
+        <f>AB20/AB21</f>
+        <v>0.93408942932696992</v>
+      </c>
+      <c r="AC22" s="43">
+        <f>AC20/AC21</f>
+        <v>0.2841137663250094</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="44">
+      <c r="G23" s="137"/>
+      <c r="H23" s="144">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I23" s="45">
-        <v>1.31</v>
-      </c>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48">
+      <c r="I23" s="42">
+        <v>1.21</v>
+      </c>
+      <c r="J23" s="42">
+        <v>1.44</v>
+      </c>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45">
         <v>9.0299999999999994</v>
       </c>
-      <c r="R23" s="48">
+      <c r="S23" s="45">
         <v>9.19</v>
       </c>
-      <c r="S23" s="48">
+      <c r="T23" s="45">
         <v>8.91</v>
       </c>
-      <c r="T23" s="48">
+      <c r="U23" s="45">
         <v>8.9499999999999993</v>
       </c>
-      <c r="U23" s="48">
+      <c r="V23" s="45">
         <v>12.31</v>
       </c>
-      <c r="V23" s="48">
+      <c r="W23" s="45">
         <v>10.55</v>
       </c>
-      <c r="W23" s="119">
+      <c r="X23" s="112">
         <v>9.7100000000000009</v>
       </c>
-      <c r="X23" s="119">
+      <c r="Y23" s="112">
         <v>11.69</v>
       </c>
-      <c r="Y23" s="119"/>
-      <c r="Z23" s="120"/>
-      <c r="AA23" s="47">
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="147"/>
+      <c r="AB23" s="44">
         <v>0.24</v>
       </c>
-      <c r="AB23" s="1">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC23" s="16">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -21353,82 +21564,92 @@
         <f>1-F11/F5</f>
         <v>0.23881900509713661</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="38">
         <f>1-G11/G5</f>
         <v>0.26197163209510377</v>
       </c>
-      <c r="H24" s="121">
-        <v>0.26</v>
-      </c>
-      <c r="I24" s="121">
-        <v>0.26</v>
-      </c>
-      <c r="L24" s="3">
-        <f t="shared" ref="L24:W24" si="44">1-L11/L5</f>
+      <c r="H24" s="6">
+        <f>1-H11/H5</f>
+        <v>0.26672540291976565</v>
+      </c>
+      <c r="I24" s="38" t="e">
+        <f t="shared" ref="I24:J24" si="47">1-I11/I5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="38" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" ref="M24:X24" si="48">1-M11/M5</f>
         <v>0.22322093507313789</v>
       </c>
-      <c r="M24" s="3">
-        <f t="shared" si="44"/>
+      <c r="N24" s="3">
+        <f t="shared" si="48"/>
         <v>0.24458267152363655</v>
       </c>
-      <c r="N24" s="3">
-        <f t="shared" si="44"/>
+      <c r="O24" s="3">
+        <f t="shared" si="48"/>
         <v>0.23528631394011723</v>
       </c>
-      <c r="O24" s="3">
-        <f t="shared" si="44"/>
+      <c r="P24" s="3">
+        <f t="shared" si="48"/>
         <v>0.20198476716448244</v>
       </c>
-      <c r="P24" s="3">
-        <f t="shared" si="44"/>
+      <c r="Q24" s="3">
+        <f t="shared" si="48"/>
         <v>0.20734368403678427</v>
       </c>
-      <c r="Q24" s="3">
-        <f t="shared" si="44"/>
+      <c r="R24" s="3">
+        <f t="shared" si="48"/>
         <v>0.25214619179438835</v>
       </c>
-      <c r="R24" s="3">
-        <f t="shared" si="44"/>
+      <c r="S24" s="3">
+        <f t="shared" si="48"/>
         <v>0.25337912551938468</v>
       </c>
-      <c r="S24" s="3">
-        <f t="shared" si="44"/>
+      <c r="T24" s="3">
+        <f t="shared" si="48"/>
         <v>0.23963232121082345</v>
       </c>
-      <c r="T24" s="3">
-        <f t="shared" si="44"/>
+      <c r="U24" s="3">
+        <f t="shared" si="48"/>
         <v>0.25630968766096129</v>
       </c>
-      <c r="U24" s="3">
-        <f t="shared" si="44"/>
+      <c r="V24" s="3">
+        <f t="shared" si="48"/>
         <v>0.27471557391618662</v>
       </c>
-      <c r="V24" s="3">
-        <f t="shared" si="44"/>
+      <c r="W24" s="3">
+        <f t="shared" si="48"/>
         <v>0.26288700247739849</v>
       </c>
-      <c r="W24" s="39">
-        <f t="shared" si="44"/>
+      <c r="X24" s="38">
+        <f t="shared" si="48"/>
         <v>0.25366567050295652</v>
       </c>
-      <c r="X24" s="39">
-        <f t="shared" ref="X24" si="45">1-X11/X5</f>
+      <c r="Y24" s="38">
+        <f t="shared" ref="Y24" si="49">1-Y11/Y5</f>
         <v>0.27457133043753756</v>
       </c>
-      <c r="Y24" s="39">
-        <f t="shared" ref="Y24:AA24" si="46">1-Y11/Y5</f>
+      <c r="Z24" s="38">
+        <f t="shared" ref="Z24:AB24" si="50">1-Z11/Z5</f>
         <v>0.2890569055977279</v>
       </c>
-      <c r="Z24" s="6">
-        <f t="shared" si="46"/>
+      <c r="AA24" s="38">
+        <f t="shared" si="50"/>
         <v>0.25493525144832285</v>
       </c>
-      <c r="AA24" s="39" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AB24" s="38">
+        <f t="shared" si="50"/>
+        <v>0.24751626535156757</v>
+      </c>
+      <c r="AC24" s="6">
+        <f t="shared" ref="AC24" si="51">1-AC11/AC5</f>
+        <v>0.26210632594766448</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -21448,86 +21669,94 @@
         <f>F20/F5</f>
         <v>0.10412706846784331</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="138">
         <f>G20/G5</f>
         <v>0.12447130160320716</v>
       </c>
-      <c r="H25" s="122">
-        <f>H20/H6</f>
-        <v>0.12717601410934737</v>
-      </c>
-      <c r="I25" s="122">
-        <f>I20/I6</f>
-        <v>0.12689875776397516</v>
-      </c>
-      <c r="L25" s="4">
-        <f t="shared" ref="L25:W25" si="47">L20/L5</f>
+      <c r="H25" s="7">
+        <f t="shared" ref="H25:J25" si="52">H20/H5</f>
+        <v>0.1355957161543461</v>
+      </c>
+      <c r="I25" s="138" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="138" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" ref="M25:X25" si="53">M20/M5</f>
         <v>7.2980491796218933E-2</v>
       </c>
-      <c r="M25" s="4">
-        <f t="shared" si="47"/>
+      <c r="N25" s="4">
+        <f t="shared" si="53"/>
         <v>9.9323765229548819E-2</v>
       </c>
-      <c r="N25" s="4">
-        <f t="shared" si="47"/>
+      <c r="O25" s="4">
+        <f t="shared" si="53"/>
         <v>0.10471363483864031</v>
       </c>
-      <c r="O25" s="4">
-        <f t="shared" si="47"/>
+      <c r="P25" s="4">
+        <f t="shared" si="53"/>
         <v>0.23106466125990974</v>
       </c>
-      <c r="P25" s="4">
-        <f t="shared" si="47"/>
+      <c r="Q25" s="4">
+        <f t="shared" si="53"/>
         <v>7.8342462085611922E-2</v>
       </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="47"/>
+      <c r="R25" s="4">
+        <f t="shared" si="53"/>
         <v>0.11744337401545807</v>
       </c>
-      <c r="R25" s="4">
-        <f t="shared" si="47"/>
+      <c r="S25" s="4">
+        <f t="shared" si="53"/>
         <v>0.11581879806771987</v>
       </c>
-      <c r="S25" s="4">
-        <f t="shared" si="47"/>
+      <c r="T25" s="4">
+        <f t="shared" si="53"/>
         <v>0.36163778851590794</v>
       </c>
-      <c r="T25" s="4">
-        <f t="shared" si="47"/>
+      <c r="U25" s="4">
+        <f t="shared" si="53"/>
         <v>0.12313031436556905</v>
       </c>
-      <c r="U25" s="4">
-        <f t="shared" si="47"/>
+      <c r="V25" s="4">
+        <f t="shared" si="53"/>
         <v>0.13594316210308505</v>
       </c>
-      <c r="V25" s="4">
-        <f t="shared" si="47"/>
+      <c r="W25" s="4">
+        <f t="shared" si="53"/>
         <v>0.12670857153953086</v>
       </c>
-      <c r="W25" s="4">
-        <f t="shared" si="47"/>
+      <c r="X25" s="4">
+        <f t="shared" si="53"/>
         <v>0.42345329687798033</v>
       </c>
-      <c r="X25" s="4">
-        <f t="shared" ref="X25" si="48">X20/X5</f>
+      <c r="Y25" s="4">
+        <f t="shared" ref="Y25" si="54">Y20/Y5</f>
         <v>0.13297824303957897</v>
       </c>
-      <c r="Y25" s="4">
-        <f t="shared" ref="Y25:AA25" si="49">Y20/Y5</f>
+      <c r="Z25" s="4">
+        <f t="shared" ref="Z25:AB25" si="55">Z20/Z5</f>
         <v>0.15326372961440815</v>
       </c>
-      <c r="Z25" s="7">
-        <f t="shared" si="49"/>
+      <c r="AA25" s="138">
+        <f t="shared" si="55"/>
         <v>0.13867100805562471</v>
       </c>
-      <c r="AA25" s="4" t="e">
-        <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AB25" s="4">
+        <f t="shared" si="55"/>
+        <v>0.45127001889423707</v>
+      </c>
+      <c r="AC25" s="7">
+        <f t="shared" ref="AC25" si="56">AC20/AC5</f>
+        <v>0.13445738514141206</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C26" s="4">
         <f>-C19/C18</f>
@@ -21545,78 +21774,92 @@
         <f>-F19/F18</f>
         <v>0.23903731683722218</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="138">
         <f>-G19/G18</f>
         <v>0.24175720423127123</v>
       </c>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="L26" s="4">
-        <f>-L19/L18</f>
+      <c r="H26" s="7">
+        <f t="shared" ref="H26:J26" si="57">-H19/H18</f>
+        <v>0.23684851982111538</v>
+      </c>
+      <c r="I26" s="138">
+        <f t="shared" si="57"/>
+        <v>-0.24</v>
+      </c>
+      <c r="J26" s="138" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="4">
+        <f>-M19/M18</f>
         <v>-0.20199781508595252</v>
       </c>
-      <c r="M26" s="4">
-        <f t="shared" ref="M26:R26" si="50">-M19/M18</f>
+      <c r="N26" s="4">
+        <f t="shared" ref="N26:S26" si="58">-N19/N18</f>
         <v>-0.23704419261616405</v>
       </c>
-      <c r="N26" s="4">
-        <f t="shared" si="50"/>
+      <c r="O26" s="4">
+        <f t="shared" si="58"/>
         <v>-0.14660577573323755</v>
       </c>
-      <c r="O26" s="4">
-        <f t="shared" si="50"/>
+      <c r="P26" s="4">
+        <f t="shared" si="58"/>
         <v>1.7037222709612658</v>
       </c>
-      <c r="P26" s="4">
-        <f t="shared" si="50"/>
+      <c r="Q26" s="4">
+        <f t="shared" si="58"/>
         <v>-0.16690876173634772</v>
       </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="50"/>
+      <c r="R26" s="4">
+        <f t="shared" si="58"/>
         <v>-0.25340494585978113</v>
       </c>
-      <c r="R26" s="4">
-        <f t="shared" si="50"/>
+      <c r="S26" s="4">
+        <f t="shared" si="58"/>
         <v>-0.2436339034900652</v>
       </c>
-      <c r="S26" s="4">
-        <f t="shared" ref="S26:Y26" si="51">S19/S18</f>
+      <c r="T26" s="4">
+        <f t="shared" ref="T26:Z26" si="59">T19/T18</f>
         <v>-1.599268922963331</v>
       </c>
-      <c r="T26" s="4">
-        <f t="shared" si="51"/>
+      <c r="U26" s="4">
+        <f t="shared" si="59"/>
         <v>0.2254942837035761</v>
       </c>
-      <c r="U26" s="4">
-        <f t="shared" si="51"/>
+      <c r="V26" s="4">
+        <f t="shared" si="59"/>
         <v>0.23743520195576315</v>
       </c>
-      <c r="V26" s="4">
-        <f t="shared" si="51"/>
+      <c r="W26" s="4">
+        <f t="shared" si="59"/>
         <v>0.24223282415046121</v>
       </c>
-      <c r="W26" s="4">
-        <f t="shared" si="51"/>
+      <c r="X26" s="4">
+        <f t="shared" si="59"/>
         <v>-1.7872443387663424</v>
       </c>
-      <c r="X26" s="4">
-        <f t="shared" si="51"/>
+      <c r="Y26" s="4">
+        <f t="shared" si="59"/>
         <v>0.22005357577020579</v>
       </c>
-      <c r="Y26" s="4">
-        <f t="shared" si="51"/>
+      <c r="Z26" s="4">
+        <f t="shared" si="59"/>
         <v>0.2504350944376999</v>
       </c>
-      <c r="Z26" s="7">
-        <f t="shared" ref="Z26:AA26" si="52">-Z19/Z18</f>
+      <c r="AA26" s="138">
+        <f t="shared" ref="AA26:AB26" si="60">-AA19/AA18</f>
         <v>-0.22917524768039038</v>
       </c>
-      <c r="AA26" s="4" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AB26" s="4">
+        <f t="shared" si="60"/>
+        <v>1.9241921488873779</v>
+      </c>
+      <c r="AC26" s="7">
+        <f t="shared" ref="AC26" si="61">-AC19/AC18</f>
+        <v>-0.22911926748194905</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -21629,78 +21872,86 @@
         <f>E5/D5-1</f>
         <v>0.26107310823017738</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="38">
         <f>F5/E5-1</f>
         <v>0.14410788517543449</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="38">
         <f>G5/F5-1</f>
         <v>0.14325962412845361</v>
       </c>
-      <c r="H27" s="116">
-        <f>H6/G5-1</f>
-        <v>0.1487442472883711</v>
-      </c>
-      <c r="I27" s="116">
-        <f>I6/H6-1</f>
-        <v>0.13580246913580241</v>
-      </c>
-      <c r="L27" s="4"/>
+      <c r="H27" s="6">
+        <f t="shared" ref="H27:J27" si="62">H5/G5-1</f>
+        <v>0.14609555100672633</v>
+      </c>
+      <c r="I27" s="38">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="J27" s="38" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="4">
-        <f t="shared" ref="P27:W27" si="53">P5/L5-1</f>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4">
+        <f t="shared" ref="Q27:X27" si="63">Q5/M5-1</f>
         <v>0.1601791481848327</v>
       </c>
-      <c r="Q27" s="4">
-        <f t="shared" si="53"/>
+      <c r="R27" s="4">
+        <f t="shared" si="63"/>
         <v>0.16950835333293179</v>
       </c>
-      <c r="R27" s="4">
-        <f t="shared" si="53"/>
+      <c r="S27" s="4">
+        <f t="shared" si="63"/>
         <v>0.13720122008999547</v>
       </c>
-      <c r="S27" s="4">
-        <f t="shared" si="53"/>
+      <c r="T27" s="4">
+        <f t="shared" si="63"/>
         <v>0.11219131780399527</v>
       </c>
-      <c r="T27" s="4">
-        <f>T5/P5-1</f>
+      <c r="U27" s="4">
+        <f>U5/Q5-1</f>
         <v>0.17225156257810403</v>
       </c>
-      <c r="U27" s="4">
-        <f t="shared" si="53"/>
+      <c r="V27" s="4">
+        <f t="shared" si="63"/>
         <v>0.13620236213250658</v>
       </c>
-      <c r="V27" s="4">
-        <f t="shared" si="53"/>
+      <c r="W27" s="4">
+        <f t="shared" si="63"/>
         <v>0.11340232188904054</v>
       </c>
-      <c r="W27" s="4">
-        <f t="shared" si="53"/>
+      <c r="X27" s="4">
+        <f t="shared" si="63"/>
         <v>0.15395815553432701</v>
       </c>
-      <c r="X27" s="4">
-        <f t="shared" ref="X27" si="54">X5/T5-1</f>
+      <c r="Y27" s="4">
+        <f t="shared" ref="Y27" si="64">Y5/U5-1</f>
         <v>0.14070371277305393</v>
       </c>
-      <c r="Y27" s="4">
-        <f t="shared" ref="Y27" si="55">Y5/U5-1</f>
+      <c r="Z27" s="4">
+        <f t="shared" ref="Z27" si="65">Z5/V5-1</f>
         <v>0.18224742236065605</v>
       </c>
-      <c r="Z27" s="7">
-        <f t="shared" ref="Z27" si="56">Z5/V5-1</f>
+      <c r="AA27" s="138">
+        <f t="shared" ref="AA27" si="66">AA5/W5-1</f>
         <v>0.13011115120544603</v>
       </c>
-      <c r="AA27" s="4">
-        <f t="shared" ref="AA27" si="57">AA5/W5-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AB27" s="4">
+        <f t="shared" ref="AB27:AC27" si="67">AB5/X5-1</f>
+        <v>0.13074330768741693</v>
+      </c>
+      <c r="AC27" s="7">
+        <f t="shared" si="67"/>
+        <v>6.4180146329475329E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" s="4">
         <f>C12/C5</f>
@@ -21718,84 +21969,88 @@
         <f>F12/F5</f>
         <v>6.5340328712726353E-2</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="138">
         <f>G12/G5</f>
         <v>6.4182184759608046E-2</v>
       </c>
-      <c r="H28" s="116">
-        <v>0.06</v>
-      </c>
-      <c r="I28" s="116">
-        <v>0.06</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" ref="L28:W28" si="58">L12/L5</f>
+      <c r="H28" s="7">
+        <f t="shared" ref="H28:J28" si="68">H12/H5</f>
+        <v>6.1648582494398682E-2</v>
+      </c>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="M28" s="4">
+        <f t="shared" ref="M28:X28" si="69">M12/M5</f>
         <v>8.9059041384953283E-2</v>
       </c>
-      <c r="M28" s="4">
-        <f t="shared" si="58"/>
+      <c r="N28" s="4">
+        <f t="shared" si="69"/>
         <v>7.716833162663049E-2</v>
       </c>
-      <c r="N28" s="4">
-        <f t="shared" si="58"/>
+      <c r="O28" s="4">
+        <f t="shared" si="69"/>
         <v>7.4747159141839312E-2</v>
       </c>
-      <c r="O28" s="4">
-        <f t="shared" si="58"/>
+      <c r="P28" s="4">
+        <f t="shared" si="69"/>
         <v>8.1492558780761087E-2</v>
       </c>
-      <c r="P28" s="4">
-        <f t="shared" si="58"/>
+      <c r="Q28" s="4">
+        <f t="shared" si="69"/>
         <v>7.2951821271452805E-2</v>
       </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="58"/>
+      <c r="R28" s="4">
+        <f t="shared" si="69"/>
         <v>6.3623331084845108E-2</v>
       </c>
-      <c r="R28" s="4">
-        <f t="shared" si="58"/>
+      <c r="S28" s="4">
+        <f t="shared" si="69"/>
         <v>6.3461664058013442E-2</v>
       </c>
-      <c r="S28" s="4">
-        <f t="shared" si="58"/>
+      <c r="T28" s="4">
+        <f t="shared" si="69"/>
         <v>6.1943071605554269E-2</v>
       </c>
-      <c r="T28" s="4">
-        <f t="shared" si="58"/>
+      <c r="U28" s="4">
+        <f t="shared" si="69"/>
         <v>6.2628241393577588E-2</v>
       </c>
-      <c r="U28" s="4">
-        <f t="shared" si="58"/>
+      <c r="V28" s="4">
+        <f t="shared" si="69"/>
         <v>6.2229973663920135E-2</v>
       </c>
-      <c r="V28" s="4">
-        <f t="shared" si="58"/>
+      <c r="W28" s="4">
+        <f t="shared" si="69"/>
         <v>6.4524415562139656E-2</v>
       </c>
-      <c r="W28" s="4">
-        <f t="shared" si="58"/>
+      <c r="X28" s="4">
+        <f t="shared" si="69"/>
         <v>6.725972849240161E-2</v>
       </c>
-      <c r="X28" s="4">
-        <f t="shared" ref="X28" si="59">X12/X5</f>
+      <c r="Y28" s="4">
+        <f t="shared" ref="Y28" si="70">Y12/Y5</f>
         <v>7.573520049980606E-2</v>
       </c>
-      <c r="Y28" s="4">
-        <f t="shared" ref="Y28:AA28" si="60">Y12/Y5</f>
+      <c r="Z28" s="4">
+        <f t="shared" ref="Z28:AB28" si="71">Z12/Z5</f>
         <v>5.8870202551732739E-2</v>
       </c>
-      <c r="Z28" s="7">
-        <f t="shared" si="60"/>
+      <c r="AA28" s="138">
+        <f t="shared" si="71"/>
         <v>4.5323270245735216E-2</v>
       </c>
-      <c r="AA28" s="4" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AB28" s="4">
+        <f t="shared" si="71"/>
+        <v>6.7203877817265695E-2</v>
+      </c>
+      <c r="AC28" s="7">
+        <f t="shared" ref="AC28" si="72">AC12/AC5</f>
+        <v>6.0093146585709148E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29" s="4">
         <f>C13/C5</f>
@@ -21813,84 +22068,88 @@
         <f>F13/F5</f>
         <v>3.3218015039864955E-2</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="138">
         <f>G13/G5</f>
         <v>3.2354675495451672E-2</v>
       </c>
-      <c r="H29" s="116">
-        <v>0.03</v>
-      </c>
-      <c r="I29" s="116">
-        <v>0.03</v>
-      </c>
-      <c r="L29" s="4">
-        <f t="shared" ref="L29:W29" si="61">L13/L5</f>
+      <c r="H29" s="7">
+        <f t="shared" ref="H29:J29" si="73">H13/H5</f>
+        <v>2.9612369897328523E-2</v>
+      </c>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="M29" s="4">
+        <f t="shared" ref="M29:X29" si="74">M13/M5</f>
         <v>3.6244204240414565E-2</v>
       </c>
-      <c r="M29" s="4">
-        <f t="shared" si="61"/>
+      <c r="N29" s="4">
+        <f t="shared" si="74"/>
         <v>3.2803568541292169E-2</v>
       </c>
-      <c r="N29" s="4">
-        <f t="shared" si="61"/>
+      <c r="O29" s="4">
+        <f t="shared" si="74"/>
         <v>3.2367215331542298E-2</v>
       </c>
-      <c r="O29" s="4">
-        <f t="shared" si="61"/>
+      <c r="P29" s="4">
+        <f t="shared" si="74"/>
         <v>3.3796228054918998E-2</v>
       </c>
-      <c r="P29" s="4">
-        <f t="shared" si="61"/>
+      <c r="Q29" s="4">
+        <f t="shared" si="74"/>
         <v>3.5468258717104698E-2</v>
       </c>
-      <c r="Q29" s="4">
-        <f t="shared" si="61"/>
+      <c r="R29" s="4">
+        <f t="shared" si="74"/>
         <v>3.1505792831554504E-2</v>
       </c>
-      <c r="R29" s="4">
-        <f t="shared" si="61"/>
+      <c r="S29" s="4">
+        <f t="shared" si="74"/>
         <v>3.2166833695542019E-2</v>
       </c>
-      <c r="S29" s="4">
-        <f t="shared" si="61"/>
+      <c r="T29" s="4">
+        <f t="shared" si="74"/>
         <v>3.3941132688770366E-2</v>
       </c>
-      <c r="T29" s="4">
-        <f t="shared" si="61"/>
+      <c r="U29" s="4">
+        <f t="shared" si="74"/>
         <v>3.2333718937084664E-2</v>
       </c>
-      <c r="U29" s="4">
-        <f t="shared" si="61"/>
+      <c r="V29" s="4">
+        <f t="shared" si="74"/>
         <v>3.1299096827144574E-2</v>
       </c>
-      <c r="V29" s="4">
-        <f t="shared" si="61"/>
+      <c r="W29" s="4">
+        <f t="shared" si="74"/>
         <v>3.1774940249552172E-2</v>
       </c>
-      <c r="W29" s="4">
-        <f t="shared" si="61"/>
+      <c r="X29" s="4">
+        <f t="shared" si="74"/>
         <v>3.3998855471482174E-2</v>
       </c>
-      <c r="X29" s="4">
-        <f t="shared" ref="X29" si="62">X13/X5</f>
+      <c r="Y29" s="4">
+        <f t="shared" ref="Y29" si="75">Y13/Y5</f>
         <v>3.0809653244742115E-2</v>
       </c>
-      <c r="Y29" s="4">
-        <f t="shared" ref="Y29:AA29" si="63">Y13/Y5</f>
+      <c r="Z29" s="4">
+        <f t="shared" ref="Z29:AB29" si="76">Z13/Z5</f>
         <v>2.810585658082073E-2</v>
       </c>
-      <c r="Z29" s="7">
-        <f t="shared" si="63"/>
+      <c r="AA29" s="138">
+        <f t="shared" si="76"/>
         <v>3.0193916328032602E-2</v>
       </c>
-      <c r="AA29" s="4" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AB29" s="4">
+        <f t="shared" si="76"/>
+        <v>2.9478665257096578E-2</v>
+      </c>
+      <c r="AC29" s="7">
+        <f t="shared" ref="AC29" si="77">AC13/AC5</f>
+        <v>3.0331591689496541E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="4">
         <f>C14/C5</f>
@@ -21908,318 +22167,358 @@
         <f>F14/F5</f>
         <v>3.4234153269871209E-3</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="138">
         <f>G14/G5</f>
         <v>3.7411176187483975E-3</v>
       </c>
-      <c r="H30" s="116">
-        <v>3.7411176187483975E-3</v>
-      </c>
-      <c r="I30" s="116">
-        <v>3.7411176187483975E-3</v>
-      </c>
-      <c r="L30" s="4">
-        <f t="shared" ref="L30:W30" si="64">L15/L5</f>
+      <c r="H30" s="7">
+        <f t="shared" ref="H30:J30" si="78">H14/H5</f>
+        <v>3.7031593039082268E-3</v>
+      </c>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="M30" s="4">
+        <f t="shared" ref="M30:X30" si="79">M15/M5</f>
         <v>3.254525357793951E-3</v>
       </c>
-      <c r="M30" s="4">
-        <f t="shared" si="64"/>
+      <c r="N30" s="4">
+        <f t="shared" si="79"/>
         <v>2.2541159015036952E-3</v>
       </c>
-      <c r="N30" s="4">
-        <f t="shared" si="64"/>
+      <c r="O30" s="4">
+        <f t="shared" si="79"/>
         <v>2.3858854744239532E-3</v>
       </c>
-      <c r="O30" s="4">
-        <f t="shared" si="64"/>
+      <c r="P30" s="4">
+        <f t="shared" si="79"/>
         <v>2.3966749514059988E-3</v>
       </c>
-      <c r="P30" s="4">
-        <f t="shared" si="64"/>
+      <c r="Q30" s="4">
+        <f t="shared" si="79"/>
         <v>2.1330941892237663E-3</v>
       </c>
-      <c r="Q30" s="4">
-        <f t="shared" si="64"/>
+      <c r="R30" s="4">
+        <f t="shared" si="79"/>
         <v>2.1149042238897881E-3</v>
       </c>
-      <c r="R30" s="4">
-        <f t="shared" si="64"/>
+      <c r="S30" s="4">
+        <f t="shared" si="79"/>
         <v>2.8659902935579407E-3</v>
       </c>
-      <c r="S30" s="4">
-        <f t="shared" si="64"/>
+      <c r="T30" s="4">
+        <f t="shared" si="79"/>
         <v>2.6529407745302996E-3</v>
       </c>
-      <c r="T30" s="4">
-        <f t="shared" si="64"/>
+      <c r="U30" s="4">
+        <f t="shared" si="79"/>
         <v>3.529963100254161E-3</v>
       </c>
-      <c r="U30" s="4">
-        <f t="shared" si="64"/>
+      <c r="V30" s="4">
+        <f t="shared" si="79"/>
         <v>6.4577674336856071E-3</v>
       </c>
-      <c r="V30" s="4">
-        <f t="shared" si="64"/>
+      <c r="W30" s="4">
+        <f t="shared" si="79"/>
         <v>2.9292687386627868E-3</v>
       </c>
-      <c r="W30" s="4">
-        <f t="shared" si="64"/>
+      <c r="X30" s="4">
+        <f t="shared" si="79"/>
         <v>2.5942646404272908E-3</v>
       </c>
-      <c r="X30" s="4">
-        <f t="shared" ref="X30" si="65">X15/X5</f>
+      <c r="Y30" s="4">
+        <f t="shared" ref="Y30" si="80">Y15/Y5</f>
         <v>2.0278712940180205E-3</v>
       </c>
-      <c r="Y30" s="4">
-        <f t="shared" ref="Y30:AA30" si="66">Y15/Y5</f>
+      <c r="Z30" s="4">
+        <f t="shared" ref="Z30:AB30" si="81">Z15/Z5</f>
         <v>1.938033383819069E-3</v>
       </c>
-      <c r="Z30" s="7">
-        <f t="shared" si="66"/>
+      <c r="AA30" s="138">
+        <f t="shared" si="81"/>
         <v>5.4324636236851975E-3</v>
       </c>
-      <c r="AA30" s="4" t="e">
-        <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AB30" s="4">
+        <f t="shared" si="81"/>
+        <v>1.8697422286202773E-4</v>
+      </c>
+      <c r="AC30" s="7">
+        <f t="shared" ref="AC30" si="82">AC15/AC5</f>
+        <v>2.1452025265254917E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4">
-        <f t="shared" ref="D31:G32" si="67">D3/C3-1</f>
+        <f t="shared" ref="D31:G32" si="83">D3/C3-1</f>
         <v>6.4647846192687819E-2</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>0.25954097131260712</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>0.14762063190468133</v>
       </c>
-      <c r="G31" s="7">
-        <f t="shared" si="67"/>
+      <c r="G31" s="138">
+        <f t="shared" si="83"/>
         <v>0.14560912063459663</v>
       </c>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="L31" s="4"/>
+      <c r="H31" s="7">
+        <f t="shared" ref="H31:H32" si="84">H3/G3-1</f>
+        <v>0.14720948041864834</v>
+      </c>
+      <c r="I31" s="138">
+        <f t="shared" ref="I31:I32" si="85">I3/H3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J31" s="138" t="e">
+        <f t="shared" ref="J31:J32" si="86">J3/I3-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="4">
-        <f t="shared" ref="P31:W31" si="68">P3/L3-1</f>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4">
+        <f t="shared" ref="Q31:X31" si="87">Q3/M3-1</f>
         <v>0.16489956235176195</v>
       </c>
-      <c r="Q31" s="4">
-        <f t="shared" si="68"/>
+      <c r="R31" s="4">
+        <f t="shared" si="87"/>
         <v>0.17301971525090076</v>
       </c>
-      <c r="R31" s="4">
-        <f t="shared" si="68"/>
+      <c r="S31" s="4">
+        <f t="shared" si="87"/>
         <v>0.1396841972894971</v>
       </c>
-      <c r="S31" s="4">
-        <f t="shared" si="68"/>
+      <c r="T31" s="4">
+        <f t="shared" si="87"/>
         <v>0.11575818356660972</v>
       </c>
-      <c r="T31" s="4">
-        <f t="shared" si="68"/>
+      <c r="U31" s="4">
+        <f t="shared" si="87"/>
         <v>0.17611843382245529</v>
       </c>
-      <c r="U31" s="4">
-        <f t="shared" si="68"/>
+      <c r="V31" s="4">
+        <f t="shared" si="87"/>
         <v>0.13895782656163203</v>
       </c>
-      <c r="V31" s="4">
-        <f t="shared" si="68"/>
+      <c r="W31" s="4">
+        <f t="shared" si="87"/>
         <v>0.11519722694448098</v>
       </c>
-      <c r="W31" s="4">
-        <f t="shared" si="68"/>
+      <c r="X31" s="4">
+        <f t="shared" si="87"/>
         <v>0.15511757205831755</v>
       </c>
-      <c r="X31" s="4">
-        <f>X3/T3-1</f>
+      <c r="Y31" s="4">
+        <f>Y3/U3-1</f>
         <v>0.14182761529198751</v>
       </c>
-      <c r="Y31" s="4">
-        <f t="shared" ref="Y31:AA31" si="69">Y3/U3-1</f>
+      <c r="Z31" s="4">
+        <f t="shared" ref="Z31:AC31" si="88">Z3/V3-1</f>
         <v>0.18314408476606081</v>
       </c>
-      <c r="Z31" s="7">
-        <f t="shared" si="69"/>
+      <c r="AA31" s="138">
+        <f t="shared" si="88"/>
         <v>0.13110337417280427</v>
       </c>
-      <c r="AA31" s="4">
-        <f t="shared" si="69"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AB31" s="4">
+        <f t="shared" si="88"/>
+        <v>0.13219209567097057</v>
+      </c>
+      <c r="AC31" s="7">
+        <f t="shared" si="88"/>
+        <v>6.5333381512095334E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>1.5298622350294084</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>0.4026119926976548</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>-0.14729898099942151</v>
       </c>
-      <c r="G32" s="7">
-        <f t="shared" si="67"/>
+      <c r="G32" s="138">
+        <f t="shared" si="83"/>
         <v>-0.11905911207942477</v>
       </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="L32" s="4"/>
+      <c r="H32" s="7">
+        <f t="shared" si="84"/>
+        <v>-1.5638652350981275E-2</v>
+      </c>
+      <c r="I32" s="138">
+        <f t="shared" si="85"/>
+        <v>-1</v>
+      </c>
+      <c r="J32" s="138" t="e">
+        <f t="shared" si="86"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="4">
-        <f t="shared" ref="P32:W32" si="70">P4/L4-1</f>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4">
+        <f t="shared" ref="Q32:X32" si="89">Q4/M4-1</f>
         <v>-0.15641977721321099</v>
       </c>
-      <c r="Q32" s="4">
-        <f t="shared" si="70"/>
+      <c r="R32" s="4">
+        <f t="shared" si="89"/>
         <v>-0.11375307469900309</v>
       </c>
-      <c r="R32" s="4">
-        <f t="shared" si="70"/>
+      <c r="S32" s="4">
+        <f t="shared" si="89"/>
         <v>-0.10383803878227671</v>
       </c>
-      <c r="S32" s="4">
-        <f t="shared" si="70"/>
+      <c r="T32" s="4">
+        <f t="shared" si="89"/>
         <v>-0.21368004522328954</v>
       </c>
-      <c r="T32" s="4">
-        <f t="shared" si="70"/>
+      <c r="U32" s="4">
+        <f t="shared" si="89"/>
         <v>-0.18588704072649753</v>
       </c>
-      <c r="U32" s="4">
-        <f t="shared" si="70"/>
+      <c r="V32" s="4">
+        <f t="shared" si="89"/>
         <v>-0.15800749866095332</v>
       </c>
-      <c r="V32" s="4">
-        <f t="shared" si="70"/>
+      <c r="W32" s="4">
+        <f t="shared" si="89"/>
         <v>-0.10818992095969493</v>
       </c>
-      <c r="W32" s="4">
-        <f t="shared" si="70"/>
+      <c r="X32" s="4">
+        <f t="shared" si="89"/>
         <v>3.654445243230553E-3</v>
       </c>
-      <c r="X32" s="4">
-        <f>X4/T4-1</f>
+      <c r="Y32" s="4">
+        <f>Y4/U4-1</f>
         <v>-9.6750327243755319E-3</v>
       </c>
-      <c r="Y32" s="4">
-        <f t="shared" ref="Y32:AA32" si="71">Y4/U4-1</f>
+      <c r="Z32" s="4">
+        <f t="shared" ref="Z32:AC32" si="90">Z4/V4-1</f>
         <v>5.2741151977793166E-2</v>
       </c>
-      <c r="Z32" s="7">
-        <f t="shared" si="71"/>
+      <c r="AA32" s="138">
+        <f t="shared" si="90"/>
         <v>-2.3068703249732869E-2</v>
       </c>
-      <c r="AA32" s="4">
-        <f t="shared" si="71"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB32" s="4">
+        <f t="shared" si="90"/>
+        <v>-8.5417537157524648E-2</v>
+      </c>
+      <c r="AC32" s="7">
+        <f t="shared" si="90"/>
+        <v>-0.11372909602896386</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3">
-        <f>-(D20/C20-1)</f>
-        <v>-1.3865169437795366E-2</v>
+        <f>-(D22/C22-1)</f>
+        <v>-9.5479648522811544E-3</v>
       </c>
       <c r="E33" s="3">
-        <f>-(E20/D20-1)</f>
-        <v>-0.83932419376192091</v>
-      </c>
-      <c r="F33" s="39">
-        <f>F20/E20-1</f>
-        <v>0.37691122600247629</v>
-      </c>
-      <c r="G33" s="6">
+        <f>(E22/D22-1)</f>
+        <v>0.85789265924707614</v>
+      </c>
+      <c r="F33" s="38">
+        <f>F22/E22-1</f>
+        <v>0.38034589872074931</v>
+      </c>
+      <c r="G33" s="38">
         <f>G20/F20-1</f>
         <v>0.36662844330058375</v>
       </c>
-      <c r="H33" s="53">
-        <f>H23/G22-1</f>
-        <v>0.23333333333333339</v>
-      </c>
-      <c r="I33" s="53">
-        <f>I23/H23-1</f>
-        <v>0.18018018018018012</v>
-      </c>
-      <c r="L33" s="4"/>
+      <c r="H33" s="6">
+        <f>H22/G22-1</f>
+        <v>0.25302733229602725</v>
+      </c>
+      <c r="I33" s="38">
+        <f t="shared" ref="H33:J33" si="91">I20/H20-1</f>
+        <v>-0.95554425693072842</v>
+      </c>
+      <c r="J33" s="38">
+        <f t="shared" si="91"/>
+        <v>-1</v>
+      </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="4">
-        <f t="shared" ref="P33:W33" si="72">P20/L20-1</f>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4">
+        <f t="shared" ref="Q33:X33" si="92">Q20/M20-1</f>
         <v>0.24541899749018681</v>
       </c>
-      <c r="Q33" s="4">
-        <f t="shared" si="72"/>
+      <c r="R33" s="4">
+        <f t="shared" si="92"/>
         <v>0.38286145956355733</v>
       </c>
-      <c r="R33" s="4">
-        <f t="shared" si="72"/>
+      <c r="S33" s="4">
+        <f t="shared" si="92"/>
         <v>0.25780447479382018</v>
       </c>
-      <c r="S33" s="4">
-        <f t="shared" si="72"/>
+      <c r="T33" s="4">
+        <f t="shared" si="92"/>
         <v>0.74068334977805028</v>
       </c>
-      <c r="T33" s="4">
-        <f t="shared" si="72"/>
+      <c r="U33" s="4">
+        <f t="shared" si="92"/>
         <v>0.84241980112953807</v>
       </c>
-      <c r="U33" s="4">
-        <f>U20/Q20-1</f>
+      <c r="V33" s="4">
+        <f>V20/R20-1</f>
         <v>0.31517800124643358</v>
       </c>
-      <c r="V33" s="4">
-        <f t="shared" si="72"/>
+      <c r="W33" s="4">
+        <f t="shared" si="92"/>
         <v>0.21808911946114673</v>
       </c>
-      <c r="W33" s="4">
-        <f t="shared" si="72"/>
+      <c r="X33" s="4">
+        <f t="shared" si="92"/>
         <v>0.35120665189763245</v>
       </c>
-      <c r="X33" s="4">
-        <f t="shared" ref="X33" si="73">X20/T20-1</f>
+      <c r="Y33" s="4">
+        <f t="shared" ref="Y33" si="93">Y20/U20-1</f>
         <v>0.23193688195197204</v>
       </c>
-      <c r="Y33" s="4">
-        <f t="shared" ref="Y33" si="74">Y20/U20-1</f>
+      <c r="Z33" s="4">
+        <f t="shared" ref="Z33" si="94">Z20/V20-1</f>
         <v>0.33287799455933498</v>
       </c>
-      <c r="Z33" s="7">
-        <f t="shared" ref="Z33" si="75">Z20/V20-1</f>
+      <c r="AA33" s="138">
+        <f t="shared" ref="AA33" si="95">AA20/W20-1</f>
         <v>0.23680387718418716</v>
       </c>
-      <c r="AA33" s="4">
-        <f t="shared" ref="AA33" si="76">AA20/W20-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB33" s="4">
+        <f t="shared" ref="AB33:AC33" si="96">AB20/X20-1</f>
+        <v>0.20502203569256694</v>
+      </c>
+      <c r="AC33" s="7">
+        <f t="shared" si="96"/>
+        <v>7.6017222999997358E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="11">
         <f>C37+C42</f>
@@ -22237,76 +22536,104 @@
         <f>F37+F42</f>
         <v>899.13599999999997</v>
       </c>
-      <c r="G36" s="14">
-        <f>G37+G42</f>
+      <c r="G36" s="11">
+        <f t="shared" ref="G36:J36" si="97">G37+G42</f>
         <v>1295.4470000000001</v>
       </c>
-      <c r="L36" s="11">
-        <f>L37+L42</f>
+      <c r="H36" s="14">
+        <f t="shared" si="97"/>
+        <v>1422.915</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
+      <c r="J36" s="11">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
       <c r="M36" s="11">
-        <f t="shared" ref="M36:X36" si="77">M37+M42</f>
+        <f>M37+M42</f>
         <v>0</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="N36:Y36" si="98">N37+N42</f>
         <v>0</v>
       </c>
       <c r="O36" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" si="98"/>
         <v>1076.319</v>
       </c>
-      <c r="P36" s="11">
-        <f t="shared" si="77"/>
+      <c r="Q36" s="11">
+        <f t="shared" si="98"/>
         <v>856.24200000000008</v>
       </c>
-      <c r="Q36" s="11">
-        <f t="shared" si="77"/>
+      <c r="R36" s="11">
+        <f t="shared" si="98"/>
         <v>761.61699999999996</v>
       </c>
-      <c r="R36" s="11">
-        <f t="shared" si="77"/>
+      <c r="S36" s="11">
+        <f t="shared" si="98"/>
         <v>783.90100000000007</v>
       </c>
-      <c r="S36" s="11">
-        <f t="shared" si="77"/>
+      <c r="T36" s="11">
+        <f t="shared" si="98"/>
         <v>899.13599999999997</v>
       </c>
-      <c r="T36" s="11">
-        <f t="shared" si="77"/>
+      <c r="U36" s="11">
+        <f t="shared" si="98"/>
         <v>1062.585</v>
       </c>
-      <c r="U36" s="11">
-        <f t="shared" si="77"/>
+      <c r="V36" s="11">
+        <f t="shared" si="98"/>
         <v>1356.008</v>
       </c>
-      <c r="V36" s="11">
-        <f t="shared" si="77"/>
+      <c r="W36" s="11">
+        <f t="shared" si="98"/>
         <v>1454.0059999999999</v>
       </c>
-      <c r="W36" s="11">
-        <f t="shared" si="77"/>
+      <c r="X36" s="11">
+        <f t="shared" si="98"/>
         <v>1295.4470000000001</v>
       </c>
-      <c r="X36" s="11">
-        <f t="shared" si="77"/>
+      <c r="Y36" s="11">
+        <f t="shared" si="98"/>
         <v>1419.8679999999999</v>
       </c>
-      <c r="Y36" s="11">
-        <f t="shared" ref="Y36:AA36" si="78">Y37+Y42</f>
+      <c r="Z36" s="11">
+        <f t="shared" ref="Z36:AB36" si="99">Z37+Z42</f>
         <v>1489.8150000000001</v>
       </c>
-      <c r="Z36" s="14">
-        <f t="shared" si="78"/>
+      <c r="AA36" s="134">
+        <f t="shared" si="99"/>
         <v>1367.223</v>
       </c>
-      <c r="AA36" s="11">
-        <f t="shared" si="78"/>
+      <c r="AB36" s="134">
+        <f t="shared" ref="AB36:AF36" si="100">AB37+AB42</f>
+        <v>1422.915</v>
+      </c>
+      <c r="AC36" s="14">
+        <f t="shared" si="100"/>
+        <v>1414.722</v>
+      </c>
+      <c r="AD36" s="134">
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE36" s="134">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="134">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>25</v>
       </c>
@@ -22320,54 +22647,68 @@
       <c r="F37" s="10">
         <v>384</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="133">
         <v>560.60900000000004</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="H37" s="15">
+        <v>748.53700000000003</v>
+      </c>
+      <c r="I37" s="133"/>
+      <c r="J37" s="133"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
-      <c r="O37" s="10">
+      <c r="O37" s="10"/>
+      <c r="P37" s="10">
         <f>E37</f>
         <v>815.37400000000002</v>
       </c>
-      <c r="P37" s="10">
+      <c r="Q37" s="10">
         <v>615.86300000000006</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="R37" s="10">
         <v>520.93299999999999</v>
       </c>
-      <c r="R37" s="10">
+      <c r="S37" s="10">
         <v>366.62299999999999</v>
       </c>
-      <c r="S37" s="10">
+      <c r="T37" s="10">
         <f>F37</f>
         <v>384</v>
       </c>
-      <c r="T37" s="10">
+      <c r="U37" s="10">
         <v>409.72699999999998</v>
       </c>
-      <c r="U37" s="10">
+      <c r="V37" s="10">
         <v>504.86599999999999</v>
       </c>
-      <c r="V37" s="10">
+      <c r="W37" s="10">
         <v>602.30700000000002</v>
       </c>
-      <c r="W37" s="10">
+      <c r="X37" s="10">
         <f>G37</f>
         <v>560.60900000000004</v>
       </c>
-      <c r="X37" s="10">
+      <c r="Y37" s="10">
         <v>727.39400000000001</v>
       </c>
-      <c r="Y37" s="10">
+      <c r="Z37" s="10">
         <v>806.52800000000002</v>
       </c>
-      <c r="Z37" s="15">
+      <c r="AA37" s="133">
         <v>698.54700000000003</v>
       </c>
-      <c r="AA37" s="10"/>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB37" s="133">
+        <f>H37</f>
+        <v>748.53700000000003</v>
+      </c>
+      <c r="AC37" s="15">
+        <v>725.59699999999998</v>
+      </c>
+      <c r="AD37" s="133"/>
+      <c r="AE37" s="133"/>
+      <c r="AF37" s="133"/>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>26</v>
       </c>
@@ -22381,56 +22722,70 @@
       <c r="F38" s="10">
         <v>106.88</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="133">
         <v>115.535</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="H38" s="15">
+        <v>143.96299999999999</v>
+      </c>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
-      <c r="O38" s="10">
-        <f t="shared" ref="O38:O42" si="79">E38</f>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10">
+        <f t="shared" ref="P38:P42" si="101">E38</f>
         <v>99.599000000000004</v>
       </c>
-      <c r="P38" s="10">
+      <c r="Q38" s="10">
         <v>89.295000000000002</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="R38" s="10">
         <v>83.635999999999996</v>
       </c>
-      <c r="R38" s="10">
+      <c r="S38" s="10">
         <v>71.275999999999996</v>
       </c>
-      <c r="S38" s="10">
-        <f t="shared" ref="S38:S42" si="80">F38</f>
+      <c r="T38" s="10">
+        <f t="shared" ref="T38:T42" si="102">F38</f>
         <v>106.88</v>
       </c>
-      <c r="T38" s="10">
+      <c r="U38" s="10">
         <v>65.869</v>
       </c>
-      <c r="U38" s="10">
+      <c r="V38" s="10">
         <v>60.984999999999999</v>
       </c>
-      <c r="V38" s="10">
+      <c r="W38" s="10">
         <v>71.122</v>
       </c>
-      <c r="W38" s="10">
-        <f t="shared" ref="W38:W42" si="81">G38</f>
+      <c r="X38" s="10">
+        <f t="shared" ref="X38:X42" si="103">G38</f>
         <v>115.535</v>
       </c>
-      <c r="X38" s="10">
+      <c r="Y38" s="10">
         <v>89.835999999999999</v>
       </c>
-      <c r="Y38" s="10">
+      <c r="Z38" s="10">
         <v>97.542000000000002</v>
       </c>
-      <c r="Z38" s="15">
+      <c r="AA38" s="133">
         <v>93.201999999999998</v>
       </c>
-      <c r="AA38" s="10"/>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB38" s="133">
+        <f t="shared" ref="AB38:AB42" si="104">H38</f>
+        <v>143.96299999999999</v>
+      </c>
+      <c r="AC38" s="15">
+        <v>101.59399999999999</v>
+      </c>
+      <c r="AD38" s="133"/>
+      <c r="AE38" s="133"/>
+      <c r="AF38" s="133"/>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -22442,56 +22797,70 @@
       <c r="F39" s="10">
         <v>35.667999999999999</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="133">
         <v>39.308999999999997</v>
       </c>
-      <c r="L39" s="10"/>
+      <c r="H39" s="15">
+        <v>48.942</v>
+      </c>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="10">
-        <f t="shared" si="79"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10">
+        <f t="shared" si="101"/>
         <v>32.826000000000001</v>
       </c>
-      <c r="P39" s="10">
+      <c r="Q39" s="10">
         <v>29.852</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="R39" s="10">
         <v>29.456</v>
       </c>
-      <c r="R39" s="10">
+      <c r="S39" s="10">
         <v>33.752000000000002</v>
       </c>
-      <c r="S39" s="10">
-        <f t="shared" si="80"/>
+      <c r="T39" s="10">
+        <f t="shared" si="102"/>
         <v>35.667999999999999</v>
       </c>
-      <c r="T39" s="10">
+      <c r="U39" s="10">
         <v>34.598999999999997</v>
       </c>
-      <c r="U39" s="10">
+      <c r="V39" s="10">
         <v>36.003999999999998</v>
       </c>
-      <c r="V39" s="10">
+      <c r="W39" s="10">
         <v>40.177</v>
       </c>
-      <c r="W39" s="10">
-        <f t="shared" si="81"/>
+      <c r="X39" s="10">
+        <f t="shared" si="103"/>
         <v>39.308999999999997</v>
       </c>
-      <c r="X39" s="10">
+      <c r="Y39" s="10">
         <v>37.947000000000003</v>
       </c>
-      <c r="Y39" s="10">
+      <c r="Z39" s="10">
         <v>35.56</v>
       </c>
-      <c r="Z39" s="15">
+      <c r="AA39" s="133">
         <v>49.847999999999999</v>
       </c>
-      <c r="AA39" s="10"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB39" s="133">
+        <f t="shared" si="104"/>
+        <v>48.942</v>
+      </c>
+      <c r="AC39" s="15">
+        <v>41.387</v>
+      </c>
+      <c r="AD39" s="133"/>
+      <c r="AE39" s="133"/>
+      <c r="AF39" s="133"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10">
@@ -22503,56 +22872,70 @@
       <c r="F40" s="10">
         <v>86.412000000000006</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="133">
         <v>117.462</v>
       </c>
-      <c r="L40" s="10"/>
+      <c r="H40" s="15">
+        <v>97.537999999999997</v>
+      </c>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
-      <c r="O40" s="10">
-        <f t="shared" si="79"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10">
+        <f t="shared" si="101"/>
         <v>78.756</v>
       </c>
-      <c r="P40" s="10">
+      <c r="Q40" s="10">
         <v>70.403000000000006</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="R40" s="10">
         <v>73.715999999999994</v>
       </c>
-      <c r="R40" s="10">
+      <c r="S40" s="10">
         <v>76.438999999999993</v>
       </c>
-      <c r="S40" s="10">
-        <f t="shared" si="80"/>
+      <c r="T40" s="10">
+        <f t="shared" si="102"/>
         <v>86.412000000000006</v>
       </c>
-      <c r="T40" s="10">
+      <c r="U40" s="10">
         <v>98.388999999999996</v>
       </c>
-      <c r="U40" s="10">
+      <c r="V40" s="10">
         <v>103.422</v>
       </c>
-      <c r="V40" s="10">
+      <c r="W40" s="10">
         <v>104.038</v>
       </c>
-      <c r="W40" s="10">
-        <f t="shared" si="81"/>
+      <c r="X40" s="10">
+        <f t="shared" si="103"/>
         <v>117.462</v>
       </c>
-      <c r="X40" s="10">
+      <c r="Y40" s="10">
         <v>98.117999999999995</v>
       </c>
-      <c r="Y40" s="10">
+      <c r="Z40" s="10">
         <v>91.852000000000004</v>
       </c>
-      <c r="Z40" s="15">
+      <c r="AA40" s="133">
         <v>87.896000000000001</v>
       </c>
-      <c r="AA40" s="10"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB40" s="133">
+        <f t="shared" si="104"/>
+        <v>97.537999999999997</v>
+      </c>
+      <c r="AC40" s="15">
+        <v>103.94499999999999</v>
+      </c>
+      <c r="AD40" s="133"/>
+      <c r="AE40" s="133"/>
+      <c r="AF40" s="133"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
@@ -22564,31 +22947,33 @@
       <c r="F41" s="10">
         <v>47.741</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="133">
         <v>52.96</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="H41" s="15">
+        <v>67.228999999999999</v>
+      </c>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
-      <c r="O41" s="10">
-        <f t="shared" si="79"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10">
+        <f t="shared" si="101"/>
         <v>94.063999999999993</v>
       </c>
-      <c r="P41" s="10">
+      <c r="Q41" s="10">
         <v>50.701000000000001</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="R41" s="10">
         <v>97.873999999999995</v>
       </c>
-      <c r="R41" s="10">
+      <c r="S41" s="10">
         <v>112.06399999999999</v>
       </c>
-      <c r="S41" s="10">
-        <f t="shared" si="80"/>
+      <c r="T41" s="10">
+        <f t="shared" si="102"/>
         <v>47.741</v>
-      </c>
-      <c r="T41" s="10">
-        <v>0</v>
       </c>
       <c r="U41" s="10">
         <v>0</v>
@@ -22597,23 +22982,35 @@
         <v>0</v>
       </c>
       <c r="W41" s="10">
-        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="10">
+        <f t="shared" si="103"/>
         <v>52.96</v>
       </c>
-      <c r="X41" s="10">
+      <c r="Y41" s="10">
         <v>0</v>
       </c>
-      <c r="Y41" s="10">
+      <c r="Z41" s="10">
         <v>71.528999999999996</v>
       </c>
-      <c r="Z41" s="15">
+      <c r="AA41" s="133">
         <v>82.087000000000003</v>
       </c>
-      <c r="AA41" s="10"/>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB41" s="133">
+        <f t="shared" si="104"/>
+        <v>67.228999999999999</v>
+      </c>
+      <c r="AC41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="133"/>
+      <c r="AE41" s="133"/>
+      <c r="AF41" s="133"/>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
@@ -22625,63 +23022,77 @@
       <c r="F42" s="10">
         <v>515.13599999999997</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="133">
         <v>734.83799999999997</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="H42" s="15">
+        <v>674.37800000000004</v>
+      </c>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
-      <c r="O42" s="10">
-        <f t="shared" si="79"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10">
+        <f t="shared" si="101"/>
         <v>260.94499999999999</v>
       </c>
-      <c r="P42" s="10">
+      <c r="Q42" s="10">
         <v>240.37899999999999</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="R42" s="10">
         <v>240.684</v>
       </c>
-      <c r="R42" s="10">
+      <c r="S42" s="10">
         <v>417.27800000000002</v>
       </c>
-      <c r="S42" s="10">
-        <f t="shared" si="80"/>
+      <c r="T42" s="10">
+        <f t="shared" si="102"/>
         <v>515.13599999999997</v>
       </c>
-      <c r="T42" s="10">
+      <c r="U42" s="10">
         <v>652.85799999999995</v>
       </c>
-      <c r="U42" s="10">
+      <c r="V42" s="10">
         <v>851.14200000000005</v>
       </c>
-      <c r="V42" s="10">
+      <c r="W42" s="10">
         <v>851.69899999999996</v>
       </c>
-      <c r="W42" s="10">
-        <f t="shared" si="81"/>
+      <c r="X42" s="10">
+        <f t="shared" si="103"/>
         <v>734.83799999999997</v>
       </c>
-      <c r="X42" s="10">
+      <c r="Y42" s="10">
         <v>692.47400000000005</v>
       </c>
-      <c r="Y42" s="10">
+      <c r="Z42" s="10">
         <v>683.28700000000003</v>
       </c>
-      <c r="Z42" s="15">
+      <c r="AA42" s="133">
         <v>668.67600000000004</v>
       </c>
-      <c r="AA42" s="10"/>
-    </row>
-    <row r="43" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB42" s="133">
+        <f t="shared" si="104"/>
+        <v>674.37800000000004</v>
+      </c>
+      <c r="AC42" s="15">
+        <v>689.125</v>
+      </c>
+      <c r="AD42" s="133"/>
+      <c r="AE42" s="133"/>
+      <c r="AF42" s="133"/>
+    </row>
+    <row r="43" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="11">
-        <f t="shared" ref="C43:D43" si="82">SUM(C37:C42)</f>
+        <f t="shared" ref="C43:D43" si="105">SUM(C37:C42)</f>
         <v>0</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="105"/>
         <v>1420.2370000000001</v>
       </c>
       <c r="E43" s="11">
@@ -22689,81 +23100,109 @@
         <v>1381.5640000000001</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" ref="F43:G43" si="83">SUM(F37:F42)</f>
+        <f t="shared" ref="F43:J43" si="106">SUM(F37:F42)</f>
         <v>1175.837</v>
       </c>
-      <c r="G43" s="14">
-        <f t="shared" si="83"/>
+      <c r="G43" s="11">
+        <f t="shared" si="106"/>
         <v>1620.713</v>
       </c>
-      <c r="L43" s="11">
-        <f t="shared" ref="L43:X43" si="84">SUM(L37:L42)</f>
+      <c r="H43" s="14">
+        <f t="shared" si="106"/>
+        <v>1780.587</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
+      <c r="J43" s="11">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
       <c r="M43" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="M43:Y43" si="107">SUM(M37:M42)</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="11">
+        <f t="shared" si="107"/>
         <v>1381.5640000000001</v>
       </c>
-      <c r="P43" s="11">
-        <f t="shared" si="84"/>
+      <c r="Q43" s="11">
+        <f t="shared" si="107"/>
         <v>1096.4929999999999</v>
       </c>
-      <c r="Q43" s="11">
-        <f t="shared" si="84"/>
+      <c r="R43" s="11">
+        <f t="shared" si="107"/>
         <v>1046.299</v>
       </c>
-      <c r="R43" s="11">
-        <f t="shared" si="84"/>
+      <c r="S43" s="11">
+        <f t="shared" si="107"/>
         <v>1077.432</v>
       </c>
-      <c r="S43" s="11">
-        <f t="shared" si="84"/>
+      <c r="T43" s="11">
+        <f t="shared" si="107"/>
         <v>1175.837</v>
       </c>
-      <c r="T43" s="11">
-        <f t="shared" si="84"/>
+      <c r="U43" s="11">
+        <f t="shared" si="107"/>
         <v>1261.442</v>
       </c>
-      <c r="U43" s="11">
-        <f t="shared" si="84"/>
+      <c r="V43" s="11">
+        <f t="shared" si="107"/>
         <v>1556.4190000000001</v>
       </c>
-      <c r="V43" s="11">
-        <f t="shared" si="84"/>
+      <c r="W43" s="11">
+        <f t="shared" si="107"/>
         <v>1669.3429999999998</v>
       </c>
-      <c r="W43" s="11">
-        <f t="shared" si="84"/>
+      <c r="X43" s="11">
+        <f t="shared" si="107"/>
         <v>1620.713</v>
       </c>
-      <c r="X43" s="11">
-        <f t="shared" si="84"/>
+      <c r="Y43" s="11">
+        <f t="shared" si="107"/>
         <v>1645.7690000000002</v>
       </c>
-      <c r="Y43" s="11">
-        <f t="shared" ref="Y43:AA43" si="85">SUM(Y37:Y42)</f>
+      <c r="Z43" s="11">
+        <f t="shared" ref="Z43:AB43" si="108">SUM(Z37:Z42)</f>
         <v>1786.2980000000002</v>
       </c>
-      <c r="Z43" s="14">
-        <f t="shared" si="85"/>
+      <c r="AA43" s="134">
+        <f t="shared" si="108"/>
         <v>1680.2559999999999</v>
       </c>
-      <c r="AA43" s="11">
-        <f t="shared" si="85"/>
+      <c r="AB43" s="134">
+        <f t="shared" ref="AB43:AF43" si="109">SUM(AB37:AB42)</f>
+        <v>1780.587</v>
+      </c>
+      <c r="AC43" s="14">
+        <f t="shared" si="109"/>
+        <v>1661.6479999999999</v>
+      </c>
+      <c r="AD43" s="134">
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE43" s="134">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="134">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -22775,56 +23214,70 @@
       <c r="F44" s="10">
         <v>1951.1469999999999</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="133">
         <v>2170.038</v>
       </c>
-      <c r="L44" s="10"/>
+      <c r="H44" s="15">
+        <v>2390.1260000000002</v>
+      </c>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
-      <c r="O44" s="10">
-        <f t="shared" ref="O44:O49" si="86">E44</f>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10">
+        <f t="shared" ref="P44:P49" si="110">E44</f>
         <v>1769.278</v>
       </c>
-      <c r="P44" s="10">
+      <c r="Q44" s="10">
         <v>1779.521</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="R44" s="10">
         <v>1813.348</v>
       </c>
-      <c r="R44" s="10">
+      <c r="S44" s="10">
         <v>1871.623</v>
       </c>
-      <c r="S44" s="10">
-        <f t="shared" ref="S44:S49" si="87">F44</f>
+      <c r="T44" s="10">
+        <f t="shared" ref="T44:T49" si="111">F44</f>
         <v>1951.1469999999999</v>
       </c>
-      <c r="T44" s="10">
+      <c r="U44" s="10">
         <v>1981.329</v>
       </c>
-      <c r="U44" s="10">
+      <c r="V44" s="10">
         <v>2021.9639999999999</v>
       </c>
-      <c r="V44" s="10">
+      <c r="W44" s="10">
         <v>2093.011</v>
       </c>
-      <c r="W44" s="10">
-        <f t="shared" ref="W44:W49" si="88">G44</f>
+      <c r="X44" s="10">
+        <f t="shared" ref="X44:X49" si="112">G44</f>
         <v>2170.038</v>
       </c>
-      <c r="X44" s="10">
+      <c r="Y44" s="10">
         <v>2202.739</v>
       </c>
-      <c r="Y44" s="10">
+      <c r="Z44" s="10">
         <v>2265.694</v>
       </c>
-      <c r="Z44" s="15">
+      <c r="AA44" s="133">
         <v>2320.395</v>
       </c>
-      <c r="AA44" s="10"/>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB44" s="133">
+        <f t="shared" ref="AB44:AB49" si="113">H44</f>
+        <v>2390.1260000000002</v>
+      </c>
+      <c r="AC44" s="15">
+        <v>2436.7620000000002</v>
+      </c>
+      <c r="AD44" s="133"/>
+      <c r="AE44" s="133"/>
+      <c r="AF44" s="133"/>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10">
@@ -22836,56 +23289,70 @@
       <c r="F45" s="10">
         <v>388.05500000000001</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="133">
         <v>564.48800000000006</v>
       </c>
-      <c r="L45" s="10"/>
+      <c r="H45" s="15">
+        <v>868.02499999999998</v>
+      </c>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="10">
-        <f t="shared" si="86"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10">
+        <f t="shared" si="110"/>
         <v>274.31099999999998</v>
       </c>
-      <c r="P45" s="10">
+      <c r="Q45" s="10">
         <v>333.08800000000002</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="R45" s="10">
         <v>359.911</v>
       </c>
-      <c r="R45" s="10">
+      <c r="S45" s="10">
         <v>442.62</v>
       </c>
-      <c r="S45" s="10">
-        <f t="shared" si="87"/>
+      <c r="T45" s="10">
+        <f t="shared" si="111"/>
         <v>388.05500000000001</v>
       </c>
-      <c r="T45" s="10">
+      <c r="U45" s="10">
         <v>368.02300000000002</v>
       </c>
-      <c r="U45" s="10">
+      <c r="V45" s="10">
         <v>430.762</v>
       </c>
-      <c r="V45" s="10">
+      <c r="W45" s="10">
         <v>473.24700000000001</v>
       </c>
-      <c r="W45" s="10">
-        <f t="shared" si="88"/>
+      <c r="X45" s="10">
+        <f t="shared" si="112"/>
         <v>564.48800000000006</v>
       </c>
-      <c r="X45" s="10">
+      <c r="Y45" s="10">
         <v>776.81500000000005</v>
       </c>
-      <c r="Y45" s="10">
+      <c r="Z45" s="10">
         <v>972.64400000000001</v>
       </c>
-      <c r="Z45" s="15">
+      <c r="AA45" s="133">
         <v>892.48699999999997</v>
       </c>
-      <c r="AA45" s="10"/>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB45" s="133">
+        <f t="shared" si="113"/>
+        <v>868.02499999999998</v>
+      </c>
+      <c r="AC45" s="15">
+        <v>701.05600000000004</v>
+      </c>
+      <c r="AD45" s="133"/>
+      <c r="AE45" s="133"/>
+      <c r="AF45" s="133"/>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10">
@@ -22897,56 +23364,70 @@
       <c r="F46" s="10">
         <v>24.966000000000001</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="133">
         <v>25.553999999999998</v>
       </c>
-      <c r="L46" s="10"/>
+      <c r="H46" s="15">
+        <v>29.841999999999999</v>
+      </c>
+      <c r="I46" s="133"/>
+      <c r="J46" s="133"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
-      <c r="O46" s="10">
-        <f t="shared" si="86"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10">
+        <f t="shared" si="110"/>
         <v>30.856000000000002</v>
       </c>
-      <c r="P46" s="10">
+      <c r="Q46" s="10">
         <v>30.872</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="R46" s="10">
         <v>30.895</v>
       </c>
-      <c r="R46" s="10">
+      <c r="S46" s="10">
         <v>30.974</v>
       </c>
-      <c r="S46" s="10">
-        <f t="shared" si="87"/>
+      <c r="T46" s="10">
+        <f t="shared" si="111"/>
         <v>24.966000000000001</v>
       </c>
-      <c r="T46" s="10">
+      <c r="U46" s="10">
         <v>25.132999999999999</v>
       </c>
-      <c r="U46" s="10">
+      <c r="V46" s="10">
         <v>25.106000000000002</v>
       </c>
-      <c r="V46" s="10">
+      <c r="W46" s="10">
         <v>25.315000000000001</v>
       </c>
-      <c r="W46" s="10">
-        <f t="shared" si="88"/>
+      <c r="X46" s="10">
+        <f t="shared" si="112"/>
         <v>25.553999999999998</v>
       </c>
-      <c r="X46" s="10">
+      <c r="Y46" s="10">
         <v>26.138000000000002</v>
       </c>
-      <c r="Y46" s="10">
+      <c r="Z46" s="10">
         <v>27.664000000000001</v>
       </c>
-      <c r="Z46" s="15">
+      <c r="AA46" s="133">
         <v>27.969000000000001</v>
       </c>
-      <c r="AA46" s="10"/>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB46" s="133">
+        <f t="shared" si="113"/>
+        <v>29.841999999999999</v>
+      </c>
+      <c r="AC46" s="15">
+        <v>30.526</v>
+      </c>
+      <c r="AD46" s="133"/>
+      <c r="AE46" s="133"/>
+      <c r="AF46" s="133"/>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
@@ -22958,56 +23439,70 @@
       <c r="F47" s="10">
         <v>3302.402</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="133">
         <v>3578.5479999999998</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="H47" s="15">
+        <v>4000.127</v>
+      </c>
+      <c r="I47" s="133"/>
+      <c r="J47" s="133"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
-      <c r="O47" s="10">
-        <f t="shared" si="86"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10">
+        <f t="shared" si="110"/>
         <v>3118.2939999999999</v>
       </c>
-      <c r="P47" s="10">
+      <c r="Q47" s="10">
         <v>3147.0610000000001</v>
       </c>
-      <c r="Q47" s="10">
+      <c r="R47" s="10">
         <v>3209.9340000000002</v>
       </c>
-      <c r="R47" s="10">
+      <c r="S47" s="10">
         <v>3309.0509999999999</v>
       </c>
-      <c r="S47" s="10">
-        <f t="shared" si="87"/>
+      <c r="T47" s="10">
+        <f t="shared" si="111"/>
         <v>3302.402</v>
       </c>
-      <c r="T47" s="10">
+      <c r="U47" s="10">
         <v>3334.277</v>
       </c>
-      <c r="U47" s="10">
+      <c r="V47" s="10">
         <v>3433.7190000000001</v>
       </c>
-      <c r="V47" s="10">
+      <c r="W47" s="10">
         <v>3555.808</v>
       </c>
-      <c r="W47" s="10">
-        <f t="shared" si="88"/>
+      <c r="X47" s="10">
+        <f t="shared" si="112"/>
         <v>3578.5479999999998</v>
       </c>
-      <c r="X47" s="10">
+      <c r="Y47" s="10">
         <v>3670.9830000000002</v>
       </c>
-      <c r="Y47" s="10">
+      <c r="Z47" s="10">
         <v>3770.9969999999998</v>
       </c>
-      <c r="Z47" s="15">
+      <c r="AA47" s="133">
         <v>3954.6889999999999</v>
       </c>
-      <c r="AA47" s="10"/>
-    </row>
-    <row r="48" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB47" s="133">
+        <f t="shared" si="113"/>
+        <v>4000.127</v>
+      </c>
+      <c r="AC47" s="15">
+        <v>4075.748</v>
+      </c>
+      <c r="AD47" s="133"/>
+      <c r="AE47" s="133"/>
+      <c r="AF47" s="133"/>
+    </row>
+    <row r="48" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
@@ -23019,54 +23514,68 @@
       <c r="F48" s="10">
         <v>63.158000000000001</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="133">
         <v>63.082000000000001</v>
       </c>
-      <c r="L48" s="10"/>
+      <c r="H48" s="15">
+        <v>113.72799999999999</v>
+      </c>
+      <c r="I48" s="133"/>
+      <c r="J48" s="133"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
-      <c r="O48" s="10">
-        <f t="shared" si="86"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10">
+        <f t="shared" si="110"/>
         <v>56.716000000000001</v>
       </c>
-      <c r="P48" s="10">
+      <c r="Q48" s="10">
         <v>58.283000000000001</v>
       </c>
-      <c r="Q48" s="10">
+      <c r="R48" s="10">
         <v>63.01</v>
       </c>
-      <c r="R48" s="10">
+      <c r="S48" s="10">
         <v>63.798000000000002</v>
       </c>
-      <c r="S48" s="10">
-        <f t="shared" si="87"/>
+      <c r="T48" s="10">
+        <f t="shared" si="111"/>
         <v>63.158000000000001</v>
       </c>
-      <c r="T48" s="10">
+      <c r="U48" s="10">
         <v>61.228999999999999</v>
       </c>
-      <c r="U48" s="10">
+      <c r="V48" s="10">
         <v>62.526000000000003</v>
       </c>
-      <c r="V48" s="10">
+      <c r="W48" s="10">
         <v>72.83</v>
       </c>
-      <c r="W48" s="10">
-        <f t="shared" si="88"/>
+      <c r="X48" s="10">
+        <f t="shared" si="112"/>
         <v>63.082000000000001</v>
       </c>
-      <c r="X48" s="10">
+      <c r="Y48" s="10">
         <v>66.866</v>
       </c>
-      <c r="Y48" s="10">
+      <c r="Z48" s="10">
         <v>74.599000000000004</v>
       </c>
-      <c r="Z48" s="15">
+      <c r="AA48" s="133">
         <v>113.935</v>
       </c>
-      <c r="AA48" s="10"/>
-    </row>
-    <row r="49" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB48" s="133">
+        <f t="shared" si="113"/>
+        <v>113.72799999999999</v>
+      </c>
+      <c r="AC48" s="15">
+        <v>116.41500000000001</v>
+      </c>
+      <c r="AD48" s="133"/>
+      <c r="AE48" s="133"/>
+      <c r="AF48" s="133"/>
+    </row>
+    <row r="49" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -23080,17 +23589,19 @@
       <c r="F49" s="10">
         <v>21.939</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="133">
         <v>21.939</v>
       </c>
-      <c r="L49" s="10"/>
+      <c r="H49" s="15">
+        <v>21.939</v>
+      </c>
+      <c r="I49" s="133"/>
+      <c r="J49" s="133"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
-      <c r="O49" s="10">
-        <f t="shared" si="86"/>
-        <v>21.939</v>
-      </c>
+      <c r="O49" s="10"/>
       <c r="P49" s="10">
+        <f t="shared" si="110"/>
         <v>21.939</v>
       </c>
       <c r="Q49" s="10">
@@ -23100,10 +23611,10 @@
         <v>21.939</v>
       </c>
       <c r="S49" s="10">
-        <f t="shared" si="87"/>
         <v>21.939</v>
       </c>
       <c r="T49" s="10">
+        <f t="shared" si="111"/>
         <v>21.939</v>
       </c>
       <c r="U49" s="10">
@@ -23113,21 +23624,33 @@
         <v>21.939</v>
       </c>
       <c r="W49" s="10">
-        <f t="shared" si="88"/>
         <v>21.939</v>
       </c>
       <c r="X49" s="10">
+        <f t="shared" si="112"/>
         <v>21.939</v>
       </c>
       <c r="Y49" s="10">
         <v>21.939</v>
       </c>
-      <c r="Z49" s="15">
+      <c r="Z49" s="10">
         <v>21.939</v>
       </c>
-      <c r="AA49" s="10"/>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA49" s="133">
+        <v>21.939</v>
+      </c>
+      <c r="AB49" s="133">
+        <f t="shared" si="113"/>
+        <v>21.939</v>
+      </c>
+      <c r="AC49" s="15">
+        <v>21.939</v>
+      </c>
+      <c r="AD49" s="133"/>
+      <c r="AE49" s="133"/>
+      <c r="AF49" s="133"/>
+    </row>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>29</v>
       </c>
@@ -23147,76 +23670,104 @@
         <f>SUM(F43:F49)</f>
         <v>6927.5039999999999</v>
       </c>
-      <c r="G50" s="14">
-        <f>SUM(G43:G49)</f>
+      <c r="G50" s="11">
+        <f t="shared" ref="G50:J50" si="114">SUM(G43:G49)</f>
         <v>8044.362000000001</v>
       </c>
-      <c r="L50" s="11">
-        <f t="shared" ref="L50:W50" si="89">SUM(L43:L49)</f>
+      <c r="H50" s="14">
+        <f t="shared" si="114"/>
+        <v>9204.373999999998</v>
+      </c>
+      <c r="I50" s="11">
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
+      <c r="J50" s="11">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
       <c r="M50" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="M50:X50" si="115">SUM(M43:M49)</f>
         <v>0</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="11">
+        <f t="shared" si="115"/>
         <v>6652.9580000000005</v>
       </c>
-      <c r="P50" s="11">
-        <f t="shared" si="89"/>
+      <c r="Q50" s="11">
+        <f t="shared" si="115"/>
         <v>6467.2570000000005</v>
       </c>
-      <c r="Q50" s="11">
-        <f t="shared" si="89"/>
+      <c r="R50" s="11">
+        <f t="shared" si="115"/>
         <v>6545.3360000000011</v>
       </c>
-      <c r="R50" s="11">
-        <f t="shared" si="89"/>
+      <c r="S50" s="11">
+        <f t="shared" si="115"/>
         <v>6817.4370000000008</v>
       </c>
-      <c r="S50" s="11">
-        <f t="shared" si="89"/>
+      <c r="T50" s="11">
+        <f t="shared" si="115"/>
         <v>6927.5039999999999</v>
       </c>
-      <c r="T50" s="11">
-        <f t="shared" si="89"/>
+      <c r="U50" s="11">
+        <f t="shared" si="115"/>
         <v>7053.3720000000003</v>
       </c>
-      <c r="U50" s="11">
-        <f t="shared" si="89"/>
+      <c r="V50" s="11">
+        <f t="shared" si="115"/>
         <v>7552.4350000000004</v>
       </c>
-      <c r="V50" s="11">
-        <f t="shared" si="89"/>
+      <c r="W50" s="11">
+        <f t="shared" si="115"/>
         <v>7911.4929999999995</v>
       </c>
-      <c r="W50" s="11">
-        <f t="shared" si="89"/>
+      <c r="X50" s="11">
+        <f t="shared" si="115"/>
         <v>8044.362000000001</v>
       </c>
-      <c r="X50" s="11">
-        <f>SUM(X43:X49)</f>
+      <c r="Y50" s="11">
+        <f>SUM(Y43:Y49)</f>
         <v>8411.2489999999998</v>
       </c>
-      <c r="Y50" s="11">
-        <f t="shared" ref="Y50:AA50" si="90">SUM(Y43:Y49)</f>
+      <c r="Z50" s="11">
+        <f t="shared" ref="Z50:AB50" si="116">SUM(Z43:Z49)</f>
         <v>8919.8350000000009</v>
       </c>
-      <c r="Z50" s="14">
-        <f t="shared" si="90"/>
+      <c r="AA50" s="134">
+        <f t="shared" si="116"/>
         <v>9011.67</v>
       </c>
-      <c r="AA50" s="11">
-        <f t="shared" si="90"/>
+      <c r="AB50" s="134">
+        <f t="shared" ref="AB50:AF50" si="117">SUM(AB43:AB49)</f>
+        <v>9204.373999999998</v>
+      </c>
+      <c r="AC50" s="14">
+        <f t="shared" si="117"/>
+        <v>9044.094000000001</v>
+      </c>
+      <c r="AD50" s="134">
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE50" s="134">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="134">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>31</v>
       </c>
@@ -23230,56 +23781,70 @@
       <c r="F51" s="10">
         <v>184.566</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="133">
         <v>197.64599999999999</v>
       </c>
-      <c r="L51" s="10"/>
+      <c r="H51" s="15">
+        <v>210.69499999999999</v>
+      </c>
+      <c r="I51" s="133"/>
+      <c r="J51" s="133"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
-      <c r="O51" s="10">
-        <f t="shared" ref="O51:O56" si="91">E51</f>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10">
+        <f t="shared" ref="P51:P56" si="118">E51</f>
         <v>163.161</v>
       </c>
-      <c r="P51" s="10">
+      <c r="Q51" s="10">
         <v>168.905</v>
       </c>
-      <c r="Q51" s="10">
+      <c r="R51" s="10">
         <v>158.58099999999999</v>
       </c>
-      <c r="R51" s="10">
+      <c r="S51" s="10">
         <v>167.84200000000001</v>
       </c>
-      <c r="S51" s="10">
-        <f t="shared" ref="S51:S56" si="92">F51</f>
+      <c r="T51" s="10">
+        <f t="shared" ref="T51:T56" si="119">F51</f>
         <v>184.566</v>
       </c>
-      <c r="T51" s="10">
+      <c r="U51" s="10">
         <v>182.60599999999999</v>
       </c>
-      <c r="U51" s="10">
+      <c r="V51" s="10">
         <v>162.041</v>
       </c>
-      <c r="V51" s="10">
+      <c r="W51" s="10">
         <v>207.541</v>
       </c>
-      <c r="W51" s="10">
-        <f t="shared" ref="W51:W56" si="93">G51</f>
+      <c r="X51" s="10">
+        <f t="shared" ref="X51:X56" si="120">G51</f>
         <v>197.64599999999999</v>
       </c>
-      <c r="X51" s="10">
+      <c r="Y51" s="10">
         <v>196.86600000000001</v>
       </c>
-      <c r="Y51" s="10">
+      <c r="Z51" s="10">
         <v>203.48</v>
       </c>
-      <c r="Z51" s="15">
+      <c r="AA51" s="133">
         <v>221.30099999999999</v>
       </c>
-      <c r="AA51" s="10"/>
-    </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB51" s="133">
+        <f t="shared" ref="AB51:AB56" si="121">H51</f>
+        <v>210.69499999999999</v>
+      </c>
+      <c r="AC51" s="15">
+        <v>217.40600000000001</v>
+      </c>
+      <c r="AD51" s="133"/>
+      <c r="AE51" s="133"/>
+      <c r="AF51" s="133"/>
+    </row>
+    <row r="52" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10">
@@ -23291,56 +23856,70 @@
       <c r="F52" s="10">
         <v>170.45599999999999</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="133">
         <v>227.53700000000001</v>
       </c>
-      <c r="L52" s="10"/>
+      <c r="H52" s="15">
+        <v>261.91300000000001</v>
+      </c>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
-      <c r="O52" s="10">
-        <f t="shared" si="91"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10">
+        <f t="shared" si="118"/>
         <v>162.405</v>
       </c>
-      <c r="P52" s="10">
+      <c r="Q52" s="10">
         <v>172.45400000000001</v>
       </c>
-      <c r="Q52" s="10">
+      <c r="R52" s="10">
         <v>161.05199999999999</v>
       </c>
-      <c r="R52" s="10">
+      <c r="S52" s="10">
         <v>128.495</v>
       </c>
-      <c r="S52" s="10">
-        <f t="shared" si="92"/>
+      <c r="T52" s="10">
+        <f t="shared" si="119"/>
         <v>170.45599999999999</v>
       </c>
-      <c r="T52" s="10">
+      <c r="U52" s="10">
         <v>116.465</v>
       </c>
-      <c r="U52" s="10">
+      <c r="V52" s="10">
         <v>177.47499999999999</v>
       </c>
-      <c r="V52" s="10">
+      <c r="W52" s="10">
         <v>155.01499999999999</v>
       </c>
-      <c r="W52" s="10">
-        <f t="shared" si="93"/>
+      <c r="X52" s="10">
+        <f t="shared" si="120"/>
         <v>227.53700000000001</v>
       </c>
-      <c r="X52" s="10">
+      <c r="Y52" s="10">
         <v>142.42500000000001</v>
       </c>
-      <c r="Y52" s="10">
+      <c r="Z52" s="10">
         <v>223.41</v>
       </c>
-      <c r="Z52" s="15">
+      <c r="AA52" s="133">
         <v>184.36699999999999</v>
       </c>
-      <c r="AA52" s="10"/>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB52" s="133">
+        <f t="shared" si="121"/>
+        <v>261.91300000000001</v>
+      </c>
+      <c r="AC52" s="15">
+        <v>154.429</v>
+      </c>
+      <c r="AD52" s="133"/>
+      <c r="AE52" s="133"/>
+      <c r="AF52" s="133"/>
+    </row>
+    <row r="53" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10">
@@ -23352,56 +23931,70 @@
       <c r="F53" s="10">
         <v>147.53899999999999</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="133">
         <v>147.68799999999999</v>
       </c>
-      <c r="L53" s="10"/>
+      <c r="H53" s="15">
+        <v>179.74700000000001</v>
+      </c>
+      <c r="I53" s="133"/>
+      <c r="J53" s="133"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
-      <c r="O53" s="10">
-        <f t="shared" si="91"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10">
+        <f t="shared" si="118"/>
         <v>173.05199999999999</v>
       </c>
-      <c r="P53" s="10">
+      <c r="Q53" s="10">
         <v>136.655</v>
       </c>
-      <c r="Q53" s="10">
+      <c r="R53" s="10">
         <v>148.614</v>
       </c>
-      <c r="R53" s="10">
+      <c r="S53" s="10">
         <v>156.45500000000001</v>
       </c>
-      <c r="S53" s="10">
-        <f t="shared" si="92"/>
+      <c r="T53" s="10">
+        <f t="shared" si="119"/>
         <v>147.53899999999999</v>
       </c>
-      <c r="T53" s="10">
+      <c r="U53" s="10">
         <v>160.43600000000001</v>
       </c>
-      <c r="U53" s="10">
+      <c r="V53" s="10">
         <v>141.291</v>
       </c>
-      <c r="V53" s="10">
+      <c r="W53" s="10">
         <v>151.148</v>
       </c>
-      <c r="W53" s="10">
-        <f t="shared" si="93"/>
+      <c r="X53" s="10">
+        <f t="shared" si="120"/>
         <v>147.68799999999999</v>
       </c>
-      <c r="X53" s="10">
+      <c r="Y53" s="10">
         <v>171.61199999999999</v>
       </c>
-      <c r="Y53" s="10">
+      <c r="Z53" s="10">
         <v>169.631</v>
       </c>
-      <c r="Z53" s="15">
+      <c r="AA53" s="133">
         <v>181.35400000000001</v>
       </c>
-      <c r="AA53" s="10"/>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB53" s="133">
+        <f t="shared" si="121"/>
+        <v>179.74700000000001</v>
+      </c>
+      <c r="AC53" s="15">
+        <v>185.30699999999999</v>
+      </c>
+      <c r="AD53" s="133"/>
+      <c r="AE53" s="133"/>
+      <c r="AF53" s="133"/>
+    </row>
+    <row r="54" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -23413,56 +24006,70 @@
       <c r="F54" s="10">
         <v>183.071</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="133">
         <v>209.68</v>
       </c>
-      <c r="L54" s="10"/>
+      <c r="H54" s="15">
+        <v>238.577</v>
+      </c>
+      <c r="I54" s="133"/>
+      <c r="J54" s="133"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
-      <c r="O54" s="10">
-        <f t="shared" si="91"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10">
+        <f t="shared" si="118"/>
         <v>156.351</v>
       </c>
-      <c r="P54" s="10">
+      <c r="Q54" s="10">
         <v>132.42099999999999</v>
       </c>
-      <c r="Q54" s="10">
+      <c r="R54" s="10">
         <v>132.446</v>
       </c>
-      <c r="R54" s="10">
+      <c r="S54" s="10">
         <v>133.11799999999999</v>
       </c>
-      <c r="S54" s="10">
-        <f t="shared" si="92"/>
+      <c r="T54" s="10">
+        <f t="shared" si="119"/>
         <v>183.071</v>
       </c>
-      <c r="T54" s="10">
+      <c r="U54" s="10">
         <v>157.898</v>
       </c>
-      <c r="U54" s="10">
+      <c r="V54" s="10">
         <v>158.959</v>
       </c>
-      <c r="V54" s="10">
+      <c r="W54" s="10">
         <v>156.32</v>
       </c>
-      <c r="W54" s="10">
-        <f t="shared" si="93"/>
+      <c r="X54" s="10">
+        <f t="shared" si="120"/>
         <v>209.68</v>
       </c>
-      <c r="X54" s="10">
+      <c r="Y54" s="10">
         <v>187.31700000000001</v>
       </c>
-      <c r="Y54" s="10">
+      <c r="Z54" s="10">
         <v>182.33099999999999</v>
       </c>
-      <c r="Z54" s="15">
+      <c r="AA54" s="133">
         <v>180.28800000000001</v>
       </c>
-      <c r="AA54" s="10"/>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB54" s="133">
+        <f t="shared" si="121"/>
+        <v>238.577</v>
+      </c>
+      <c r="AC54" s="15">
+        <v>203.744</v>
+      </c>
+      <c r="AD54" s="133"/>
+      <c r="AE54" s="133"/>
+      <c r="AF54" s="133"/>
+    </row>
+    <row r="55" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10">
@@ -23474,99 +24081,125 @@
       <c r="F55" s="10">
         <v>236.24799999999999</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="133">
         <v>248.07400000000001</v>
       </c>
-      <c r="L55" s="10"/>
+      <c r="H55" s="15">
+        <v>277.83600000000001</v>
+      </c>
+      <c r="I55" s="133"/>
+      <c r="J55" s="133"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
-      <c r="O55" s="10">
-        <f t="shared" si="91"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10">
+        <f t="shared" si="118"/>
         <v>218.71299999999999</v>
       </c>
-      <c r="P55" s="10">
+      <c r="Q55" s="10">
         <v>233.303</v>
       </c>
-      <c r="Q55" s="10">
+      <c r="R55" s="10">
         <v>230.93</v>
       </c>
-      <c r="R55" s="10">
+      <c r="S55" s="10">
         <v>231.947</v>
       </c>
-      <c r="S55" s="10">
-        <f t="shared" si="92"/>
+      <c r="T55" s="10">
+        <f t="shared" si="119"/>
         <v>236.24799999999999</v>
       </c>
-      <c r="T55" s="10">
+      <c r="U55" s="10">
         <v>239.029</v>
       </c>
-      <c r="U55" s="10">
+      <c r="V55" s="10">
         <v>244.06100000000001</v>
       </c>
-      <c r="V55" s="10">
+      <c r="W55" s="10">
         <v>244.994</v>
       </c>
-      <c r="W55" s="10">
-        <f t="shared" si="93"/>
+      <c r="X55" s="10">
+        <f t="shared" si="120"/>
         <v>248.07400000000001</v>
       </c>
-      <c r="X55" s="10">
+      <c r="Y55" s="10">
         <v>254.14400000000001</v>
       </c>
-      <c r="Y55" s="10">
+      <c r="Z55" s="10">
         <v>264.30399999999997</v>
       </c>
-      <c r="Z55" s="15">
+      <c r="AA55" s="133">
         <v>270.57400000000001</v>
       </c>
-      <c r="AA55" s="10"/>
-    </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB55" s="133">
+        <f t="shared" si="121"/>
+        <v>277.83600000000001</v>
+      </c>
+      <c r="AC55" s="15">
+        <v>284.505</v>
+      </c>
+      <c r="AD55" s="133"/>
+      <c r="AE55" s="133"/>
+      <c r="AF55" s="133"/>
+    </row>
+    <row r="56" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="15"/>
-      <c r="L56" s="10"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="133"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
-      <c r="O56" s="10">
-        <f t="shared" si="91"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10">
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
-      <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
-      <c r="S56" s="10">
-        <f t="shared" si="92"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10">
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="T56" s="10">
+      <c r="U56" s="10">
         <v>37.658000000000001</v>
       </c>
-      <c r="U56" s="10">
+      <c r="V56" s="10">
         <v>98.423000000000002</v>
       </c>
-      <c r="V56" s="10">
+      <c r="W56" s="10">
         <v>172.68899999999999</v>
       </c>
-      <c r="W56" s="10">
-        <f t="shared" si="93"/>
+      <c r="X56" s="10">
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="X56" s="10">
+      <c r="Y56" s="10">
         <v>44.988999999999997</v>
       </c>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="15"/>
-      <c r="AA56" s="10"/>
-    </row>
-    <row r="57" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="133"/>
+      <c r="AB56" s="133">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="15">
+        <v>46.146999999999998</v>
+      </c>
+      <c r="AD56" s="133"/>
+      <c r="AE56" s="133"/>
+      <c r="AF56" s="133"/>
+    </row>
+    <row r="57" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="11">
         <f>SUM(C51:C56)</f>
@@ -23584,78 +24217,106 @@
         <f>SUM(F51:F56)</f>
         <v>921.87999999999988</v>
       </c>
-      <c r="G57" s="14">
-        <f>SUM(G51:G56)</f>
+      <c r="G57" s="11">
+        <f t="shared" ref="G57:J57" si="122">SUM(G51:G56)</f>
         <v>1030.625</v>
       </c>
-      <c r="L57" s="11">
-        <f t="shared" ref="L57:W57" si="94">SUM(L51:L56)</f>
+      <c r="H57" s="14">
+        <f t="shared" si="122"/>
+        <v>1168.768</v>
+      </c>
+      <c r="I57" s="11">
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
+      <c r="J57" s="11">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
       <c r="M57" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" ref="M57:X57" si="123">SUM(M51:M56)</f>
         <v>0</v>
       </c>
       <c r="N57" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="11">
+        <f t="shared" si="123"/>
         <v>873.68200000000002</v>
       </c>
-      <c r="P57" s="11">
-        <f t="shared" si="94"/>
+      <c r="Q57" s="11">
+        <f t="shared" si="123"/>
         <v>843.73799999999994</v>
       </c>
-      <c r="Q57" s="11">
-        <f t="shared" si="94"/>
+      <c r="R57" s="11">
+        <f t="shared" si="123"/>
         <v>831.62300000000005</v>
       </c>
-      <c r="R57" s="11">
-        <f t="shared" si="94"/>
+      <c r="S57" s="11">
+        <f t="shared" si="123"/>
         <v>817.85700000000008</v>
       </c>
-      <c r="S57" s="11">
-        <f t="shared" si="94"/>
+      <c r="T57" s="11">
+        <f t="shared" si="123"/>
         <v>921.87999999999988</v>
       </c>
-      <c r="T57" s="11">
-        <f t="shared" si="94"/>
+      <c r="U57" s="11">
+        <f t="shared" si="123"/>
         <v>894.0920000000001</v>
       </c>
-      <c r="U57" s="11">
-        <f t="shared" si="94"/>
+      <c r="V57" s="11">
+        <f t="shared" si="123"/>
         <v>982.25</v>
       </c>
-      <c r="V57" s="11">
-        <f t="shared" si="94"/>
+      <c r="W57" s="11">
+        <f t="shared" si="123"/>
         <v>1087.7069999999999</v>
       </c>
-      <c r="W57" s="11">
-        <f t="shared" si="94"/>
+      <c r="X57" s="11">
+        <f t="shared" si="123"/>
         <v>1030.625</v>
       </c>
-      <c r="X57" s="11">
-        <f>SUM(X51:X56)</f>
+      <c r="Y57" s="11">
+        <f>SUM(Y51:Y56)</f>
         <v>997.35300000000007</v>
       </c>
-      <c r="Y57" s="11">
-        <f t="shared" ref="Y57:AA57" si="95">SUM(Y51:Y56)</f>
+      <c r="Z57" s="11">
+        <f t="shared" ref="Z57:AB57" si="124">SUM(Z51:Z56)</f>
         <v>1043.1559999999999</v>
       </c>
-      <c r="Z57" s="14">
-        <f t="shared" si="95"/>
+      <c r="AA57" s="134">
+        <f t="shared" si="124"/>
         <v>1037.884</v>
       </c>
-      <c r="AA57" s="11">
-        <f t="shared" si="95"/>
+      <c r="AB57" s="134">
+        <f t="shared" ref="AB57:AF57" si="125">SUM(AB51:AB56)</f>
+        <v>1168.768</v>
+      </c>
+      <c r="AC57" s="14">
+        <f t="shared" si="125"/>
+        <v>1091.538</v>
+      </c>
+      <c r="AD57" s="134">
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE57" s="134">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="134">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10">
@@ -23667,56 +24328,70 @@
       <c r="F58" s="10">
         <v>3495.1619999999998</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="133">
         <v>3803.5509999999999</v>
       </c>
-      <c r="L58" s="10"/>
+      <c r="H58" s="15">
+        <v>4262.7820000000002</v>
+      </c>
+      <c r="I58" s="133"/>
+      <c r="J58" s="133"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
-      <c r="O58" s="10">
-        <f t="shared" ref="O58:O60" si="96">E58</f>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10">
+        <f t="shared" ref="P58:P60" si="126">E58</f>
         <v>3301.6010000000001</v>
       </c>
-      <c r="P58" s="10">
+      <c r="Q58" s="10">
         <v>3331.319</v>
       </c>
-      <c r="Q58" s="10">
+      <c r="R58" s="10">
         <v>3393.4229999999998</v>
       </c>
-      <c r="R58" s="10">
+      <c r="S58" s="10">
         <v>3497.221</v>
       </c>
-      <c r="S58" s="10">
-        <f t="shared" ref="S58:S60" si="97">F58</f>
+      <c r="T58" s="10">
+        <f t="shared" ref="T58:T60" si="127">F58</f>
         <v>3495.1619999999998</v>
       </c>
-      <c r="T58" s="10">
+      <c r="U58" s="10">
         <v>3532.5659999999998</v>
       </c>
-      <c r="U58" s="10">
+      <c r="V58" s="10">
         <v>3643.931</v>
       </c>
-      <c r="V58" s="10">
+      <c r="W58" s="10">
         <v>3773.087</v>
       </c>
-      <c r="W58" s="10">
-        <f t="shared" ref="W58:W60" si="98">G58</f>
+      <c r="X58" s="10">
+        <f t="shared" ref="X58:X60" si="128">G58</f>
         <v>3803.5509999999999</v>
       </c>
-      <c r="X58" s="10">
+      <c r="Y58" s="10">
         <v>3903.3530000000001</v>
       </c>
-      <c r="Y58" s="10">
+      <c r="Z58" s="10">
         <v>4014.4540000000002</v>
       </c>
-      <c r="Z58" s="15">
+      <c r="AA58" s="133">
         <v>4212.8680000000004</v>
       </c>
-      <c r="AA58" s="10"/>
-    </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB58" s="133">
+        <f t="shared" ref="AB58:AB60" si="129">H58</f>
+        <v>4262.7820000000002</v>
+      </c>
+      <c r="AC58" s="15">
+        <v>4348.5739999999996</v>
+      </c>
+      <c r="AD58" s="133"/>
+      <c r="AE58" s="133"/>
+      <c r="AF58" s="133"/>
+    </row>
+    <row r="59" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -23728,54 +24403,68 @@
       <c r="F59" s="10">
         <v>98.623000000000005</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="133">
         <v>89.108999999999995</v>
       </c>
-      <c r="L59" s="10"/>
+      <c r="H59" s="15">
+        <v>46.207999999999998</v>
+      </c>
+      <c r="I59" s="133"/>
+      <c r="J59" s="133"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
-      <c r="O59" s="10">
-        <f t="shared" si="96"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10">
+        <f t="shared" si="126"/>
         <v>141.76499999999999</v>
       </c>
-      <c r="P59" s="10">
+      <c r="Q59" s="10">
         <v>127.729</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="R59" s="10">
         <v>126.239</v>
       </c>
-      <c r="R59" s="10">
+      <c r="S59" s="10">
         <v>133.255</v>
       </c>
-      <c r="S59" s="10">
-        <f t="shared" si="97"/>
+      <c r="T59" s="10">
+        <f t="shared" si="127"/>
         <v>98.623000000000005</v>
       </c>
-      <c r="T59" s="10">
+      <c r="U59" s="10">
         <v>98.137</v>
       </c>
-      <c r="U59" s="10">
+      <c r="V59" s="10">
         <v>106.44</v>
       </c>
-      <c r="V59" s="10">
+      <c r="W59" s="10">
         <v>111.089</v>
       </c>
-      <c r="W59" s="10">
-        <f t="shared" si="98"/>
+      <c r="X59" s="10">
+        <f t="shared" si="128"/>
         <v>89.108999999999995</v>
       </c>
-      <c r="X59" s="10">
+      <c r="Y59" s="10">
         <v>84.228999999999999</v>
       </c>
-      <c r="Y59" s="10">
+      <c r="Z59" s="10">
         <v>83.298000000000002</v>
       </c>
-      <c r="Z59" s="15">
+      <c r="AA59" s="133">
         <v>79.519000000000005</v>
       </c>
-      <c r="AA59" s="10"/>
-    </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB59" s="133">
+        <f t="shared" si="129"/>
+        <v>46.207999999999998</v>
+      </c>
+      <c r="AC59" s="15">
+        <v>38.878999999999998</v>
+      </c>
+      <c r="AD59" s="133"/>
+      <c r="AE59" s="133"/>
+      <c r="AF59" s="133"/>
+    </row>
+    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>27</v>
       </c>
@@ -23789,54 +24478,68 @@
       <c r="F60" s="10">
         <v>43.816000000000003</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="133">
         <v>58.87</v>
       </c>
-      <c r="L60" s="10"/>
+      <c r="H60" s="15">
+        <v>71.069999999999993</v>
+      </c>
+      <c r="I60" s="133"/>
+      <c r="J60" s="133"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
-      <c r="O60" s="10">
-        <f t="shared" si="96"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10">
+        <f t="shared" si="126"/>
         <v>38.536000000000001</v>
       </c>
-      <c r="P60" s="10">
+      <c r="Q60" s="10">
         <v>40.511000000000003</v>
       </c>
-      <c r="Q60" s="10">
+      <c r="R60" s="10">
         <v>39.851999999999997</v>
       </c>
-      <c r="R60" s="10">
+      <c r="S60" s="10">
         <v>41.722999999999999</v>
       </c>
-      <c r="S60" s="10">
-        <f t="shared" si="97"/>
+      <c r="T60" s="10">
+        <f t="shared" si="127"/>
         <v>43.816000000000003</v>
       </c>
-      <c r="T60" s="10">
+      <c r="U60" s="10">
         <v>46.892000000000003</v>
       </c>
-      <c r="U60" s="10">
+      <c r="V60" s="10">
         <v>52.927999999999997</v>
       </c>
-      <c r="V60" s="10">
+      <c r="W60" s="10">
         <v>53.295999999999999</v>
       </c>
-      <c r="W60" s="10">
-        <f t="shared" si="98"/>
+      <c r="X60" s="10">
+        <f t="shared" si="128"/>
         <v>58.87</v>
       </c>
-      <c r="X60" s="10">
+      <c r="Y60" s="10">
         <v>64.984999999999999</v>
       </c>
-      <c r="Y60" s="10">
+      <c r="Z60" s="10">
         <v>67.106999999999999</v>
       </c>
-      <c r="Z60" s="15">
+      <c r="AA60" s="133">
         <v>67.501000000000005</v>
       </c>
-      <c r="AA60" s="10"/>
-    </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AB60" s="133">
+        <f t="shared" si="129"/>
+        <v>71.069999999999993</v>
+      </c>
+      <c r="AC60" s="15">
+        <v>74.230999999999995</v>
+      </c>
+      <c r="AD60" s="133"/>
+      <c r="AE60" s="133"/>
+      <c r="AF60" s="133"/>
+    </row>
+    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>30</v>
       </c>
@@ -23856,78 +24559,106 @@
         <f>SUM(F57:F60)</f>
         <v>4559.4809999999989</v>
       </c>
-      <c r="G61" s="14">
-        <f>SUM(G57:G60)</f>
+      <c r="G61" s="11">
+        <f t="shared" ref="G61:J61" si="130">SUM(G57:G60)</f>
         <v>4982.1549999999997</v>
       </c>
-      <c r="L61" s="11">
-        <f t="shared" ref="L61:W61" si="99">SUM(L57:L60)</f>
+      <c r="H61" s="14">
+        <f t="shared" si="130"/>
+        <v>5548.8279999999995</v>
+      </c>
+      <c r="I61" s="11">
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
+      <c r="J61" s="11">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
       <c r="M61" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="M61:X61" si="131">SUM(M57:M60)</f>
         <v>0</v>
       </c>
       <c r="N61" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="O61" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="11">
+        <f t="shared" si="131"/>
         <v>4355.5840000000007</v>
       </c>
-      <c r="P61" s="11">
-        <f t="shared" si="99"/>
+      <c r="Q61" s="11">
+        <f t="shared" si="131"/>
         <v>4343.2970000000005</v>
       </c>
-      <c r="Q61" s="11">
-        <f t="shared" si="99"/>
+      <c r="R61" s="11">
+        <f t="shared" si="131"/>
         <v>4391.1369999999997</v>
       </c>
-      <c r="R61" s="11">
-        <f t="shared" si="99"/>
+      <c r="S61" s="11">
+        <f t="shared" si="131"/>
         <v>4490.0560000000005</v>
       </c>
-      <c r="S61" s="11">
-        <f t="shared" si="99"/>
+      <c r="T61" s="11">
+        <f t="shared" si="131"/>
         <v>4559.4809999999989</v>
       </c>
-      <c r="T61" s="11">
-        <f t="shared" si="99"/>
+      <c r="U61" s="11">
+        <f t="shared" si="131"/>
         <v>4571.686999999999</v>
       </c>
-      <c r="U61" s="11">
-        <f t="shared" si="99"/>
+      <c r="V61" s="11">
+        <f t="shared" si="131"/>
         <v>4785.549</v>
       </c>
-      <c r="V61" s="11">
-        <f t="shared" si="99"/>
+      <c r="W61" s="11">
+        <f t="shared" si="131"/>
         <v>5025.1790000000001</v>
       </c>
-      <c r="W61" s="11">
-        <f t="shared" si="99"/>
+      <c r="X61" s="11">
+        <f t="shared" si="131"/>
         <v>4982.1549999999997</v>
       </c>
-      <c r="X61" s="11">
-        <f>SUM(X57:X60)</f>
+      <c r="Y61" s="11">
+        <f>SUM(Y57:Y60)</f>
         <v>5049.92</v>
       </c>
-      <c r="Y61" s="11">
-        <f t="shared" ref="Y61:AA61" si="100">SUM(Y57:Y60)</f>
+      <c r="Z61" s="11">
+        <f t="shared" ref="Z61:AB61" si="132">SUM(Z57:Z60)</f>
         <v>5208.0150000000003</v>
       </c>
-      <c r="Z61" s="14">
-        <f t="shared" si="100"/>
+      <c r="AA61" s="134">
+        <f t="shared" si="132"/>
         <v>5397.7720000000008</v>
       </c>
-      <c r="AA61" s="11">
-        <f t="shared" si="100"/>
+      <c r="AB61" s="134">
+        <f t="shared" ref="AB61:AF61" si="133">SUM(AB57:AB60)</f>
+        <v>5548.8279999999995</v>
+      </c>
+      <c r="AC61" s="14">
+        <f t="shared" si="133"/>
+        <v>5553.2219999999988</v>
+      </c>
+      <c r="AD61" s="134">
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AE61" s="134">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="134">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10">
@@ -23942,81 +24673,115 @@
         <f>F50-F61</f>
         <v>2368.023000000001</v>
       </c>
-      <c r="G62" s="15">
-        <f>G50-G61</f>
+      <c r="G62" s="10">
+        <f t="shared" ref="G62:J62" si="134">G50-G61</f>
         <v>3062.2070000000012</v>
       </c>
-      <c r="L62" s="10"/>
+      <c r="H62" s="15">
+        <f t="shared" si="134"/>
+        <v>3655.5459999999985</v>
+      </c>
+      <c r="I62" s="10">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="10">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
-      <c r="O62" s="10">
-        <f t="shared" ref="O62:W62" si="101">O50-O61</f>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10">
+        <f t="shared" ref="P62:X62" si="135">P50-P61</f>
         <v>2297.3739999999998</v>
       </c>
-      <c r="P62" s="10">
-        <f t="shared" si="101"/>
+      <c r="Q62" s="10">
+        <f t="shared" si="135"/>
         <v>2123.96</v>
       </c>
-      <c r="Q62" s="10">
-        <f t="shared" si="101"/>
+      <c r="R62" s="10">
+        <f t="shared" si="135"/>
         <v>2154.1990000000014</v>
       </c>
-      <c r="R62" s="10">
-        <f t="shared" si="101"/>
+      <c r="S62" s="10">
+        <f t="shared" si="135"/>
         <v>2327.3810000000003</v>
       </c>
-      <c r="S62" s="10">
-        <f t="shared" si="101"/>
+      <c r="T62" s="10">
+        <f t="shared" si="135"/>
         <v>2368.023000000001</v>
       </c>
-      <c r="T62" s="10">
-        <f t="shared" si="101"/>
+      <c r="U62" s="10">
+        <f t="shared" si="135"/>
         <v>2481.6850000000013</v>
       </c>
-      <c r="U62" s="10">
-        <f t="shared" si="101"/>
+      <c r="V62" s="10">
+        <f t="shared" si="135"/>
         <v>2766.8860000000004</v>
       </c>
-      <c r="V62" s="10">
-        <f t="shared" si="101"/>
+      <c r="W62" s="10">
+        <f t="shared" si="135"/>
         <v>2886.3139999999994</v>
       </c>
-      <c r="W62" s="10">
-        <f t="shared" si="101"/>
+      <c r="X62" s="10">
+        <f t="shared" si="135"/>
         <v>3062.2070000000012</v>
       </c>
-      <c r="X62" s="10">
-        <f>X50-X61</f>
+      <c r="Y62" s="10">
+        <f>Y50-Y61</f>
         <v>3361.3289999999997</v>
       </c>
-      <c r="Y62" s="10">
-        <f t="shared" ref="Y62:AA62" si="102">Y50-Y61</f>
+      <c r="Z62" s="10">
+        <f t="shared" ref="Z62:AB62" si="136">Z50-Z61</f>
         <v>3711.8200000000006</v>
       </c>
-      <c r="Z62" s="15">
-        <f t="shared" si="102"/>
+      <c r="AA62" s="133">
+        <f t="shared" si="136"/>
         <v>3613.8979999999992</v>
       </c>
-      <c r="AA62" s="10">
-        <f t="shared" si="102"/>
+      <c r="AB62" s="133">
+        <f t="shared" ref="AB62:AF62" si="137">AB50-AB61</f>
+        <v>3655.5459999999985</v>
+      </c>
+      <c r="AC62" s="15">
+        <f t="shared" si="137"/>
+        <v>3490.8720000000021</v>
+      </c>
+      <c r="AD62" s="133">
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="51"/>
-      <c r="Z64" s="16"/>
-    </row>
-    <row r="82" spans="7:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G82" s="41"/>
-      <c r="Z82" s="41"/>
-    </row>
-    <row r="83" spans="7:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G83" s="16"/>
-      <c r="Z83" s="16"/>
+      <c r="AE62" s="133">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="133">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="139"/>
+      <c r="H64" s="16"/>
+      <c r="AA64" s="141"/>
+      <c r="AC64" s="16"/>
+    </row>
+    <row r="82" spans="7:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G82" s="140"/>
+      <c r="H82" s="40"/>
+      <c r="AA82" s="140"/>
+      <c r="AC82" s="40"/>
+    </row>
+    <row r="83" spans="7:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G83" s="141"/>
+      <c r="H83" s="16"/>
+      <c r="AA83" s="141"/>
+      <c r="AC83" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -24043,7 +24808,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -24091,13 +24856,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -24108,13 +24873,13 @@
         <v>2884.25</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
         <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -24128,7 +24893,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -24143,7 +24908,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -36238,25 +37003,25 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="134" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -36269,12 +37034,12 @@
         <f>C2/C3-1</f>
         <v>5.2768602233361772E-3</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
@@ -36287,23 +37052,23 @@
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>-2.9919525313729545E-2</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="J3" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="K3" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="L3" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="M3" s="57" t="s">
         <v>98</v>
-      </c>
-      <c r="M3" s="63" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -36317,27 +37082,27 @@
         <f t="shared" si="0"/>
         <v>1.7959598750214578E-2</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="58">
         <f>$I$19-3*$I$23</f>
         <v>-0.15385426193937241</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="59">
         <f>H4</f>
         <v>-0.15385426193937241</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="60">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>8</v>
       </c>
-      <c r="K4" s="66" t="str">
+      <c r="K4" s="60" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>Less than -15,39%</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="61">
         <f>J4/$I$31</f>
         <v>8.4033613445378148E-3</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="62">
         <f>L4</f>
         <v>8.4033613445378148E-3</v>
       </c>
@@ -36353,27 +37118,27 @@
         <f t="shared" si="0"/>
         <v>-4.6446674167910373E-4</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="63">
         <f>$I$19-2.4*$I$23</f>
         <v>-0.12191411129516899</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="64">
         <f>H5</f>
         <v>-0.12191411129516899</v>
       </c>
-      <c r="J5" s="71">
+      <c r="J5" s="65">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>6</v>
       </c>
-      <c r="K5" s="72" t="str">
+      <c r="K5" s="66" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>-15,39% to -12,19%</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="67">
         <f>J5/$I$31</f>
         <v>6.3025210084033615E-3</v>
       </c>
-      <c r="M5" s="74">
+      <c r="M5" s="68">
         <f>M4+L5</f>
         <v>1.4705882352941176E-2</v>
       </c>
@@ -36389,27 +37154,27 @@
         <f t="shared" si="0"/>
         <v>8.5807208315471506E-3</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="63">
         <f>$I$19-1.8*$I$23</f>
         <v>-8.9973960650965593E-2</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="64">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>-8.9973960650965593E-2</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="65">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>18</v>
       </c>
-      <c r="K6" s="72" t="str">
+      <c r="K6" s="66" t="str">
         <f t="shared" si="1"/>
         <v>-12,19% to -9,00%</v>
       </c>
-      <c r="L6" s="73">
+      <c r="L6" s="67">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>1.8907563025210083E-2</v>
       </c>
-      <c r="M6" s="74">
+      <c r="M6" s="68">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>3.3613445378151259E-2</v>
       </c>
@@ -36425,27 +37190,27 @@
         <f t="shared" si="0"/>
         <v>4.5585040896825024E-2</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="63">
         <f>$I$19-1.2*$I$23</f>
         <v>-5.8033810006762179E-2</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="64">
         <f t="shared" si="2"/>
         <v>-5.8033810006762179E-2</v>
       </c>
-      <c r="J7" s="71">
+      <c r="J7" s="65">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="K7" s="72" t="str">
+      <c r="K7" s="66" t="str">
         <f t="shared" si="1"/>
         <v>-9,00% to -5,80%</v>
       </c>
-      <c r="L7" s="73">
+      <c r="L7" s="67">
         <f t="shared" si="4"/>
         <v>5.1470588235294115E-2</v>
       </c>
-      <c r="M7" s="74">
+      <c r="M7" s="68">
         <f t="shared" si="5"/>
         <v>8.5084033613445381E-2</v>
       </c>
@@ -36461,27 +37226,27 @@
         <f t="shared" si="0"/>
         <v>2.6160325279303231E-2</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="63">
         <f>$I$19-0.6*$I$23</f>
         <v>-2.6093659362558769E-2</v>
       </c>
-      <c r="I8" s="70">
+      <c r="I8" s="64">
         <f t="shared" si="2"/>
         <v>-2.6093659362558769E-2</v>
       </c>
-      <c r="J8" s="71">
+      <c r="J8" s="65">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="K8" s="72" t="str">
+      <c r="K8" s="66" t="str">
         <f t="shared" si="1"/>
         <v>-5,80% to -2,61%</v>
       </c>
-      <c r="L8" s="73">
+      <c r="L8" s="67">
         <f t="shared" si="4"/>
         <v>0.12710084033613445</v>
       </c>
-      <c r="M8" s="74">
+      <c r="M8" s="68">
         <f t="shared" si="5"/>
         <v>0.21218487394957983</v>
       </c>
@@ -36497,27 +37262,27 @@
         <f t="shared" si="0"/>
         <v>-9.8926352148986929E-4</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="63">
         <f>$I$19</f>
         <v>5.8464912816446361E-3</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="64">
         <f t="shared" si="2"/>
         <v>5.8464912816446361E-3</v>
       </c>
-      <c r="J9" s="71">
+      <c r="J9" s="65">
         <f t="shared" si="3"/>
         <v>284</v>
       </c>
-      <c r="K9" s="72" t="str">
+      <c r="K9" s="66" t="str">
         <f t="shared" si="1"/>
         <v>-2,61% to 0,58%</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9" s="67">
         <f t="shared" si="4"/>
         <v>0.29831932773109243</v>
       </c>
-      <c r="M9" s="74">
+      <c r="M9" s="68">
         <f t="shared" si="5"/>
         <v>0.51050420168067223</v>
       </c>
@@ -36533,27 +37298,27 @@
         <f t="shared" si="0"/>
         <v>1.5891389516401455E-2</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="63">
         <f>$I$19+0.6*$I$23</f>
         <v>3.778664192584804E-2</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="64">
         <f t="shared" si="2"/>
         <v>3.778664192584804E-2</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="65">
         <f t="shared" si="3"/>
         <v>264</v>
       </c>
-      <c r="K10" s="72" t="str">
+      <c r="K10" s="66" t="str">
         <f t="shared" si="1"/>
         <v>0,58% to 3,78%</v>
       </c>
-      <c r="L10" s="73">
+      <c r="L10" s="67">
         <f t="shared" si="4"/>
         <v>0.27731092436974791</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="68">
         <f t="shared" si="5"/>
         <v>0.78781512605042014</v>
       </c>
@@ -36569,27 +37334,27 @@
         <f t="shared" si="0"/>
         <v>1.8584314475946329E-2</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="63">
         <f>$I$19+1.2*$I$23</f>
         <v>6.9726792570051446E-2</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="64">
         <f t="shared" si="2"/>
         <v>6.9726792570051446E-2</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="65">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="K11" s="72" t="str">
+      <c r="K11" s="66" t="str">
         <f t="shared" si="1"/>
         <v>3,78% to 6,97%</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11" s="67">
         <f t="shared" si="4"/>
         <v>0.12289915966386554</v>
       </c>
-      <c r="M11" s="74">
+      <c r="M11" s="68">
         <f t="shared" si="5"/>
         <v>0.9107142857142857</v>
       </c>
@@ -36605,27 +37370,27 @@
         <f t="shared" si="0"/>
         <v>-1.5130731145294729E-2</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="63">
         <f>$I$19+1.8*$I$23</f>
         <v>0.10166694321425486</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="64">
         <f t="shared" si="2"/>
         <v>0.10166694321425486</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="65">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="K12" s="72" t="str">
+      <c r="K12" s="66" t="str">
         <f t="shared" si="1"/>
         <v>6,97% to 10,17%</v>
       </c>
-      <c r="L12" s="73">
+      <c r="L12" s="67">
         <f t="shared" si="4"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="M12" s="74">
+      <c r="M12" s="68">
         <f t="shared" si="5"/>
         <v>0.96953781512605042</v>
       </c>
@@ -36641,27 +37406,27 @@
         <f t="shared" si="0"/>
         <v>6.2873675482485236E-2</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="63">
         <f>$I$19+2.4*$I$23</f>
         <v>0.13360709385845826</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="64">
         <f t="shared" si="2"/>
         <v>0.13360709385845826</v>
       </c>
-      <c r="J13" s="71">
+      <c r="J13" s="65">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="K13" s="72" t="str">
+      <c r="K13" s="66" t="str">
         <f t="shared" si="1"/>
         <v>10,17% to 13,36%</v>
       </c>
-      <c r="L13" s="73">
+      <c r="L13" s="67">
         <f t="shared" si="4"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="M13" s="74">
+      <c r="M13" s="68">
         <f t="shared" si="5"/>
         <v>0.98424369747899154</v>
       </c>
@@ -36677,27 +37442,27 @@
         <f t="shared" si="0"/>
         <v>6.707362880171952E-2</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="63">
         <f>$I$19+3*$I$23</f>
         <v>0.16554724450266167</v>
       </c>
-      <c r="I14" s="70">
+      <c r="I14" s="64">
         <f t="shared" si="2"/>
         <v>0.16554724450266167</v>
       </c>
-      <c r="J14" s="71">
+      <c r="J14" s="65">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="K14" s="72" t="str">
+      <c r="K14" s="66" t="str">
         <f t="shared" si="1"/>
         <v>13,36% to 16,55%</v>
       </c>
-      <c r="L14" s="73">
+      <c r="L14" s="67">
         <f t="shared" si="4"/>
         <v>7.3529411764705881E-3</v>
       </c>
-      <c r="M14" s="74">
+      <c r="M14" s="68">
         <f t="shared" si="5"/>
         <v>0.9915966386554621</v>
       </c>
@@ -36713,23 +37478,23 @@
         <f t="shared" si="0"/>
         <v>-3.5766716565946988E-3</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="76">
+      <c r="H15" s="69"/>
+      <c r="I15" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="70">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>8</v>
       </c>
-      <c r="K15" s="76" t="str">
+      <c r="K15" s="70" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>Greater than 16,55%</v>
       </c>
-      <c r="L15" s="77">
+      <c r="L15" s="71">
         <f t="shared" si="4"/>
         <v>8.4033613445378148E-3</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="71">
         <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
@@ -36745,8 +37510,8 @@
         <f t="shared" si="0"/>
         <v>2.7598133150498194E-2</v>
       </c>
-      <c r="H16" s="78"/>
-      <c r="M16" s="79"/>
+      <c r="H16" s="72"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
@@ -36759,11 +37524,11 @@
         <f t="shared" si="0"/>
         <v>2.6708175927015354E-2</v>
       </c>
-      <c r="H17" s="137" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="138"/>
-      <c r="M17" s="79"/>
+      <c r="H17" s="125" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="126"/>
+      <c r="M17" s="73"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
@@ -36776,9 +37541,9 @@
         <f t="shared" si="0"/>
         <v>-3.2427289180687158E-2</v>
       </c>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
-      <c r="M18" s="79"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="128"/>
+      <c r="M18" s="73"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
@@ -36791,14 +37556,14 @@
         <f t="shared" si="0"/>
         <v>-7.5466557859820149E-3</v>
       </c>
-      <c r="H19" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="117">
+      <c r="H19" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="110">
         <f>AVERAGE(D:D)</f>
         <v>5.8464912816446361E-3</v>
       </c>
-      <c r="M19" s="79"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
@@ -36811,14 +37576,14 @@
         <f t="shared" si="0"/>
         <v>1.4475263780627801E-2</v>
       </c>
-      <c r="H20" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="117">
+      <c r="H20" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="110">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>1.725310381532476E-3</v>
       </c>
-      <c r="M20" s="79"/>
+      <c r="M20" s="73"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
@@ -36831,14 +37596,14 @@
         <f t="shared" si="0"/>
         <v>1.2715406327851619E-2</v>
       </c>
-      <c r="H21" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="117">
+      <c r="H21" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="110">
         <f>MEDIAN(D:D)</f>
         <v>4.5528952995110838E-3</v>
       </c>
-      <c r="M21" s="79"/>
+      <c r="M21" s="73"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
@@ -36851,14 +37616,14 @@
         <f t="shared" si="0"/>
         <v>4.0826171559857904E-3</v>
       </c>
-      <c r="H22" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" s="117" t="e">
+      <c r="H22" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="110" t="e">
         <f>MODE(D:D)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="79"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -36871,14 +37636,14 @@
         <f t="shared" si="0"/>
         <v>6.3793971615568879E-3</v>
       </c>
-      <c r="H23" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="117">
+      <c r="H23" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="110">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>5.323358440700568E-2</v>
       </c>
-      <c r="M23" s="79"/>
+      <c r="M23" s="73"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -36891,14 +37656,14 @@
         <f t="shared" si="0"/>
         <v>2.6569891949258961E-2</v>
       </c>
-      <c r="H24" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="117">
+      <c r="H24" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="110">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>2.8338145088177983E-3</v>
       </c>
-      <c r="M24" s="79"/>
+      <c r="M24" s="73"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
@@ -36911,14 +37676,14 @@
         <f t="shared" si="0"/>
         <v>1.9636086103040462E-2</v>
       </c>
-      <c r="H25" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="118">
+      <c r="H25" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="111">
         <f>KURT(D:D)</f>
         <v>3.5788006055415194</v>
       </c>
-      <c r="M25" s="79"/>
+      <c r="M25" s="73"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
@@ -36931,14 +37696,14 @@
         <f t="shared" si="0"/>
         <v>3.9230027425389169E-2</v>
       </c>
-      <c r="H26" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" s="118">
+      <c r="H26" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="111">
         <f>SKEW(D:D)</f>
         <v>0.39195460808708005</v>
       </c>
-      <c r="M26" s="79"/>
+      <c r="M26" s="73"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -36951,14 +37716,14 @@
         <f t="shared" si="0"/>
         <v>8.1023986011165228E-2</v>
       </c>
-      <c r="H27" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="117">
+      <c r="H27" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="110">
         <f>I29-I28</f>
         <v>0.47953268469771826</v>
       </c>
-      <c r="M27" s="79"/>
+      <c r="M27" s="73"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -36971,14 +37736,14 @@
         <f t="shared" si="0"/>
         <v>3.0765851740614414E-2</v>
       </c>
-      <c r="H28" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" s="117">
+      <c r="H28" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="110">
         <f>MIN(D:D)</f>
         <v>-0.19214003354155562</v>
       </c>
-      <c r="M28" s="79"/>
+      <c r="M28" s="73"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -36991,14 +37756,14 @@
         <f t="shared" si="0"/>
         <v>2.7937456810488426E-2</v>
       </c>
-      <c r="H29" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="117">
+      <c r="H29" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="110">
         <f>MAX(D:D)</f>
         <v>0.28739265115616264</v>
       </c>
-      <c r="M29" s="79"/>
+      <c r="M29" s="73"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -37011,14 +37776,14 @@
         <f t="shared" si="0"/>
         <v>-2.2384190900534007E-2</v>
       </c>
-      <c r="H30" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="I30" s="118">
+      <c r="H30" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="111">
         <f>SUM(D:D)</f>
         <v>5.565859700125694</v>
       </c>
-      <c r="M30" s="79"/>
+      <c r="M30" s="73"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
@@ -37031,14 +37796,14 @@
         <f t="shared" si="0"/>
         <v>-5.218790078569957E-3</v>
       </c>
-      <c r="H31" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="I31" s="58">
+      <c r="H31" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="52">
         <f>COUNT(D:D)</f>
         <v>952</v>
       </c>
-      <c r="M31" s="79"/>
+      <c r="M31" s="73"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
@@ -37051,8 +37816,8 @@
         <f t="shared" si="0"/>
         <v>-2.3326118334781376E-2</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="M32" s="79"/>
+      <c r="H32" s="77"/>
+      <c r="M32" s="73"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -37065,20 +37830,20 @@
         <f t="shared" si="0"/>
         <v>-1.9304598169934573E-2</v>
       </c>
-      <c r="H33" s="84"/>
-      <c r="I33" s="85" t="s">
+      <c r="H33" s="78"/>
+      <c r="I33" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="J33" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="K33" s="85" t="s">
+      <c r="L33" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="L33" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="M33" s="79"/>
+      <c r="M33" s="73"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
@@ -37091,26 +37856,26 @@
         <f t="shared" si="0"/>
         <v>-1.6760051618035732E-2</v>
       </c>
-      <c r="H34" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" s="73">
+      <c r="H34" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="67">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>3.9781459557057579E-2</v>
       </c>
-      <c r="J34" s="71">
+      <c r="J34" s="65">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>524</v>
       </c>
-      <c r="K34" s="73">
+      <c r="K34" s="67">
         <f>J34/$I$31</f>
         <v>0.55042016806722693</v>
       </c>
-      <c r="L34" s="74">
+      <c r="L34" s="68">
         <f>K34*I34</f>
         <v>2.1896517655355222E-2</v>
       </c>
-      <c r="M34" s="79"/>
+      <c r="M34" s="73"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
@@ -37123,26 +37888,26 @@
         <f t="shared" si="0"/>
         <v>3.3477548605527208E-3</v>
       </c>
-      <c r="H35" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" s="73">
+      <c r="H35" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="67">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>-3.5700058663019882E-2</v>
       </c>
-      <c r="J35" s="71">
+      <c r="J35" s="65">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>428</v>
       </c>
-      <c r="K35" s="73">
+      <c r="K35" s="67">
         <f>J35/$I$31</f>
         <v>0.44957983193277312</v>
       </c>
-      <c r="L35" s="74">
+      <c r="L35" s="68">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>-1.605002637371062E-2</v>
       </c>
-      <c r="M35" s="79"/>
+      <c r="M35" s="73"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
@@ -37155,25 +37920,25 @@
         <f t="shared" si="0"/>
         <v>3.2944700521426951E-2</v>
       </c>
-      <c r="H36" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="76">
+      <c r="H36" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="70">
         <v>0</v>
       </c>
-      <c r="J36" s="76">
+      <c r="J36" s="70">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="89">
+      <c r="K36" s="83">
         <f>J36/$I$31</f>
         <v>0</v>
       </c>
-      <c r="L36" s="77">
+      <c r="L36" s="71">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M36" s="79"/>
+      <c r="M36" s="73"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
@@ -37186,12 +37951,12 @@
         <f t="shared" si="0"/>
         <v>1.4914600222158514E-2</v>
       </c>
-      <c r="H37" s="83"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="79"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="73"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
@@ -37204,23 +37969,23 @@
         <f t="shared" si="0"/>
         <v>1.4350556062290298E-3</v>
       </c>
-      <c r="H38" s="64" t="s">
+      <c r="H38" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="I38" s="85" t="s">
+      <c r="J38" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="J38" s="85" t="s">
+      <c r="K38" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="85" t="s">
+      <c r="L38" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="85" t="s">
+      <c r="M38" s="80" t="s">
         <v>123</v>
-      </c>
-      <c r="M38" s="86" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -37234,26 +37999,26 @@
         <f t="shared" si="0"/>
         <v>-2.3304614039685201E-2</v>
       </c>
-      <c r="H39" s="91">
+      <c r="H39" s="85">
         <v>1</v>
       </c>
-      <c r="I39" s="73">
+      <c r="I39" s="67">
         <f>$I$19+($H39*$I$23)</f>
         <v>5.9080075688650313E-2</v>
       </c>
-      <c r="J39" s="73">
+      <c r="J39" s="67">
         <f>$I$19-($H39*$I$23)</f>
         <v>-4.7387093125361046E-2</v>
       </c>
-      <c r="K39" s="71">
+      <c r="K39" s="65">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>719</v>
       </c>
-      <c r="L39" s="73">
+      <c r="L39" s="67">
         <f>K39/$I$31</f>
         <v>0.75525210084033612</v>
       </c>
-      <c r="M39" s="74">
+      <c r="M39" s="68">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -37268,26 +38033,26 @@
         <f t="shared" si="0"/>
         <v>-1.1456107528746262E-2</v>
       </c>
-      <c r="H40" s="91">
+      <c r="H40" s="85">
         <v>2</v>
       </c>
-      <c r="I40" s="73">
+      <c r="I40" s="67">
         <f>$I$19+($H40*$I$23)</f>
         <v>0.11231366009565599</v>
       </c>
-      <c r="J40" s="73">
+      <c r="J40" s="67">
         <f>$I$19-($H40*$I$23)</f>
         <v>-0.10062067753236673</v>
       </c>
-      <c r="K40" s="71">
+      <c r="K40" s="65">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>902</v>
       </c>
-      <c r="L40" s="73">
+      <c r="L40" s="67">
         <f>K40/$I$31</f>
         <v>0.94747899159663862</v>
       </c>
-      <c r="M40" s="74">
+      <c r="M40" s="68">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -37302,26 +38067,26 @@
         <f t="shared" si="0"/>
         <v>-8.8785911758254787E-2</v>
       </c>
-      <c r="H41" s="91">
+      <c r="H41" s="85">
         <v>3</v>
       </c>
-      <c r="I41" s="73">
+      <c r="I41" s="67">
         <f>$I$19+($H41*$I$23)</f>
         <v>0.16554724450266167</v>
       </c>
-      <c r="J41" s="73">
+      <c r="J41" s="67">
         <f>$I$19-($H41*$I$23)</f>
         <v>-0.15385426193937241</v>
       </c>
-      <c r="K41" s="71">
+      <c r="K41" s="65">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>936</v>
       </c>
-      <c r="L41" s="73">
+      <c r="L41" s="67">
         <f>K41/$I$31</f>
         <v>0.98319327731092432</v>
       </c>
-      <c r="M41" s="92">
+      <c r="M41" s="86">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -37336,8 +38101,8 @@
         <f t="shared" si="0"/>
         <v>2.0861164708422919E-2</v>
       </c>
-      <c r="H42" s="69"/>
-      <c r="M42" s="92"/>
+      <c r="H42" s="63"/>
+      <c r="M42" s="86"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
@@ -37350,14 +38115,14 @@
         <f t="shared" si="0"/>
         <v>-1.0339540305585704E-2</v>
       </c>
-      <c r="H43" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="142"/>
-      <c r="M43" s="143"/>
+      <c r="H43" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="131"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -37370,24 +38135,24 @@
         <f t="shared" si="0"/>
         <v>-2.8770471715754975E-2</v>
       </c>
-      <c r="H44" s="93">
+      <c r="H44" s="87">
         <v>0.01</v>
       </c>
-      <c r="I44" s="94">
+      <c r="I44" s="88">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>-0.13963534475987524</v>
       </c>
-      <c r="J44" s="95">
+      <c r="J44" s="89">
         <v>0.2</v>
       </c>
-      <c r="K44" s="94">
+      <c r="K44" s="88">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>-2.8722440581477743E-2</v>
       </c>
-      <c r="L44" s="95">
+      <c r="L44" s="89">
         <v>0.85</v>
       </c>
-      <c r="M44" s="96">
+      <c r="M44" s="90">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>5.0068868334653349E-2</v>
       </c>
@@ -37403,24 +38168,24 @@
         <f t="shared" si="0"/>
         <v>4.6641325198352179E-2</v>
       </c>
-      <c r="H45" s="97">
+      <c r="H45" s="91">
         <v>0.02</v>
       </c>
-      <c r="I45" s="98">
+      <c r="I45" s="92">
         <f t="shared" si="7"/>
         <v>-0.10522464130612222</v>
       </c>
-      <c r="J45" s="99">
+      <c r="J45" s="93">
         <v>0.25</v>
       </c>
-      <c r="K45" s="98">
+      <c r="K45" s="92">
         <f t="shared" si="8"/>
         <v>-2.0557541725992945E-2</v>
       </c>
-      <c r="L45" s="99">
+      <c r="L45" s="93">
         <v>0.86</v>
       </c>
-      <c r="M45" s="100">
+      <c r="M45" s="94">
         <f t="shared" si="9"/>
         <v>5.283703363126336E-2</v>
       </c>
@@ -37436,24 +38201,24 @@
         <f t="shared" si="0"/>
         <v>5.2928840127073329E-3</v>
       </c>
-      <c r="H46" s="97">
+      <c r="H46" s="91">
         <v>0.03</v>
       </c>
-      <c r="I46" s="98">
+      <c r="I46" s="92">
         <f t="shared" si="7"/>
         <v>-9.6625091400779795E-2</v>
       </c>
-      <c r="J46" s="99">
+      <c r="J46" s="93">
         <v>0.3</v>
       </c>
-      <c r="K46" s="98">
+      <c r="K46" s="92">
         <f t="shared" si="8"/>
         <v>-1.5533828667659143E-2</v>
       </c>
-      <c r="L46" s="99">
+      <c r="L46" s="93">
         <v>0.87</v>
       </c>
-      <c r="M46" s="100">
+      <c r="M46" s="94">
         <f t="shared" si="9"/>
         <v>5.6548731003035188E-2</v>
       </c>
@@ -37469,24 +38234,24 @@
         <f t="shared" si="0"/>
         <v>-3.7391903245593827E-3</v>
       </c>
-      <c r="H47" s="97">
+      <c r="H47" s="91">
         <v>0.04</v>
       </c>
-      <c r="I47" s="98">
+      <c r="I47" s="92">
         <f t="shared" si="7"/>
         <v>-8.5930019564668378E-2</v>
       </c>
-      <c r="J47" s="99">
+      <c r="J47" s="93">
         <v>0.35</v>
       </c>
-      <c r="K47" s="98">
+      <c r="K47" s="92">
         <f t="shared" si="8"/>
         <v>-9.4758190687603498E-3</v>
       </c>
-      <c r="L47" s="99">
+      <c r="L47" s="93">
         <v>0.88</v>
       </c>
-      <c r="M47" s="100">
+      <c r="M47" s="94">
         <f t="shared" si="9"/>
         <v>5.9393187546676024E-2</v>
       </c>
@@ -37502,24 +38267,24 @@
         <f t="shared" si="0"/>
         <v>-1.0512858027599825E-2</v>
       </c>
-      <c r="H48" s="97">
+      <c r="H48" s="91">
         <v>0.05</v>
       </c>
-      <c r="I48" s="98">
+      <c r="I48" s="92">
         <f t="shared" si="7"/>
         <v>-7.8230516010701176E-2</v>
       </c>
-      <c r="J48" s="99">
+      <c r="J48" s="93">
         <v>0.4</v>
       </c>
-      <c r="K48" s="98">
+      <c r="K48" s="92">
         <f t="shared" si="8"/>
         <v>-4.3668915405717691E-3</v>
       </c>
-      <c r="L48" s="99">
+      <c r="L48" s="93">
         <v>0.89</v>
       </c>
-      <c r="M48" s="100">
+      <c r="M48" s="94">
         <f t="shared" si="9"/>
         <v>6.292964794910387E-2</v>
       </c>
@@ -37535,24 +38300,24 @@
         <f t="shared" si="0"/>
         <v>-4.2443046977401755E-3</v>
       </c>
-      <c r="H49" s="97">
+      <c r="H49" s="91">
         <v>0.06</v>
       </c>
-      <c r="I49" s="98">
+      <c r="I49" s="92">
         <f t="shared" si="7"/>
         <v>-7.1378516151194879E-2</v>
       </c>
-      <c r="J49" s="99">
+      <c r="J49" s="93">
         <v>0.45</v>
       </c>
-      <c r="K49" s="98">
+      <c r="K49" s="92">
         <f t="shared" si="8"/>
         <v>1.4840507812594804E-4</v>
       </c>
-      <c r="L49" s="99">
+      <c r="L49" s="93">
         <v>0.9</v>
       </c>
-      <c r="M49" s="100">
+      <c r="M49" s="94">
         <f t="shared" si="9"/>
         <v>6.5923495323713804E-2</v>
       </c>
@@ -37568,24 +38333,24 @@
         <f t="shared" si="0"/>
         <v>-1.6712381177967695E-2</v>
       </c>
-      <c r="H50" s="97">
+      <c r="H50" s="91">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="98">
+      <c r="I50" s="92">
         <f t="shared" si="7"/>
         <v>-6.5322318607939633E-2</v>
       </c>
-      <c r="J50" s="99">
+      <c r="J50" s="93">
         <v>0.5</v>
       </c>
-      <c r="K50" s="98">
+      <c r="K50" s="92">
         <f t="shared" si="8"/>
         <v>4.5528952995110838E-3</v>
       </c>
-      <c r="L50" s="99">
+      <c r="L50" s="93">
         <v>0.91</v>
       </c>
-      <c r="M50" s="100">
+      <c r="M50" s="94">
         <f t="shared" si="9"/>
         <v>6.9515049071658397E-2</v>
       </c>
@@ -37601,24 +38366,24 @@
         <f t="shared" si="0"/>
         <v>2.9619220412246516E-2</v>
       </c>
-      <c r="H51" s="97">
+      <c r="H51" s="91">
         <v>0.08</v>
       </c>
-      <c r="I51" s="98">
+      <c r="I51" s="92">
         <f t="shared" si="7"/>
         <v>-6.1252198961418688E-2</v>
       </c>
-      <c r="J51" s="99">
+      <c r="J51" s="93">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="98">
+      <c r="K51" s="92">
         <f t="shared" si="8"/>
         <v>9.0881251140893533E-3</v>
       </c>
-      <c r="L51" s="99">
+      <c r="L51" s="93">
         <v>0.92</v>
       </c>
-      <c r="M51" s="100">
+      <c r="M51" s="94">
         <f t="shared" si="9"/>
         <v>7.2869618983125481E-2</v>
       </c>
@@ -37634,24 +38399,24 @@
         <f t="shared" si="0"/>
         <v>8.588876070508622E-3</v>
       </c>
-      <c r="H52" s="97">
+      <c r="H52" s="91">
         <v>0.09</v>
       </c>
-      <c r="I52" s="98">
+      <c r="I52" s="92">
         <f t="shared" si="7"/>
         <v>-5.6392062385112129E-2</v>
       </c>
-      <c r="J52" s="99">
+      <c r="J52" s="93">
         <v>0.6</v>
       </c>
-      <c r="K52" s="98">
+      <c r="K52" s="92">
         <f t="shared" si="8"/>
         <v>1.4411330052331283E-2</v>
       </c>
-      <c r="L52" s="99">
+      <c r="L52" s="93">
         <v>0.93</v>
       </c>
-      <c r="M52" s="100">
+      <c r="M52" s="94">
         <f t="shared" si="9"/>
         <v>7.6859001905260599E-2</v>
       </c>
@@ -37667,24 +38432,24 @@
         <f t="shared" si="0"/>
         <v>-1.9060636756224714E-2</v>
       </c>
-      <c r="H53" s="97">
+      <c r="H53" s="91">
         <v>0.1</v>
       </c>
-      <c r="I53" s="98">
+      <c r="I53" s="92">
         <f t="shared" si="7"/>
         <v>-5.4231114739760222E-2</v>
       </c>
-      <c r="J53" s="99">
+      <c r="J53" s="93">
         <v>0.65</v>
       </c>
-      <c r="K53" s="98">
+      <c r="K53" s="92">
         <f t="shared" si="8"/>
         <v>1.9780711991497345E-2</v>
       </c>
-      <c r="L53" s="99">
+      <c r="L53" s="93">
         <v>0.94</v>
       </c>
-      <c r="M53" s="100">
+      <c r="M53" s="94">
         <f t="shared" si="9"/>
         <v>8.3610810790687162E-2</v>
       </c>
@@ -37700,24 +38465,24 @@
         <f t="shared" si="0"/>
         <v>0.14867784277777774</v>
       </c>
-      <c r="H54" s="97">
+      <c r="H54" s="91">
         <v>0.11</v>
       </c>
-      <c r="I54" s="98">
+      <c r="I54" s="92">
         <f t="shared" si="7"/>
         <v>-5.1629087686152222E-2</v>
       </c>
-      <c r="J54" s="99">
+      <c r="J54" s="93">
         <v>0.7</v>
       </c>
-      <c r="K54" s="98">
+      <c r="K54" s="92">
         <f t="shared" si="8"/>
         <v>2.5381474811995649E-2</v>
       </c>
-      <c r="L54" s="99">
+      <c r="L54" s="93">
         <v>0.95</v>
       </c>
-      <c r="M54" s="100">
+      <c r="M54" s="94">
         <f t="shared" si="9"/>
         <v>9.0257606990814365E-2</v>
       </c>
@@ -37733,24 +38498,24 @@
         <f t="shared" si="0"/>
         <v>3.5494419410213141E-2</v>
       </c>
-      <c r="H55" s="97">
+      <c r="H55" s="91">
         <v>0.12</v>
       </c>
-      <c r="I55" s="98">
+      <c r="I55" s="92">
         <f t="shared" si="7"/>
         <v>-4.7994043994764861E-2</v>
       </c>
-      <c r="J55" s="99">
+      <c r="J55" s="93">
         <v>0.75</v>
       </c>
-      <c r="K55" s="98">
+      <c r="K55" s="92">
         <f t="shared" si="8"/>
         <v>3.2891903112417853E-2</v>
       </c>
-      <c r="L55" s="99">
+      <c r="L55" s="93">
         <v>0.96</v>
       </c>
-      <c r="M55" s="100">
+      <c r="M55" s="94">
         <f t="shared" si="9"/>
         <v>9.790962352019475E-2</v>
       </c>
@@ -37766,24 +38531,24 @@
         <f t="shared" si="0"/>
         <v>3.1503545094461849E-2</v>
       </c>
-      <c r="H56" s="97">
+      <c r="H56" s="91">
         <v>0.13</v>
       </c>
-      <c r="I56" s="98">
+      <c r="I56" s="92">
         <f t="shared" si="7"/>
         <v>-4.3488148296210047E-2</v>
       </c>
-      <c r="J56" s="99">
+      <c r="J56" s="93">
         <v>0.8</v>
       </c>
-      <c r="K56" s="98">
+      <c r="K56" s="92">
         <f t="shared" si="8"/>
         <v>3.9562115273830398E-2</v>
       </c>
-      <c r="L56" s="99">
+      <c r="L56" s="93">
         <v>0.97</v>
       </c>
-      <c r="M56" s="100">
+      <c r="M56" s="94">
         <f t="shared" si="9"/>
         <v>0.10228296300910313</v>
       </c>
@@ -37799,19 +38564,19 @@
         <f t="shared" si="0"/>
         <v>-1.3510631961250907E-2</v>
       </c>
-      <c r="H57" s="97">
+      <c r="H57" s="91">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="98">
+      <c r="I57" s="92">
         <f t="shared" si="7"/>
         <v>-4.0877342937211791E-2</v>
       </c>
-      <c r="J57" s="99"/>
-      <c r="K57" s="98"/>
-      <c r="L57" s="99">
+      <c r="J57" s="93"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="93">
         <v>0.98</v>
       </c>
-      <c r="M57" s="100">
+      <c r="M57" s="94">
         <f t="shared" si="9"/>
         <v>0.12194054740126513</v>
       </c>
@@ -37827,19 +38592,19 @@
         <f t="shared" si="0"/>
         <v>5.1740827458827132E-2</v>
       </c>
-      <c r="H58" s="101">
+      <c r="H58" s="95">
         <v>0.15</v>
       </c>
-      <c r="I58" s="102">
+      <c r="I58" s="96">
         <f t="shared" si="7"/>
         <v>-3.9013993813855397E-2</v>
       </c>
-      <c r="J58" s="103"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="104">
+      <c r="J58" s="97"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="98">
         <v>0.99</v>
       </c>
-      <c r="M58" s="105">
+      <c r="M58" s="99">
         <f t="shared" si="9"/>
         <v>0.1520839629417807</v>
       </c>
@@ -37867,10 +38632,10 @@
         <f t="shared" si="0"/>
         <v>3.7486058942004741E-2</v>
       </c>
-      <c r="H60" s="106" t="s">
-        <v>126</v>
-      </c>
-      <c r="I60" s="107"/>
+      <c r="H60" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="I60" s="101"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
@@ -37883,10 +38648,10 @@
         <f t="shared" si="0"/>
         <v>2.6960239072847614E-2</v>
       </c>
-      <c r="H61" s="108" t="s">
-        <v>127</v>
-      </c>
-      <c r="I61" s="109"/>
+      <c r="H61" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="I61" s="103"/>
     </row>
     <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
@@ -37899,7 +38664,7 @@
         <f t="shared" si="0"/>
         <v>2.2529521612339565E-2</v>
       </c>
-      <c r="H62" s="110"/>
+      <c r="H62" s="104"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
@@ -37912,10 +38677,10 @@
         <f t="shared" si="0"/>
         <v>-8.712534705254138E-2</v>
       </c>
-      <c r="H63" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="I63" s="111"/>
+      <c r="H63" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="I63" s="105"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
@@ -37928,10 +38693,10 @@
         <f t="shared" si="0"/>
         <v>2.1327256741371592E-2</v>
       </c>
-      <c r="H64" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="I64" s="113">
+      <c r="H64" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="I64" s="107">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
@@ -37947,10 +38712,10 @@
         <f t="shared" si="0"/>
         <v>-6.4431122741987479E-2</v>
       </c>
-      <c r="H65" s="108" t="s">
-        <v>130</v>
-      </c>
-      <c r="I65" s="114">
+      <c r="H65" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="I65" s="108">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>
